--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E13D832E-CDFF-4F89-A56A-546198CA5C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{01677C93-D437-43E7-8AE2-98DBEB79999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="-25170" windowWidth="12960" windowHeight="21810" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="26085" yWindow="-26430" windowWidth="12960" windowHeight="21810" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l_ce" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -981,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-  <dimension ref="A1:L267"/>
+  <dimension ref="A1:L270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1084,7 +1084,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E67" si="0">D3&amp;"_" &amp; B3 &amp; "_" &amp; C3</f>
+        <f t="shared" ref="E3:E70" si="0">D3&amp;"_" &amp; B3 &amp; "_" &amp; C3</f>
         <v>dstrb_1_1</v>
       </c>
       <c r="F3">
@@ -1139,7 +1139,7 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>25</v>
@@ -1178,7 +1178,7 @@
         <v>35</v>
       </c>
       <c r="J5">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>25</v>
@@ -1217,7 +1217,7 @@
         <v>50</v>
       </c>
       <c r="J6">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>25</v>
@@ -1256,7 +1256,7 @@
         <v>75</v>
       </c>
       <c r="J7">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>25</v>
@@ -1295,7 +1295,7 @@
         <v>100</v>
       </c>
       <c r="J8">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>25</v>
@@ -1334,7 +1334,7 @@
         <v>150</v>
       </c>
       <c r="J9">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>25</v>
@@ -1451,7 +1451,7 @@
         <v>35</v>
       </c>
       <c r="J12">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>25</v>
@@ -1490,7 +1490,7 @@
         <v>50</v>
       </c>
       <c r="J13">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>25</v>
@@ -1529,7 +1529,7 @@
         <v>75</v>
       </c>
       <c r="J14">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>25</v>
@@ -1568,7 +1568,7 @@
         <v>100</v>
       </c>
       <c r="J15">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>25</v>
@@ -1607,7 +1607,7 @@
         <v>150</v>
       </c>
       <c r="J16">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>25</v>
@@ -1666,32 +1666,32 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>b_2_1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
+        <f t="shared" ref="E18" si="2">D18&amp;"_" &amp; B18 &amp; "_" &amp; C18</f>
+        <v>dstrb_2_1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
         <v>25</v>
       </c>
-      <c r="H18">
-        <v>165</v>
-      </c>
-      <c r="I18">
-        <v>20</v>
-      </c>
-      <c r="J18">
-        <v>-25</v>
-      </c>
-      <c r="K18">
-        <v>25</v>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
       </c>
       <c r="L18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1705,26 +1705,26 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>c_2_1</v>
+        <v>b_2_1</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
+      <c r="G19">
+        <v>25</v>
       </c>
       <c r="H19">
         <v>165</v>
       </c>
       <c r="I19">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J19">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>25</v>
@@ -1744,11 +1744,11 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>d_2_1</v>
+        <v>c_2_1</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1760,10 +1760,10 @@
         <v>165</v>
       </c>
       <c r="I20">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J20">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>25</v>
@@ -1783,11 +1783,11 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>e_2_1</v>
+        <v>d_2_1</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1799,10 +1799,10 @@
         <v>165</v>
       </c>
       <c r="I21">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>25</v>
@@ -1822,11 +1822,11 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>f_2_1</v>
+        <v>e_2_1</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1838,10 +1838,10 @@
         <v>165</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J22">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>25</v>
@@ -1861,11 +1861,11 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>h_2_1</v>
+        <v>f_2_1</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1877,10 +1877,10 @@
         <v>165</v>
       </c>
       <c r="I23">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J23">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>25</v>
@@ -1897,14 +1897,14 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>i_2_2</v>
+        <v>h_2_1</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1913,13 +1913,13 @@
         <v>12</v>
       </c>
       <c r="H24">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="I24">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="J24">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>25</v>
@@ -1939,32 +1939,32 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>j_2_2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25">
-        <v>195</v>
-      </c>
-      <c r="I25">
-        <v>50</v>
-      </c>
-      <c r="J25">
+        <f t="shared" ref="E25:E26" si="3">D25&amp;"_" &amp; B25 &amp; "_" &amp; C25</f>
+        <v>a_2_2</v>
+      </c>
+      <c r="F25">
         <v>-25</v>
       </c>
-      <c r="K25">
+      <c r="G25">
         <v>25</v>
       </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
       <c r="L25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1978,32 +1978,32 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>k_2_2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26">
-        <v>195</v>
-      </c>
-      <c r="I26">
-        <v>75</v>
-      </c>
-      <c r="J26">
-        <v>-25</v>
-      </c>
-      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>dstrb_2_2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>25</v>
       </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
       <c r="L26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2017,11 +2017,11 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>l_2_2</v>
+        <v>i_2_2</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -2033,10 +2033,10 @@
         <v>195</v>
       </c>
       <c r="I27">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="J27">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>25</v>
@@ -2056,11 +2056,11 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>g_2_2</v>
+        <v>j_2_2</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -2072,10 +2072,10 @@
         <v>195</v>
       </c>
       <c r="I28">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J28">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>25</v>
@@ -2089,38 +2089,38 @@
         <v>44835</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>a_3_1</v>
-      </c>
-      <c r="F29">
-        <v>-25</v>
-      </c>
-      <c r="G29">
+        <v>k_2_2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>195</v>
+      </c>
+      <c r="I29">
+        <v>75</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>25</v>
       </c>
-      <c r="H29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" t="s">
-        <v>12</v>
-      </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2128,35 +2128,35 @@
         <v>44835</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>c_3_2</v>
-      </c>
-      <c r="F30">
-        <v>50</v>
-      </c>
-      <c r="G30">
-        <v>75</v>
-      </c>
-      <c r="H30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" t="s">
-        <v>12</v>
+        <v>l_2_2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>195</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>25</v>
       </c>
       <c r="L30" t="s">
         <v>15</v>
@@ -2167,35 +2167,35 @@
         <v>44835</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>i_3_3</v>
-      </c>
-      <c r="F31">
-        <v>50</v>
-      </c>
-      <c r="G31">
+        <v>g_2_2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>195</v>
+      </c>
+      <c r="I31">
         <v>150</v>
       </c>
-      <c r="H31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" t="s">
-        <v>12</v>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>25</v>
       </c>
       <c r="L31" t="s">
         <v>15</v>
@@ -2203,77 +2203,77 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
-        <v>44821</v>
+        <v>44835</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>e_1_1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32">
-        <v>135</v>
-      </c>
-      <c r="I32">
-        <v>20</v>
-      </c>
-      <c r="J32">
-        <v>50</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
+        <v>a_3_1</v>
+      </c>
+      <c r="F32">
+        <v>-25</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
       </c>
       <c r="L32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
-        <v>44821</v>
+        <v>44835</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>f_1_1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33">
-        <v>135</v>
-      </c>
-      <c r="I33">
-        <v>35</v>
-      </c>
-      <c r="J33">
-        <v>50</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
+        <v>c_3_2</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s">
+        <v>12</v>
       </c>
       <c r="L33" t="s">
         <v>15</v>
@@ -2281,38 +2281,38 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
-        <v>44821</v>
+        <v>44835</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>g_1_1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34">
-        <v>135</v>
-      </c>
-      <c r="I34">
-        <v>50</v>
-      </c>
-      <c r="J34">
-        <v>50</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
+        <v>i_3_3</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" t="s">
+        <v>12</v>
       </c>
       <c r="L34" t="s">
         <v>15</v>
@@ -2329,11 +2329,11 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>i_1_1</v>
+        <v>e_1_1</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -2345,7 +2345,7 @@
         <v>135</v>
       </c>
       <c r="I35">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J35">
         <v>50</v>
@@ -2365,14 +2365,14 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>a_1_2</v>
+        <v>f_1_1</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -2381,10 +2381,10 @@
         <v>12</v>
       </c>
       <c r="H36">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J36">
         <v>50</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2404,14 +2404,14 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>b_1_2</v>
+        <v>g_1_1</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -2420,10 +2420,10 @@
         <v>12</v>
       </c>
       <c r="H37">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I37">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>50</v>
@@ -2443,14 +2443,14 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>c_1_2</v>
+        <v>i_1_1</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -2459,10 +2459,10 @@
         <v>12</v>
       </c>
       <c r="H38">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I38">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J38">
         <v>50</v>
@@ -2485,11 +2485,11 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>d_1_2</v>
+        <v>a_1_2</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -2501,7 +2501,7 @@
         <v>90</v>
       </c>
       <c r="I39">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J39">
         <v>50</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2524,11 +2524,11 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>h_1_2</v>
+        <v>b_1_2</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -2540,7 +2540,7 @@
         <v>90</v>
       </c>
       <c r="I40">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J40">
         <v>50</v>
@@ -2560,14 +2560,14 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>j_1_3</v>
+        <v>c_1_2</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -2576,10 +2576,10 @@
         <v>12</v>
       </c>
       <c r="H41">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I41">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J41">
         <v>50</v>
@@ -2599,14 +2599,14 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>k_1_3</v>
+        <v>d_1_2</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2615,10 +2615,10 @@
         <v>12</v>
       </c>
       <c r="H42">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I42">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <v>50</v>
@@ -2638,14 +2638,14 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>l_1_3</v>
+        <v>h_1_2</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -2654,10 +2654,10 @@
         <v>12</v>
       </c>
       <c r="H43">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I43">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J43">
         <v>50</v>
@@ -2674,17 +2674,17 @@
         <v>44821</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>e_2_1</v>
+        <v>j_1_3</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2693,7 +2693,7 @@
         <v>12</v>
       </c>
       <c r="H44">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I44">
         <v>20</v>
@@ -2713,17 +2713,17 @@
         <v>44821</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>f_2_1</v>
+        <v>k_1_3</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -2732,7 +2732,7 @@
         <v>12</v>
       </c>
       <c r="H45">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I45">
         <v>35</v>
@@ -2752,17 +2752,17 @@
         <v>44821</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>g_2_1</v>
+        <v>l_1_3</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2771,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="H46">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I46">
         <v>50</v>
@@ -2797,11 +2797,11 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>i_2_1</v>
+        <v>e_2_1</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -2813,7 +2813,7 @@
         <v>135</v>
       </c>
       <c r="I47">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J47">
         <v>50</v>
@@ -2833,14 +2833,14 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>a_2_2</v>
+        <v>f_2_1</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -2849,10 +2849,10 @@
         <v>12</v>
       </c>
       <c r="H48">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I48">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J48">
         <v>50</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2872,14 +2872,14 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>b_2_2</v>
+        <v>g_2_1</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -2888,10 +2888,10 @@
         <v>12</v>
       </c>
       <c r="H49">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I49">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>50</v>
@@ -2911,14 +2911,14 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>c_2_2</v>
+        <v>i_2_1</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2927,10 +2927,10 @@
         <v>12</v>
       </c>
       <c r="H50">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I50">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J50">
         <v>50</v>
@@ -2953,11 +2953,11 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>d_2_2</v>
+        <v>a_2_2</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2969,7 +2969,7 @@
         <v>90</v>
       </c>
       <c r="I51">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J51">
         <v>50</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2992,11 +2992,11 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>h_2_2</v>
+        <v>b_2_2</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -3008,7 +3008,7 @@
         <v>90</v>
       </c>
       <c r="I52">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J52">
         <v>50</v>
@@ -3028,14 +3028,14 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>j_2_3</v>
+        <v>c_2_2</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -3044,10 +3044,10 @@
         <v>12</v>
       </c>
       <c r="H53">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I53">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J53">
         <v>50</v>
@@ -3067,14 +3067,14 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>k_2_3</v>
+        <v>d_2_2</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -3083,10 +3083,10 @@
         <v>12</v>
       </c>
       <c r="H54">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I54">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>50</v>
@@ -3106,14 +3106,14 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>l_2_3</v>
+        <v>h_2_2</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -3122,10 +3122,10 @@
         <v>12</v>
       </c>
       <c r="H55">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I55">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J55">
         <v>50</v>
@@ -3139,77 +3139,77 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
-        <v>44756</v>
+        <v>44821</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>a_1_1</v>
-      </c>
-      <c r="F56">
-        <v>250</v>
-      </c>
-      <c r="G56">
-        <v>-20</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" t="s">
-        <v>12</v>
-      </c>
-      <c r="K56" t="s">
-        <v>12</v>
+        <v>j_2_3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56">
+        <v>45</v>
+      </c>
+      <c r="I56">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>50</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
-        <v>44756</v>
+        <v>44821</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>b_1_1</v>
-      </c>
-      <c r="F57">
-        <v>250</v>
-      </c>
-      <c r="G57">
-        <v>50</v>
-      </c>
-      <c r="H57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K57" t="s">
-        <v>12</v>
+        <v>k_2_3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57">
+        <v>45</v>
+      </c>
+      <c r="I57">
+        <v>35</v>
+      </c>
+      <c r="J57">
+        <v>50</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
       </c>
       <c r="L57" t="s">
         <v>15</v>
@@ -3217,38 +3217,38 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
-        <v>44756</v>
+        <v>44821</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>c_1_1</v>
-      </c>
-      <c r="F58">
-        <v>250</v>
-      </c>
-      <c r="G58">
-        <v>100</v>
-      </c>
-      <c r="H58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K58" t="s">
-        <v>12</v>
+        <v>l_2_3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>45</v>
+      </c>
+      <c r="I58">
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <v>50</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
       </c>
       <c r="L58" t="s">
         <v>15</v>
@@ -3265,17 +3265,17 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>d_1_1</v>
+        <v>a_1_1</v>
       </c>
       <c r="F59">
         <v>250</v>
       </c>
       <c r="G59">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
@@ -3290,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="L59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3301,20 +3301,20 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>e_1_2</v>
+        <v>b_1_1</v>
       </c>
       <c r="F60">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G60">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
@@ -3329,7 +3329,7 @@
         <v>12</v>
       </c>
       <c r="L60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3340,20 +3340,20 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>f_1_2</v>
+        <v>c_1_1</v>
       </c>
       <c r="F61">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G61">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
@@ -3379,20 +3379,20 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>g_1_2</v>
+        <v>d_1_1</v>
       </c>
       <c r="F62">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G62">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
@@ -3421,17 +3421,17 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>h_1_2</v>
+        <v>e_1_2</v>
       </c>
       <c r="F63">
         <v>150</v>
       </c>
       <c r="G63">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
@@ -3446,7 +3446,7 @@
         <v>12</v>
       </c>
       <c r="L63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3457,20 +3457,20 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>i_1_3</v>
+        <v>f_1_2</v>
       </c>
       <c r="F64">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G64">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
@@ -3485,7 +3485,7 @@
         <v>12</v>
       </c>
       <c r="L64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3496,20 +3496,20 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>j_1_3</v>
+        <v>g_1_2</v>
       </c>
       <c r="F65">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G65">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -3535,20 +3535,20 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
-        <v>k_1_3</v>
+        <v>h_1_2</v>
       </c>
       <c r="F66">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G66">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -3577,17 +3577,17 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
-        <v>l_1_3</v>
+        <v>i_1_3</v>
       </c>
       <c r="F67">
         <v>50</v>
       </c>
       <c r="G67">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -3602,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="L67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3610,23 +3610,23 @@
         <v>44756</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:E131" si="2">D68&amp;"_" &amp; B68 &amp; "_" &amp; C68</f>
-        <v>a_2_1</v>
+        <f t="shared" si="0"/>
+        <v>j_1_3</v>
       </c>
       <c r="F68">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G68">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
@@ -3641,7 +3641,7 @@
         <v>12</v>
       </c>
       <c r="L68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3649,23 +3649,23 @@
         <v>44756</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="2"/>
-        <v>b_2_1</v>
+        <f t="shared" si="0"/>
+        <v>k_1_3</v>
       </c>
       <c r="F69">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G69">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
@@ -3688,23 +3688,23 @@
         <v>44756</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="2"/>
-        <v>c_2_1</v>
+        <f t="shared" si="0"/>
+        <v>l_1_3</v>
       </c>
       <c r="F70">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G70">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
@@ -3733,17 +3733,17 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="2"/>
-        <v>d_2_1</v>
+        <f t="shared" ref="E71:E134" si="4">D71&amp;"_" &amp; B71 &amp; "_" &amp; C71</f>
+        <v>a_2_1</v>
       </c>
       <c r="F71">
         <v>250</v>
       </c>
       <c r="G71">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -3758,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="L71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3769,20 +3769,20 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="2"/>
-        <v>e_2_2</v>
+        <f t="shared" si="4"/>
+        <v>b_2_1</v>
       </c>
       <c r="F72">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G72">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -3797,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="L72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3808,20 +3808,20 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="2"/>
-        <v>f_2_2</v>
+        <f t="shared" si="4"/>
+        <v>c_2_1</v>
       </c>
       <c r="F73">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G73">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H73" t="s">
         <v>12</v>
@@ -3847,20 +3847,20 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="2"/>
-        <v>g_2_2</v>
+        <f t="shared" si="4"/>
+        <v>d_2_1</v>
       </c>
       <c r="F74">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G74">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
@@ -3889,17 +3889,17 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="2"/>
-        <v>h_2_2</v>
+        <f t="shared" si="4"/>
+        <v>e_2_2</v>
       </c>
       <c r="F75">
         <v>150</v>
       </c>
       <c r="G75">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
@@ -3914,7 +3914,7 @@
         <v>12</v>
       </c>
       <c r="L75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3925,20 +3925,20 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="2"/>
-        <v>i_2_3</v>
+        <f t="shared" si="4"/>
+        <v>f_2_2</v>
       </c>
       <c r="F76">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G76">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
@@ -3953,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="L76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3964,20 +3964,20 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="2"/>
-        <v>j_2_3</v>
+        <f t="shared" si="4"/>
+        <v>g_2_2</v>
       </c>
       <c r="F77">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G77">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
@@ -4003,20 +4003,20 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="2"/>
-        <v>k_2_3</v>
+        <f t="shared" si="4"/>
+        <v>h_2_2</v>
       </c>
       <c r="F78">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
@@ -4045,17 +4045,17 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="2"/>
-        <v>l_2_3</v>
+        <f t="shared" si="4"/>
+        <v>i_2_3</v>
       </c>
       <c r="F79">
         <v>50</v>
       </c>
       <c r="G79">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
@@ -4070,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="L79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4078,23 +4078,23 @@
         <v>44756</v>
       </c>
       <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
         <v>3</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="2"/>
-        <v>a_3_1</v>
+        <f t="shared" si="4"/>
+        <v>j_2_3</v>
       </c>
       <c r="F80">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G80">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
@@ -4109,7 +4109,7 @@
         <v>12</v>
       </c>
       <c r="L80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4117,23 +4117,23 @@
         <v>44756</v>
       </c>
       <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
         <v>3</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="2"/>
-        <v>b_3_1</v>
+        <f t="shared" si="4"/>
+        <v>k_2_3</v>
       </c>
       <c r="F81">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G81">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
@@ -4156,23 +4156,23 @@
         <v>44756</v>
       </c>
       <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
         <v>3</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="2"/>
-        <v>c_3_1</v>
+        <f t="shared" si="4"/>
+        <v>l_2_3</v>
       </c>
       <c r="F82">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G82">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
@@ -4201,17 +4201,17 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="2"/>
-        <v>d_3_1</v>
+        <f t="shared" si="4"/>
+        <v>a_3_1</v>
       </c>
       <c r="F83">
         <v>250</v>
       </c>
       <c r="G83">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
@@ -4226,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="L83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4237,20 +4237,20 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="2"/>
-        <v>e_3_2</v>
+        <f t="shared" si="4"/>
+        <v>b_3_1</v>
       </c>
       <c r="F84">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G84">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H84" t="s">
         <v>12</v>
@@ -4265,7 +4265,7 @@
         <v>12</v>
       </c>
       <c r="L84" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4276,20 +4276,20 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="2"/>
-        <v>f_3_2</v>
+        <f t="shared" si="4"/>
+        <v>c_3_1</v>
       </c>
       <c r="F85">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G85">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
@@ -4315,20 +4315,20 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="2"/>
-        <v>g_3_2</v>
+        <f t="shared" si="4"/>
+        <v>d_3_1</v>
       </c>
       <c r="F86">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G86">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H86" t="s">
         <v>12</v>
@@ -4357,17 +4357,17 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="2"/>
-        <v>h_3_2</v>
+        <f t="shared" si="4"/>
+        <v>e_3_2</v>
       </c>
       <c r="F87">
         <v>150</v>
       </c>
       <c r="G87">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H87" t="s">
         <v>12</v>
@@ -4382,7 +4382,7 @@
         <v>12</v>
       </c>
       <c r="L87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4393,20 +4393,20 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="2"/>
-        <v>i_3_3</v>
+        <f t="shared" si="4"/>
+        <v>f_3_2</v>
       </c>
       <c r="F88">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G88">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H88" t="s">
         <v>12</v>
@@ -4421,7 +4421,7 @@
         <v>12</v>
       </c>
       <c r="L88" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4432,20 +4432,20 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="2"/>
-        <v>j_3_3</v>
+        <f t="shared" si="4"/>
+        <v>g_3_2</v>
       </c>
       <c r="F89">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G89">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H89" t="s">
         <v>12</v>
@@ -4471,20 +4471,20 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="2"/>
-        <v>k_3_3</v>
+        <f t="shared" si="4"/>
+        <v>h_3_2</v>
       </c>
       <c r="F90">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G90">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H90" t="s">
         <v>12</v>
@@ -4513,17 +4513,17 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="2"/>
-        <v>l_3_3</v>
+        <f t="shared" si="4"/>
+        <v>i_3_3</v>
       </c>
       <c r="F91">
         <v>50</v>
       </c>
       <c r="G91">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H91" t="s">
         <v>12</v>
@@ -4538,31 +4538,31 @@
         <v>12</v>
       </c>
       <c r="L91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="2"/>
-        <v>b_1_1</v>
+        <f t="shared" si="4"/>
+        <v>j_3_3</v>
       </c>
       <c r="F92">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G92">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s">
         <v>12</v>
@@ -4582,26 +4582,26 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="2"/>
-        <v>d_1_1</v>
+        <f t="shared" si="4"/>
+        <v>k_3_3</v>
       </c>
       <c r="F93">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G93">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H93" t="s">
         <v>12</v>
@@ -4621,26 +4621,26 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="2"/>
-        <v>g_1_1</v>
+        <f t="shared" si="4"/>
+        <v>l_3_3</v>
       </c>
       <c r="F94">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G94">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="H94" t="s">
         <v>12</v>
@@ -4669,14 +4669,14 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="2"/>
-        <v>c_1_1</v>
+        <f t="shared" si="4"/>
+        <v>b_1_1</v>
       </c>
       <c r="F95">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G95">
         <v>25</v>
@@ -4708,14 +4708,14 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="2"/>
-        <v>f_1_1</v>
+        <f t="shared" si="4"/>
+        <v>d_1_1</v>
       </c>
       <c r="F96">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G96">
         <v>25</v>
@@ -4741,20 +4741,20 @@
         <v>44814</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="2"/>
-        <v>b_2_1</v>
+        <f t="shared" si="4"/>
+        <v>g_1_1</v>
       </c>
       <c r="F97">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G97">
         <v>25</v>
@@ -4780,20 +4780,20 @@
         <v>44814</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="2"/>
-        <v>d_2_1</v>
+        <f t="shared" si="4"/>
+        <v>c_1_1</v>
       </c>
       <c r="F98">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G98">
         <v>25</v>
@@ -4819,20 +4819,20 @@
         <v>44814</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="2"/>
-        <v>g_2_1</v>
+        <f t="shared" si="4"/>
+        <v>f_1_1</v>
       </c>
       <c r="F99">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G99">
         <v>25</v>
@@ -4864,14 +4864,14 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="2"/>
-        <v>c_2_1</v>
+        <f t="shared" si="4"/>
+        <v>b_2_1</v>
       </c>
       <c r="F100">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G100">
         <v>25</v>
@@ -4903,14 +4903,14 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="2"/>
-        <v>f_2_1</v>
+        <f t="shared" si="4"/>
+        <v>d_2_1</v>
       </c>
       <c r="F101">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G101">
         <v>25</v>
@@ -4939,17 +4939,17 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="2"/>
-        <v>e_2_2</v>
+        <f t="shared" si="4"/>
+        <v>g_2_1</v>
       </c>
       <c r="F102">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G102">
         <v>25</v>
@@ -4978,17 +4978,17 @@
         <v>2</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="2"/>
-        <v>i_2_2</v>
+        <f t="shared" si="4"/>
+        <v>c_2_1</v>
       </c>
       <c r="F103">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G103">
         <v>25</v>
@@ -5017,17 +5017,17 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="2"/>
-        <v>l_2_2</v>
+        <f t="shared" si="4"/>
+        <v>f_2_1</v>
       </c>
       <c r="F104">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G104">
         <v>25</v>
@@ -5059,14 +5059,14 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="2"/>
-        <v>k_2_2</v>
+        <f t="shared" si="4"/>
+        <v>e_2_2</v>
       </c>
       <c r="F105">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G105">
         <v>25</v>
@@ -5098,14 +5098,14 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="2"/>
-        <v>j_2_2</v>
+        <f t="shared" si="4"/>
+        <v>i_2_2</v>
       </c>
       <c r="F106">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="G106">
         <v>25</v>
@@ -5128,26 +5128,26 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="2"/>
-        <v>a_1_1</v>
+        <f t="shared" si="4"/>
+        <v>l_2_2</v>
       </c>
       <c r="F107">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="G107">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
@@ -5162,31 +5162,31 @@
         <v>12</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="2"/>
-        <v>b_1_1</v>
+        <f t="shared" si="4"/>
+        <v>k_2_2</v>
       </c>
       <c r="F108">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="G108">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
@@ -5206,26 +5206,26 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="2"/>
-        <v>c_1_1</v>
+        <f t="shared" si="4"/>
+        <v>j_2_2</v>
       </c>
       <c r="F109">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G109">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H109" t="s">
         <v>12</v>
@@ -5254,17 +5254,17 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="2"/>
-        <v>d_1_1</v>
+        <f t="shared" si="4"/>
+        <v>a_1_1</v>
       </c>
       <c r="F110">
         <v>250</v>
       </c>
       <c r="G110">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H110" t="s">
         <v>12</v>
@@ -5279,7 +5279,7 @@
         <v>12</v>
       </c>
       <c r="L110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5290,20 +5290,20 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="2"/>
-        <v>e_1_2</v>
+        <f t="shared" si="4"/>
+        <v>b_1_1</v>
       </c>
       <c r="F111">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G111">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H111" t="s">
         <v>12</v>
@@ -5318,7 +5318,7 @@
         <v>12</v>
       </c>
       <c r="L111" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5329,20 +5329,20 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="2"/>
-        <v>f_1_2</v>
+        <f t="shared" si="4"/>
+        <v>c_1_1</v>
       </c>
       <c r="F112">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G112">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H112" t="s">
         <v>12</v>
@@ -5368,20 +5368,20 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="2"/>
-        <v>g_1_2</v>
+        <f t="shared" si="4"/>
+        <v>d_1_1</v>
       </c>
       <c r="F113">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G113">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
@@ -5410,17 +5410,17 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="2"/>
-        <v>h_1_2</v>
+        <f t="shared" si="4"/>
+        <v>e_1_2</v>
       </c>
       <c r="F114">
         <v>150</v>
       </c>
       <c r="G114">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
@@ -5435,7 +5435,7 @@
         <v>12</v>
       </c>
       <c r="L114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5446,20 +5446,20 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="2"/>
-        <v>i_1_3</v>
+        <f t="shared" si="4"/>
+        <v>f_1_2</v>
       </c>
       <c r="F115">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G115">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H115" t="s">
         <v>12</v>
@@ -5474,7 +5474,7 @@
         <v>12</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5485,20 +5485,20 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="2"/>
-        <v>j_1_3</v>
+        <f t="shared" si="4"/>
+        <v>g_1_2</v>
       </c>
       <c r="F116">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G116">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H116" t="s">
         <v>12</v>
@@ -5524,20 +5524,20 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="2"/>
-        <v>k_1_3</v>
+        <f t="shared" si="4"/>
+        <v>h_1_2</v>
       </c>
       <c r="F117">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G117">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H117" t="s">
         <v>12</v>
@@ -5566,17 +5566,17 @@
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="2"/>
-        <v>l_1_3</v>
+        <f t="shared" si="4"/>
+        <v>i_1_3</v>
       </c>
       <c r="F118">
         <v>50</v>
       </c>
       <c r="G118">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H118" t="s">
         <v>12</v>
@@ -5591,7 +5591,7 @@
         <v>12</v>
       </c>
       <c r="L118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5599,23 +5599,23 @@
         <v>44760</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="2"/>
-        <v>a_2_1</v>
+        <f t="shared" si="4"/>
+        <v>j_1_3</v>
       </c>
       <c r="F119">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G119">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H119" t="s">
         <v>12</v>
@@ -5630,7 +5630,7 @@
         <v>12</v>
       </c>
       <c r="L119" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5638,23 +5638,23 @@
         <v>44760</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="2"/>
-        <v>b_2_1</v>
+        <f t="shared" si="4"/>
+        <v>k_1_3</v>
       </c>
       <c r="F120">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G120">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H120" t="s">
         <v>12</v>
@@ -5677,23 +5677,23 @@
         <v>44760</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="2"/>
-        <v>c_2_1</v>
+        <f t="shared" si="4"/>
+        <v>l_1_3</v>
       </c>
       <c r="F121">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G121">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H121" t="s">
         <v>12</v>
@@ -5722,17 +5722,17 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="2"/>
-        <v>d_2_1</v>
+        <f t="shared" si="4"/>
+        <v>a_2_1</v>
       </c>
       <c r="F122">
         <v>250</v>
       </c>
       <c r="G122">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H122" t="s">
         <v>12</v>
@@ -5747,7 +5747,7 @@
         <v>12</v>
       </c>
       <c r="L122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5758,20 +5758,20 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="2"/>
-        <v>e_2_2</v>
+        <f t="shared" si="4"/>
+        <v>b_2_1</v>
       </c>
       <c r="F123">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G123">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
@@ -5786,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="L123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5797,20 +5797,20 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="2"/>
-        <v>f_2_2</v>
+        <f t="shared" si="4"/>
+        <v>c_2_1</v>
       </c>
       <c r="F124">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G124">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H124" t="s">
         <v>12</v>
@@ -5836,20 +5836,20 @@
         <v>2</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="2"/>
-        <v>g_2_2</v>
+        <f t="shared" si="4"/>
+        <v>d_2_1</v>
       </c>
       <c r="F125">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G125">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H125" t="s">
         <v>12</v>
@@ -5878,17 +5878,17 @@
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="2"/>
-        <v>h_2_2</v>
+        <f t="shared" si="4"/>
+        <v>e_2_2</v>
       </c>
       <c r="F126">
         <v>150</v>
       </c>
       <c r="G126">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H126" t="s">
         <v>12</v>
@@ -5903,7 +5903,7 @@
         <v>12</v>
       </c>
       <c r="L126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5914,20 +5914,20 @@
         <v>2</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="2"/>
-        <v>i_2_3</v>
+        <f t="shared" si="4"/>
+        <v>f_2_2</v>
       </c>
       <c r="F127">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G127">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H127" t="s">
         <v>12</v>
@@ -5942,7 +5942,7 @@
         <v>12</v>
       </c>
       <c r="L127" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5953,20 +5953,20 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="2"/>
-        <v>j_2_3</v>
+        <f t="shared" si="4"/>
+        <v>g_2_2</v>
       </c>
       <c r="F128">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G128">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H128" t="s">
         <v>12</v>
@@ -5992,20 +5992,20 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="2"/>
-        <v>k_2_3</v>
+        <f t="shared" si="4"/>
+        <v>h_2_2</v>
       </c>
       <c r="F129">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G129">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H129" t="s">
         <v>12</v>
@@ -6034,17 +6034,17 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="2"/>
-        <v>l_2_3</v>
+        <f t="shared" si="4"/>
+        <v>i_2_3</v>
       </c>
       <c r="F130">
         <v>50</v>
       </c>
       <c r="G130">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H130" t="s">
         <v>12</v>
@@ -6059,7 +6059,7 @@
         <v>12</v>
       </c>
       <c r="L130" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6067,23 +6067,23 @@
         <v>44760</v>
       </c>
       <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
         <v>3</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="2"/>
-        <v>a_3_1</v>
+        <f t="shared" si="4"/>
+        <v>j_2_3</v>
       </c>
       <c r="F131">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G131">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H131" t="s">
         <v>12</v>
@@ -6098,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="L131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6106,23 +6106,23 @@
         <v>44760</v>
       </c>
       <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
         <v>3</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" ref="E132:E195" si="3">D132&amp;"_" &amp; B132 &amp; "_" &amp; C132</f>
-        <v>b_3_1</v>
+        <f t="shared" si="4"/>
+        <v>k_2_3</v>
       </c>
       <c r="F132">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G132">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H132" t="s">
         <v>12</v>
@@ -6145,23 +6145,23 @@
         <v>44760</v>
       </c>
       <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
         <v>3</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="3"/>
-        <v>c_3_1</v>
+        <f t="shared" si="4"/>
+        <v>l_2_3</v>
       </c>
       <c r="F133">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G133">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H133" t="s">
         <v>12</v>
@@ -6190,17 +6190,17 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="3"/>
-        <v>d_3_1</v>
+        <f t="shared" si="4"/>
+        <v>a_3_1</v>
       </c>
       <c r="F134">
         <v>250</v>
       </c>
       <c r="G134">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H134" t="s">
         <v>12</v>
@@ -6215,7 +6215,7 @@
         <v>12</v>
       </c>
       <c r="L134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6226,20 +6226,20 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="3"/>
-        <v>e_3_2</v>
+        <f t="shared" ref="E135:E198" si="5">D135&amp;"_" &amp; B135 &amp; "_" &amp; C135</f>
+        <v>b_3_1</v>
       </c>
       <c r="F135">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G135">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H135" t="s">
         <v>12</v>
@@ -6254,7 +6254,7 @@
         <v>12</v>
       </c>
       <c r="L135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6265,20 +6265,20 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="3"/>
-        <v>f_3_2</v>
+        <f t="shared" si="5"/>
+        <v>c_3_1</v>
       </c>
       <c r="F136">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G136">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H136" t="s">
         <v>12</v>
@@ -6304,20 +6304,20 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="3"/>
-        <v>g_3_2</v>
+        <f t="shared" si="5"/>
+        <v>d_3_1</v>
       </c>
       <c r="F137">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G137">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H137" t="s">
         <v>12</v>
@@ -6346,17 +6346,17 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="3"/>
-        <v>h_3_2</v>
+        <f t="shared" si="5"/>
+        <v>e_3_2</v>
       </c>
       <c r="F138">
         <v>150</v>
       </c>
       <c r="G138">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H138" t="s">
         <v>12</v>
@@ -6371,7 +6371,7 @@
         <v>12</v>
       </c>
       <c r="L138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6382,20 +6382,20 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="3"/>
-        <v>i_3_3</v>
+        <f t="shared" si="5"/>
+        <v>f_3_2</v>
       </c>
       <c r="F139">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G139">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H139" t="s">
         <v>12</v>
@@ -6410,7 +6410,7 @@
         <v>12</v>
       </c>
       <c r="L139" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6421,20 +6421,20 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="3"/>
-        <v>j_3_3</v>
+        <f t="shared" si="5"/>
+        <v>g_3_2</v>
       </c>
       <c r="F140">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G140">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H140" t="s">
         <v>12</v>
@@ -6460,20 +6460,20 @@
         <v>3</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="3"/>
-        <v>k_3_3</v>
+        <f t="shared" si="5"/>
+        <v>h_3_2</v>
       </c>
       <c r="F141">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G141">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H141" t="s">
         <v>12</v>
@@ -6502,17 +6502,17 @@
         <v>3</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="3"/>
-        <v>l_3_3</v>
+        <f t="shared" si="5"/>
+        <v>i_3_3</v>
       </c>
       <c r="F142">
         <v>50</v>
       </c>
       <c r="G142">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
@@ -6527,82 +6527,82 @@
         <v>12</v>
       </c>
       <c r="L142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="3"/>
-        <v>a_1_1</v>
-      </c>
-      <c r="F143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143">
-        <v>-30</v>
-      </c>
-      <c r="I143">
-        <v>20</v>
-      </c>
-      <c r="J143">
-        <v>100</v>
-      </c>
-      <c r="K143">
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>j_3_3</v>
+      </c>
+      <c r="F143">
+        <v>50</v>
+      </c>
+      <c r="G143">
+        <v>50</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" t="s">
+        <v>12</v>
+      </c>
+      <c r="J143" t="s">
+        <v>12</v>
+      </c>
+      <c r="K143" t="s">
+        <v>12</v>
       </c>
       <c r="L143" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="3"/>
-        <v>b_1_1</v>
-      </c>
-      <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
-      <c r="H144">
-        <v>150</v>
-      </c>
-      <c r="I144">
-        <v>50</v>
-      </c>
-      <c r="J144">
+        <f t="shared" si="5"/>
+        <v>k_3_3</v>
+      </c>
+      <c r="F144">
+        <v>50</v>
+      </c>
+      <c r="G144">
         <v>100</v>
       </c>
-      <c r="K144">
-        <v>25</v>
+      <c r="H144" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" t="s">
+        <v>12</v>
+      </c>
+      <c r="K144" t="s">
+        <v>12</v>
       </c>
       <c r="L144" t="s">
         <v>15</v>
@@ -6610,38 +6610,38 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="3"/>
-        <v>c_1_1</v>
-      </c>
-      <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145">
-        <v>150</v>
-      </c>
-      <c r="I145">
-        <v>20</v>
-      </c>
-      <c r="J145">
-        <v>100</v>
-      </c>
-      <c r="K145">
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>l_3_3</v>
+      </c>
+      <c r="F145">
+        <v>50</v>
+      </c>
+      <c r="G145">
+        <v>200</v>
+      </c>
+      <c r="H145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" t="s">
+        <v>12</v>
+      </c>
+      <c r="J145" t="s">
+        <v>12</v>
+      </c>
+      <c r="K145" t="s">
+        <v>12</v>
       </c>
       <c r="L145" t="s">
         <v>15</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -6658,29 +6658,29 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="5"/>
+        <v>a_1_1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146">
+        <v>-30</v>
+      </c>
+      <c r="I146">
         <v>20</v>
       </c>
-      <c r="E146" t="str">
-        <f t="shared" si="3"/>
-        <v>h_1_1</v>
-      </c>
-      <c r="F146">
-        <v>250</v>
-      </c>
-      <c r="G146">
-        <v>-20</v>
-      </c>
-      <c r="H146" t="s">
-        <v>12</v>
-      </c>
-      <c r="I146" t="s">
-        <v>12</v>
-      </c>
-      <c r="J146" t="s">
-        <v>12</v>
-      </c>
-      <c r="K146" t="s">
-        <v>12</v>
+      <c r="J146">
+        <v>100</v>
+      </c>
+      <c r="K146">
+        <v>25</v>
       </c>
       <c r="L146" t="s">
         <v>13</v>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6700,26 +6700,26 @@
         <v>14</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>b_1_1</v>
       </c>
-      <c r="F147">
-        <v>250</v>
-      </c>
-      <c r="G147">
-        <v>20</v>
-      </c>
-      <c r="H147" t="s">
-        <v>12</v>
-      </c>
-      <c r="I147" t="s">
-        <v>12</v>
-      </c>
-      <c r="J147" t="s">
-        <v>12</v>
-      </c>
-      <c r="K147" t="s">
-        <v>12</v>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147">
+        <v>150</v>
+      </c>
+      <c r="I147">
+        <v>50</v>
+      </c>
+      <c r="J147">
+        <v>100</v>
+      </c>
+      <c r="K147">
+        <v>25</v>
       </c>
       <c r="L147" t="s">
         <v>15</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -6739,26 +6739,26 @@
         <v>16</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>c_1_1</v>
       </c>
-      <c r="F148">
-        <v>250</v>
-      </c>
-      <c r="G148">
-        <v>35</v>
-      </c>
-      <c r="H148" t="s">
-        <v>12</v>
-      </c>
-      <c r="I148" t="s">
-        <v>12</v>
-      </c>
-      <c r="J148" t="s">
-        <v>12</v>
-      </c>
-      <c r="K148" t="s">
-        <v>12</v>
+      <c r="F148" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148">
+        <v>150</v>
+      </c>
+      <c r="I148">
+        <v>20</v>
+      </c>
+      <c r="J148">
+        <v>100</v>
+      </c>
+      <c r="K148">
+        <v>25</v>
       </c>
       <c r="L148" t="s">
         <v>15</v>
@@ -6775,17 +6775,17 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="3"/>
-        <v>d_1_1</v>
+        <f t="shared" si="5"/>
+        <v>h_1_1</v>
       </c>
       <c r="F149">
         <v>250</v>
       </c>
       <c r="G149">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H149" t="s">
         <v>12</v>
@@ -6800,7 +6800,7 @@
         <v>12</v>
       </c>
       <c r="L149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6811,20 +6811,20 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="3"/>
-        <v>e_1_2</v>
+        <f t="shared" si="5"/>
+        <v>b_1_1</v>
       </c>
       <c r="F150">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G150">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="H150" t="s">
         <v>12</v>
@@ -6839,7 +6839,7 @@
         <v>12</v>
       </c>
       <c r="L150" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6850,20 +6850,20 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="3"/>
-        <v>f_1_2</v>
+        <f t="shared" si="5"/>
+        <v>c_1_1</v>
       </c>
       <c r="F151">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G151">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H151" t="s">
         <v>12</v>
@@ -6889,20 +6889,20 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="3"/>
-        <v>g_1_2</v>
+        <f t="shared" si="5"/>
+        <v>d_1_1</v>
       </c>
       <c r="F152">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G152">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H152" t="s">
         <v>12</v>
@@ -6931,17 +6931,17 @@
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="3"/>
-        <v>a_1_2</v>
+        <f t="shared" si="5"/>
+        <v>e_1_2</v>
       </c>
       <c r="F153">
         <v>150</v>
       </c>
       <c r="G153">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H153" t="s">
         <v>12</v>
@@ -6956,7 +6956,7 @@
         <v>12</v>
       </c>
       <c r="L153" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6967,20 +6967,20 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="3"/>
-        <v>i_1_3</v>
+        <f t="shared" si="5"/>
+        <v>f_1_2</v>
       </c>
       <c r="F154">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G154">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
@@ -6995,7 +6995,7 @@
         <v>12</v>
       </c>
       <c r="L154" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7006,20 +7006,20 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="3"/>
-        <v>j_1_3</v>
+        <f t="shared" si="5"/>
+        <v>g_1_2</v>
       </c>
       <c r="F155">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G155">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
@@ -7045,20 +7045,20 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="3"/>
-        <v>k_1_3</v>
+        <f t="shared" si="5"/>
+        <v>a_1_2</v>
       </c>
       <c r="F156">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G156">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H156" t="s">
         <v>12</v>
@@ -7087,17 +7087,17 @@
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="3"/>
-        <v>l_1_3</v>
+        <f t="shared" si="5"/>
+        <v>i_1_3</v>
       </c>
       <c r="F157">
         <v>50</v>
       </c>
       <c r="G157">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
@@ -7112,7 +7112,7 @@
         <v>12</v>
       </c>
       <c r="L157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7120,24 +7120,24 @@
         <v>44800</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="5"/>
+        <v>j_1_3</v>
+      </c>
+      <c r="F158">
+        <v>50</v>
+      </c>
+      <c r="G158">
         <v>20</v>
       </c>
-      <c r="E158" t="str">
-        <f t="shared" si="3"/>
-        <v>h_2_1</v>
-      </c>
-      <c r="F158">
-        <v>250</v>
-      </c>
-      <c r="G158">
-        <v>-20</v>
-      </c>
       <c r="H158" t="s">
         <v>12</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>12</v>
       </c>
       <c r="L158" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7159,23 +7159,23 @@
         <v>44800</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="3"/>
-        <v>b_2_1</v>
+        <f t="shared" si="5"/>
+        <v>k_1_3</v>
       </c>
       <c r="F159">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G159">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H159" t="s">
         <v>12</v>
@@ -7198,23 +7198,23 @@
         <v>44800</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="3"/>
-        <v>c_2_1</v>
+        <f t="shared" si="5"/>
+        <v>l_1_3</v>
       </c>
       <c r="F160">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G160">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H160" t="s">
         <v>12</v>
@@ -7243,17 +7243,17 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="3"/>
-        <v>d_2_1</v>
+        <f t="shared" si="5"/>
+        <v>h_2_1</v>
       </c>
       <c r="F161">
         <v>250</v>
       </c>
       <c r="G161">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H161" t="s">
         <v>12</v>
@@ -7268,7 +7268,7 @@
         <v>12</v>
       </c>
       <c r="L161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7279,20 +7279,20 @@
         <v>2</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="3"/>
-        <v>e_2_2</v>
+        <f t="shared" si="5"/>
+        <v>b_2_1</v>
       </c>
       <c r="F162">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G162">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="H162" t="s">
         <v>12</v>
@@ -7307,7 +7307,7 @@
         <v>12</v>
       </c>
       <c r="L162" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7318,20 +7318,20 @@
         <v>2</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="3"/>
-        <v>f_2_2</v>
+        <f t="shared" si="5"/>
+        <v>c_2_1</v>
       </c>
       <c r="F163">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G163">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H163" t="s">
         <v>12</v>
@@ -7357,20 +7357,20 @@
         <v>2</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="3"/>
-        <v>g_2_2</v>
+        <f t="shared" si="5"/>
+        <v>d_2_1</v>
       </c>
       <c r="F164">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G164">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H164" t="s">
         <v>12</v>
@@ -7399,17 +7399,17 @@
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="3"/>
-        <v>a_2_2</v>
+        <f t="shared" si="5"/>
+        <v>e_2_2</v>
       </c>
       <c r="F165">
         <v>150</v>
       </c>
       <c r="G165">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H165" t="s">
         <v>12</v>
@@ -7424,7 +7424,7 @@
         <v>12</v>
       </c>
       <c r="L165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7435,20 +7435,20 @@
         <v>2</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="3"/>
-        <v>i_2_3</v>
+        <f t="shared" si="5"/>
+        <v>f_2_2</v>
       </c>
       <c r="F166">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G166">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="H166" t="s">
         <v>12</v>
@@ -7463,7 +7463,7 @@
         <v>12</v>
       </c>
       <c r="L166" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7474,20 +7474,20 @@
         <v>2</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="3"/>
-        <v>j_2_3</v>
+        <f t="shared" si="5"/>
+        <v>g_2_2</v>
       </c>
       <c r="F167">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G167">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H167" t="s">
         <v>12</v>
@@ -7513,20 +7513,20 @@
         <v>2</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="3"/>
-        <v>k_2_3</v>
+        <f t="shared" si="5"/>
+        <v>a_2_2</v>
       </c>
       <c r="F168">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G168">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H168" t="s">
         <v>12</v>
@@ -7555,17 +7555,17 @@
         <v>3</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="3"/>
-        <v>l_2_3</v>
+        <f t="shared" si="5"/>
+        <v>i_2_3</v>
       </c>
       <c r="F169">
         <v>50</v>
       </c>
       <c r="G169">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H169" t="s">
         <v>12</v>
@@ -7580,7 +7580,7 @@
         <v>12</v>
       </c>
       <c r="L169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7588,24 +7588,24 @@
         <v>44800</v>
       </c>
       <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
         <v>3</v>
       </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
       <c r="D170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="5"/>
+        <v>j_2_3</v>
+      </c>
+      <c r="F170">
+        <v>50</v>
+      </c>
+      <c r="G170">
         <v>20</v>
       </c>
-      <c r="E170" t="str">
-        <f t="shared" si="3"/>
-        <v>h_3_1</v>
-      </c>
-      <c r="F170">
-        <v>250</v>
-      </c>
-      <c r="G170">
-        <v>-20</v>
-      </c>
       <c r="H170" t="s">
         <v>12</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>12</v>
       </c>
       <c r="L170" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7627,23 +7627,23 @@
         <v>44800</v>
       </c>
       <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
         <v>3</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="3"/>
-        <v>b_3_1</v>
+        <f t="shared" si="5"/>
+        <v>k_2_3</v>
       </c>
       <c r="F171">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G171">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H171" t="s">
         <v>12</v>
@@ -7666,23 +7666,23 @@
         <v>44800</v>
       </c>
       <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
         <v>3</v>
       </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="3"/>
-        <v>c_3_1</v>
+        <f t="shared" si="5"/>
+        <v>l_2_3</v>
       </c>
       <c r="F172">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G172">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
@@ -7711,17 +7711,17 @@
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="3"/>
-        <v>d_3_1</v>
+        <f t="shared" si="5"/>
+        <v>h_3_1</v>
       </c>
       <c r="F173">
         <v>250</v>
       </c>
       <c r="G173">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H173" t="s">
         <v>12</v>
@@ -7736,7 +7736,7 @@
         <v>12</v>
       </c>
       <c r="L173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7747,20 +7747,20 @@
         <v>3</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="3"/>
-        <v>e_3_2</v>
+        <f t="shared" si="5"/>
+        <v>b_3_1</v>
       </c>
       <c r="F174">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G174">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="H174" t="s">
         <v>12</v>
@@ -7775,7 +7775,7 @@
         <v>12</v>
       </c>
       <c r="L174" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7786,20 +7786,20 @@
         <v>3</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="3"/>
-        <v>f_3_2</v>
+        <f t="shared" si="5"/>
+        <v>c_3_1</v>
       </c>
       <c r="F175">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G175">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H175" t="s">
         <v>12</v>
@@ -7825,20 +7825,20 @@
         <v>3</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="3"/>
-        <v>g_3_2</v>
+        <f t="shared" si="5"/>
+        <v>d_3_1</v>
       </c>
       <c r="F176">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G176">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H176" t="s">
         <v>12</v>
@@ -7867,17 +7867,17 @@
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="3"/>
-        <v>a_3_2</v>
+        <f t="shared" si="5"/>
+        <v>e_3_2</v>
       </c>
       <c r="F177">
         <v>150</v>
       </c>
       <c r="G177">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H177" t="s">
         <v>12</v>
@@ -7892,7 +7892,7 @@
         <v>12</v>
       </c>
       <c r="L177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7903,20 +7903,20 @@
         <v>3</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="3"/>
-        <v>i_3_3</v>
+        <f t="shared" si="5"/>
+        <v>f_3_2</v>
       </c>
       <c r="F178">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G178">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="H178" t="s">
         <v>12</v>
@@ -7931,7 +7931,7 @@
         <v>12</v>
       </c>
       <c r="L178" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7942,20 +7942,20 @@
         <v>3</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="3"/>
-        <v>j_3_3</v>
+        <f t="shared" si="5"/>
+        <v>g_3_2</v>
       </c>
       <c r="F179">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G179">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H179" t="s">
         <v>12</v>
@@ -7981,20 +7981,20 @@
         <v>3</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="3"/>
-        <v>k_3_3</v>
+        <f t="shared" si="5"/>
+        <v>a_3_2</v>
       </c>
       <c r="F180">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G180">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H180" t="s">
         <v>12</v>
@@ -8023,17 +8023,17 @@
         <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="3"/>
-        <v>l_3_3</v>
+        <f t="shared" si="5"/>
+        <v>i_3_3</v>
       </c>
       <c r="F181">
         <v>50</v>
       </c>
       <c r="G181">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H181" t="s">
         <v>12</v>
@@ -8048,31 +8048,31 @@
         <v>12</v>
       </c>
       <c r="L181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="3"/>
-        <v>a_1_1</v>
+        <f t="shared" si="5"/>
+        <v>j_3_3</v>
       </c>
       <c r="F182">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="G182">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H182" t="s">
         <v>12</v>
@@ -8087,31 +8087,31 @@
         <v>12</v>
       </c>
       <c r="L182" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="3"/>
-        <v>b_1_1</v>
+        <f t="shared" si="5"/>
+        <v>k_3_3</v>
       </c>
       <c r="F183">
         <v>50</v>
       </c>
       <c r="G183">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H183" t="s">
         <v>12</v>
@@ -8131,26 +8131,26 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="3"/>
-        <v>c_1_1</v>
+        <f t="shared" si="5"/>
+        <v>l_3_3</v>
       </c>
       <c r="F184">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G184">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H184" t="s">
         <v>12</v>
@@ -8179,17 +8179,17 @@
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="3"/>
-        <v>d_1_1</v>
+        <f t="shared" si="5"/>
+        <v>a_1_1</v>
       </c>
       <c r="F185">
-        <v>250</v>
+        <v>-25</v>
       </c>
       <c r="G185">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H185" t="s">
         <v>12</v>
@@ -8204,7 +8204,7 @@
         <v>12</v>
       </c>
       <c r="L185" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8215,20 +8215,20 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="3"/>
-        <v>e_1_2</v>
+        <f t="shared" si="5"/>
+        <v>b_1_1</v>
       </c>
       <c r="F186">
         <v>50</v>
       </c>
       <c r="G186">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H186" t="s">
         <v>12</v>
@@ -8254,20 +8254,20 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="3"/>
-        <v>f_1_2</v>
+        <f t="shared" si="5"/>
+        <v>c_1_1</v>
       </c>
       <c r="F187">
         <v>150</v>
       </c>
       <c r="G187">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H187" t="s">
         <v>12</v>
@@ -8293,20 +8293,20 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="3"/>
-        <v>g_1_2</v>
+        <f t="shared" si="5"/>
+        <v>d_1_1</v>
       </c>
       <c r="F188">
         <v>250</v>
       </c>
       <c r="G188">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H188" t="s">
         <v>12</v>
@@ -8329,23 +8329,23 @@
         <v>44839</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="3"/>
-        <v>a_2_1</v>
+        <f t="shared" si="5"/>
+        <v>e_1_2</v>
       </c>
       <c r="F189">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="G189">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H189" t="s">
         <v>12</v>
@@ -8360,7 +8360,7 @@
         <v>12</v>
       </c>
       <c r="L189" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8368,23 +8368,23 @@
         <v>44839</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="3"/>
-        <v>b_2_1</v>
+        <f t="shared" si="5"/>
+        <v>f_1_2</v>
       </c>
       <c r="F190">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G190">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H190" t="s">
         <v>12</v>
@@ -8407,23 +8407,23 @@
         <v>44839</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="3"/>
-        <v>c_2_1</v>
+        <f t="shared" si="5"/>
+        <v>g_1_2</v>
       </c>
       <c r="F191">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G191">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H191" t="s">
         <v>12</v>
@@ -8452,17 +8452,17 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="3"/>
-        <v>d_2_1</v>
+        <f t="shared" si="5"/>
+        <v>a_2_1</v>
       </c>
       <c r="F192">
-        <v>250</v>
+        <v>-25</v>
       </c>
       <c r="G192">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H192" t="s">
         <v>12</v>
@@ -8477,7 +8477,7 @@
         <v>12</v>
       </c>
       <c r="L192" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8488,20 +8488,20 @@
         <v>2</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="3"/>
-        <v>e_2_2</v>
+        <f t="shared" si="5"/>
+        <v>b_2_1</v>
       </c>
       <c r="F193">
         <v>50</v>
       </c>
       <c r="G193">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H193" t="s">
         <v>12</v>
@@ -8527,20 +8527,20 @@
         <v>2</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" si="3"/>
-        <v>f_2_2</v>
+        <f t="shared" si="5"/>
+        <v>c_2_1</v>
       </c>
       <c r="F194">
         <v>150</v>
       </c>
       <c r="G194">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H194" t="s">
         <v>12</v>
@@ -8566,20 +8566,20 @@
         <v>2</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" si="3"/>
-        <v>g_2_2</v>
+        <f t="shared" si="5"/>
+        <v>d_2_1</v>
       </c>
       <c r="F195">
         <v>250</v>
       </c>
       <c r="G195">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H195" t="s">
         <v>12</v>
@@ -8599,26 +8599,26 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" ref="E196:E259" si="4">D196&amp;"_" &amp; B196 &amp; "_" &amp; C196</f>
-        <v>a_1_1</v>
+        <f t="shared" si="5"/>
+        <v>e_2_2</v>
       </c>
       <c r="F196">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G196">
-        <v>-20</v>
+        <v>75</v>
       </c>
       <c r="H196" t="s">
         <v>12</v>
@@ -8633,31 +8633,31 @@
         <v>12</v>
       </c>
       <c r="L196" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="4"/>
-        <v>b_1_1</v>
+        <f t="shared" si="5"/>
+        <v>f_2_2</v>
       </c>
       <c r="F197">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G197">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H197" t="s">
         <v>12</v>
@@ -8677,26 +8677,26 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="4"/>
-        <v>c_1_1</v>
+        <f t="shared" si="5"/>
+        <v>g_2_2</v>
       </c>
       <c r="F198">
         <v>250</v>
       </c>
       <c r="G198">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H198" t="s">
         <v>12</v>
@@ -8725,17 +8725,17 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="4"/>
-        <v>h_1_1</v>
+        <f t="shared" ref="E199:E262" si="6">D199&amp;"_" &amp; B199 &amp; "_" &amp; C199</f>
+        <v>a_1_1</v>
       </c>
       <c r="F199">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G199">
-        <v>150</v>
+        <v>-20</v>
       </c>
       <c r="H199" t="s">
         <v>12</v>
@@ -8750,7 +8750,7 @@
         <v>12</v>
       </c>
       <c r="L199" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8761,20 +8761,20 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="4"/>
-        <v>e_1_2</v>
+        <f t="shared" si="6"/>
+        <v>b_1_1</v>
       </c>
       <c r="F200">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G200">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H200" t="s">
         <v>12</v>
@@ -8800,20 +8800,20 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="4"/>
-        <v>f_1_2</v>
+        <f t="shared" si="6"/>
+        <v>c_1_1</v>
       </c>
       <c r="F201">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G201">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H201" t="s">
         <v>12</v>
@@ -8839,20 +8839,20 @@
         <v>1</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="4"/>
-        <v>g_1_2</v>
+        <f t="shared" si="6"/>
+        <v>h_1_1</v>
       </c>
       <c r="F202">
+        <v>250</v>
+      </c>
+      <c r="G202">
         <v>150</v>
-      </c>
-      <c r="G202">
-        <v>100</v>
       </c>
       <c r="H202" t="s">
         <v>12</v>
@@ -8881,17 +8881,17 @@
         <v>2</v>
       </c>
       <c r="D203" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="4"/>
-        <v>d_1_2</v>
+        <f t="shared" si="6"/>
+        <v>e_1_2</v>
       </c>
       <c r="F203">
         <v>150</v>
       </c>
       <c r="G203">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H203" t="s">
         <v>12</v>
@@ -8917,20 +8917,20 @@
         <v>1</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="4"/>
-        <v>i_1_3</v>
+        <f t="shared" si="6"/>
+        <v>f_1_2</v>
       </c>
       <c r="F204">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G204">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H204" t="s">
         <v>12</v>
@@ -8956,20 +8956,20 @@
         <v>1</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D205" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E205" t="str">
-        <f t="shared" si="4"/>
-        <v>j_1_3</v>
+        <f t="shared" si="6"/>
+        <v>g_1_2</v>
       </c>
       <c r="F205">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G205">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H205" t="s">
         <v>12</v>
@@ -8995,20 +8995,20 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="4"/>
-        <v>k_1_3</v>
+        <f t="shared" si="6"/>
+        <v>d_1_2</v>
       </c>
       <c r="F206">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G206">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H206" t="s">
         <v>12</v>
@@ -9037,17 +9037,17 @@
         <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="4"/>
-        <v>l_1_3</v>
+        <f t="shared" si="6"/>
+        <v>i_1_3</v>
       </c>
       <c r="F207">
         <v>50</v>
       </c>
       <c r="G207">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H207" t="s">
         <v>12</v>
@@ -9070,23 +9070,23 @@
         <v>44849</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="4"/>
-        <v>a_2_1</v>
+        <f t="shared" si="6"/>
+        <v>j_1_3</v>
       </c>
       <c r="F208">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G208">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H208" t="s">
         <v>12</v>
@@ -9101,7 +9101,7 @@
         <v>12</v>
       </c>
       <c r="L208" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9109,23 +9109,23 @@
         <v>44849</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="4"/>
-        <v>b_2_1</v>
+        <f t="shared" si="6"/>
+        <v>k_1_3</v>
       </c>
       <c r="F209">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G209">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H209" t="s">
         <v>12</v>
@@ -9148,23 +9148,23 @@
         <v>44849</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="4"/>
-        <v>c_2_1</v>
+        <f t="shared" si="6"/>
+        <v>l_1_3</v>
       </c>
       <c r="F210">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G210">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H210" t="s">
         <v>12</v>
@@ -9193,17 +9193,17 @@
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E211" t="str">
-        <f t="shared" si="4"/>
-        <v>h_2_1</v>
+        <f t="shared" si="6"/>
+        <v>a_2_1</v>
       </c>
       <c r="F211">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G211">
-        <v>150</v>
+        <v>-20</v>
       </c>
       <c r="H211" t="s">
         <v>12</v>
@@ -9218,7 +9218,7 @@
         <v>12</v>
       </c>
       <c r="L211" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9229,20 +9229,20 @@
         <v>2</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E212" t="str">
-        <f t="shared" si="4"/>
-        <v>e_2_2</v>
+        <f t="shared" si="6"/>
+        <v>b_2_1</v>
       </c>
       <c r="F212">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G212">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H212" t="s">
         <v>12</v>
@@ -9268,20 +9268,20 @@
         <v>2</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E213" t="str">
-        <f t="shared" si="4"/>
-        <v>f_2_2</v>
+        <f t="shared" si="6"/>
+        <v>c_2_1</v>
       </c>
       <c r="F213">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G213">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H213" t="s">
         <v>12</v>
@@ -9307,20 +9307,20 @@
         <v>2</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="4"/>
-        <v>g_2_2</v>
+        <f t="shared" si="6"/>
+        <v>h_2_1</v>
       </c>
       <c r="F214">
+        <v>250</v>
+      </c>
+      <c r="G214">
         <v>150</v>
-      </c>
-      <c r="G214">
-        <v>100</v>
       </c>
       <c r="H214" t="s">
         <v>12</v>
@@ -9349,17 +9349,17 @@
         <v>2</v>
       </c>
       <c r="D215" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E215" t="str">
-        <f t="shared" si="4"/>
-        <v>d_2_2</v>
+        <f t="shared" si="6"/>
+        <v>e_2_2</v>
       </c>
       <c r="F215">
         <v>150</v>
       </c>
       <c r="G215">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H215" t="s">
         <v>12</v>
@@ -9385,20 +9385,20 @@
         <v>2</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E216" t="str">
-        <f t="shared" si="4"/>
-        <v>i_2_3</v>
+        <f t="shared" si="6"/>
+        <v>f_2_2</v>
       </c>
       <c r="F216">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G216">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H216" t="s">
         <v>12</v>
@@ -9424,20 +9424,20 @@
         <v>2</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E217" t="str">
-        <f t="shared" si="4"/>
-        <v>j_2_3</v>
+        <f t="shared" si="6"/>
+        <v>g_2_2</v>
       </c>
       <c r="F217">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G217">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H217" t="s">
         <v>12</v>
@@ -9463,20 +9463,20 @@
         <v>2</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E218" t="str">
-        <f t="shared" si="4"/>
-        <v>k_2_3</v>
+        <f t="shared" si="6"/>
+        <v>d_2_2</v>
       </c>
       <c r="F218">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G218">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H218" t="s">
         <v>12</v>
@@ -9505,17 +9505,17 @@
         <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E219" t="str">
-        <f t="shared" si="4"/>
-        <v>l_2_3</v>
+        <f t="shared" si="6"/>
+        <v>i_2_3</v>
       </c>
       <c r="F219">
         <v>50</v>
       </c>
       <c r="G219">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H219" t="s">
         <v>12</v>
@@ -9535,26 +9535,26 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D220" t="s">
         <v>22</v>
       </c>
       <c r="E220" t="str">
-        <f t="shared" si="4"/>
-        <v>j_1_1</v>
+        <f t="shared" si="6"/>
+        <v>j_2_3</v>
       </c>
       <c r="F220">
         <v>50</v>
       </c>
       <c r="G220">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H220" t="s">
         <v>12</v>
@@ -9574,26 +9574,26 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D221" t="s">
         <v>23</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="4"/>
-        <v>k_1_1</v>
+        <f t="shared" si="6"/>
+        <v>k_2_3</v>
       </c>
       <c r="F221">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G221">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
@@ -9613,23 +9613,23 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D222" t="s">
         <v>24</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" si="4"/>
-        <v>l_1_1</v>
+        <f t="shared" si="6"/>
+        <v>l_2_3</v>
       </c>
       <c r="F222">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G222">
         <v>150</v>
@@ -9658,20 +9658,20 @@
         <v>1</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E223" t="str">
-        <f t="shared" si="4"/>
-        <v>f_1_2</v>
+        <f t="shared" si="6"/>
+        <v>j_1_1</v>
       </c>
       <c r="F223">
         <v>50</v>
       </c>
       <c r="G223">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H223" t="s">
         <v>12</v>
@@ -9697,20 +9697,20 @@
         <v>1</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E224" t="str">
-        <f t="shared" si="4"/>
-        <v>g_1_2</v>
+        <f t="shared" si="6"/>
+        <v>k_1_1</v>
       </c>
       <c r="F224">
         <v>150</v>
       </c>
       <c r="G224">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H224" t="s">
         <v>12</v>
@@ -9736,20 +9736,20 @@
         <v>1</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E225" t="str">
-        <f t="shared" si="4"/>
-        <v>i_1_2</v>
+        <f t="shared" si="6"/>
+        <v>l_1_1</v>
       </c>
       <c r="F225">
         <v>200</v>
       </c>
       <c r="G225">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H225" t="s">
         <v>12</v>
@@ -9775,20 +9775,20 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E226" t="str">
-        <f t="shared" si="4"/>
-        <v>b_1_3</v>
+        <f t="shared" si="6"/>
+        <v>f_1_2</v>
       </c>
       <c r="F226">
         <v>50</v>
       </c>
       <c r="G226">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H226" t="s">
         <v>12</v>
@@ -9814,20 +9814,20 @@
         <v>1</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E227" t="str">
-        <f t="shared" si="4"/>
-        <v>c_1_3</v>
+        <f t="shared" si="6"/>
+        <v>g_1_2</v>
       </c>
       <c r="F227">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G227">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H227" t="s">
         <v>12</v>
@@ -9853,20 +9853,20 @@
         <v>1</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E228" t="str">
-        <f t="shared" si="4"/>
-        <v>d_1_3</v>
+        <f t="shared" si="6"/>
+        <v>i_1_2</v>
       </c>
       <c r="F228">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G228">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H228" t="s">
         <v>12</v>
@@ -9895,14 +9895,14 @@
         <v>3</v>
       </c>
       <c r="D229" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E229" t="str">
-        <f t="shared" si="4"/>
-        <v>e_1_3</v>
+        <f t="shared" si="6"/>
+        <v>b_1_3</v>
       </c>
       <c r="F229">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G229">
         <v>25</v>
@@ -9931,17 +9931,17 @@
         <v>1</v>
       </c>
       <c r="C230">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D230" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E230" t="str">
-        <f t="shared" si="4"/>
-        <v>h_1_5</v>
+        <f t="shared" si="6"/>
+        <v>c_1_3</v>
       </c>
       <c r="F230">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G230">
         <v>25</v>
@@ -9970,20 +9970,20 @@
         <v>1</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E231" t="str">
-        <f t="shared" si="4"/>
-        <v>a_1_1</v>
+        <f t="shared" si="6"/>
+        <v>d_1_3</v>
       </c>
       <c r="F231">
-        <v>-25</v>
+        <v>150</v>
       </c>
       <c r="G231">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H231" t="s">
         <v>12</v>
@@ -9998,31 +9998,31 @@
         <v>12</v>
       </c>
       <c r="L231" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D232" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="4"/>
-        <v>h_1_1</v>
+        <f t="shared" si="6"/>
+        <v>e_1_3</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G232">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H232" t="s">
         <v>12</v>
@@ -10042,26 +10042,26 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B233">
         <v>1</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E233" t="str">
-        <f t="shared" si="4"/>
-        <v>l_1_1</v>
+        <f t="shared" si="6"/>
+        <v>h_1_5</v>
       </c>
       <c r="F233">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G233">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H233" t="s">
         <v>12</v>
@@ -10081,7 +10081,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -10090,17 +10090,17 @@
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E234" t="str">
-        <f t="shared" si="4"/>
-        <v>k_1_1</v>
+        <f t="shared" si="6"/>
+        <v>a_1_1</v>
       </c>
       <c r="F234">
-        <v>150</v>
+        <v>-25</v>
       </c>
       <c r="G234">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H234" t="s">
         <v>12</v>
@@ -10115,7 +10115,7 @@
         <v>12</v>
       </c>
       <c r="L234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -10126,17 +10126,17 @@
         <v>1</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E235" t="str">
-        <f t="shared" si="4"/>
-        <v>i_1_2</v>
+        <f t="shared" si="6"/>
+        <v>h_1_1</v>
       </c>
       <c r="F235">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G235">
         <v>150</v>
@@ -10165,20 +10165,20 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E236" t="str">
-        <f t="shared" si="4"/>
-        <v>j_1_2</v>
+        <f t="shared" si="6"/>
+        <v>l_1_1</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G236">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H236" t="s">
         <v>12</v>
@@ -10204,20 +10204,20 @@
         <v>1</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E237" t="str">
-        <f t="shared" si="4"/>
-        <v>g_1_2</v>
+        <f t="shared" si="6"/>
+        <v>k_1_1</v>
       </c>
       <c r="F237">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G237">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H237" t="s">
         <v>12</v>
@@ -10243,20 +10243,20 @@
         <v>1</v>
       </c>
       <c r="C238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E238" t="str">
-        <f t="shared" si="4"/>
-        <v>f_1_3</v>
+        <f t="shared" si="6"/>
+        <v>i_1_2</v>
       </c>
       <c r="F238">
+        <v>250</v>
+      </c>
+      <c r="G238">
         <v>150</v>
-      </c>
-      <c r="G238">
-        <v>75</v>
       </c>
       <c r="H238" t="s">
         <v>12</v>
@@ -10282,17 +10282,17 @@
         <v>1</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="4"/>
-        <v>e_1_3</v>
+        <f t="shared" si="6"/>
+        <v>j_1_2</v>
       </c>
       <c r="F239">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G239">
         <v>75</v>
@@ -10321,20 +10321,20 @@
         <v>1</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E240" t="str">
-        <f t="shared" si="4"/>
-        <v>d_1_3</v>
+        <f t="shared" si="6"/>
+        <v>g_1_2</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G240">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H240" t="s">
         <v>12</v>
@@ -10360,20 +10360,20 @@
         <v>1</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E241" t="str">
-        <f t="shared" si="4"/>
-        <v>c_1_4</v>
+        <f t="shared" si="6"/>
+        <v>f_1_3</v>
       </c>
       <c r="F241">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G241">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H241" t="s">
         <v>12</v>
@@ -10399,20 +10399,20 @@
         <v>1</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D242" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E242" t="str">
-        <f t="shared" si="4"/>
-        <v>b_1_4</v>
+        <f t="shared" si="6"/>
+        <v>e_1_3</v>
       </c>
       <c r="F242">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G242">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H242" t="s">
         <v>12</v>
@@ -10438,17 +10438,17 @@
         <v>1</v>
       </c>
       <c r="C243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E243" t="str">
-        <f t="shared" si="4"/>
-        <v>a_1_4</v>
+        <f t="shared" si="6"/>
+        <v>d_1_3</v>
       </c>
       <c r="F243">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G243">
         <v>25</v>
@@ -10474,23 +10474,23 @@
         <v>44874</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E244" t="str">
-        <f t="shared" si="4"/>
-        <v>a_2_1</v>
+        <f t="shared" si="6"/>
+        <v>c_1_4</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G244">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H244" t="s">
         <v>12</v>
@@ -10513,23 +10513,23 @@
         <v>44874</v>
       </c>
       <c r="B245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="4"/>
-        <v>e_2_1</v>
+        <f t="shared" si="6"/>
+        <v>b_1_4</v>
       </c>
       <c r="F245">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G245">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H245" t="s">
         <v>12</v>
@@ -10552,23 +10552,23 @@
         <v>44874</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D246" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E246" t="str">
-        <f t="shared" si="4"/>
-        <v>i_2_1</v>
+        <f t="shared" si="6"/>
+        <v>a_1_4</v>
       </c>
       <c r="F246">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G246">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H246" t="s">
         <v>12</v>
@@ -10594,17 +10594,17 @@
         <v>2</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E247" t="str">
-        <f t="shared" si="4"/>
-        <v>b_2_2</v>
+        <f t="shared" si="6"/>
+        <v>a_2_1</v>
       </c>
       <c r="F247">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G247">
         <v>150</v>
@@ -10633,20 +10633,20 @@
         <v>2</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E248" t="str">
-        <f t="shared" si="4"/>
-        <v>f_2_2</v>
+        <f t="shared" si="6"/>
+        <v>e_2_1</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G248">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H248" t="s">
         <v>12</v>
@@ -10672,20 +10672,20 @@
         <v>2</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E249" t="str">
-        <f t="shared" si="4"/>
-        <v>k_2_2</v>
+        <f t="shared" si="6"/>
+        <v>i_2_1</v>
       </c>
       <c r="F249">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G249">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H249" t="s">
         <v>12</v>
@@ -10711,20 +10711,20 @@
         <v>2</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D250" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E250" t="str">
-        <f t="shared" si="4"/>
-        <v>c_2_3</v>
+        <f t="shared" si="6"/>
+        <v>b_2_2</v>
       </c>
       <c r="F250">
+        <v>250</v>
+      </c>
+      <c r="G250">
         <v>150</v>
-      </c>
-      <c r="G250">
-        <v>75</v>
       </c>
       <c r="H250" t="s">
         <v>12</v>
@@ -10750,17 +10750,17 @@
         <v>2</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D251" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E251" t="str">
-        <f t="shared" si="4"/>
-        <v>g_2_3</v>
+        <f t="shared" si="6"/>
+        <v>f_2_2</v>
       </c>
       <c r="F251">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G251">
         <v>75</v>
@@ -10789,20 +10789,20 @@
         <v>2</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E252" t="str">
-        <f t="shared" si="4"/>
-        <v>l_2_3</v>
+        <f t="shared" si="6"/>
+        <v>k_2_2</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G252">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H252" t="s">
         <v>12</v>
@@ -10828,20 +10828,20 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D253" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E253" t="str">
-        <f t="shared" si="4"/>
-        <v>d_2_4</v>
+        <f t="shared" si="6"/>
+        <v>c_2_3</v>
       </c>
       <c r="F253">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G253">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H253" t="s">
         <v>12</v>
@@ -10867,20 +10867,20 @@
         <v>2</v>
       </c>
       <c r="C254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E254" t="str">
-        <f t="shared" si="4"/>
-        <v>j_2_4</v>
+        <f t="shared" si="6"/>
+        <v>g_2_3</v>
       </c>
       <c r="F254">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G254">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H254" t="s">
         <v>12</v>
@@ -10906,17 +10906,17 @@
         <v>2</v>
       </c>
       <c r="C255">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D255" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E255" t="str">
-        <f t="shared" si="4"/>
-        <v>h_2_4</v>
+        <f t="shared" si="6"/>
+        <v>l_2_3</v>
       </c>
       <c r="F255">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G255">
         <v>25</v>
@@ -10939,26 +10939,26 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D256" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E256" t="str">
-        <f t="shared" si="4"/>
-        <v>a_1_1</v>
+        <f t="shared" si="6"/>
+        <v>d_2_4</v>
       </c>
       <c r="F256">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G256">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H256" t="s">
         <v>12</v>
@@ -10973,31 +10973,31 @@
         <v>12</v>
       </c>
       <c r="L256" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E257" t="str">
-        <f t="shared" si="4"/>
-        <v>b_1_1</v>
+        <f t="shared" si="6"/>
+        <v>j_2_4</v>
       </c>
       <c r="F257">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G257">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H257" t="s">
         <v>12</v>
@@ -11017,26 +11017,26 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E258" t="str">
-        <f t="shared" si="4"/>
-        <v>c_1_1</v>
+        <f t="shared" si="6"/>
+        <v>h_2_4</v>
       </c>
       <c r="F258">
         <v>250</v>
       </c>
       <c r="G258">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H258" t="s">
         <v>12</v>
@@ -11065,17 +11065,17 @@
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="4"/>
-        <v>d_1_1</v>
+        <f t="shared" si="6"/>
+        <v>a_1_1</v>
       </c>
       <c r="F259">
         <v>250</v>
       </c>
       <c r="G259">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H259" t="s">
         <v>12</v>
@@ -11090,7 +11090,7 @@
         <v>12</v>
       </c>
       <c r="L259" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11101,20 +11101,20 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" ref="E260:E267" si="5">D260&amp;"_" &amp; B260 &amp; "_" &amp; C260</f>
-        <v>e_1_2</v>
+        <f t="shared" si="6"/>
+        <v>b_1_1</v>
       </c>
       <c r="F260">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G260">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H260" t="s">
         <v>12</v>
@@ -11129,7 +11129,7 @@
         <v>12</v>
       </c>
       <c r="L260" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11140,20 +11140,20 @@
         <v>1</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E261" t="str">
-        <f t="shared" si="5"/>
-        <v>f_1_2</v>
+        <f t="shared" si="6"/>
+        <v>c_1_1</v>
       </c>
       <c r="F261">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G261">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H261" t="s">
         <v>12</v>
@@ -11179,20 +11179,20 @@
         <v>1</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="5"/>
-        <v>g_1_2</v>
+        <f t="shared" si="6"/>
+        <v>d_1_1</v>
       </c>
       <c r="F262">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G262">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
@@ -11221,17 +11221,17 @@
         <v>2</v>
       </c>
       <c r="D263" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E263" t="str">
-        <f t="shared" si="5"/>
-        <v>h_1_2</v>
+        <f t="shared" ref="E263:E270" si="7">D263&amp;"_" &amp; B263 &amp; "_" &amp; C263</f>
+        <v>e_1_2</v>
       </c>
       <c r="F263">
         <v>150</v>
       </c>
       <c r="G263">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H263" t="s">
         <v>12</v>
@@ -11246,7 +11246,7 @@
         <v>12</v>
       </c>
       <c r="L263" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11257,20 +11257,20 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E264" t="str">
-        <f t="shared" si="5"/>
-        <v>i_1_3</v>
+        <f t="shared" si="7"/>
+        <v>f_1_2</v>
       </c>
       <c r="F264">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G264">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H264" t="s">
         <v>12</v>
@@ -11285,7 +11285,7 @@
         <v>12</v>
       </c>
       <c r="L264" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11296,20 +11296,20 @@
         <v>1</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E265" t="str">
-        <f t="shared" si="5"/>
-        <v>j_1_3</v>
+        <f t="shared" si="7"/>
+        <v>g_1_2</v>
       </c>
       <c r="F265">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G265">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H265" t="s">
         <v>12</v>
@@ -11335,20 +11335,20 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="5"/>
-        <v>k_1_3</v>
+        <f t="shared" si="7"/>
+        <v>h_1_2</v>
       </c>
       <c r="F266">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G266">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H266" t="s">
         <v>12</v>
@@ -11377,31 +11377,148 @@
         <v>3</v>
       </c>
       <c r="D267" t="s">
+        <v>21</v>
+      </c>
+      <c r="E267" t="str">
+        <f t="shared" si="7"/>
+        <v>i_1_3</v>
+      </c>
+      <c r="F267">
+        <v>50</v>
+      </c>
+      <c r="G267">
+        <v>-20</v>
+      </c>
+      <c r="H267" t="s">
+        <v>12</v>
+      </c>
+      <c r="I267" t="s">
+        <v>12</v>
+      </c>
+      <c r="J267" t="s">
+        <v>12</v>
+      </c>
+      <c r="K267" t="s">
+        <v>12</v>
+      </c>
+      <c r="L267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+      <c r="D268" t="s">
+        <v>22</v>
+      </c>
+      <c r="E268" t="str">
+        <f t="shared" si="7"/>
+        <v>j_1_3</v>
+      </c>
+      <c r="F268">
+        <v>50</v>
+      </c>
+      <c r="G268">
+        <v>50</v>
+      </c>
+      <c r="H268" t="s">
+        <v>12</v>
+      </c>
+      <c r="I268" t="s">
+        <v>12</v>
+      </c>
+      <c r="J268" t="s">
+        <v>12</v>
+      </c>
+      <c r="K268" t="s">
+        <v>12</v>
+      </c>
+      <c r="L268" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269" t="s">
+        <v>23</v>
+      </c>
+      <c r="E269" t="str">
+        <f t="shared" si="7"/>
+        <v>k_1_3</v>
+      </c>
+      <c r="F269">
+        <v>50</v>
+      </c>
+      <c r="G269">
+        <v>100</v>
+      </c>
+      <c r="H269" t="s">
+        <v>12</v>
+      </c>
+      <c r="I269" t="s">
+        <v>12</v>
+      </c>
+      <c r="J269" t="s">
+        <v>12</v>
+      </c>
+      <c r="K269" t="s">
+        <v>12</v>
+      </c>
+      <c r="L269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+      <c r="D270" t="s">
         <v>24</v>
       </c>
-      <c r="E267" t="str">
-        <f t="shared" si="5"/>
+      <c r="E270" t="str">
+        <f t="shared" si="7"/>
         <v>l_1_3</v>
       </c>
-      <c r="F267">
-        <v>50</v>
-      </c>
-      <c r="G267">
+      <c r="F270">
+        <v>50</v>
+      </c>
+      <c r="G270">
         <v>200</v>
       </c>
-      <c r="H267" t="s">
-        <v>12</v>
-      </c>
-      <c r="I267" t="s">
-        <v>12</v>
-      </c>
-      <c r="J267" t="s">
-        <v>12</v>
-      </c>
-      <c r="K267" t="s">
-        <v>12</v>
-      </c>
-      <c r="L267" t="s">
+      <c r="H270" t="s">
+        <v>12</v>
+      </c>
+      <c r="I270" t="s">
+        <v>12</v>
+      </c>
+      <c r="J270" t="s">
+        <v>12</v>
+      </c>
+      <c r="K270" t="s">
+        <v>12</v>
+      </c>
+      <c r="L270" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{01677C93-D437-43E7-8AE2-98DBEB79999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{613E0828-0A9F-47A2-94DC-79B858BBA186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26085" yWindow="-26430" windowWidth="12960" windowHeight="21810" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
@@ -984,7 +984,7 @@
   <dimension ref="A1:L270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{613E0828-0A9F-47A2-94DC-79B858BBA186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8BF5F06B-8815-4A78-98C2-832CE7544A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26085" yWindow="-26430" windowWidth="12960" windowHeight="21810" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>distance_from_reference_ft</t>
   </si>
   <si>
-    <t>dstrb</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
   <dimension ref="A1:L270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E70" si="0">D3&amp;"_" &amp; B3 &amp; "_" &amp; C3</f>
-        <v>dstrb_1_1</v>
+        <v>x_1_1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" ref="E11" si="1">D11&amp;"_" &amp; B11 &amp; "_" &amp; C11</f>
-        <v>dstrb_1_2</v>
+        <v>x_1_2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" ref="E18" si="2">D18&amp;"_" &amp; B18 &amp; "_" &amp; C18</f>
-        <v>dstrb_2_1</v>
+        <v>x_2_1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
-        <v>dstrb_2_2</v>
+        <v>x_2_2</v>
       </c>
       <c r="F26">
         <v>0</v>

--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8BF5F06B-8815-4A78-98C2-832CE7544A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B6C8ED47-29D0-455E-9EAD-23D24E6F5532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26085" yWindow="-26430" windowWidth="12960" windowHeight="21810" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="43395" yWindow="-30840" windowWidth="17520" windowHeight="30240" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l_ce" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -981,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-  <dimension ref="A1:L270"/>
+  <dimension ref="A1:L272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1084,7 +1084,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E70" si="0">D3&amp;"_" &amp; B3 &amp; "_" &amp; C3</f>
+        <f t="shared" ref="E3:E72" si="0">D3&amp;"_" &amp; B3 &amp; "_" &amp; C3</f>
         <v>x_1_1</v>
       </c>
       <c r="F3">
@@ -2251,14 +2251,14 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>c_3_2</v>
+        <v>x_3_2</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>75</v>
@@ -2287,20 +2287,20 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>i_3_3</v>
+        <f t="shared" ref="E34" si="4">D34&amp;"_" &amp; B34 &amp; "_" &amp; C34</f>
+        <v>c_3_2</v>
       </c>
       <c r="F34">
         <v>50</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -2320,38 +2320,38 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
-        <v>44821</v>
+        <v>44835</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>e_1_1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35">
-        <v>135</v>
-      </c>
-      <c r="I35">
-        <v>20</v>
-      </c>
-      <c r="J35">
-        <v>50</v>
-      </c>
-      <c r="K35">
+        <v>x_3_3</v>
+      </c>
+      <c r="F35">
         <v>0</v>
+      </c>
+      <c r="G35">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
       </c>
       <c r="L35" t="s">
         <v>15</v>
@@ -2359,38 +2359,38 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
-        <v>44821</v>
+        <v>44835</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>f_1_1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36">
-        <v>135</v>
-      </c>
-      <c r="I36">
-        <v>35</v>
-      </c>
-      <c r="J36">
-        <v>50</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
+        <f t="shared" ref="E36" si="5">D36&amp;"_" &amp; B36 &amp; "_" &amp; C36</f>
+        <v>i_3_3</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>150</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" t="s">
+        <v>12</v>
       </c>
       <c r="L36" t="s">
         <v>15</v>
@@ -2407,11 +2407,11 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>g_1_1</v>
+        <v>e_1_1</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -2423,7 +2423,7 @@
         <v>135</v>
       </c>
       <c r="I37">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J37">
         <v>50</v>
@@ -2446,11 +2446,11 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>i_1_1</v>
+        <v>f_1_1</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -2462,7 +2462,7 @@
         <v>135</v>
       </c>
       <c r="I38">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="J38">
         <v>50</v>
@@ -2482,14 +2482,14 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>a_1_2</v>
+        <v>g_1_1</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -2498,10 +2498,10 @@
         <v>12</v>
       </c>
       <c r="H39">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I39">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>50</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2521,14 +2521,14 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>b_1_2</v>
+        <v>i_1_1</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -2537,10 +2537,10 @@
         <v>12</v>
       </c>
       <c r="H40">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I40">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J40">
         <v>50</v>
@@ -2563,11 +2563,11 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>c_1_2</v>
+        <v>a_1_2</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -2579,7 +2579,7 @@
         <v>90</v>
       </c>
       <c r="I41">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J41">
         <v>50</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2602,11 +2602,11 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>d_1_2</v>
+        <v>b_1_2</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2618,7 +2618,7 @@
         <v>90</v>
       </c>
       <c r="I42">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J42">
         <v>50</v>
@@ -2641,11 +2641,11 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>h_1_2</v>
+        <v>c_1_2</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -2657,7 +2657,7 @@
         <v>90</v>
       </c>
       <c r="I43">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="J43">
         <v>50</v>
@@ -2677,14 +2677,14 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>j_1_3</v>
+        <v>d_1_2</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2693,10 +2693,10 @@
         <v>12</v>
       </c>
       <c r="H44">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I44">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J44">
         <v>50</v>
@@ -2716,14 +2716,14 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>k_1_3</v>
+        <v>h_1_2</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -2732,10 +2732,10 @@
         <v>12</v>
       </c>
       <c r="H45">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I45">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J45">
         <v>50</v>
@@ -2758,11 +2758,11 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>l_1_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2774,7 +2774,7 @@
         <v>45</v>
       </c>
       <c r="I46">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J46">
         <v>50</v>
@@ -2791,17 +2791,17 @@
         <v>44821</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>e_2_1</v>
+        <v>k_1_3</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -2810,10 +2810,10 @@
         <v>12</v>
       </c>
       <c r="H47">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I47">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J47">
         <v>50</v>
@@ -2830,17 +2830,17 @@
         <v>44821</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>f_2_1</v>
+        <v>l_1_3</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -2849,10 +2849,10 @@
         <v>12</v>
       </c>
       <c r="H48">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I48">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>50</v>
@@ -2875,11 +2875,11 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>g_2_1</v>
+        <v>e_2_1</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -2891,7 +2891,7 @@
         <v>135</v>
       </c>
       <c r="I49">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J49">
         <v>50</v>
@@ -2914,11 +2914,11 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>i_2_1</v>
+        <v>f_2_1</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2930,7 +2930,7 @@
         <v>135</v>
       </c>
       <c r="I50">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="J50">
         <v>50</v>
@@ -2950,14 +2950,14 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>a_2_2</v>
+        <v>g_2_1</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2966,10 +2966,10 @@
         <v>12</v>
       </c>
       <c r="H51">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I51">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>50</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2989,14 +2989,14 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>b_2_2</v>
+        <v>i_2_1</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -3005,10 +3005,10 @@
         <v>12</v>
       </c>
       <c r="H52">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I52">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J52">
         <v>50</v>
@@ -3031,11 +3031,11 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>c_2_2</v>
+        <v>a_2_2</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -3047,7 +3047,7 @@
         <v>90</v>
       </c>
       <c r="I53">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J53">
         <v>50</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3070,11 +3070,11 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>d_2_2</v>
+        <v>b_2_2</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -3086,7 +3086,7 @@
         <v>90</v>
       </c>
       <c r="I54">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J54">
         <v>50</v>
@@ -3109,11 +3109,11 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>h_2_2</v>
+        <v>c_2_2</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -3125,7 +3125,7 @@
         <v>90</v>
       </c>
       <c r="I55">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="J55">
         <v>50</v>
@@ -3145,14 +3145,14 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>j_2_3</v>
+        <v>d_2_2</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -3161,10 +3161,10 @@
         <v>12</v>
       </c>
       <c r="H56">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I56">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <v>50</v>
@@ -3184,14 +3184,14 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>k_2_3</v>
+        <v>h_2_2</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -3200,10 +3200,10 @@
         <v>12</v>
       </c>
       <c r="H57">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I57">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="J57">
         <v>50</v>
@@ -3226,11 +3226,11 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>l_2_3</v>
+        <v>j_2_3</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
@@ -3242,7 +3242,7 @@
         <v>45</v>
       </c>
       <c r="I58">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J58">
         <v>50</v>
@@ -3256,77 +3256,77 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
-        <v>44756</v>
+        <v>44821</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>a_1_1</v>
-      </c>
-      <c r="F59">
-        <v>250</v>
-      </c>
-      <c r="G59">
-        <v>-20</v>
-      </c>
-      <c r="H59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" t="s">
-        <v>12</v>
-      </c>
-      <c r="K59" t="s">
-        <v>12</v>
+        <v>k_2_3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>45</v>
+      </c>
+      <c r="I59">
+        <v>35</v>
+      </c>
+      <c r="J59">
+        <v>50</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
-        <v>44756</v>
+        <v>44821</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>b_1_1</v>
-      </c>
-      <c r="F60">
-        <v>250</v>
-      </c>
-      <c r="G60">
-        <v>50</v>
-      </c>
-      <c r="H60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60" t="s">
-        <v>12</v>
+        <v>l_2_3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>45</v>
+      </c>
+      <c r="I60">
+        <v>50</v>
+      </c>
+      <c r="J60">
+        <v>50</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
       </c>
       <c r="L60" t="s">
         <v>15</v>
@@ -3343,17 +3343,17 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>c_1_1</v>
+        <v>a_1_1</v>
       </c>
       <c r="F61">
         <v>250</v>
       </c>
       <c r="G61">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
@@ -3368,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="L61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3382,17 +3382,17 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>d_1_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F62">
         <v>250</v>
       </c>
       <c r="G62">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
@@ -3418,20 +3418,20 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>e_1_2</v>
+        <v>c_1_1</v>
       </c>
       <c r="F63">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G63">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
@@ -3446,7 +3446,7 @@
         <v>12</v>
       </c>
       <c r="L63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3457,20 +3457,20 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>f_1_2</v>
+        <v>d_1_1</v>
       </c>
       <c r="F64">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G64">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
@@ -3499,17 +3499,17 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>g_1_2</v>
+        <v>e_1_2</v>
       </c>
       <c r="F65">
         <v>150</v>
       </c>
       <c r="G65">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -3524,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="L65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3538,17 +3538,17 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
-        <v>h_1_2</v>
+        <v>f_1_2</v>
       </c>
       <c r="F66">
         <v>150</v>
       </c>
       <c r="G66">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -3574,20 +3574,20 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
-        <v>i_1_3</v>
+        <v>g_1_2</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G67">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -3602,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="L67" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3613,20 +3613,20 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="0"/>
-        <v>j_1_3</v>
+        <v>h_1_2</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
@@ -3655,17 +3655,17 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="0"/>
-        <v>k_1_3</v>
+        <v>i_1_3</v>
       </c>
       <c r="F69">
         <v>50</v>
       </c>
       <c r="G69">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
@@ -3680,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3694,17 +3694,17 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="0"/>
-        <v>l_1_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F70">
         <v>50</v>
       </c>
       <c r="G70">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
@@ -3727,23 +3727,23 @@
         <v>44756</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" ref="E71:E134" si="4">D71&amp;"_" &amp; B71 &amp; "_" &amp; C71</f>
-        <v>a_2_1</v>
+        <f t="shared" si="0"/>
+        <v>k_1_3</v>
       </c>
       <c r="F71">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G71">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -3758,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="L71" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3766,23 +3766,23 @@
         <v>44756</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="4"/>
-        <v>b_2_1</v>
+        <f t="shared" si="0"/>
+        <v>l_1_3</v>
       </c>
       <c r="F72">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G72">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -3811,17 +3811,17 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="4"/>
-        <v>c_2_1</v>
+        <f t="shared" ref="E73:E136" si="6">D73&amp;"_" &amp; B73 &amp; "_" &amp; C73</f>
+        <v>a_2_1</v>
       </c>
       <c r="F73">
         <v>250</v>
       </c>
       <c r="G73">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H73" t="s">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="L73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3850,17 +3850,17 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="4"/>
-        <v>d_2_1</v>
+        <f t="shared" si="6"/>
+        <v>b_2_1</v>
       </c>
       <c r="F74">
         <v>250</v>
       </c>
       <c r="G74">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
@@ -3886,20 +3886,20 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="4"/>
-        <v>e_2_2</v>
+        <f t="shared" si="6"/>
+        <v>c_2_1</v>
       </c>
       <c r="F75">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G75">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
@@ -3914,7 +3914,7 @@
         <v>12</v>
       </c>
       <c r="L75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3925,20 +3925,20 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="4"/>
-        <v>f_2_2</v>
+        <f t="shared" si="6"/>
+        <v>d_2_1</v>
       </c>
       <c r="F76">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G76">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
@@ -3967,17 +3967,17 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="4"/>
-        <v>g_2_2</v>
+        <f t="shared" si="6"/>
+        <v>e_2_2</v>
       </c>
       <c r="F77">
         <v>150</v>
       </c>
       <c r="G77">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
@@ -3992,7 +3992,7 @@
         <v>12</v>
       </c>
       <c r="L77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4006,17 +4006,17 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="4"/>
-        <v>h_2_2</v>
+        <f t="shared" si="6"/>
+        <v>f_2_2</v>
       </c>
       <c r="F78">
         <v>150</v>
       </c>
       <c r="G78">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
@@ -4042,20 +4042,20 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="4"/>
-        <v>i_2_3</v>
+        <f t="shared" si="6"/>
+        <v>g_2_2</v>
       </c>
       <c r="F79">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G79">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
@@ -4070,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="L79" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4081,20 +4081,20 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="4"/>
-        <v>j_2_3</v>
+        <f t="shared" si="6"/>
+        <v>h_2_2</v>
       </c>
       <c r="F80">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G80">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
@@ -4123,17 +4123,17 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="4"/>
-        <v>k_2_3</v>
+        <f t="shared" si="6"/>
+        <v>i_2_3</v>
       </c>
       <c r="F81">
         <v>50</v>
       </c>
       <c r="G81">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
@@ -4148,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="L81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4162,17 +4162,17 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="4"/>
-        <v>l_2_3</v>
+        <f t="shared" si="6"/>
+        <v>j_2_3</v>
       </c>
       <c r="F82">
         <v>50</v>
       </c>
       <c r="G82">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
@@ -4195,23 +4195,23 @@
         <v>44756</v>
       </c>
       <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
         <v>3</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="4"/>
-        <v>a_3_1</v>
+        <f t="shared" si="6"/>
+        <v>k_2_3</v>
       </c>
       <c r="F83">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G83">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
@@ -4226,7 +4226,7 @@
         <v>12</v>
       </c>
       <c r="L83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4234,23 +4234,23 @@
         <v>44756</v>
       </c>
       <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
         <v>3</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="4"/>
-        <v>b_3_1</v>
+        <f t="shared" si="6"/>
+        <v>l_2_3</v>
       </c>
       <c r="F84">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G84">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H84" t="s">
         <v>12</v>
@@ -4279,17 +4279,17 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="4"/>
-        <v>c_3_1</v>
+        <f t="shared" si="6"/>
+        <v>a_3_1</v>
       </c>
       <c r="F85">
         <v>250</v>
       </c>
       <c r="G85">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
@@ -4304,7 +4304,7 @@
         <v>12</v>
       </c>
       <c r="L85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4318,17 +4318,17 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="4"/>
-        <v>d_3_1</v>
+        <f t="shared" si="6"/>
+        <v>b_3_1</v>
       </c>
       <c r="F86">
         <v>250</v>
       </c>
       <c r="G86">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H86" t="s">
         <v>12</v>
@@ -4354,20 +4354,20 @@
         <v>3</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="4"/>
-        <v>e_3_2</v>
+        <f t="shared" si="6"/>
+        <v>c_3_1</v>
       </c>
       <c r="F87">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G87">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H87" t="s">
         <v>12</v>
@@ -4382,7 +4382,7 @@
         <v>12</v>
       </c>
       <c r="L87" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4393,20 +4393,20 @@
         <v>3</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="4"/>
-        <v>f_3_2</v>
+        <f t="shared" si="6"/>
+        <v>d_3_1</v>
       </c>
       <c r="F88">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G88">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H88" t="s">
         <v>12</v>
@@ -4435,17 +4435,17 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="4"/>
-        <v>g_3_2</v>
+        <f t="shared" si="6"/>
+        <v>e_3_2</v>
       </c>
       <c r="F89">
         <v>150</v>
       </c>
       <c r="G89">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H89" t="s">
         <v>12</v>
@@ -4460,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="L89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4474,17 +4474,17 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="4"/>
-        <v>h_3_2</v>
+        <f t="shared" si="6"/>
+        <v>f_3_2</v>
       </c>
       <c r="F90">
         <v>150</v>
       </c>
       <c r="G90">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H90" t="s">
         <v>12</v>
@@ -4510,20 +4510,20 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="4"/>
-        <v>i_3_3</v>
+        <f t="shared" si="6"/>
+        <v>g_3_2</v>
       </c>
       <c r="F91">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G91">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H91" t="s">
         <v>12</v>
@@ -4538,7 +4538,7 @@
         <v>12</v>
       </c>
       <c r="L91" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4549,20 +4549,20 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="4"/>
-        <v>j_3_3</v>
+        <f t="shared" si="6"/>
+        <v>h_3_2</v>
       </c>
       <c r="F92">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G92">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H92" t="s">
         <v>12</v>
@@ -4591,17 +4591,17 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="4"/>
-        <v>k_3_3</v>
+        <f t="shared" si="6"/>
+        <v>i_3_3</v>
       </c>
       <c r="F93">
         <v>50</v>
       </c>
       <c r="G93">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H93" t="s">
         <v>12</v>
@@ -4616,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="L93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4630,17 +4630,17 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="4"/>
-        <v>l_3_3</v>
+        <f t="shared" si="6"/>
+        <v>j_3_3</v>
       </c>
       <c r="F94">
         <v>50</v>
       </c>
       <c r="G94">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s">
         <v>12</v>
@@ -4660,26 +4660,26 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="4"/>
-        <v>b_1_1</v>
+        <f t="shared" si="6"/>
+        <v>k_3_3</v>
       </c>
       <c r="F95">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G95">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H95" t="s">
         <v>12</v>
@@ -4699,26 +4699,26 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="4"/>
-        <v>d_1_1</v>
+        <f t="shared" si="6"/>
+        <v>l_3_3</v>
       </c>
       <c r="F96">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G96">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
@@ -4747,14 +4747,14 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="4"/>
-        <v>g_1_1</v>
+        <f t="shared" si="6"/>
+        <v>b_1_1</v>
       </c>
       <c r="F97">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G97">
         <v>25</v>
@@ -4786,14 +4786,14 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="4"/>
-        <v>c_1_1</v>
+        <f t="shared" si="6"/>
+        <v>d_1_1</v>
       </c>
       <c r="F98">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G98">
         <v>25</v>
@@ -4825,14 +4825,14 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="4"/>
-        <v>f_1_1</v>
+        <f t="shared" si="6"/>
+        <v>g_1_1</v>
       </c>
       <c r="F99">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G99">
         <v>25</v>
@@ -4858,20 +4858,20 @@
         <v>44814</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="4"/>
-        <v>b_2_1</v>
+        <f t="shared" si="6"/>
+        <v>c_1_1</v>
       </c>
       <c r="F100">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G100">
         <v>25</v>
@@ -4897,20 +4897,20 @@
         <v>44814</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="4"/>
-        <v>d_2_1</v>
+        <f t="shared" si="6"/>
+        <v>f_1_1</v>
       </c>
       <c r="F101">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>25</v>
@@ -4942,14 +4942,14 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="4"/>
-        <v>g_2_1</v>
+        <f t="shared" si="6"/>
+        <v>b_2_1</v>
       </c>
       <c r="F102">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G102">
         <v>25</v>
@@ -4981,14 +4981,14 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="4"/>
-        <v>c_2_1</v>
+        <f t="shared" si="6"/>
+        <v>d_2_1</v>
       </c>
       <c r="F103">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G103">
         <v>25</v>
@@ -5020,14 +5020,14 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="4"/>
-        <v>f_2_1</v>
+        <f t="shared" si="6"/>
+        <v>g_2_1</v>
       </c>
       <c r="F104">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G104">
         <v>25</v>
@@ -5056,17 +5056,17 @@
         <v>2</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="4"/>
-        <v>e_2_2</v>
+        <f t="shared" si="6"/>
+        <v>c_2_1</v>
       </c>
       <c r="F105">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="G105">
         <v>25</v>
@@ -5095,17 +5095,17 @@
         <v>2</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="4"/>
-        <v>i_2_2</v>
+        <f t="shared" si="6"/>
+        <v>f_2_1</v>
       </c>
       <c r="F106">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="G106">
         <v>25</v>
@@ -5137,14 +5137,14 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="4"/>
-        <v>l_2_2</v>
+        <f t="shared" si="6"/>
+        <v>e_2_2</v>
       </c>
       <c r="F107">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G107">
         <v>25</v>
@@ -5176,14 +5176,14 @@
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="4"/>
-        <v>k_2_2</v>
+        <f t="shared" si="6"/>
+        <v>i_2_2</v>
       </c>
       <c r="F108">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G108">
         <v>25</v>
@@ -5215,14 +5215,14 @@
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="4"/>
-        <v>j_2_2</v>
+        <f t="shared" si="6"/>
+        <v>l_2_2</v>
       </c>
       <c r="F109">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G109">
         <v>25</v>
@@ -5245,26 +5245,26 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="4"/>
-        <v>a_1_1</v>
+        <f t="shared" si="6"/>
+        <v>k_2_2</v>
       </c>
       <c r="F110">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="G110">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H110" t="s">
         <v>12</v>
@@ -5279,31 +5279,31 @@
         <v>12</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="4"/>
-        <v>b_1_1</v>
+        <f t="shared" si="6"/>
+        <v>j_2_2</v>
       </c>
       <c r="F111">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G111">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H111" t="s">
         <v>12</v>
@@ -5332,17 +5332,17 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="4"/>
-        <v>c_1_1</v>
+        <f t="shared" si="6"/>
+        <v>a_1_1</v>
       </c>
       <c r="F112">
         <v>250</v>
       </c>
       <c r="G112">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H112" t="s">
         <v>12</v>
@@ -5357,7 +5357,7 @@
         <v>12</v>
       </c>
       <c r="L112" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5371,17 +5371,17 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="4"/>
-        <v>d_1_1</v>
+        <f t="shared" si="6"/>
+        <v>b_1_1</v>
       </c>
       <c r="F113">
         <v>250</v>
       </c>
       <c r="G113">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
@@ -5407,20 +5407,20 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="4"/>
-        <v>e_1_2</v>
+        <f t="shared" si="6"/>
+        <v>c_1_1</v>
       </c>
       <c r="F114">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G114">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
@@ -5435,7 +5435,7 @@
         <v>12</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5446,20 +5446,20 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="4"/>
-        <v>f_1_2</v>
+        <f t="shared" si="6"/>
+        <v>d_1_1</v>
       </c>
       <c r="F115">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G115">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H115" t="s">
         <v>12</v>
@@ -5488,17 +5488,17 @@
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="4"/>
-        <v>g_1_2</v>
+        <f t="shared" si="6"/>
+        <v>e_1_2</v>
       </c>
       <c r="F116">
         <v>150</v>
       </c>
       <c r="G116">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H116" t="s">
         <v>12</v>
@@ -5513,7 +5513,7 @@
         <v>12</v>
       </c>
       <c r="L116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5527,17 +5527,17 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="4"/>
-        <v>h_1_2</v>
+        <f t="shared" si="6"/>
+        <v>f_1_2</v>
       </c>
       <c r="F117">
         <v>150</v>
       </c>
       <c r="G117">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H117" t="s">
         <v>12</v>
@@ -5563,20 +5563,20 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="4"/>
-        <v>i_1_3</v>
+        <f t="shared" si="6"/>
+        <v>g_1_2</v>
       </c>
       <c r="F118">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G118">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H118" t="s">
         <v>12</v>
@@ -5591,7 +5591,7 @@
         <v>12</v>
       </c>
       <c r="L118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5602,20 +5602,20 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="4"/>
-        <v>j_1_3</v>
+        <f t="shared" si="6"/>
+        <v>h_1_2</v>
       </c>
       <c r="F119">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G119">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H119" t="s">
         <v>12</v>
@@ -5644,17 +5644,17 @@
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="4"/>
-        <v>k_1_3</v>
+        <f t="shared" si="6"/>
+        <v>i_1_3</v>
       </c>
       <c r="F120">
         <v>50</v>
       </c>
       <c r="G120">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H120" t="s">
         <v>12</v>
@@ -5669,7 +5669,7 @@
         <v>12</v>
       </c>
       <c r="L120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5683,17 +5683,17 @@
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="4"/>
-        <v>l_1_3</v>
+        <f t="shared" si="6"/>
+        <v>j_1_3</v>
       </c>
       <c r="F121">
         <v>50</v>
       </c>
       <c r="G121">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H121" t="s">
         <v>12</v>
@@ -5716,23 +5716,23 @@
         <v>44760</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="4"/>
-        <v>a_2_1</v>
+        <f t="shared" si="6"/>
+        <v>k_1_3</v>
       </c>
       <c r="F122">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G122">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H122" t="s">
         <v>12</v>
@@ -5747,7 +5747,7 @@
         <v>12</v>
       </c>
       <c r="L122" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5755,23 +5755,23 @@
         <v>44760</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="4"/>
-        <v>b_2_1</v>
+        <f t="shared" si="6"/>
+        <v>l_1_3</v>
       </c>
       <c r="F123">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G123">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
@@ -5800,17 +5800,17 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="4"/>
-        <v>c_2_1</v>
+        <f t="shared" si="6"/>
+        <v>a_2_1</v>
       </c>
       <c r="F124">
         <v>250</v>
       </c>
       <c r="G124">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H124" t="s">
         <v>12</v>
@@ -5825,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="L124" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5839,17 +5839,17 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="4"/>
-        <v>d_2_1</v>
+        <f t="shared" si="6"/>
+        <v>b_2_1</v>
       </c>
       <c r="F125">
         <v>250</v>
       </c>
       <c r="G125">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H125" t="s">
         <v>12</v>
@@ -5875,20 +5875,20 @@
         <v>2</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="4"/>
-        <v>e_2_2</v>
+        <f t="shared" si="6"/>
+        <v>c_2_1</v>
       </c>
       <c r="F126">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G126">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H126" t="s">
         <v>12</v>
@@ -5903,7 +5903,7 @@
         <v>12</v>
       </c>
       <c r="L126" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5914,20 +5914,20 @@
         <v>2</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="4"/>
-        <v>f_2_2</v>
+        <f t="shared" si="6"/>
+        <v>d_2_1</v>
       </c>
       <c r="F127">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G127">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H127" t="s">
         <v>12</v>
@@ -5956,17 +5956,17 @@
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="4"/>
-        <v>g_2_2</v>
+        <f t="shared" si="6"/>
+        <v>e_2_2</v>
       </c>
       <c r="F128">
         <v>150</v>
       </c>
       <c r="G128">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H128" t="s">
         <v>12</v>
@@ -5981,7 +5981,7 @@
         <v>12</v>
       </c>
       <c r="L128" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5995,17 +5995,17 @@
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="4"/>
-        <v>h_2_2</v>
+        <f t="shared" si="6"/>
+        <v>f_2_2</v>
       </c>
       <c r="F129">
         <v>150</v>
       </c>
       <c r="G129">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H129" t="s">
         <v>12</v>
@@ -6031,20 +6031,20 @@
         <v>2</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="4"/>
-        <v>i_2_3</v>
+        <f t="shared" si="6"/>
+        <v>g_2_2</v>
       </c>
       <c r="F130">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G130">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H130" t="s">
         <v>12</v>
@@ -6059,7 +6059,7 @@
         <v>12</v>
       </c>
       <c r="L130" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6070,20 +6070,20 @@
         <v>2</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="4"/>
-        <v>j_2_3</v>
+        <f t="shared" si="6"/>
+        <v>h_2_2</v>
       </c>
       <c r="F131">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G131">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H131" t="s">
         <v>12</v>
@@ -6112,17 +6112,17 @@
         <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="4"/>
-        <v>k_2_3</v>
+        <f t="shared" si="6"/>
+        <v>i_2_3</v>
       </c>
       <c r="F132">
         <v>50</v>
       </c>
       <c r="G132">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H132" t="s">
         <v>12</v>
@@ -6137,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="L132" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6151,17 +6151,17 @@
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="4"/>
-        <v>l_2_3</v>
+        <f t="shared" si="6"/>
+        <v>j_2_3</v>
       </c>
       <c r="F133">
         <v>50</v>
       </c>
       <c r="G133">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H133" t="s">
         <v>12</v>
@@ -6184,23 +6184,23 @@
         <v>44760</v>
       </c>
       <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
         <v>3</v>
       </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="4"/>
-        <v>a_3_1</v>
+        <f t="shared" si="6"/>
+        <v>k_2_3</v>
       </c>
       <c r="F134">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G134">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H134" t="s">
         <v>12</v>
@@ -6215,7 +6215,7 @@
         <v>12</v>
       </c>
       <c r="L134" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6223,23 +6223,23 @@
         <v>44760</v>
       </c>
       <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
         <v>3</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
       <c r="D135" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" ref="E135:E198" si="5">D135&amp;"_" &amp; B135 &amp; "_" &amp; C135</f>
-        <v>b_3_1</v>
+        <f t="shared" si="6"/>
+        <v>l_2_3</v>
       </c>
       <c r="F135">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G135">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H135" t="s">
         <v>12</v>
@@ -6268,17 +6268,17 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="5"/>
-        <v>c_3_1</v>
+        <f t="shared" si="6"/>
+        <v>a_3_1</v>
       </c>
       <c r="F136">
         <v>250</v>
       </c>
       <c r="G136">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H136" t="s">
         <v>12</v>
@@ -6293,7 +6293,7 @@
         <v>12</v>
       </c>
       <c r="L136" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6307,17 +6307,17 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="5"/>
-        <v>d_3_1</v>
+        <f t="shared" ref="E137:E200" si="7">D137&amp;"_" &amp; B137 &amp; "_" &amp; C137</f>
+        <v>b_3_1</v>
       </c>
       <c r="F137">
         <v>250</v>
       </c>
       <c r="G137">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H137" t="s">
         <v>12</v>
@@ -6343,20 +6343,20 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="5"/>
-        <v>e_3_2</v>
+        <f t="shared" si="7"/>
+        <v>c_3_1</v>
       </c>
       <c r="F138">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G138">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H138" t="s">
         <v>12</v>
@@ -6371,7 +6371,7 @@
         <v>12</v>
       </c>
       <c r="L138" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6382,20 +6382,20 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="5"/>
-        <v>f_3_2</v>
+        <f t="shared" si="7"/>
+        <v>d_3_1</v>
       </c>
       <c r="F139">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G139">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H139" t="s">
         <v>12</v>
@@ -6424,17 +6424,17 @@
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="5"/>
-        <v>g_3_2</v>
+        <f t="shared" si="7"/>
+        <v>e_3_2</v>
       </c>
       <c r="F140">
         <v>150</v>
       </c>
       <c r="G140">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H140" t="s">
         <v>12</v>
@@ -6449,7 +6449,7 @@
         <v>12</v>
       </c>
       <c r="L140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6463,17 +6463,17 @@
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="5"/>
-        <v>h_3_2</v>
+        <f t="shared" si="7"/>
+        <v>f_3_2</v>
       </c>
       <c r="F141">
         <v>150</v>
       </c>
       <c r="G141">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H141" t="s">
         <v>12</v>
@@ -6499,20 +6499,20 @@
         <v>3</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="5"/>
-        <v>i_3_3</v>
+        <f t="shared" si="7"/>
+        <v>g_3_2</v>
       </c>
       <c r="F142">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G142">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
@@ -6527,7 +6527,7 @@
         <v>12</v>
       </c>
       <c r="L142" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6538,20 +6538,20 @@
         <v>3</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="5"/>
-        <v>j_3_3</v>
+        <f t="shared" si="7"/>
+        <v>h_3_2</v>
       </c>
       <c r="F143">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G143">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H143" t="s">
         <v>12</v>
@@ -6580,17 +6580,17 @@
         <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="5"/>
-        <v>k_3_3</v>
+        <f t="shared" si="7"/>
+        <v>i_3_3</v>
       </c>
       <c r="F144">
         <v>50</v>
       </c>
       <c r="G144">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
@@ -6605,7 +6605,7 @@
         <v>12</v>
       </c>
       <c r="L144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6619,17 +6619,17 @@
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="5"/>
-        <v>l_3_3</v>
+        <f t="shared" si="7"/>
+        <v>j_3_3</v>
       </c>
       <c r="F145">
         <v>50</v>
       </c>
       <c r="G145">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H145" t="s">
         <v>12</v>
@@ -6649,77 +6649,77 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="5"/>
-        <v>a_1_1</v>
-      </c>
-      <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146">
-        <v>-30</v>
-      </c>
-      <c r="I146">
-        <v>20</v>
-      </c>
-      <c r="J146">
+        <f t="shared" si="7"/>
+        <v>k_3_3</v>
+      </c>
+      <c r="F146">
+        <v>50</v>
+      </c>
+      <c r="G146">
         <v>100</v>
       </c>
-      <c r="K146">
-        <v>25</v>
+      <c r="H146" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" t="s">
+        <v>12</v>
+      </c>
+      <c r="J146" t="s">
+        <v>12</v>
+      </c>
+      <c r="K146" t="s">
+        <v>12</v>
       </c>
       <c r="L146" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="5"/>
-        <v>b_1_1</v>
-      </c>
-      <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147">
-        <v>150</v>
-      </c>
-      <c r="I147">
-        <v>50</v>
-      </c>
-      <c r="J147">
-        <v>100</v>
-      </c>
-      <c r="K147">
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>l_3_3</v>
+      </c>
+      <c r="F147">
+        <v>50</v>
+      </c>
+      <c r="G147">
+        <v>200</v>
+      </c>
+      <c r="H147" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" t="s">
+        <v>12</v>
+      </c>
+      <c r="J147" t="s">
+        <v>12</v>
+      </c>
+      <c r="K147" t="s">
+        <v>12</v>
       </c>
       <c r="L147" t="s">
         <v>15</v>
@@ -6736,11 +6736,11 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="5"/>
-        <v>c_1_1</v>
+        <f t="shared" si="7"/>
+        <v>a_1_1</v>
       </c>
       <c r="F148" t="s">
         <v>12</v>
@@ -6749,7 +6749,7 @@
         <v>12</v>
       </c>
       <c r="H148">
-        <v>150</v>
+        <v>-30</v>
       </c>
       <c r="I148">
         <v>20</v>
@@ -6761,12 +6761,12 @@
         <v>25</v>
       </c>
       <c r="L148" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -6775,37 +6775,37 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="5"/>
-        <v>h_1_1</v>
-      </c>
-      <c r="F149">
-        <v>250</v>
-      </c>
-      <c r="G149">
-        <v>-20</v>
-      </c>
-      <c r="H149" t="s">
-        <v>12</v>
-      </c>
-      <c r="I149" t="s">
-        <v>12</v>
-      </c>
-      <c r="J149" t="s">
-        <v>12</v>
-      </c>
-      <c r="K149" t="s">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>b_1_1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149">
+        <v>150</v>
+      </c>
+      <c r="I149">
+        <v>50</v>
+      </c>
+      <c r="J149">
+        <v>100</v>
+      </c>
+      <c r="K149">
+        <v>25</v>
       </c>
       <c r="L149" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -6814,29 +6814,29 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="5"/>
-        <v>b_1_1</v>
-      </c>
-      <c r="F150">
-        <v>250</v>
-      </c>
-      <c r="G150">
+        <f t="shared" si="7"/>
+        <v>c_1_1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150">
+        <v>150</v>
+      </c>
+      <c r="I150">
         <v>20</v>
       </c>
-      <c r="H150" t="s">
-        <v>12</v>
-      </c>
-      <c r="I150" t="s">
-        <v>12</v>
-      </c>
-      <c r="J150" t="s">
-        <v>12</v>
-      </c>
-      <c r="K150" t="s">
-        <v>12</v>
+      <c r="J150">
+        <v>100</v>
+      </c>
+      <c r="K150">
+        <v>25</v>
       </c>
       <c r="L150" t="s">
         <v>15</v>
@@ -6853,17 +6853,17 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="5"/>
-        <v>c_1_1</v>
+        <f t="shared" si="7"/>
+        <v>h_1_1</v>
       </c>
       <c r="F151">
         <v>250</v>
       </c>
       <c r="G151">
-        <v>35</v>
+        <v>-20</v>
       </c>
       <c r="H151" t="s">
         <v>12</v>
@@ -6878,7 +6878,7 @@
         <v>12</v>
       </c>
       <c r="L151" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6892,17 +6892,17 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="5"/>
-        <v>d_1_1</v>
+        <f t="shared" si="7"/>
+        <v>b_1_1</v>
       </c>
       <c r="F152">
         <v>250</v>
       </c>
       <c r="G152">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H152" t="s">
         <v>12</v>
@@ -6928,20 +6928,20 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="5"/>
-        <v>e_1_2</v>
+        <f t="shared" si="7"/>
+        <v>c_1_1</v>
       </c>
       <c r="F153">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G153">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="H153" t="s">
         <v>12</v>
@@ -6956,7 +6956,7 @@
         <v>12</v>
       </c>
       <c r="L153" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6967,20 +6967,20 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="5"/>
-        <v>f_1_2</v>
+        <f t="shared" si="7"/>
+        <v>d_1_1</v>
       </c>
       <c r="F154">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G154">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
@@ -7009,17 +7009,17 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="5"/>
-        <v>g_1_2</v>
+        <f t="shared" si="7"/>
+        <v>e_1_2</v>
       </c>
       <c r="F155">
         <v>150</v>
       </c>
       <c r="G155">
-        <v>35</v>
+        <v>-20</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
@@ -7034,7 +7034,7 @@
         <v>12</v>
       </c>
       <c r="L155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7048,17 +7048,17 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="5"/>
-        <v>a_1_2</v>
+        <f t="shared" si="7"/>
+        <v>f_1_2</v>
       </c>
       <c r="F156">
         <v>150</v>
       </c>
       <c r="G156">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H156" t="s">
         <v>12</v>
@@ -7084,20 +7084,20 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="5"/>
-        <v>i_1_3</v>
+        <f t="shared" si="7"/>
+        <v>g_1_2</v>
       </c>
       <c r="F157">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G157">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
@@ -7112,7 +7112,7 @@
         <v>12</v>
       </c>
       <c r="L157" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7123,20 +7123,20 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="5"/>
-        <v>j_1_3</v>
+        <f t="shared" si="7"/>
+        <v>a_1_2</v>
       </c>
       <c r="F158">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G158">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H158" t="s">
         <v>12</v>
@@ -7165,17 +7165,17 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="5"/>
-        <v>k_1_3</v>
+        <f t="shared" si="7"/>
+        <v>i_1_3</v>
       </c>
       <c r="F159">
         <v>50</v>
       </c>
       <c r="G159">
-        <v>35</v>
+        <v>-20</v>
       </c>
       <c r="H159" t="s">
         <v>12</v>
@@ -7190,7 +7190,7 @@
         <v>12</v>
       </c>
       <c r="L159" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7204,17 +7204,17 @@
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="5"/>
-        <v>l_1_3</v>
+        <f t="shared" si="7"/>
+        <v>j_1_3</v>
       </c>
       <c r="F160">
         <v>50</v>
       </c>
       <c r="G160">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H160" t="s">
         <v>12</v>
@@ -7237,23 +7237,23 @@
         <v>44800</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="5"/>
-        <v>h_2_1</v>
+        <f t="shared" si="7"/>
+        <v>k_1_3</v>
       </c>
       <c r="F161">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G161">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="H161" t="s">
         <v>12</v>
@@ -7268,7 +7268,7 @@
         <v>12</v>
       </c>
       <c r="L161" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7276,23 +7276,23 @@
         <v>44800</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="5"/>
-        <v>b_2_1</v>
+        <f t="shared" si="7"/>
+        <v>l_1_3</v>
       </c>
       <c r="F162">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G162">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H162" t="s">
         <v>12</v>
@@ -7321,17 +7321,17 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="5"/>
-        <v>c_2_1</v>
+        <f t="shared" si="7"/>
+        <v>h_2_1</v>
       </c>
       <c r="F163">
         <v>250</v>
       </c>
       <c r="G163">
-        <v>35</v>
+        <v>-20</v>
       </c>
       <c r="H163" t="s">
         <v>12</v>
@@ -7346,7 +7346,7 @@
         <v>12</v>
       </c>
       <c r="L163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7360,17 +7360,17 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="5"/>
-        <v>d_2_1</v>
+        <f t="shared" si="7"/>
+        <v>b_2_1</v>
       </c>
       <c r="F164">
         <v>250</v>
       </c>
       <c r="G164">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H164" t="s">
         <v>12</v>
@@ -7396,20 +7396,20 @@
         <v>2</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="5"/>
-        <v>e_2_2</v>
+        <f t="shared" si="7"/>
+        <v>c_2_1</v>
       </c>
       <c r="F165">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G165">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="H165" t="s">
         <v>12</v>
@@ -7424,7 +7424,7 @@
         <v>12</v>
       </c>
       <c r="L165" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7435,20 +7435,20 @@
         <v>2</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="5"/>
-        <v>f_2_2</v>
+        <f t="shared" si="7"/>
+        <v>d_2_1</v>
       </c>
       <c r="F166">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G166">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H166" t="s">
         <v>12</v>
@@ -7477,17 +7477,17 @@
         <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="5"/>
-        <v>g_2_2</v>
+        <f t="shared" si="7"/>
+        <v>e_2_2</v>
       </c>
       <c r="F167">
         <v>150</v>
       </c>
       <c r="G167">
-        <v>35</v>
+        <v>-20</v>
       </c>
       <c r="H167" t="s">
         <v>12</v>
@@ -7502,7 +7502,7 @@
         <v>12</v>
       </c>
       <c r="L167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7516,17 +7516,17 @@
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="5"/>
-        <v>a_2_2</v>
+        <f t="shared" si="7"/>
+        <v>f_2_2</v>
       </c>
       <c r="F168">
         <v>150</v>
       </c>
       <c r="G168">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H168" t="s">
         <v>12</v>
@@ -7552,20 +7552,20 @@
         <v>2</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="5"/>
-        <v>i_2_3</v>
+        <f t="shared" si="7"/>
+        <v>g_2_2</v>
       </c>
       <c r="F169">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G169">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="H169" t="s">
         <v>12</v>
@@ -7580,7 +7580,7 @@
         <v>12</v>
       </c>
       <c r="L169" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7591,20 +7591,20 @@
         <v>2</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="5"/>
-        <v>j_2_3</v>
+        <f t="shared" si="7"/>
+        <v>a_2_2</v>
       </c>
       <c r="F170">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G170">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H170" t="s">
         <v>12</v>
@@ -7633,17 +7633,17 @@
         <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="5"/>
-        <v>k_2_3</v>
+        <f t="shared" si="7"/>
+        <v>i_2_3</v>
       </c>
       <c r="F171">
         <v>50</v>
       </c>
       <c r="G171">
-        <v>35</v>
+        <v>-20</v>
       </c>
       <c r="H171" t="s">
         <v>12</v>
@@ -7658,7 +7658,7 @@
         <v>12</v>
       </c>
       <c r="L171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7672,17 +7672,17 @@
         <v>3</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="5"/>
-        <v>l_2_3</v>
+        <f t="shared" si="7"/>
+        <v>j_2_3</v>
       </c>
       <c r="F172">
         <v>50</v>
       </c>
       <c r="G172">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
@@ -7705,23 +7705,23 @@
         <v>44800</v>
       </c>
       <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
         <v>3</v>
       </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="5"/>
-        <v>h_3_1</v>
+        <f t="shared" si="7"/>
+        <v>k_2_3</v>
       </c>
       <c r="F173">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G173">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="H173" t="s">
         <v>12</v>
@@ -7736,7 +7736,7 @@
         <v>12</v>
       </c>
       <c r="L173" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7744,23 +7744,23 @@
         <v>44800</v>
       </c>
       <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
         <v>3</v>
       </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
       <c r="D174" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="5"/>
-        <v>b_3_1</v>
+        <f t="shared" si="7"/>
+        <v>l_2_3</v>
       </c>
       <c r="F174">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G174">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H174" t="s">
         <v>12</v>
@@ -7789,17 +7789,17 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="5"/>
-        <v>c_3_1</v>
+        <f t="shared" si="7"/>
+        <v>h_3_1</v>
       </c>
       <c r="F175">
         <v>250</v>
       </c>
       <c r="G175">
-        <v>35</v>
+        <v>-20</v>
       </c>
       <c r="H175" t="s">
         <v>12</v>
@@ -7814,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="L175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7828,17 +7828,17 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="5"/>
-        <v>d_3_1</v>
+        <f t="shared" si="7"/>
+        <v>b_3_1</v>
       </c>
       <c r="F176">
         <v>250</v>
       </c>
       <c r="G176">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H176" t="s">
         <v>12</v>
@@ -7864,20 +7864,20 @@
         <v>3</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="5"/>
-        <v>e_3_2</v>
+        <f t="shared" si="7"/>
+        <v>c_3_1</v>
       </c>
       <c r="F177">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G177">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="H177" t="s">
         <v>12</v>
@@ -7892,7 +7892,7 @@
         <v>12</v>
       </c>
       <c r="L177" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7903,20 +7903,20 @@
         <v>3</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="5"/>
-        <v>f_3_2</v>
+        <f t="shared" si="7"/>
+        <v>d_3_1</v>
       </c>
       <c r="F178">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G178">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H178" t="s">
         <v>12</v>
@@ -7945,17 +7945,17 @@
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="5"/>
-        <v>g_3_2</v>
+        <f t="shared" si="7"/>
+        <v>e_3_2</v>
       </c>
       <c r="F179">
         <v>150</v>
       </c>
       <c r="G179">
-        <v>75</v>
+        <v>-20</v>
       </c>
       <c r="H179" t="s">
         <v>12</v>
@@ -7970,7 +7970,7 @@
         <v>12</v>
       </c>
       <c r="L179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7984,17 +7984,17 @@
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="5"/>
-        <v>a_3_2</v>
+        <f t="shared" si="7"/>
+        <v>f_3_2</v>
       </c>
       <c r="F180">
         <v>150</v>
       </c>
       <c r="G180">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H180" t="s">
         <v>12</v>
@@ -8020,20 +8020,20 @@
         <v>3</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="5"/>
-        <v>i_3_3</v>
+        <f t="shared" si="7"/>
+        <v>g_3_2</v>
       </c>
       <c r="F181">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G181">
-        <v>-20</v>
+        <v>75</v>
       </c>
       <c r="H181" t="s">
         <v>12</v>
@@ -8048,7 +8048,7 @@
         <v>12</v>
       </c>
       <c r="L181" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8059,20 +8059,20 @@
         <v>3</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="5"/>
-        <v>j_3_3</v>
+        <f t="shared" si="7"/>
+        <v>a_3_2</v>
       </c>
       <c r="F182">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G182">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H182" t="s">
         <v>12</v>
@@ -8101,17 +8101,17 @@
         <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="5"/>
-        <v>k_3_3</v>
+        <f t="shared" si="7"/>
+        <v>i_3_3</v>
       </c>
       <c r="F183">
         <v>50</v>
       </c>
       <c r="G183">
-        <v>75</v>
+        <v>-20</v>
       </c>
       <c r="H183" t="s">
         <v>12</v>
@@ -8126,7 +8126,7 @@
         <v>12</v>
       </c>
       <c r="L183" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8140,17 +8140,17 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="5"/>
-        <v>l_3_3</v>
+        <f t="shared" si="7"/>
+        <v>j_3_3</v>
       </c>
       <c r="F184">
         <v>50</v>
       </c>
       <c r="G184">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H184" t="s">
         <v>12</v>
@@ -8170,26 +8170,26 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="5"/>
-        <v>a_1_1</v>
+        <f t="shared" si="7"/>
+        <v>k_3_3</v>
       </c>
       <c r="F185">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="G185">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H185" t="s">
         <v>12</v>
@@ -8204,31 +8204,31 @@
         <v>12</v>
       </c>
       <c r="L185" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="5"/>
-        <v>b_1_1</v>
+        <f t="shared" si="7"/>
+        <v>l_3_3</v>
       </c>
       <c r="F186">
         <v>50</v>
       </c>
       <c r="G186">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H186" t="s">
         <v>12</v>
@@ -8257,17 +8257,17 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="5"/>
-        <v>c_1_1</v>
+        <f t="shared" si="7"/>
+        <v>a_1_1</v>
       </c>
       <c r="F187">
-        <v>150</v>
+        <v>-25</v>
       </c>
       <c r="G187">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H187" t="s">
         <v>12</v>
@@ -8282,7 +8282,7 @@
         <v>12</v>
       </c>
       <c r="L187" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8296,14 +8296,14 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="5"/>
-        <v>d_1_1</v>
+        <f t="shared" si="7"/>
+        <v>b_1_1</v>
       </c>
       <c r="F188">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G188">
         <v>150</v>
@@ -8332,20 +8332,20 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="5"/>
-        <v>e_1_2</v>
+        <f t="shared" si="7"/>
+        <v>c_1_1</v>
       </c>
       <c r="F189">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G189">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H189" t="s">
         <v>12</v>
@@ -8371,20 +8371,20 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="5"/>
-        <v>f_1_2</v>
+        <f t="shared" si="7"/>
+        <v>d_1_1</v>
       </c>
       <c r="F190">
+        <v>250</v>
+      </c>
+      <c r="G190">
         <v>150</v>
-      </c>
-      <c r="G190">
-        <v>75</v>
       </c>
       <c r="H190" t="s">
         <v>12</v>
@@ -8413,14 +8413,14 @@
         <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="5"/>
-        <v>g_1_2</v>
+        <f t="shared" si="7"/>
+        <v>e_1_2</v>
       </c>
       <c r="F191">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G191">
         <v>75</v>
@@ -8446,23 +8446,23 @@
         <v>44839</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="5"/>
-        <v>a_2_1</v>
+        <f t="shared" si="7"/>
+        <v>f_1_2</v>
       </c>
       <c r="F192">
-        <v>-25</v>
+        <v>150</v>
       </c>
       <c r="G192">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H192" t="s">
         <v>12</v>
@@ -8477,7 +8477,7 @@
         <v>12</v>
       </c>
       <c r="L192" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8485,23 +8485,23 @@
         <v>44839</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="5"/>
-        <v>b_2_1</v>
+        <f t="shared" si="7"/>
+        <v>g_1_2</v>
       </c>
       <c r="F193">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G193">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H193" t="s">
         <v>12</v>
@@ -8530,17 +8530,17 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" si="5"/>
-        <v>c_2_1</v>
+        <f t="shared" si="7"/>
+        <v>a_2_1</v>
       </c>
       <c r="F194">
-        <v>150</v>
+        <v>-25</v>
       </c>
       <c r="G194">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H194" t="s">
         <v>12</v>
@@ -8555,7 +8555,7 @@
         <v>12</v>
       </c>
       <c r="L194" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8569,14 +8569,14 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" si="5"/>
-        <v>d_2_1</v>
+        <f t="shared" si="7"/>
+        <v>b_2_1</v>
       </c>
       <c r="F195">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G195">
         <v>150</v>
@@ -8605,20 +8605,20 @@
         <v>2</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" si="5"/>
-        <v>e_2_2</v>
+        <f t="shared" si="7"/>
+        <v>c_2_1</v>
       </c>
       <c r="F196">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G196">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H196" t="s">
         <v>12</v>
@@ -8644,20 +8644,20 @@
         <v>2</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="5"/>
-        <v>f_2_2</v>
+        <f t="shared" si="7"/>
+        <v>d_2_1</v>
       </c>
       <c r="F197">
+        <v>250</v>
+      </c>
+      <c r="G197">
         <v>150</v>
-      </c>
-      <c r="G197">
-        <v>75</v>
       </c>
       <c r="H197" t="s">
         <v>12</v>
@@ -8686,14 +8686,14 @@
         <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="5"/>
-        <v>g_2_2</v>
+        <f t="shared" si="7"/>
+        <v>e_2_2</v>
       </c>
       <c r="F198">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G198">
         <v>75</v>
@@ -8716,26 +8716,26 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" ref="E199:E262" si="6">D199&amp;"_" &amp; B199 &amp; "_" &amp; C199</f>
-        <v>a_1_1</v>
+        <f t="shared" si="7"/>
+        <v>f_2_2</v>
       </c>
       <c r="F199">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G199">
-        <v>-20</v>
+        <v>75</v>
       </c>
       <c r="H199" t="s">
         <v>12</v>
@@ -8750,31 +8750,31 @@
         <v>12</v>
       </c>
       <c r="L199" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="6"/>
-        <v>b_1_1</v>
+        <f t="shared" si="7"/>
+        <v>g_2_2</v>
       </c>
       <c r="F200">
         <v>250</v>
       </c>
       <c r="G200">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H200" t="s">
         <v>12</v>
@@ -8803,17 +8803,17 @@
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="6"/>
-        <v>c_1_1</v>
+        <f t="shared" ref="E201:E264" si="8">D201&amp;"_" &amp; B201 &amp; "_" &amp; C201</f>
+        <v>a_1_1</v>
       </c>
       <c r="F201">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G201">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H201" t="s">
         <v>12</v>
@@ -8828,7 +8828,7 @@
         <v>12</v>
       </c>
       <c r="L201" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8842,17 +8842,17 @@
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="6"/>
-        <v>h_1_1</v>
+        <f t="shared" si="8"/>
+        <v>b_1_1</v>
       </c>
       <c r="F202">
         <v>250</v>
       </c>
       <c r="G202">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H202" t="s">
         <v>12</v>
@@ -8878,20 +8878,20 @@
         <v>1</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="6"/>
-        <v>e_1_2</v>
+        <f t="shared" si="8"/>
+        <v>c_1_1</v>
       </c>
       <c r="F203">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G203">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H203" t="s">
         <v>12</v>
@@ -8917,20 +8917,20 @@
         <v>1</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="6"/>
-        <v>f_1_2</v>
+        <f t="shared" si="8"/>
+        <v>h_1_1</v>
       </c>
       <c r="F204">
+        <v>250</v>
+      </c>
+      <c r="G204">
         <v>150</v>
-      </c>
-      <c r="G204">
-        <v>50</v>
       </c>
       <c r="H204" t="s">
         <v>12</v>
@@ -8959,17 +8959,17 @@
         <v>2</v>
       </c>
       <c r="D205" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E205" t="str">
-        <f t="shared" si="6"/>
-        <v>g_1_2</v>
+        <f t="shared" si="8"/>
+        <v>e_1_2</v>
       </c>
       <c r="F205">
         <v>150</v>
       </c>
       <c r="G205">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H205" t="s">
         <v>12</v>
@@ -8998,17 +8998,17 @@
         <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="6"/>
-        <v>d_1_2</v>
+        <f t="shared" si="8"/>
+        <v>f_1_2</v>
       </c>
       <c r="F206">
         <v>150</v>
       </c>
       <c r="G206">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H206" t="s">
         <v>12</v>
@@ -9034,20 +9034,20 @@
         <v>1</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="6"/>
-        <v>i_1_3</v>
+        <f t="shared" si="8"/>
+        <v>g_1_2</v>
       </c>
       <c r="F207">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G207">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H207" t="s">
         <v>12</v>
@@ -9073,20 +9073,20 @@
         <v>1</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="6"/>
-        <v>j_1_3</v>
+        <f t="shared" si="8"/>
+        <v>d_1_2</v>
       </c>
       <c r="F208">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G208">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H208" t="s">
         <v>12</v>
@@ -9115,17 +9115,17 @@
         <v>3</v>
       </c>
       <c r="D209" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="6"/>
-        <v>k_1_3</v>
+        <f t="shared" si="8"/>
+        <v>i_1_3</v>
       </c>
       <c r="F209">
         <v>50</v>
       </c>
       <c r="G209">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H209" t="s">
         <v>12</v>
@@ -9154,17 +9154,17 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="6"/>
-        <v>l_1_3</v>
+        <f t="shared" si="8"/>
+        <v>j_1_3</v>
       </c>
       <c r="F210">
         <v>50</v>
       </c>
       <c r="G210">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H210" t="s">
         <v>12</v>
@@ -9187,24 +9187,24 @@
         <v>44849</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E211" t="str">
-        <f t="shared" si="6"/>
-        <v>a_2_1</v>
+        <f t="shared" si="8"/>
+        <v>k_1_3</v>
       </c>
       <c r="F211">
+        <v>50</v>
+      </c>
+      <c r="G211">
         <v>100</v>
       </c>
-      <c r="G211">
-        <v>-20</v>
-      </c>
       <c r="H211" t="s">
         <v>12</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>12</v>
       </c>
       <c r="L211" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9226,23 +9226,23 @@
         <v>44849</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E212" t="str">
-        <f t="shared" si="6"/>
-        <v>b_2_1</v>
+        <f t="shared" si="8"/>
+        <v>l_1_3</v>
       </c>
       <c r="F212">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G212">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H212" t="s">
         <v>12</v>
@@ -9271,17 +9271,17 @@
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E213" t="str">
-        <f t="shared" si="6"/>
-        <v>c_2_1</v>
+        <f t="shared" si="8"/>
+        <v>a_2_1</v>
       </c>
       <c r="F213">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G213">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H213" t="s">
         <v>12</v>
@@ -9296,7 +9296,7 @@
         <v>12</v>
       </c>
       <c r="L213" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9310,17 +9310,17 @@
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="6"/>
-        <v>h_2_1</v>
+        <f t="shared" si="8"/>
+        <v>b_2_1</v>
       </c>
       <c r="F214">
         <v>250</v>
       </c>
       <c r="G214">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H214" t="s">
         <v>12</v>
@@ -9346,20 +9346,20 @@
         <v>2</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E215" t="str">
-        <f t="shared" si="6"/>
-        <v>e_2_2</v>
+        <f t="shared" si="8"/>
+        <v>c_2_1</v>
       </c>
       <c r="F215">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G215">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H215" t="s">
         <v>12</v>
@@ -9385,20 +9385,20 @@
         <v>2</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E216" t="str">
-        <f t="shared" si="6"/>
-        <v>f_2_2</v>
+        <f t="shared" si="8"/>
+        <v>h_2_1</v>
       </c>
       <c r="F216">
+        <v>250</v>
+      </c>
+      <c r="G216">
         <v>150</v>
-      </c>
-      <c r="G216">
-        <v>50</v>
       </c>
       <c r="H216" t="s">
         <v>12</v>
@@ -9427,17 +9427,17 @@
         <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E217" t="str">
-        <f t="shared" si="6"/>
-        <v>g_2_2</v>
+        <f t="shared" si="8"/>
+        <v>e_2_2</v>
       </c>
       <c r="F217">
         <v>150</v>
       </c>
       <c r="G217">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H217" t="s">
         <v>12</v>
@@ -9466,17 +9466,17 @@
         <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E218" t="str">
-        <f t="shared" si="6"/>
-        <v>d_2_2</v>
+        <f t="shared" si="8"/>
+        <v>f_2_2</v>
       </c>
       <c r="F218">
         <v>150</v>
       </c>
       <c r="G218">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H218" t="s">
         <v>12</v>
@@ -9502,20 +9502,20 @@
         <v>2</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E219" t="str">
-        <f t="shared" si="6"/>
-        <v>i_2_3</v>
+        <f t="shared" si="8"/>
+        <v>g_2_2</v>
       </c>
       <c r="F219">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G219">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H219" t="s">
         <v>12</v>
@@ -9541,20 +9541,20 @@
         <v>2</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E220" t="str">
-        <f t="shared" si="6"/>
-        <v>j_2_3</v>
+        <f t="shared" si="8"/>
+        <v>d_2_2</v>
       </c>
       <c r="F220">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G220">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H220" t="s">
         <v>12</v>
@@ -9583,17 +9583,17 @@
         <v>3</v>
       </c>
       <c r="D221" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="6"/>
-        <v>k_2_3</v>
+        <f t="shared" si="8"/>
+        <v>i_2_3</v>
       </c>
       <c r="F221">
         <v>50</v>
       </c>
       <c r="G221">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
@@ -9622,17 +9622,17 @@
         <v>3</v>
       </c>
       <c r="D222" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" si="6"/>
-        <v>l_2_3</v>
+        <f t="shared" si="8"/>
+        <v>j_2_3</v>
       </c>
       <c r="F222">
         <v>50</v>
       </c>
       <c r="G222">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H222" t="s">
         <v>12</v>
@@ -9652,26 +9652,26 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D223" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E223" t="str">
-        <f t="shared" si="6"/>
-        <v>j_1_1</v>
+        <f t="shared" si="8"/>
+        <v>k_2_3</v>
       </c>
       <c r="F223">
         <v>50</v>
       </c>
       <c r="G223">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H223" t="s">
         <v>12</v>
@@ -9691,23 +9691,23 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E224" t="str">
-        <f t="shared" si="6"/>
-        <v>k_1_1</v>
+        <f t="shared" si="8"/>
+        <v>l_2_3</v>
       </c>
       <c r="F224">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G224">
         <v>150</v>
@@ -9739,14 +9739,14 @@
         <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E225" t="str">
-        <f t="shared" si="6"/>
-        <v>l_1_1</v>
+        <f t="shared" si="8"/>
+        <v>j_1_1</v>
       </c>
       <c r="F225">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G225">
         <v>150</v>
@@ -9775,20 +9775,20 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E226" t="str">
-        <f t="shared" si="6"/>
-        <v>f_1_2</v>
+        <f t="shared" si="8"/>
+        <v>k_1_1</v>
       </c>
       <c r="F226">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G226">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H226" t="s">
         <v>12</v>
@@ -9814,20 +9814,20 @@
         <v>1</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E227" t="str">
-        <f t="shared" si="6"/>
-        <v>g_1_2</v>
+        <f t="shared" si="8"/>
+        <v>l_1_1</v>
       </c>
       <c r="F227">
+        <v>200</v>
+      </c>
+      <c r="G227">
         <v>150</v>
-      </c>
-      <c r="G227">
-        <v>75</v>
       </c>
       <c r="H227" t="s">
         <v>12</v>
@@ -9856,14 +9856,14 @@
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E228" t="str">
-        <f t="shared" si="6"/>
-        <v>i_1_2</v>
+        <f t="shared" si="8"/>
+        <v>f_1_2</v>
       </c>
       <c r="F228">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G228">
         <v>75</v>
@@ -9892,20 +9892,20 @@
         <v>1</v>
       </c>
       <c r="C229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E229" t="str">
-        <f t="shared" si="6"/>
-        <v>b_1_3</v>
+        <f t="shared" si="8"/>
+        <v>g_1_2</v>
       </c>
       <c r="F229">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G229">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H229" t="s">
         <v>12</v>
@@ -9931,20 +9931,20 @@
         <v>1</v>
       </c>
       <c r="C230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E230" t="str">
-        <f t="shared" si="6"/>
-        <v>c_1_3</v>
+        <f t="shared" si="8"/>
+        <v>i_1_2</v>
       </c>
       <c r="F230">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G230">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H230" t="s">
         <v>12</v>
@@ -9973,14 +9973,14 @@
         <v>3</v>
       </c>
       <c r="D231" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E231" t="str">
-        <f t="shared" si="6"/>
-        <v>d_1_3</v>
+        <f t="shared" si="8"/>
+        <v>b_1_3</v>
       </c>
       <c r="F231">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G231">
         <v>25</v>
@@ -10012,14 +10012,14 @@
         <v>3</v>
       </c>
       <c r="D232" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="6"/>
-        <v>e_1_3</v>
+        <f t="shared" si="8"/>
+        <v>c_1_3</v>
       </c>
       <c r="F232">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G232">
         <v>25</v>
@@ -10048,17 +10048,17 @@
         <v>1</v>
       </c>
       <c r="C233">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D233" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E233" t="str">
-        <f t="shared" si="6"/>
-        <v>h_1_5</v>
+        <f t="shared" si="8"/>
+        <v>d_1_3</v>
       </c>
       <c r="F233">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G233">
         <v>25</v>
@@ -10087,20 +10087,20 @@
         <v>1</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D234" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E234" t="str">
-        <f t="shared" si="6"/>
-        <v>a_1_1</v>
+        <f t="shared" si="8"/>
+        <v>e_1_3</v>
       </c>
       <c r="F234">
-        <v>-25</v>
+        <v>200</v>
       </c>
       <c r="G234">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H234" t="s">
         <v>12</v>
@@ -10115,31 +10115,31 @@
         <v>12</v>
       </c>
       <c r="L234" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D235" t="s">
         <v>20</v>
       </c>
       <c r="E235" t="str">
-        <f t="shared" si="6"/>
-        <v>h_1_1</v>
+        <f t="shared" si="8"/>
+        <v>h_1_5</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G235">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H235" t="s">
         <v>12</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -10168,17 +10168,17 @@
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E236" t="str">
-        <f t="shared" si="6"/>
-        <v>l_1_1</v>
+        <f t="shared" si="8"/>
+        <v>a_1_1</v>
       </c>
       <c r="F236">
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="G236">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H236" t="s">
         <v>12</v>
@@ -10193,7 +10193,7 @@
         <v>12</v>
       </c>
       <c r="L236" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -10207,14 +10207,14 @@
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E237" t="str">
-        <f t="shared" si="6"/>
-        <v>k_1_1</v>
+        <f t="shared" si="8"/>
+        <v>h_1_1</v>
       </c>
       <c r="F237">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G237">
         <v>150</v>
@@ -10243,17 +10243,17 @@
         <v>1</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E238" t="str">
-        <f t="shared" si="6"/>
-        <v>i_1_2</v>
+        <f t="shared" si="8"/>
+        <v>l_1_1</v>
       </c>
       <c r="F238">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G238">
         <v>150</v>
@@ -10282,20 +10282,20 @@
         <v>1</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="6"/>
-        <v>j_1_2</v>
+        <f t="shared" si="8"/>
+        <v>k_1_1</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G239">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H239" t="s">
         <v>12</v>
@@ -10324,17 +10324,17 @@
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E240" t="str">
-        <f t="shared" si="6"/>
-        <v>g_1_2</v>
+        <f t="shared" si="8"/>
+        <v>i_1_2</v>
       </c>
       <c r="F240">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G240">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H240" t="s">
         <v>12</v>
@@ -10360,17 +10360,17 @@
         <v>1</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E241" t="str">
-        <f t="shared" si="6"/>
-        <v>f_1_3</v>
+        <f t="shared" si="8"/>
+        <v>j_1_2</v>
       </c>
       <c r="F241">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G241">
         <v>75</v>
@@ -10399,17 +10399,17 @@
         <v>1</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E242" t="str">
-        <f t="shared" si="6"/>
-        <v>e_1_3</v>
+        <f t="shared" si="8"/>
+        <v>g_1_2</v>
       </c>
       <c r="F242">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G242">
         <v>75</v>
@@ -10441,17 +10441,17 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E243" t="str">
-        <f t="shared" si="6"/>
-        <v>d_1_3</v>
+        <f t="shared" si="8"/>
+        <v>f_1_3</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G243">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H243" t="s">
         <v>12</v>
@@ -10477,20 +10477,20 @@
         <v>1</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E244" t="str">
-        <f t="shared" si="6"/>
-        <v>c_1_4</v>
+        <f t="shared" si="8"/>
+        <v>e_1_3</v>
       </c>
       <c r="F244">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G244">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H244" t="s">
         <v>12</v>
@@ -10516,17 +10516,17 @@
         <v>1</v>
       </c>
       <c r="C245">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D245" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="6"/>
-        <v>b_1_4</v>
+        <f t="shared" si="8"/>
+        <v>d_1_3</v>
       </c>
       <c r="F245">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G245">
         <v>25</v>
@@ -10558,14 +10558,14 @@
         <v>4</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E246" t="str">
-        <f t="shared" si="6"/>
-        <v>a_1_4</v>
+        <f t="shared" si="8"/>
+        <v>c_1_4</v>
       </c>
       <c r="F246">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G246">
         <v>25</v>
@@ -10591,23 +10591,23 @@
         <v>44874</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E247" t="str">
-        <f t="shared" si="6"/>
-        <v>a_2_1</v>
+        <f t="shared" si="8"/>
+        <v>b_1_4</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G247">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H247" t="s">
         <v>12</v>
@@ -10630,23 +10630,23 @@
         <v>44874</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E248" t="str">
-        <f t="shared" si="6"/>
-        <v>e_2_1</v>
+        <f t="shared" si="8"/>
+        <v>a_1_4</v>
       </c>
       <c r="F248">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G248">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H248" t="s">
         <v>12</v>
@@ -10675,14 +10675,14 @@
         <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E249" t="str">
-        <f t="shared" si="6"/>
-        <v>i_2_1</v>
+        <f t="shared" si="8"/>
+        <v>a_2_1</v>
       </c>
       <c r="F249">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G249">
         <v>150</v>
@@ -10711,17 +10711,17 @@
         <v>2</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E250" t="str">
-        <f t="shared" si="6"/>
-        <v>b_2_2</v>
+        <f t="shared" si="8"/>
+        <v>e_2_1</v>
       </c>
       <c r="F250">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G250">
         <v>150</v>
@@ -10750,20 +10750,20 @@
         <v>2</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E251" t="str">
-        <f t="shared" si="6"/>
-        <v>f_2_2</v>
+        <f t="shared" si="8"/>
+        <v>i_2_1</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G251">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H251" t="s">
         <v>12</v>
@@ -10792,17 +10792,17 @@
         <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E252" t="str">
-        <f t="shared" si="6"/>
-        <v>k_2_2</v>
+        <f t="shared" si="8"/>
+        <v>b_2_2</v>
       </c>
       <c r="F252">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G252">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H252" t="s">
         <v>12</v>
@@ -10828,17 +10828,17 @@
         <v>2</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D253" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E253" t="str">
-        <f t="shared" si="6"/>
-        <v>c_2_3</v>
+        <f t="shared" si="8"/>
+        <v>f_2_2</v>
       </c>
       <c r="F253">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G253">
         <v>75</v>
@@ -10867,17 +10867,17 @@
         <v>2</v>
       </c>
       <c r="C254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E254" t="str">
-        <f t="shared" si="6"/>
-        <v>g_2_3</v>
+        <f t="shared" si="8"/>
+        <v>k_2_2</v>
       </c>
       <c r="F254">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G254">
         <v>75</v>
@@ -10909,17 +10909,17 @@
         <v>3</v>
       </c>
       <c r="D255" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E255" t="str">
-        <f t="shared" si="6"/>
-        <v>l_2_3</v>
+        <f t="shared" si="8"/>
+        <v>c_2_3</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G255">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H255" t="s">
         <v>12</v>
@@ -10945,20 +10945,20 @@
         <v>2</v>
       </c>
       <c r="C256">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E256" t="str">
-        <f t="shared" si="6"/>
-        <v>d_2_4</v>
+        <f t="shared" si="8"/>
+        <v>g_2_3</v>
       </c>
       <c r="F256">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G256">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H256" t="s">
         <v>12</v>
@@ -10984,17 +10984,17 @@
         <v>2</v>
       </c>
       <c r="C257">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E257" t="str">
-        <f t="shared" si="6"/>
-        <v>j_2_4</v>
+        <f t="shared" si="8"/>
+        <v>l_2_3</v>
       </c>
       <c r="F257">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G257">
         <v>25</v>
@@ -11026,14 +11026,14 @@
         <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E258" t="str">
-        <f t="shared" si="6"/>
-        <v>h_2_4</v>
+        <f t="shared" si="8"/>
+        <v>d_2_4</v>
       </c>
       <c r="F258">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G258">
         <v>25</v>
@@ -11056,26 +11056,26 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="6"/>
-        <v>a_1_1</v>
+        <f t="shared" si="8"/>
+        <v>j_2_4</v>
       </c>
       <c r="F259">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G259">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H259" t="s">
         <v>12</v>
@@ -11090,31 +11090,31 @@
         <v>12</v>
       </c>
       <c r="L259" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D260" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" si="6"/>
-        <v>b_1_1</v>
+        <f t="shared" si="8"/>
+        <v>h_2_4</v>
       </c>
       <c r="F260">
         <v>250</v>
       </c>
       <c r="G260">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H260" t="s">
         <v>12</v>
@@ -11143,17 +11143,17 @@
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E261" t="str">
-        <f t="shared" si="6"/>
-        <v>c_1_1</v>
+        <f t="shared" si="8"/>
+        <v>a_1_1</v>
       </c>
       <c r="F261">
         <v>250</v>
       </c>
       <c r="G261">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H261" t="s">
         <v>12</v>
@@ -11168,7 +11168,7 @@
         <v>12</v>
       </c>
       <c r="L261" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11182,17 +11182,17 @@
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="6"/>
-        <v>d_1_1</v>
+        <f t="shared" si="8"/>
+        <v>b_1_1</v>
       </c>
       <c r="F262">
         <v>250</v>
       </c>
       <c r="G262">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
@@ -11218,20 +11218,20 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E263" t="str">
-        <f t="shared" ref="E263:E270" si="7">D263&amp;"_" &amp; B263 &amp; "_" &amp; C263</f>
-        <v>e_1_2</v>
+        <f t="shared" si="8"/>
+        <v>c_1_1</v>
       </c>
       <c r="F263">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G263">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H263" t="s">
         <v>12</v>
@@ -11246,7 +11246,7 @@
         <v>12</v>
       </c>
       <c r="L263" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11257,20 +11257,20 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E264" t="str">
-        <f t="shared" si="7"/>
-        <v>f_1_2</v>
+        <f t="shared" si="8"/>
+        <v>d_1_1</v>
       </c>
       <c r="F264">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G264">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H264" t="s">
         <v>12</v>
@@ -11299,17 +11299,17 @@
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E265" t="str">
-        <f t="shared" si="7"/>
-        <v>g_1_2</v>
+        <f t="shared" ref="E265:E272" si="9">D265&amp;"_" &amp; B265 &amp; "_" &amp; C265</f>
+        <v>e_1_2</v>
       </c>
       <c r="F265">
         <v>150</v>
       </c>
       <c r="G265">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H265" t="s">
         <v>12</v>
@@ -11324,7 +11324,7 @@
         <v>12</v>
       </c>
       <c r="L265" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11338,17 +11338,17 @@
         <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="7"/>
-        <v>h_1_2</v>
+        <f t="shared" si="9"/>
+        <v>f_1_2</v>
       </c>
       <c r="F266">
         <v>150</v>
       </c>
       <c r="G266">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H266" t="s">
         <v>12</v>
@@ -11374,20 +11374,20 @@
         <v>1</v>
       </c>
       <c r="C267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D267" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="7"/>
-        <v>i_1_3</v>
+        <f t="shared" si="9"/>
+        <v>g_1_2</v>
       </c>
       <c r="F267">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G267">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H267" t="s">
         <v>12</v>
@@ -11402,7 +11402,7 @@
         <v>12</v>
       </c>
       <c r="L267" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11413,20 +11413,20 @@
         <v>1</v>
       </c>
       <c r="C268">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D268" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="7"/>
-        <v>j_1_3</v>
+        <f t="shared" si="9"/>
+        <v>h_1_2</v>
       </c>
       <c r="F268">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G268">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H268" t="s">
         <v>12</v>
@@ -11455,17 +11455,17 @@
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E269" t="str">
-        <f t="shared" si="7"/>
-        <v>k_1_3</v>
+        <f t="shared" si="9"/>
+        <v>i_1_3</v>
       </c>
       <c r="F269">
         <v>50</v>
       </c>
       <c r="G269">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H269" t="s">
         <v>12</v>
@@ -11480,7 +11480,7 @@
         <v>12</v>
       </c>
       <c r="L269" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11494,31 +11494,109 @@
         <v>3</v>
       </c>
       <c r="D270" t="s">
+        <v>22</v>
+      </c>
+      <c r="E270" t="str">
+        <f t="shared" si="9"/>
+        <v>j_1_3</v>
+      </c>
+      <c r="F270">
+        <v>50</v>
+      </c>
+      <c r="G270">
+        <v>50</v>
+      </c>
+      <c r="H270" t="s">
+        <v>12</v>
+      </c>
+      <c r="I270" t="s">
+        <v>12</v>
+      </c>
+      <c r="J270" t="s">
+        <v>12</v>
+      </c>
+      <c r="K270" t="s">
+        <v>12</v>
+      </c>
+      <c r="L270" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+      <c r="D271" t="s">
+        <v>23</v>
+      </c>
+      <c r="E271" t="str">
+        <f t="shared" si="9"/>
+        <v>k_1_3</v>
+      </c>
+      <c r="F271">
+        <v>50</v>
+      </c>
+      <c r="G271">
+        <v>100</v>
+      </c>
+      <c r="H271" t="s">
+        <v>12</v>
+      </c>
+      <c r="I271" t="s">
+        <v>12</v>
+      </c>
+      <c r="J271" t="s">
+        <v>12</v>
+      </c>
+      <c r="K271" t="s">
+        <v>12</v>
+      </c>
+      <c r="L271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+      <c r="D272" t="s">
         <v>24</v>
       </c>
-      <c r="E270" t="str">
-        <f t="shared" si="7"/>
+      <c r="E272" t="str">
+        <f t="shared" si="9"/>
         <v>l_1_3</v>
       </c>
-      <c r="F270">
-        <v>50</v>
-      </c>
-      <c r="G270">
+      <c r="F272">
+        <v>50</v>
+      </c>
+      <c r="G272">
         <v>200</v>
       </c>
-      <c r="H270" t="s">
-        <v>12</v>
-      </c>
-      <c r="I270" t="s">
-        <v>12</v>
-      </c>
-      <c r="J270" t="s">
-        <v>12</v>
-      </c>
-      <c r="K270" t="s">
-        <v>12</v>
-      </c>
-      <c r="L270" t="s">
+      <c r="H272" t="s">
+        <v>12</v>
+      </c>
+      <c r="I272" t="s">
+        <v>12</v>
+      </c>
+      <c r="J272" t="s">
+        <v>12</v>
+      </c>
+      <c r="K272" t="s">
+        <v>12</v>
+      </c>
+      <c r="L272" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B6C8ED47-29D0-455E-9EAD-23D24E6F5532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3EA8EA5F-CD3D-49AA-9C77-EA3768B4E8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43395" yWindow="-30840" windowWidth="17520" windowHeight="30240" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">yes </t>
   </si>
   <si>
-    <t>distance_from_reference_ft</t>
+    <t>x</t>
   </si>
   <si>
-    <t>x</t>
+    <t>distance_from_disturbance_ft</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
   <dimension ref="A1:L272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E72" si="0">D3&amp;"_" &amp; B3 &amp; "_" &amp; C3</f>
@@ -1393,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ref="E11" si="1">D11&amp;"_" &amp; B11 &amp; "_" &amp; C11</f>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ref="E18" si="2">D18&amp;"_" &amp; B18 &amp; "_" &amp; C18</f>
@@ -1978,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -2329,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>

--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3EA8EA5F-CD3D-49AA-9C77-EA3768B4E8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B0A51333-E832-41EC-BA6F-A3EEAE5525D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43395" yWindow="-30840" windowWidth="17520" windowHeight="30240" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -981,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-  <dimension ref="A1:L272"/>
+  <dimension ref="A1:L273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1084,7 +1084,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E72" si="0">D3&amp;"_" &amp; B3 &amp; "_" &amp; C3</f>
+        <f t="shared" ref="E3:E73" si="0">D3&amp;"_" &amp; B3 &amp; "_" &amp; C3</f>
         <v>x_1_1</v>
       </c>
       <c r="F3">
@@ -2248,14 +2248,14 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>27</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>x_3_2</v>
+        <v>x_3_1</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2287,14 +2287,14 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34" si="4">D34&amp;"_" &amp; B34 &amp; "_" &amp; C34</f>
-        <v>c_3_2</v>
+        <f t="shared" ref="E34:E35" si="4">D34&amp;"_" &amp; B34 &amp; "_" &amp; C34</f>
+        <v>c_3_1</v>
       </c>
       <c r="F34">
         <v>50</v>
@@ -2326,20 +2326,20 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>x_3_3</v>
+        <f t="shared" si="4"/>
+        <v>a_3_2</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2354,7 +2354,7 @@
         <v>12</v>
       </c>
       <c r="L35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2365,17 +2365,17 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" ref="E36" si="5">D36&amp;"_" &amp; B36 &amp; "_" &amp; C36</f>
-        <v>i_3_3</v>
+        <f t="shared" si="0"/>
+        <v>x_3_2</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>150</v>
@@ -2398,38 +2398,38 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
-        <v>44821</v>
+        <v>44835</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>e_1_1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37">
-        <v>135</v>
-      </c>
-      <c r="I37">
-        <v>20</v>
-      </c>
-      <c r="J37">
-        <v>50</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
+        <f t="shared" ref="E37" si="5">D37&amp;"_" &amp; B37 &amp; "_" &amp; C37</f>
+        <v>i_3_2</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>150</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" t="s">
+        <v>12</v>
       </c>
       <c r="L37" t="s">
         <v>15</v>
@@ -2446,11 +2446,11 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>f_1_1</v>
+        <v>e_1_1</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -2462,7 +2462,7 @@
         <v>135</v>
       </c>
       <c r="I38">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J38">
         <v>50</v>
@@ -2485,11 +2485,11 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>g_1_1</v>
+        <v>f_1_1</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -2501,7 +2501,7 @@
         <v>135</v>
       </c>
       <c r="I39">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J39">
         <v>50</v>
@@ -2524,11 +2524,11 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>i_1_1</v>
+        <v>g_1_1</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -2540,7 +2540,7 @@
         <v>135</v>
       </c>
       <c r="I40">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J40">
         <v>50</v>
@@ -2560,14 +2560,14 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>a_1_2</v>
+        <v>i_1_1</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -2576,10 +2576,10 @@
         <v>12</v>
       </c>
       <c r="H41">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I41">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J41">
         <v>50</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2602,11 +2602,11 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>b_1_2</v>
+        <v>a_1_2</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2641,11 +2641,11 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>c_1_2</v>
+        <v>b_1_2</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -2657,7 +2657,7 @@
         <v>90</v>
       </c>
       <c r="I43">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J43">
         <v>50</v>
@@ -2680,11 +2680,11 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>d_1_2</v>
+        <v>c_1_2</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2696,7 +2696,7 @@
         <v>90</v>
       </c>
       <c r="I44">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J44">
         <v>50</v>
@@ -2719,11 +2719,11 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>h_1_2</v>
+        <v>d_1_2</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -2735,7 +2735,7 @@
         <v>90</v>
       </c>
       <c r="I45">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J45">
         <v>50</v>
@@ -2755,14 +2755,14 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>j_1_3</v>
+        <v>h_1_2</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2771,10 +2771,10 @@
         <v>12</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I46">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J46">
         <v>50</v>
@@ -2797,11 +2797,11 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>k_1_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -2813,7 +2813,7 @@
         <v>45</v>
       </c>
       <c r="I47">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J47">
         <v>50</v>
@@ -2836,11 +2836,11 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>l_1_3</v>
+        <v>k_1_3</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -2852,7 +2852,7 @@
         <v>45</v>
       </c>
       <c r="I48">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J48">
         <v>50</v>
@@ -2869,17 +2869,17 @@
         <v>44821</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>e_2_1</v>
+        <v>l_1_3</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -2888,10 +2888,10 @@
         <v>12</v>
       </c>
       <c r="H49">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I49">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>50</v>
@@ -2914,11 +2914,11 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>f_2_1</v>
+        <v>e_2_1</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2930,7 +2930,7 @@
         <v>135</v>
       </c>
       <c r="I50">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J50">
         <v>50</v>
@@ -2953,11 +2953,11 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>g_2_1</v>
+        <v>f_2_1</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2969,7 +2969,7 @@
         <v>135</v>
       </c>
       <c r="I51">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J51">
         <v>50</v>
@@ -2992,11 +2992,11 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>i_2_1</v>
+        <v>g_2_1</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -3008,7 +3008,7 @@
         <v>135</v>
       </c>
       <c r="I52">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <v>50</v>
@@ -3028,14 +3028,14 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>a_2_2</v>
+        <v>i_2_1</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -3044,10 +3044,10 @@
         <v>12</v>
       </c>
       <c r="H53">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I53">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J53">
         <v>50</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3070,11 +3070,11 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>b_2_2</v>
+        <v>a_2_2</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3109,11 +3109,11 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>c_2_2</v>
+        <v>b_2_2</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -3125,7 +3125,7 @@
         <v>90</v>
       </c>
       <c r="I55">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J55">
         <v>50</v>
@@ -3148,11 +3148,11 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>d_2_2</v>
+        <v>c_2_2</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -3164,7 +3164,7 @@
         <v>90</v>
       </c>
       <c r="I56">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J56">
         <v>50</v>
@@ -3187,11 +3187,11 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>h_2_2</v>
+        <v>d_2_2</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -3203,7 +3203,7 @@
         <v>90</v>
       </c>
       <c r="I57">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>50</v>
@@ -3223,14 +3223,14 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>j_2_3</v>
+        <v>h_2_2</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
@@ -3239,10 +3239,10 @@
         <v>12</v>
       </c>
       <c r="H58">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I58">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J58">
         <v>50</v>
@@ -3265,11 +3265,11 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>k_2_3</v>
+        <v>j_2_3</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -3281,7 +3281,7 @@
         <v>45</v>
       </c>
       <c r="I59">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J59">
         <v>50</v>
@@ -3304,11 +3304,11 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>l_2_3</v>
+        <v>k_2_3</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -3320,7 +3320,7 @@
         <v>45</v>
       </c>
       <c r="I60">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J60">
         <v>50</v>
@@ -3334,41 +3334,41 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
-        <v>44756</v>
+        <v>44821</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>a_1_1</v>
-      </c>
-      <c r="F61">
-        <v>250</v>
-      </c>
-      <c r="G61">
-        <v>-20</v>
-      </c>
-      <c r="H61" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61" t="s">
-        <v>12</v>
+        <v>l_2_3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61">
+        <v>45</v>
+      </c>
+      <c r="I61">
+        <v>50</v>
+      </c>
+      <c r="J61">
+        <v>50</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3382,17 +3382,17 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>b_1_1</v>
+        <v>a_1_1</v>
       </c>
       <c r="F62">
         <v>250</v>
       </c>
       <c r="G62">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
@@ -3407,7 +3407,7 @@
         <v>12</v>
       </c>
       <c r="L62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3421,17 +3421,17 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>c_1_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F63">
         <v>250</v>
       </c>
       <c r="G63">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
@@ -3460,17 +3460,17 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>d_1_1</v>
+        <v>c_1_1</v>
       </c>
       <c r="F64">
         <v>250</v>
       </c>
       <c r="G64">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
@@ -3496,20 +3496,20 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>e_1_2</v>
+        <v>d_1_1</v>
       </c>
       <c r="F65">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G65">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -3524,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="L65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3538,17 +3538,17 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
-        <v>f_1_2</v>
+        <v>e_1_2</v>
       </c>
       <c r="F66">
         <v>150</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -3563,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="L66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3577,17 +3577,17 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
-        <v>g_1_2</v>
+        <v>f_1_2</v>
       </c>
       <c r="F67">
         <v>150</v>
       </c>
       <c r="G67">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -3616,17 +3616,17 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="0"/>
-        <v>h_1_2</v>
+        <v>g_1_2</v>
       </c>
       <c r="F68">
         <v>150</v>
       </c>
       <c r="G68">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
@@ -3652,20 +3652,20 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="0"/>
-        <v>i_1_3</v>
+        <v>h_1_2</v>
       </c>
       <c r="F69">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G69">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
@@ -3680,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="L69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3694,17 +3694,17 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="0"/>
-        <v>j_1_3</v>
+        <v>i_1_3</v>
       </c>
       <c r="F70">
         <v>50</v>
       </c>
       <c r="G70">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
@@ -3719,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="L70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3733,17 +3733,17 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="0"/>
-        <v>k_1_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F71">
         <v>50</v>
       </c>
       <c r="G71">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -3772,17 +3772,17 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="0"/>
-        <v>l_1_3</v>
+        <v>k_1_3</v>
       </c>
       <c r="F72">
         <v>50</v>
       </c>
       <c r="G72">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -3805,23 +3805,23 @@
         <v>44756</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" ref="E73:E136" si="6">D73&amp;"_" &amp; B73 &amp; "_" &amp; C73</f>
-        <v>a_2_1</v>
+        <f t="shared" si="0"/>
+        <v>l_1_3</v>
       </c>
       <c r="F73">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G73">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H73" t="s">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="L73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3850,17 +3850,17 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="6"/>
-        <v>b_2_1</v>
+        <f t="shared" ref="E74:E137" si="6">D74&amp;"_" &amp; B74 &amp; "_" &amp; C74</f>
+        <v>a_2_1</v>
       </c>
       <c r="F74">
         <v>250</v>
       </c>
       <c r="G74">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
@@ -3875,7 +3875,7 @@
         <v>12</v>
       </c>
       <c r="L74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3889,17 +3889,17 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="6"/>
-        <v>c_2_1</v>
+        <v>b_2_1</v>
       </c>
       <c r="F75">
         <v>250</v>
       </c>
       <c r="G75">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
@@ -3928,17 +3928,17 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="6"/>
-        <v>d_2_1</v>
+        <v>c_2_1</v>
       </c>
       <c r="F76">
         <v>250</v>
       </c>
       <c r="G76">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
@@ -3964,20 +3964,20 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="6"/>
-        <v>e_2_2</v>
+        <v>d_2_1</v>
       </c>
       <c r="F77">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G77">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
@@ -3992,7 +3992,7 @@
         <v>12</v>
       </c>
       <c r="L77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4006,17 +4006,17 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="6"/>
-        <v>f_2_2</v>
+        <v>e_2_2</v>
       </c>
       <c r="F78">
         <v>150</v>
       </c>
       <c r="G78">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
@@ -4031,7 +4031,7 @@
         <v>12</v>
       </c>
       <c r="L78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4045,17 +4045,17 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="6"/>
-        <v>g_2_2</v>
+        <v>f_2_2</v>
       </c>
       <c r="F79">
         <v>150</v>
       </c>
       <c r="G79">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
@@ -4084,17 +4084,17 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="6"/>
-        <v>h_2_2</v>
+        <v>g_2_2</v>
       </c>
       <c r="F80">
         <v>150</v>
       </c>
       <c r="G80">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
@@ -4120,20 +4120,20 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="6"/>
-        <v>i_2_3</v>
+        <v>h_2_2</v>
       </c>
       <c r="F81">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G81">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
@@ -4148,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="L81" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4162,17 +4162,17 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="6"/>
-        <v>j_2_3</v>
+        <v>i_2_3</v>
       </c>
       <c r="F82">
         <v>50</v>
       </c>
       <c r="G82">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
@@ -4187,7 +4187,7 @@
         <v>12</v>
       </c>
       <c r="L82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4201,17 +4201,17 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="6"/>
-        <v>k_2_3</v>
+        <v>j_2_3</v>
       </c>
       <c r="F83">
         <v>50</v>
       </c>
       <c r="G83">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
@@ -4240,17 +4240,17 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="6"/>
-        <v>l_2_3</v>
+        <v>k_2_3</v>
       </c>
       <c r="F84">
         <v>50</v>
       </c>
       <c r="G84">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H84" t="s">
         <v>12</v>
@@ -4273,23 +4273,23 @@
         <v>44756</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>3</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="6"/>
-        <v>a_3_1</v>
+        <v>l_2_3</v>
       </c>
       <c r="F85">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G85">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
@@ -4304,7 +4304,7 @@
         <v>12</v>
       </c>
       <c r="L85" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4318,17 +4318,17 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="6"/>
-        <v>b_3_1</v>
+        <v>a_3_1</v>
       </c>
       <c r="F86">
         <v>250</v>
       </c>
       <c r="G86">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H86" t="s">
         <v>12</v>
@@ -4343,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="L86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4357,17 +4357,17 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="6"/>
-        <v>c_3_1</v>
+        <v>b_3_1</v>
       </c>
       <c r="F87">
         <v>250</v>
       </c>
       <c r="G87">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s">
         <v>12</v>
@@ -4396,17 +4396,17 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="6"/>
-        <v>d_3_1</v>
+        <v>c_3_1</v>
       </c>
       <c r="F88">
         <v>250</v>
       </c>
       <c r="G88">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H88" t="s">
         <v>12</v>
@@ -4432,20 +4432,20 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="6"/>
-        <v>e_3_2</v>
+        <v>d_3_1</v>
       </c>
       <c r="F89">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G89">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H89" t="s">
         <v>12</v>
@@ -4460,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="L89" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4474,17 +4474,17 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="6"/>
-        <v>f_3_2</v>
+        <v>e_3_2</v>
       </c>
       <c r="F90">
         <v>150</v>
       </c>
       <c r="G90">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H90" t="s">
         <v>12</v>
@@ -4499,7 +4499,7 @@
         <v>12</v>
       </c>
       <c r="L90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4513,17 +4513,17 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="6"/>
-        <v>g_3_2</v>
+        <v>f_3_2</v>
       </c>
       <c r="F91">
         <v>150</v>
       </c>
       <c r="G91">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s">
         <v>12</v>
@@ -4552,17 +4552,17 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="6"/>
-        <v>h_3_2</v>
+        <v>g_3_2</v>
       </c>
       <c r="F92">
         <v>150</v>
       </c>
       <c r="G92">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H92" t="s">
         <v>12</v>
@@ -4588,20 +4588,20 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="6"/>
-        <v>i_3_3</v>
+        <v>h_3_2</v>
       </c>
       <c r="F93">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G93">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H93" t="s">
         <v>12</v>
@@ -4616,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4630,17 +4630,17 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="6"/>
-        <v>j_3_3</v>
+        <v>i_3_3</v>
       </c>
       <c r="F94">
         <v>50</v>
       </c>
       <c r="G94">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H94" t="s">
         <v>12</v>
@@ -4655,7 +4655,7 @@
         <v>12</v>
       </c>
       <c r="L94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4669,17 +4669,17 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="6"/>
-        <v>k_3_3</v>
+        <v>j_3_3</v>
       </c>
       <c r="F95">
         <v>50</v>
       </c>
       <c r="G95">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H95" t="s">
         <v>12</v>
@@ -4708,17 +4708,17 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="6"/>
-        <v>l_3_3</v>
+        <v>k_3_3</v>
       </c>
       <c r="F96">
         <v>50</v>
       </c>
       <c r="G96">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
@@ -4738,26 +4738,26 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="6"/>
-        <v>b_1_1</v>
+        <v>l_3_3</v>
       </c>
       <c r="F97">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G97">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="H97" t="s">
         <v>12</v>
@@ -4786,14 +4786,14 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="6"/>
-        <v>d_1_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F98">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G98">
         <v>25</v>
@@ -4825,14 +4825,14 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="6"/>
-        <v>g_1_1</v>
+        <v>d_1_1</v>
       </c>
       <c r="F99">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G99">
         <v>25</v>
@@ -4864,14 +4864,14 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="6"/>
-        <v>c_1_1</v>
+        <v>g_1_1</v>
       </c>
       <c r="F100">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G100">
         <v>25</v>
@@ -4903,14 +4903,14 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="6"/>
-        <v>f_1_1</v>
+        <v>c_1_1</v>
       </c>
       <c r="F101">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G101">
         <v>25</v>
@@ -4936,20 +4936,20 @@
         <v>44814</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="6"/>
-        <v>b_2_1</v>
+        <v>f_1_1</v>
       </c>
       <c r="F102">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G102">
         <v>25</v>
@@ -4981,14 +4981,14 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="6"/>
-        <v>d_2_1</v>
+        <v>b_2_1</v>
       </c>
       <c r="F103">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G103">
         <v>25</v>
@@ -5020,14 +5020,14 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="6"/>
-        <v>g_2_1</v>
+        <v>d_2_1</v>
       </c>
       <c r="F104">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G104">
         <v>25</v>
@@ -5059,14 +5059,14 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="6"/>
-        <v>c_2_1</v>
+        <v>g_2_1</v>
       </c>
       <c r="F105">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G105">
         <v>25</v>
@@ -5098,14 +5098,14 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="6"/>
-        <v>f_2_1</v>
+        <v>c_2_1</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G106">
         <v>25</v>
@@ -5134,17 +5134,17 @@
         <v>2</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="6"/>
-        <v>e_2_2</v>
+        <v>f_2_1</v>
       </c>
       <c r="F107">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="G107">
         <v>25</v>
@@ -5176,14 +5176,14 @@
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="6"/>
-        <v>i_2_2</v>
+        <v>e_2_2</v>
       </c>
       <c r="F108">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G108">
         <v>25</v>
@@ -5215,14 +5215,14 @@
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="6"/>
-        <v>l_2_2</v>
+        <v>i_2_2</v>
       </c>
       <c r="F109">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G109">
         <v>25</v>
@@ -5254,14 +5254,14 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="6"/>
-        <v>k_2_2</v>
+        <v>l_2_2</v>
       </c>
       <c r="F110">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G110">
         <v>25</v>
@@ -5293,14 +5293,14 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="6"/>
-        <v>j_2_2</v>
+        <v>k_2_2</v>
       </c>
       <c r="F111">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G111">
         <v>25</v>
@@ -5323,26 +5323,26 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="6"/>
-        <v>a_1_1</v>
+        <v>j_2_2</v>
       </c>
       <c r="F112">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G112">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H112" t="s">
         <v>12</v>
@@ -5357,7 +5357,7 @@
         <v>12</v>
       </c>
       <c r="L112" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5371,17 +5371,17 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="6"/>
-        <v>b_1_1</v>
+        <v>a_1_1</v>
       </c>
       <c r="F113">
         <v>250</v>
       </c>
       <c r="G113">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
@@ -5396,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="L113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5410,17 +5410,17 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="6"/>
-        <v>c_1_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F114">
         <v>250</v>
       </c>
       <c r="G114">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
@@ -5449,17 +5449,17 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="6"/>
-        <v>d_1_1</v>
+        <v>c_1_1</v>
       </c>
       <c r="F115">
         <v>250</v>
       </c>
       <c r="G115">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H115" t="s">
         <v>12</v>
@@ -5485,20 +5485,20 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="6"/>
-        <v>e_1_2</v>
+        <v>d_1_1</v>
       </c>
       <c r="F116">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G116">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H116" t="s">
         <v>12</v>
@@ -5513,7 +5513,7 @@
         <v>12</v>
       </c>
       <c r="L116" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5527,17 +5527,17 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="6"/>
-        <v>f_1_2</v>
+        <v>e_1_2</v>
       </c>
       <c r="F117">
         <v>150</v>
       </c>
       <c r="G117">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H117" t="s">
         <v>12</v>
@@ -5552,7 +5552,7 @@
         <v>12</v>
       </c>
       <c r="L117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5566,17 +5566,17 @@
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="6"/>
-        <v>g_1_2</v>
+        <v>f_1_2</v>
       </c>
       <c r="F118">
         <v>150</v>
       </c>
       <c r="G118">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H118" t="s">
         <v>12</v>
@@ -5605,17 +5605,17 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="6"/>
-        <v>h_1_2</v>
+        <v>g_1_2</v>
       </c>
       <c r="F119">
         <v>150</v>
       </c>
       <c r="G119">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H119" t="s">
         <v>12</v>
@@ -5641,20 +5641,20 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="6"/>
-        <v>i_1_3</v>
+        <v>h_1_2</v>
       </c>
       <c r="F120">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G120">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H120" t="s">
         <v>12</v>
@@ -5669,7 +5669,7 @@
         <v>12</v>
       </c>
       <c r="L120" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5683,17 +5683,17 @@
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="6"/>
-        <v>j_1_3</v>
+        <v>i_1_3</v>
       </c>
       <c r="F121">
         <v>50</v>
       </c>
       <c r="G121">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H121" t="s">
         <v>12</v>
@@ -5708,7 +5708,7 @@
         <v>12</v>
       </c>
       <c r="L121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5722,17 +5722,17 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="6"/>
-        <v>k_1_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F122">
         <v>50</v>
       </c>
       <c r="G122">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H122" t="s">
         <v>12</v>
@@ -5761,17 +5761,17 @@
         <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="6"/>
-        <v>l_1_3</v>
+        <v>k_1_3</v>
       </c>
       <c r="F123">
         <v>50</v>
       </c>
       <c r="G123">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
@@ -5794,23 +5794,23 @@
         <v>44760</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="6"/>
-        <v>a_2_1</v>
+        <v>l_1_3</v>
       </c>
       <c r="F124">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G124">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H124" t="s">
         <v>12</v>
@@ -5825,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="L124" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5839,17 +5839,17 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="6"/>
-        <v>b_2_1</v>
+        <v>a_2_1</v>
       </c>
       <c r="F125">
         <v>250</v>
       </c>
       <c r="G125">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H125" t="s">
         <v>12</v>
@@ -5864,7 +5864,7 @@
         <v>12</v>
       </c>
       <c r="L125" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5878,17 +5878,17 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="6"/>
-        <v>c_2_1</v>
+        <v>b_2_1</v>
       </c>
       <c r="F126">
         <v>250</v>
       </c>
       <c r="G126">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H126" t="s">
         <v>12</v>
@@ -5917,17 +5917,17 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="6"/>
-        <v>d_2_1</v>
+        <v>c_2_1</v>
       </c>
       <c r="F127">
         <v>250</v>
       </c>
       <c r="G127">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H127" t="s">
         <v>12</v>
@@ -5953,20 +5953,20 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="6"/>
-        <v>e_2_2</v>
+        <v>d_2_1</v>
       </c>
       <c r="F128">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G128">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H128" t="s">
         <v>12</v>
@@ -5981,7 +5981,7 @@
         <v>12</v>
       </c>
       <c r="L128" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5995,17 +5995,17 @@
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="6"/>
-        <v>f_2_2</v>
+        <v>e_2_2</v>
       </c>
       <c r="F129">
         <v>150</v>
       </c>
       <c r="G129">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H129" t="s">
         <v>12</v>
@@ -6020,7 +6020,7 @@
         <v>12</v>
       </c>
       <c r="L129" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6034,17 +6034,17 @@
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="6"/>
-        <v>g_2_2</v>
+        <v>f_2_2</v>
       </c>
       <c r="F130">
         <v>150</v>
       </c>
       <c r="G130">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H130" t="s">
         <v>12</v>
@@ -6073,17 +6073,17 @@
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="6"/>
-        <v>h_2_2</v>
+        <v>g_2_2</v>
       </c>
       <c r="F131">
         <v>150</v>
       </c>
       <c r="G131">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H131" t="s">
         <v>12</v>
@@ -6109,20 +6109,20 @@
         <v>2</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="6"/>
-        <v>i_2_3</v>
+        <v>h_2_2</v>
       </c>
       <c r="F132">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G132">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H132" t="s">
         <v>12</v>
@@ -6137,7 +6137,7 @@
         <v>12</v>
       </c>
       <c r="L132" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6151,17 +6151,17 @@
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="6"/>
-        <v>j_2_3</v>
+        <v>i_2_3</v>
       </c>
       <c r="F133">
         <v>50</v>
       </c>
       <c r="G133">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H133" t="s">
         <v>12</v>
@@ -6176,7 +6176,7 @@
         <v>12</v>
       </c>
       <c r="L133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6190,17 +6190,17 @@
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="6"/>
-        <v>k_2_3</v>
+        <v>j_2_3</v>
       </c>
       <c r="F134">
         <v>50</v>
       </c>
       <c r="G134">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H134" t="s">
         <v>12</v>
@@ -6229,17 +6229,17 @@
         <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="6"/>
-        <v>l_2_3</v>
+        <v>k_2_3</v>
       </c>
       <c r="F135">
         <v>50</v>
       </c>
       <c r="G135">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H135" t="s">
         <v>12</v>
@@ -6262,23 +6262,23 @@
         <v>44760</v>
       </c>
       <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
         <v>3</v>
       </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="6"/>
-        <v>a_3_1</v>
+        <v>l_2_3</v>
       </c>
       <c r="F136">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G136">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H136" t="s">
         <v>12</v>
@@ -6293,7 +6293,7 @@
         <v>12</v>
       </c>
       <c r="L136" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6307,17 +6307,17 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" ref="E137:E200" si="7">D137&amp;"_" &amp; B137 &amp; "_" &amp; C137</f>
-        <v>b_3_1</v>
+        <f t="shared" si="6"/>
+        <v>a_3_1</v>
       </c>
       <c r="F137">
         <v>250</v>
       </c>
       <c r="G137">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H137" t="s">
         <v>12</v>
@@ -6332,7 +6332,7 @@
         <v>12</v>
       </c>
       <c r="L137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6346,17 +6346,17 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="7"/>
-        <v>c_3_1</v>
+        <f t="shared" ref="E138:E201" si="7">D138&amp;"_" &amp; B138 &amp; "_" &amp; C138</f>
+        <v>b_3_1</v>
       </c>
       <c r="F138">
         <v>250</v>
       </c>
       <c r="G138">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H138" t="s">
         <v>12</v>
@@ -6385,17 +6385,17 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="7"/>
-        <v>d_3_1</v>
+        <v>c_3_1</v>
       </c>
       <c r="F139">
         <v>250</v>
       </c>
       <c r="G139">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H139" t="s">
         <v>12</v>
@@ -6421,20 +6421,20 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="7"/>
-        <v>e_3_2</v>
+        <v>d_3_1</v>
       </c>
       <c r="F140">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G140">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H140" t="s">
         <v>12</v>
@@ -6449,7 +6449,7 @@
         <v>12</v>
       </c>
       <c r="L140" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6463,17 +6463,17 @@
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="7"/>
-        <v>f_3_2</v>
+        <v>e_3_2</v>
       </c>
       <c r="F141">
         <v>150</v>
       </c>
       <c r="G141">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H141" t="s">
         <v>12</v>
@@ -6488,7 +6488,7 @@
         <v>12</v>
       </c>
       <c r="L141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6502,17 +6502,17 @@
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="7"/>
-        <v>g_3_2</v>
+        <v>f_3_2</v>
       </c>
       <c r="F142">
         <v>150</v>
       </c>
       <c r="G142">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
@@ -6541,17 +6541,17 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="7"/>
-        <v>h_3_2</v>
+        <v>g_3_2</v>
       </c>
       <c r="F143">
         <v>150</v>
       </c>
       <c r="G143">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H143" t="s">
         <v>12</v>
@@ -6577,20 +6577,20 @@
         <v>3</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="7"/>
-        <v>i_3_3</v>
+        <v>h_3_2</v>
       </c>
       <c r="F144">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G144">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
@@ -6605,7 +6605,7 @@
         <v>12</v>
       </c>
       <c r="L144" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6619,17 +6619,17 @@
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="7"/>
-        <v>j_3_3</v>
+        <v>i_3_3</v>
       </c>
       <c r="F145">
         <v>50</v>
       </c>
       <c r="G145">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H145" t="s">
         <v>12</v>
@@ -6644,7 +6644,7 @@
         <v>12</v>
       </c>
       <c r="L145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6658,17 +6658,17 @@
         <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="7"/>
-        <v>k_3_3</v>
+        <v>j_3_3</v>
       </c>
       <c r="F146">
         <v>50</v>
       </c>
       <c r="G146">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H146" t="s">
         <v>12</v>
@@ -6697,17 +6697,17 @@
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="7"/>
-        <v>l_3_3</v>
+        <v>k_3_3</v>
       </c>
       <c r="F147">
         <v>50</v>
       </c>
       <c r="G147">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H147" t="s">
         <v>12</v>
@@ -6727,41 +6727,41 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="7"/>
-        <v>a_1_1</v>
-      </c>
-      <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148">
-        <v>-30</v>
-      </c>
-      <c r="I148">
-        <v>20</v>
-      </c>
-      <c r="J148">
-        <v>100</v>
-      </c>
-      <c r="K148">
-        <v>25</v>
+        <v>l_3_3</v>
+      </c>
+      <c r="F148">
+        <v>50</v>
+      </c>
+      <c r="G148">
+        <v>200</v>
+      </c>
+      <c r="H148" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" t="s">
+        <v>12</v>
+      </c>
+      <c r="J148" t="s">
+        <v>12</v>
+      </c>
+      <c r="K148" t="s">
+        <v>12</v>
       </c>
       <c r="L148" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6775,11 +6775,11 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="7"/>
-        <v>b_1_1</v>
+        <v>a_1_1</v>
       </c>
       <c r="F149" t="s">
         <v>12</v>
@@ -6788,10 +6788,10 @@
         <v>12</v>
       </c>
       <c r="H149">
-        <v>150</v>
+        <v>-30</v>
       </c>
       <c r="I149">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J149">
         <v>100</v>
@@ -6800,7 +6800,7 @@
         <v>25</v>
       </c>
       <c r="L149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6814,11 +6814,11 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="7"/>
-        <v>c_1_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F150" t="s">
         <v>12</v>
@@ -6830,7 +6830,7 @@
         <v>150</v>
       </c>
       <c r="I150">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J150">
         <v>100</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6853,32 +6853,32 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="7"/>
-        <v>h_1_1</v>
-      </c>
-      <c r="F151">
-        <v>250</v>
-      </c>
-      <c r="G151">
-        <v>-20</v>
-      </c>
-      <c r="H151" t="s">
-        <v>12</v>
-      </c>
-      <c r="I151" t="s">
-        <v>12</v>
-      </c>
-      <c r="J151" t="s">
-        <v>12</v>
-      </c>
-      <c r="K151" t="s">
-        <v>12</v>
+        <v>c_1_1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151">
+        <v>150</v>
+      </c>
+      <c r="I151">
+        <v>20</v>
+      </c>
+      <c r="J151">
+        <v>100</v>
+      </c>
+      <c r="K151">
+        <v>25</v>
       </c>
       <c r="L151" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6892,17 +6892,17 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="7"/>
-        <v>b_1_1</v>
+        <v>h_1_1</v>
       </c>
       <c r="F152">
         <v>250</v>
       </c>
       <c r="G152">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H152" t="s">
         <v>12</v>
@@ -6917,7 +6917,7 @@
         <v>12</v>
       </c>
       <c r="L152" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6931,17 +6931,17 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="7"/>
-        <v>c_1_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F153">
         <v>250</v>
       </c>
       <c r="G153">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H153" t="s">
         <v>12</v>
@@ -6970,17 +6970,17 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="7"/>
-        <v>d_1_1</v>
+        <v>c_1_1</v>
       </c>
       <c r="F154">
         <v>250</v>
       </c>
       <c r="G154">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
@@ -7006,20 +7006,20 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="7"/>
-        <v>e_1_2</v>
+        <v>d_1_1</v>
       </c>
       <c r="F155">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G155">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
@@ -7034,7 +7034,7 @@
         <v>12</v>
       </c>
       <c r="L155" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7048,17 +7048,17 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="7"/>
-        <v>f_1_2</v>
+        <v>e_1_2</v>
       </c>
       <c r="F156">
         <v>150</v>
       </c>
       <c r="G156">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H156" t="s">
         <v>12</v>
@@ -7073,7 +7073,7 @@
         <v>12</v>
       </c>
       <c r="L156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7087,17 +7087,17 @@
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="7"/>
-        <v>g_1_2</v>
+        <v>f_1_2</v>
       </c>
       <c r="F157">
         <v>150</v>
       </c>
       <c r="G157">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
@@ -7126,17 +7126,17 @@
         <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="7"/>
-        <v>a_1_2</v>
+        <v>g_1_2</v>
       </c>
       <c r="F158">
         <v>150</v>
       </c>
       <c r="G158">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H158" t="s">
         <v>12</v>
@@ -7162,20 +7162,20 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="7"/>
-        <v>i_1_3</v>
+        <v>a_1_2</v>
       </c>
       <c r="F159">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G159">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H159" t="s">
         <v>12</v>
@@ -7190,7 +7190,7 @@
         <v>12</v>
       </c>
       <c r="L159" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7204,17 +7204,17 @@
         <v>3</v>
       </c>
       <c r="D160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="7"/>
-        <v>j_1_3</v>
+        <v>i_1_3</v>
       </c>
       <c r="F160">
         <v>50</v>
       </c>
       <c r="G160">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H160" t="s">
         <v>12</v>
@@ -7229,7 +7229,7 @@
         <v>12</v>
       </c>
       <c r="L160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7243,17 +7243,17 @@
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="7"/>
-        <v>k_1_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F161">
         <v>50</v>
       </c>
       <c r="G161">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H161" t="s">
         <v>12</v>
@@ -7282,17 +7282,17 @@
         <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="7"/>
-        <v>l_1_3</v>
+        <v>k_1_3</v>
       </c>
       <c r="F162">
         <v>50</v>
       </c>
       <c r="G162">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H162" t="s">
         <v>12</v>
@@ -7315,23 +7315,23 @@
         <v>44800</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="7"/>
-        <v>h_2_1</v>
+        <v>l_1_3</v>
       </c>
       <c r="F163">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G163">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H163" t="s">
         <v>12</v>
@@ -7346,7 +7346,7 @@
         <v>12</v>
       </c>
       <c r="L163" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7360,17 +7360,17 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="7"/>
-        <v>b_2_1</v>
+        <v>h_2_1</v>
       </c>
       <c r="F164">
         <v>250</v>
       </c>
       <c r="G164">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H164" t="s">
         <v>12</v>
@@ -7385,7 +7385,7 @@
         <v>12</v>
       </c>
       <c r="L164" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7399,17 +7399,17 @@
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="7"/>
-        <v>c_2_1</v>
+        <v>b_2_1</v>
       </c>
       <c r="F165">
         <v>250</v>
       </c>
       <c r="G165">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H165" t="s">
         <v>12</v>
@@ -7438,17 +7438,17 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="7"/>
-        <v>d_2_1</v>
+        <v>c_2_1</v>
       </c>
       <c r="F166">
         <v>250</v>
       </c>
       <c r="G166">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H166" t="s">
         <v>12</v>
@@ -7474,20 +7474,20 @@
         <v>2</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="7"/>
-        <v>e_2_2</v>
+        <v>d_2_1</v>
       </c>
       <c r="F167">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G167">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H167" t="s">
         <v>12</v>
@@ -7502,7 +7502,7 @@
         <v>12</v>
       </c>
       <c r="L167" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7516,17 +7516,17 @@
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="7"/>
-        <v>f_2_2</v>
+        <v>e_2_2</v>
       </c>
       <c r="F168">
         <v>150</v>
       </c>
       <c r="G168">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H168" t="s">
         <v>12</v>
@@ -7541,7 +7541,7 @@
         <v>12</v>
       </c>
       <c r="L168" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7555,17 +7555,17 @@
         <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="7"/>
-        <v>g_2_2</v>
+        <v>f_2_2</v>
       </c>
       <c r="F169">
         <v>150</v>
       </c>
       <c r="G169">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H169" t="s">
         <v>12</v>
@@ -7594,17 +7594,17 @@
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="7"/>
-        <v>a_2_2</v>
+        <v>g_2_2</v>
       </c>
       <c r="F170">
         <v>150</v>
       </c>
       <c r="G170">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H170" t="s">
         <v>12</v>
@@ -7630,20 +7630,20 @@
         <v>2</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="7"/>
-        <v>i_2_3</v>
+        <v>a_2_2</v>
       </c>
       <c r="F171">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G171">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H171" t="s">
         <v>12</v>
@@ -7658,7 +7658,7 @@
         <v>12</v>
       </c>
       <c r="L171" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7672,17 +7672,17 @@
         <v>3</v>
       </c>
       <c r="D172" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="7"/>
-        <v>j_2_3</v>
+        <v>i_2_3</v>
       </c>
       <c r="F172">
         <v>50</v>
       </c>
       <c r="G172">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
@@ -7697,7 +7697,7 @@
         <v>12</v>
       </c>
       <c r="L172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7711,17 +7711,17 @@
         <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="7"/>
-        <v>k_2_3</v>
+        <v>j_2_3</v>
       </c>
       <c r="F173">
         <v>50</v>
       </c>
       <c r="G173">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H173" t="s">
         <v>12</v>
@@ -7750,17 +7750,17 @@
         <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="7"/>
-        <v>l_2_3</v>
+        <v>k_2_3</v>
       </c>
       <c r="F174">
         <v>50</v>
       </c>
       <c r="G174">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H174" t="s">
         <v>12</v>
@@ -7783,23 +7783,23 @@
         <v>44800</v>
       </c>
       <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
         <v>3</v>
       </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
       <c r="D175" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="7"/>
-        <v>h_3_1</v>
+        <v>l_2_3</v>
       </c>
       <c r="F175">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G175">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H175" t="s">
         <v>12</v>
@@ -7814,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="L175" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7828,17 +7828,17 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="7"/>
-        <v>b_3_1</v>
+        <v>h_3_1</v>
       </c>
       <c r="F176">
         <v>250</v>
       </c>
       <c r="G176">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H176" t="s">
         <v>12</v>
@@ -7853,7 +7853,7 @@
         <v>12</v>
       </c>
       <c r="L176" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7867,17 +7867,17 @@
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="7"/>
-        <v>c_3_1</v>
+        <v>b_3_1</v>
       </c>
       <c r="F177">
         <v>250</v>
       </c>
       <c r="G177">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H177" t="s">
         <v>12</v>
@@ -7906,17 +7906,17 @@
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="7"/>
-        <v>d_3_1</v>
+        <v>c_3_1</v>
       </c>
       <c r="F178">
         <v>250</v>
       </c>
       <c r="G178">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H178" t="s">
         <v>12</v>
@@ -7942,20 +7942,20 @@
         <v>3</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="7"/>
-        <v>e_3_2</v>
+        <v>d_3_1</v>
       </c>
       <c r="F179">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G179">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H179" t="s">
         <v>12</v>
@@ -7970,7 +7970,7 @@
         <v>12</v>
       </c>
       <c r="L179" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7984,17 +7984,17 @@
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="7"/>
-        <v>f_3_2</v>
+        <v>e_3_2</v>
       </c>
       <c r="F180">
         <v>150</v>
       </c>
       <c r="G180">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H180" t="s">
         <v>12</v>
@@ -8009,7 +8009,7 @@
         <v>12</v>
       </c>
       <c r="L180" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8023,17 +8023,17 @@
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="7"/>
-        <v>g_3_2</v>
+        <v>f_3_2</v>
       </c>
       <c r="F181">
         <v>150</v>
       </c>
       <c r="G181">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H181" t="s">
         <v>12</v>
@@ -8062,17 +8062,17 @@
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="7"/>
-        <v>a_3_2</v>
+        <v>g_3_2</v>
       </c>
       <c r="F182">
         <v>150</v>
       </c>
       <c r="G182">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H182" t="s">
         <v>12</v>
@@ -8098,20 +8098,20 @@
         <v>3</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="7"/>
-        <v>i_3_3</v>
+        <v>a_3_2</v>
       </c>
       <c r="F183">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G183">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H183" t="s">
         <v>12</v>
@@ -8126,7 +8126,7 @@
         <v>12</v>
       </c>
       <c r="L183" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8140,17 +8140,17 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="7"/>
-        <v>j_3_3</v>
+        <v>i_3_3</v>
       </c>
       <c r="F184">
         <v>50</v>
       </c>
       <c r="G184">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H184" t="s">
         <v>12</v>
@@ -8165,7 +8165,7 @@
         <v>12</v>
       </c>
       <c r="L184" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8179,17 +8179,17 @@
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="7"/>
-        <v>k_3_3</v>
+        <v>j_3_3</v>
       </c>
       <c r="F185">
         <v>50</v>
       </c>
       <c r="G185">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H185" t="s">
         <v>12</v>
@@ -8218,17 +8218,17 @@
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="7"/>
-        <v>l_3_3</v>
+        <v>k_3_3</v>
       </c>
       <c r="F186">
         <v>50</v>
       </c>
       <c r="G186">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H186" t="s">
         <v>12</v>
@@ -8248,26 +8248,26 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="7"/>
-        <v>a_1_1</v>
+        <v>l_3_3</v>
       </c>
       <c r="F187">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="G187">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H187" t="s">
         <v>12</v>
@@ -8282,7 +8282,7 @@
         <v>12</v>
       </c>
       <c r="L187" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8296,17 +8296,17 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="7"/>
-        <v>b_1_1</v>
+        <v>a_1_1</v>
       </c>
       <c r="F188">
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="G188">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H188" t="s">
         <v>12</v>
@@ -8321,7 +8321,7 @@
         <v>12</v>
       </c>
       <c r="L188" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8335,14 +8335,14 @@
         <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="7"/>
-        <v>c_1_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F189">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G189">
         <v>150</v>
@@ -8374,14 +8374,14 @@
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="7"/>
-        <v>d_1_1</v>
+        <v>c_1_1</v>
       </c>
       <c r="F190">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G190">
         <v>150</v>
@@ -8410,20 +8410,20 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="7"/>
-        <v>e_1_2</v>
+        <v>d_1_1</v>
       </c>
       <c r="F191">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G191">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H191" t="s">
         <v>12</v>
@@ -8452,14 +8452,14 @@
         <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="7"/>
-        <v>f_1_2</v>
+        <v>e_1_2</v>
       </c>
       <c r="F192">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G192">
         <v>75</v>
@@ -8491,14 +8491,14 @@
         <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="7"/>
-        <v>g_1_2</v>
+        <v>f_1_2</v>
       </c>
       <c r="F193">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G193">
         <v>75</v>
@@ -8524,23 +8524,23 @@
         <v>44839</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="7"/>
-        <v>a_2_1</v>
+        <v>g_1_2</v>
       </c>
       <c r="F194">
-        <v>-25</v>
+        <v>250</v>
       </c>
       <c r="G194">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H194" t="s">
         <v>12</v>
@@ -8555,7 +8555,7 @@
         <v>12</v>
       </c>
       <c r="L194" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8569,17 +8569,17 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" si="7"/>
-        <v>b_2_1</v>
+        <v>a_2_1</v>
       </c>
       <c r="F195">
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="G195">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H195" t="s">
         <v>12</v>
@@ -8594,7 +8594,7 @@
         <v>12</v>
       </c>
       <c r="L195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8608,14 +8608,14 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="7"/>
-        <v>c_2_1</v>
+        <v>b_2_1</v>
       </c>
       <c r="F196">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G196">
         <v>150</v>
@@ -8647,14 +8647,14 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="7"/>
-        <v>d_2_1</v>
+        <v>c_2_1</v>
       </c>
       <c r="F197">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G197">
         <v>150</v>
@@ -8683,20 +8683,20 @@
         <v>2</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="7"/>
-        <v>e_2_2</v>
+        <v>d_2_1</v>
       </c>
       <c r="F198">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G198">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H198" t="s">
         <v>12</v>
@@ -8725,14 +8725,14 @@
         <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="7"/>
-        <v>f_2_2</v>
+        <v>e_2_2</v>
       </c>
       <c r="F199">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G199">
         <v>75</v>
@@ -8764,14 +8764,14 @@
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="7"/>
-        <v>g_2_2</v>
+        <v>f_2_2</v>
       </c>
       <c r="F200">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G200">
         <v>75</v>
@@ -8794,26 +8794,26 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" ref="E201:E264" si="8">D201&amp;"_" &amp; B201 &amp; "_" &amp; C201</f>
-        <v>a_1_1</v>
+        <f t="shared" si="7"/>
+        <v>g_2_2</v>
       </c>
       <c r="F201">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G201">
-        <v>-20</v>
+        <v>75</v>
       </c>
       <c r="H201" t="s">
         <v>12</v>
@@ -8828,7 +8828,7 @@
         <v>12</v>
       </c>
       <c r="L201" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8842,17 +8842,17 @@
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="8"/>
-        <v>b_1_1</v>
+        <f t="shared" ref="E202:E265" si="8">D202&amp;"_" &amp; B202 &amp; "_" &amp; C202</f>
+        <v>a_1_1</v>
       </c>
       <c r="F202">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G202">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H202" t="s">
         <v>12</v>
@@ -8867,7 +8867,7 @@
         <v>12</v>
       </c>
       <c r="L202" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8881,17 +8881,17 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="8"/>
-        <v>c_1_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F203">
         <v>250</v>
       </c>
       <c r="G203">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H203" t="s">
         <v>12</v>
@@ -8920,17 +8920,17 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="8"/>
-        <v>h_1_1</v>
+        <v>c_1_1</v>
       </c>
       <c r="F204">
         <v>250</v>
       </c>
       <c r="G204">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H204" t="s">
         <v>12</v>
@@ -8956,20 +8956,20 @@
         <v>1</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="8"/>
-        <v>e_1_2</v>
+        <v>h_1_1</v>
       </c>
       <c r="F205">
+        <v>250</v>
+      </c>
+      <c r="G205">
         <v>150</v>
-      </c>
-      <c r="G205">
-        <v>25</v>
       </c>
       <c r="H205" t="s">
         <v>12</v>
@@ -8998,17 +8998,17 @@
         <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="8"/>
-        <v>f_1_2</v>
+        <v>e_1_2</v>
       </c>
       <c r="F206">
         <v>150</v>
       </c>
       <c r="G206">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H206" t="s">
         <v>12</v>
@@ -9037,17 +9037,17 @@
         <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="8"/>
-        <v>g_1_2</v>
+        <v>f_1_2</v>
       </c>
       <c r="F207">
         <v>150</v>
       </c>
       <c r="G207">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H207" t="s">
         <v>12</v>
@@ -9076,17 +9076,17 @@
         <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="8"/>
-        <v>d_1_2</v>
+        <v>g_1_2</v>
       </c>
       <c r="F208">
         <v>150</v>
       </c>
       <c r="G208">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H208" t="s">
         <v>12</v>
@@ -9112,20 +9112,20 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="8"/>
-        <v>i_1_3</v>
+        <v>d_1_2</v>
       </c>
       <c r="F209">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G209">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="H209" t="s">
         <v>12</v>
@@ -9154,17 +9154,17 @@
         <v>3</v>
       </c>
       <c r="D210" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="8"/>
-        <v>j_1_3</v>
+        <v>i_1_3</v>
       </c>
       <c r="F210">
         <v>50</v>
       </c>
       <c r="G210">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H210" t="s">
         <v>12</v>
@@ -9193,17 +9193,17 @@
         <v>3</v>
       </c>
       <c r="D211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="8"/>
-        <v>k_1_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F211">
         <v>50</v>
       </c>
       <c r="G211">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H211" t="s">
         <v>12</v>
@@ -9232,17 +9232,17 @@
         <v>3</v>
       </c>
       <c r="D212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="8"/>
-        <v>l_1_3</v>
+        <v>k_1_3</v>
       </c>
       <c r="F212">
         <v>50</v>
       </c>
       <c r="G212">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H212" t="s">
         <v>12</v>
@@ -9265,23 +9265,23 @@
         <v>44849</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D213" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="8"/>
-        <v>a_2_1</v>
+        <v>l_1_3</v>
       </c>
       <c r="F213">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G213">
-        <v>-20</v>
+        <v>150</v>
       </c>
       <c r="H213" t="s">
         <v>12</v>
@@ -9296,7 +9296,7 @@
         <v>12</v>
       </c>
       <c r="L213" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9310,17 +9310,17 @@
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="8"/>
-        <v>b_2_1</v>
+        <v>a_2_1</v>
       </c>
       <c r="F214">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G214">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H214" t="s">
         <v>12</v>
@@ -9335,7 +9335,7 @@
         <v>12</v>
       </c>
       <c r="L214" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9349,17 +9349,17 @@
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="8"/>
-        <v>c_2_1</v>
+        <v>b_2_1</v>
       </c>
       <c r="F215">
         <v>250</v>
       </c>
       <c r="G215">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H215" t="s">
         <v>12</v>
@@ -9388,17 +9388,17 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="8"/>
-        <v>h_2_1</v>
+        <v>c_2_1</v>
       </c>
       <c r="F216">
         <v>250</v>
       </c>
       <c r="G216">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H216" t="s">
         <v>12</v>
@@ -9424,20 +9424,20 @@
         <v>2</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="8"/>
-        <v>e_2_2</v>
+        <v>h_2_1</v>
       </c>
       <c r="F217">
+        <v>250</v>
+      </c>
+      <c r="G217">
         <v>150</v>
-      </c>
-      <c r="G217">
-        <v>25</v>
       </c>
       <c r="H217" t="s">
         <v>12</v>
@@ -9466,17 +9466,17 @@
         <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="8"/>
-        <v>f_2_2</v>
+        <v>e_2_2</v>
       </c>
       <c r="F218">
         <v>150</v>
       </c>
       <c r="G218">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H218" t="s">
         <v>12</v>
@@ -9505,17 +9505,17 @@
         <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="8"/>
-        <v>g_2_2</v>
+        <v>f_2_2</v>
       </c>
       <c r="F219">
         <v>150</v>
       </c>
       <c r="G219">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H219" t="s">
         <v>12</v>
@@ -9544,17 +9544,17 @@
         <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="8"/>
-        <v>d_2_2</v>
+        <v>g_2_2</v>
       </c>
       <c r="F220">
         <v>150</v>
       </c>
       <c r="G220">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H220" t="s">
         <v>12</v>
@@ -9580,20 +9580,20 @@
         <v>2</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="8"/>
-        <v>i_2_3</v>
+        <v>d_2_2</v>
       </c>
       <c r="F221">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G221">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
@@ -9622,17 +9622,17 @@
         <v>3</v>
       </c>
       <c r="D222" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="8"/>
-        <v>j_2_3</v>
+        <v>i_2_3</v>
       </c>
       <c r="F222">
         <v>50</v>
       </c>
       <c r="G222">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H222" t="s">
         <v>12</v>
@@ -9661,17 +9661,17 @@
         <v>3</v>
       </c>
       <c r="D223" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E223" t="str">
         <f t="shared" si="8"/>
-        <v>k_2_3</v>
+        <v>j_2_3</v>
       </c>
       <c r="F223">
         <v>50</v>
       </c>
       <c r="G223">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H223" t="s">
         <v>12</v>
@@ -9700,17 +9700,17 @@
         <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="8"/>
-        <v>l_2_3</v>
+        <v>k_2_3</v>
       </c>
       <c r="F224">
         <v>50</v>
       </c>
       <c r="G224">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H224" t="s">
         <v>12</v>
@@ -9730,20 +9730,20 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="8"/>
-        <v>j_1_1</v>
+        <v>l_2_3</v>
       </c>
       <c r="F225">
         <v>50</v>
@@ -9778,14 +9778,14 @@
         <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="8"/>
-        <v>k_1_1</v>
+        <v>j_1_1</v>
       </c>
       <c r="F226">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G226">
         <v>150</v>
@@ -9817,14 +9817,14 @@
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="8"/>
-        <v>l_1_1</v>
+        <v>k_1_1</v>
       </c>
       <c r="F227">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G227">
         <v>150</v>
@@ -9853,20 +9853,20 @@
         <v>1</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="8"/>
-        <v>f_1_2</v>
+        <v>l_1_1</v>
       </c>
       <c r="F228">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G228">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H228" t="s">
         <v>12</v>
@@ -9895,14 +9895,14 @@
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="8"/>
-        <v>g_1_2</v>
+        <v>f_1_2</v>
       </c>
       <c r="F229">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G229">
         <v>75</v>
@@ -9934,14 +9934,14 @@
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E230" t="str">
         <f t="shared" si="8"/>
-        <v>i_1_2</v>
+        <v>g_1_2</v>
       </c>
       <c r="F230">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G230">
         <v>75</v>
@@ -9970,20 +9970,20 @@
         <v>1</v>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E231" t="str">
         <f t="shared" si="8"/>
-        <v>b_1_3</v>
+        <v>i_1_2</v>
       </c>
       <c r="F231">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G231">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H231" t="s">
         <v>12</v>
@@ -10012,14 +10012,14 @@
         <v>3</v>
       </c>
       <c r="D232" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="8"/>
-        <v>c_1_3</v>
+        <v>b_1_3</v>
       </c>
       <c r="F232">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G232">
         <v>25</v>
@@ -10051,14 +10051,14 @@
         <v>3</v>
       </c>
       <c r="D233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E233" t="str">
         <f t="shared" si="8"/>
-        <v>d_1_3</v>
+        <v>c_1_3</v>
       </c>
       <c r="F233">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G233">
         <v>25</v>
@@ -10090,14 +10090,14 @@
         <v>3</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E234" t="str">
         <f t="shared" si="8"/>
-        <v>e_1_3</v>
+        <v>d_1_3</v>
       </c>
       <c r="F234">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G234">
         <v>25</v>
@@ -10126,17 +10126,17 @@
         <v>1</v>
       </c>
       <c r="C235">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D235" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E235" t="str">
         <f t="shared" si="8"/>
-        <v>h_1_5</v>
+        <v>e_1_3</v>
       </c>
       <c r="F235">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G235">
         <v>25</v>
@@ -10165,20 +10165,20 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D236" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E236" t="str">
         <f t="shared" si="8"/>
-        <v>a_1_1</v>
+        <v>h_1_5</v>
       </c>
       <c r="F236">
-        <v>-25</v>
+        <v>250</v>
       </c>
       <c r="G236">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H236" t="s">
         <v>12</v>
@@ -10193,12 +10193,12 @@
         <v>12</v>
       </c>
       <c r="L236" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -10207,17 +10207,17 @@
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E237" t="str">
         <f t="shared" si="8"/>
-        <v>h_1_1</v>
+        <v>a_1_1</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G237">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H237" t="s">
         <v>12</v>
@@ -10232,7 +10232,7 @@
         <v>12</v>
       </c>
       <c r="L237" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -10246,14 +10246,14 @@
         <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E238" t="str">
         <f t="shared" si="8"/>
-        <v>l_1_1</v>
+        <v>h_1_1</v>
       </c>
       <c r="F238">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G238">
         <v>150</v>
@@ -10285,14 +10285,14 @@
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E239" t="str">
         <f t="shared" si="8"/>
-        <v>k_1_1</v>
+        <v>l_1_1</v>
       </c>
       <c r="F239">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G239">
         <v>150</v>
@@ -10321,17 +10321,17 @@
         <v>1</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="8"/>
-        <v>i_1_2</v>
+        <v>k_1_1</v>
       </c>
       <c r="F240">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G240">
         <v>150</v>
@@ -10363,17 +10363,17 @@
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E241" t="str">
         <f t="shared" si="8"/>
-        <v>j_1_2</v>
+        <v>i_1_2</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G241">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H241" t="s">
         <v>12</v>
@@ -10402,14 +10402,14 @@
         <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="8"/>
-        <v>g_1_2</v>
+        <v>j_1_2</v>
       </c>
       <c r="F242">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G242">
         <v>75</v>
@@ -10438,17 +10438,17 @@
         <v>1</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="8"/>
-        <v>f_1_3</v>
+        <v>g_1_2</v>
       </c>
       <c r="F243">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G243">
         <v>75</v>
@@ -10480,14 +10480,14 @@
         <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="8"/>
-        <v>e_1_3</v>
+        <v>f_1_3</v>
       </c>
       <c r="F244">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G244">
         <v>75</v>
@@ -10519,17 +10519,17 @@
         <v>3</v>
       </c>
       <c r="D245" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="8"/>
-        <v>d_1_3</v>
+        <v>e_1_3</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G245">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H245" t="s">
         <v>12</v>
@@ -10555,17 +10555,17 @@
         <v>1</v>
       </c>
       <c r="C246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D246" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="8"/>
-        <v>c_1_4</v>
+        <v>d_1_3</v>
       </c>
       <c r="F246">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G246">
         <v>25</v>
@@ -10597,14 +10597,14 @@
         <v>4</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E247" t="str">
         <f t="shared" si="8"/>
-        <v>b_1_4</v>
+        <v>c_1_4</v>
       </c>
       <c r="F247">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G247">
         <v>25</v>
@@ -10636,14 +10636,14 @@
         <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="8"/>
-        <v>a_1_4</v>
+        <v>b_1_4</v>
       </c>
       <c r="F248">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G248">
         <v>25</v>
@@ -10669,23 +10669,23 @@
         <v>44874</v>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D249" t="s">
         <v>11</v>
       </c>
       <c r="E249" t="str">
         <f t="shared" si="8"/>
-        <v>a_2_1</v>
+        <v>a_1_4</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G249">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="H249" t="s">
         <v>12</v>
@@ -10714,14 +10714,14 @@
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E250" t="str">
         <f t="shared" si="8"/>
-        <v>e_2_1</v>
+        <v>a_2_1</v>
       </c>
       <c r="F250">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G250">
         <v>150</v>
@@ -10753,14 +10753,14 @@
         <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E251" t="str">
         <f t="shared" si="8"/>
-        <v>i_2_1</v>
+        <v>e_2_1</v>
       </c>
       <c r="F251">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G251">
         <v>150</v>
@@ -10789,17 +10789,17 @@
         <v>2</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E252" t="str">
         <f t="shared" si="8"/>
-        <v>b_2_2</v>
+        <v>i_2_1</v>
       </c>
       <c r="F252">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G252">
         <v>150</v>
@@ -10831,17 +10831,17 @@
         <v>2</v>
       </c>
       <c r="D253" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E253" t="str">
         <f t="shared" si="8"/>
-        <v>f_2_2</v>
+        <v>b_2_2</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G253">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H253" t="s">
         <v>12</v>
@@ -10870,14 +10870,14 @@
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E254" t="str">
         <f t="shared" si="8"/>
-        <v>k_2_2</v>
+        <v>f_2_2</v>
       </c>
       <c r="F254">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G254">
         <v>75</v>
@@ -10906,17 +10906,17 @@
         <v>2</v>
       </c>
       <c r="C255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E255" t="str">
         <f t="shared" si="8"/>
-        <v>c_2_3</v>
+        <v>k_2_2</v>
       </c>
       <c r="F255">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G255">
         <v>75</v>
@@ -10948,14 +10948,14 @@
         <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E256" t="str">
         <f t="shared" si="8"/>
-        <v>g_2_3</v>
+        <v>c_2_3</v>
       </c>
       <c r="F256">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G256">
         <v>75</v>
@@ -10987,17 +10987,17 @@
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E257" t="str">
         <f t="shared" si="8"/>
-        <v>l_2_3</v>
+        <v>g_2_3</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G257">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H257" t="s">
         <v>12</v>
@@ -11023,17 +11023,17 @@
         <v>2</v>
       </c>
       <c r="C258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E258" t="str">
         <f t="shared" si="8"/>
-        <v>d_2_4</v>
+        <v>l_2_3</v>
       </c>
       <c r="F258">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G258">
         <v>25</v>
@@ -11065,14 +11065,14 @@
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E259" t="str">
         <f t="shared" si="8"/>
-        <v>j_2_4</v>
+        <v>d_2_4</v>
       </c>
       <c r="F259">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G259">
         <v>25</v>
@@ -11104,14 +11104,14 @@
         <v>4</v>
       </c>
       <c r="D260" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E260" t="str">
         <f t="shared" si="8"/>
-        <v>h_2_4</v>
+        <v>j_2_4</v>
       </c>
       <c r="F260">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G260">
         <v>25</v>
@@ -11134,26 +11134,26 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D261" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E261" t="str">
         <f t="shared" si="8"/>
-        <v>a_1_1</v>
+        <v>h_2_4</v>
       </c>
       <c r="F261">
         <v>250</v>
       </c>
       <c r="G261">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H261" t="s">
         <v>12</v>
@@ -11168,7 +11168,7 @@
         <v>12</v>
       </c>
       <c r="L261" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11182,17 +11182,17 @@
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E262" t="str">
         <f t="shared" si="8"/>
-        <v>b_1_1</v>
+        <v>a_1_1</v>
       </c>
       <c r="F262">
         <v>250</v>
       </c>
       <c r="G262">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
@@ -11207,7 +11207,7 @@
         <v>12</v>
       </c>
       <c r="L262" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11221,17 +11221,17 @@
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E263" t="str">
         <f t="shared" si="8"/>
-        <v>c_1_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F263">
         <v>250</v>
       </c>
       <c r="G263">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H263" t="s">
         <v>12</v>
@@ -11260,17 +11260,17 @@
         <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E264" t="str">
         <f t="shared" si="8"/>
-        <v>d_1_1</v>
+        <v>c_1_1</v>
       </c>
       <c r="F264">
         <v>250</v>
       </c>
       <c r="G264">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H264" t="s">
         <v>12</v>
@@ -11296,20 +11296,20 @@
         <v>1</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D265" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E265" t="str">
-        <f t="shared" ref="E265:E272" si="9">D265&amp;"_" &amp; B265 &amp; "_" &amp; C265</f>
-        <v>e_1_2</v>
+        <f t="shared" si="8"/>
+        <v>d_1_1</v>
       </c>
       <c r="F265">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G265">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H265" t="s">
         <v>12</v>
@@ -11324,7 +11324,7 @@
         <v>12</v>
       </c>
       <c r="L265" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11338,17 +11338,17 @@
         <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="9"/>
-        <v>f_1_2</v>
+        <f t="shared" ref="E266:E273" si="9">D266&amp;"_" &amp; B266 &amp; "_" &amp; C266</f>
+        <v>e_1_2</v>
       </c>
       <c r="F266">
         <v>150</v>
       </c>
       <c r="G266">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H266" t="s">
         <v>12</v>
@@ -11363,7 +11363,7 @@
         <v>12</v>
       </c>
       <c r="L266" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11377,17 +11377,17 @@
         <v>2</v>
       </c>
       <c r="D267" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E267" t="str">
         <f t="shared" si="9"/>
-        <v>g_1_2</v>
+        <v>f_1_2</v>
       </c>
       <c r="F267">
         <v>150</v>
       </c>
       <c r="G267">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H267" t="s">
         <v>12</v>
@@ -11416,17 +11416,17 @@
         <v>2</v>
       </c>
       <c r="D268" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E268" t="str">
         <f t="shared" si="9"/>
-        <v>h_1_2</v>
+        <v>g_1_2</v>
       </c>
       <c r="F268">
         <v>150</v>
       </c>
       <c r="G268">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H268" t="s">
         <v>12</v>
@@ -11452,20 +11452,20 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E269" t="str">
         <f t="shared" si="9"/>
-        <v>i_1_3</v>
+        <v>h_1_2</v>
       </c>
       <c r="F269">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G269">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H269" t="s">
         <v>12</v>
@@ -11480,7 +11480,7 @@
         <v>12</v>
       </c>
       <c r="L269" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11494,17 +11494,17 @@
         <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E270" t="str">
         <f t="shared" si="9"/>
-        <v>j_1_3</v>
+        <v>i_1_3</v>
       </c>
       <c r="F270">
         <v>50</v>
       </c>
       <c r="G270">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H270" t="s">
         <v>12</v>
@@ -11519,7 +11519,7 @@
         <v>12</v>
       </c>
       <c r="L270" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11533,17 +11533,17 @@
         <v>3</v>
       </c>
       <c r="D271" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E271" t="str">
         <f t="shared" si="9"/>
-        <v>k_1_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F271">
         <v>50</v>
       </c>
       <c r="G271">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H271" t="s">
         <v>12</v>
@@ -11572,31 +11572,70 @@
         <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E272" t="str">
         <f t="shared" si="9"/>
+        <v>k_1_3</v>
+      </c>
+      <c r="F272">
+        <v>50</v>
+      </c>
+      <c r="G272">
+        <v>100</v>
+      </c>
+      <c r="H272" t="s">
+        <v>12</v>
+      </c>
+      <c r="I272" t="s">
+        <v>12</v>
+      </c>
+      <c r="J272" t="s">
+        <v>12</v>
+      </c>
+      <c r="K272" t="s">
+        <v>12</v>
+      </c>
+      <c r="L272" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+      <c r="D273" t="s">
+        <v>24</v>
+      </c>
+      <c r="E273" t="str">
+        <f t="shared" si="9"/>
         <v>l_1_3</v>
       </c>
-      <c r="F272">
-        <v>50</v>
-      </c>
-      <c r="G272">
+      <c r="F273">
+        <v>50</v>
+      </c>
+      <c r="G273">
         <v>200</v>
       </c>
-      <c r="H272" t="s">
-        <v>12</v>
-      </c>
-      <c r="I272" t="s">
-        <v>12</v>
-      </c>
-      <c r="J272" t="s">
-        <v>12</v>
-      </c>
-      <c r="K272" t="s">
-        <v>12</v>
-      </c>
-      <c r="L272" t="s">
+      <c r="H273" t="s">
+        <v>12</v>
+      </c>
+      <c r="I273" t="s">
+        <v>12</v>
+      </c>
+      <c r="J273" t="s">
+        <v>12</v>
+      </c>
+      <c r="K273" t="s">
+        <v>12</v>
+      </c>
+      <c r="L273" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5F5FCE-436D-49E7-8708-53E9FA6FF196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF0B76-5989-44BE-BDE4-B5146DE0D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12400" yWindow="0" windowWidth="13200" windowHeight="13680" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -981,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-  <dimension ref="A1:L283"/>
+  <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,7 +1085,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E83" si="0">D3&amp;"_" &amp; B3 &amp; "_" &amp; C3</f>
+        <f t="shared" ref="E3:E85" si="0">D3&amp;"_" &amp; B3 &amp; "_" &amp; C3</f>
         <v>x_1_1</v>
       </c>
       <c r="F3">
@@ -2905,10 +2905,82 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>a_1_2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>90</v>
+      </c>
+      <c r="I50">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>x_1_2</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -3028,10 +3100,82 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>a_2_1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>90</v>
+      </c>
+      <c r="I55">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>50</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>x_2_1</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
@@ -3229,7 +3373,22 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>x_2_2</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -3388,10 +3547,82 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="0"/>
+        <v>a_2_3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67">
+        <v>90</v>
+      </c>
+      <c r="I67">
+        <v>20</v>
+      </c>
+      <c r="J67">
+        <v>50</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="0"/>
+        <v>x_2_3</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
@@ -3677,23 +3908,23 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="0"/>
-        <v>e_1_2</v>
+        <v>x_1_2</v>
       </c>
       <c r="F76">
         <v>150</v>
       </c>
       <c r="G76">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
         <v>12</v>
       </c>
-      <c r="I76">
-        <v>20</v>
+      <c r="I76" t="s">
+        <v>12</v>
       </c>
       <c r="J76" t="s">
         <v>12</v>
@@ -3702,7 +3933,7 @@
         <v>12</v>
       </c>
       <c r="L76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -3716,23 +3947,23 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="0"/>
-        <v>f_1_2</v>
+        <v>e_1_2</v>
       </c>
       <c r="F77">
         <v>150</v>
       </c>
       <c r="G77">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
       </c>
       <c r="I77">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J77" t="s">
         <v>12</v>
@@ -3741,7 +3972,7 @@
         <v>12</v>
       </c>
       <c r="L77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -3755,23 +3986,23 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="0"/>
-        <v>g_1_2</v>
+        <v>f_1_2</v>
       </c>
       <c r="F78">
         <v>150</v>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
       </c>
       <c r="I78">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J78" t="s">
         <v>12</v>
@@ -3794,23 +4025,23 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="0"/>
-        <v>h_1_2</v>
+        <v>g_1_2</v>
       </c>
       <c r="F79">
         <v>150</v>
       </c>
       <c r="G79">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
       </c>
       <c r="I79">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J79" t="s">
         <v>12</v>
@@ -3830,26 +4061,26 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="0"/>
-        <v>i_1_3</v>
+        <v>h_1_2</v>
       </c>
       <c r="F80">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G80">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
       </c>
       <c r="I80">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="J80" t="s">
         <v>12</v>
@@ -3858,7 +4089,7 @@
         <v>12</v>
       </c>
       <c r="L80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -3872,23 +4103,23 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="0"/>
-        <v>j_1_3</v>
+        <v>x_1_3</v>
       </c>
       <c r="F81">
         <v>50</v>
       </c>
       <c r="G81">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
       </c>
-      <c r="I81">
-        <v>50</v>
+      <c r="I81" t="s">
+        <v>12</v>
       </c>
       <c r="J81" t="s">
         <v>12</v>
@@ -3911,23 +4142,23 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="0"/>
-        <v>k_1_3</v>
+        <v>i_1_3</v>
       </c>
       <c r="F82">
         <v>50</v>
       </c>
       <c r="G82">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
       </c>
       <c r="I82">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J82" t="s">
         <v>12</v>
@@ -3936,7 +4167,7 @@
         <v>12</v>
       </c>
       <c r="L82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -3950,23 +4181,23 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="0"/>
-        <v>l_1_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F83">
         <v>50</v>
       </c>
       <c r="G83">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
       </c>
       <c r="I83">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="J83" t="s">
         <v>12</v>
@@ -3983,29 +4214,29 @@
         <v>44756</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" ref="E84:E147" si="6">D84&amp;"_" &amp; B84 &amp; "_" &amp; C84</f>
-        <v>a_2_1</v>
+        <f t="shared" si="0"/>
+        <v>k_1_3</v>
       </c>
       <c r="F84">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G84">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H84" t="s">
         <v>12</v>
       </c>
-      <c r="I84" t="s">
-        <v>12</v>
+      <c r="I84">
+        <v>100</v>
       </c>
       <c r="J84" t="s">
         <v>12</v>
@@ -4014,7 +4245,7 @@
         <v>12</v>
       </c>
       <c r="L84" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -4022,29 +4253,29 @@
         <v>44756</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="6"/>
-        <v>b_2_1</v>
+        <f t="shared" si="0"/>
+        <v>l_1_3</v>
       </c>
       <c r="F85">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G85">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
       </c>
-      <c r="I85" t="s">
-        <v>12</v>
+      <c r="I85">
+        <v>200</v>
       </c>
       <c r="J85" t="s">
         <v>12</v>
@@ -4067,17 +4298,17 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="6"/>
-        <v>c_2_1</v>
+        <f t="shared" ref="E86:E160" si="6">D86&amp;"_" &amp; B86 &amp; "_" &amp; C86</f>
+        <v>a_2_1</v>
       </c>
       <c r="F86">
         <v>250</v>
       </c>
       <c r="G86">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H86" t="s">
         <v>12</v>
@@ -4092,7 +4323,7 @@
         <v>12</v>
       </c>
       <c r="L86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4106,17 +4337,17 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="6"/>
-        <v>d_2_1</v>
+        <v>b_2_1</v>
       </c>
       <c r="F87">
         <v>250</v>
       </c>
       <c r="G87">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s">
         <v>12</v>
@@ -4142,26 +4373,26 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="6"/>
-        <v>e_2_2</v>
+        <v>c_2_1</v>
       </c>
       <c r="F88">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G88">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H88" t="s">
         <v>12</v>
       </c>
-      <c r="I88">
-        <v>20</v>
+      <c r="I88" t="s">
+        <v>12</v>
       </c>
       <c r="J88" t="s">
         <v>12</v>
@@ -4170,7 +4401,7 @@
         <v>12</v>
       </c>
       <c r="L88" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4181,26 +4412,26 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="6"/>
-        <v>f_2_2</v>
+        <v>d_2_1</v>
       </c>
       <c r="F89">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G89">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H89" t="s">
         <v>12</v>
       </c>
-      <c r="I89">
-        <v>50</v>
+      <c r="I89" t="s">
+        <v>12</v>
       </c>
       <c r="J89" t="s">
         <v>12</v>
@@ -4223,23 +4454,23 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="6"/>
-        <v>g_2_2</v>
+        <v>x_2_2</v>
       </c>
       <c r="F90">
         <v>150</v>
       </c>
       <c r="G90">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
         <v>12</v>
       </c>
-      <c r="I90">
-        <v>100</v>
+      <c r="I90" t="s">
+        <v>12</v>
       </c>
       <c r="J90" t="s">
         <v>12</v>
@@ -4262,23 +4493,23 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="6"/>
-        <v>h_2_2</v>
+        <v>e_2_2</v>
       </c>
       <c r="F91">
         <v>150</v>
       </c>
       <c r="G91">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H91" t="s">
         <v>12</v>
       </c>
       <c r="I91">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="J91" t="s">
         <v>12</v>
@@ -4287,7 +4518,7 @@
         <v>12</v>
       </c>
       <c r="L91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -4298,26 +4529,26 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="6"/>
-        <v>i_2_3</v>
+        <v>f_2_2</v>
       </c>
       <c r="F92">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G92">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s">
         <v>12</v>
       </c>
       <c r="I92">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J92" t="s">
         <v>12</v>
@@ -4326,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="L92" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -4337,26 +4568,26 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="6"/>
-        <v>j_2_3</v>
+        <v>g_2_2</v>
       </c>
       <c r="F93">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H93" t="s">
         <v>12</v>
       </c>
       <c r="I93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J93" t="s">
         <v>12</v>
@@ -4376,26 +4607,26 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="6"/>
-        <v>k_2_3</v>
+        <v>h_2_2</v>
       </c>
       <c r="F94">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G94">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H94" t="s">
         <v>12</v>
       </c>
       <c r="I94">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J94" t="s">
         <v>12</v>
@@ -4418,23 +4649,23 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="6"/>
-        <v>l_2_3</v>
+        <v>x_2_3</v>
       </c>
       <c r="F95">
         <v>50</v>
       </c>
       <c r="G95">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>12</v>
       </c>
-      <c r="I95">
-        <v>200</v>
+      <c r="I95" t="s">
+        <v>12</v>
       </c>
       <c r="J95" t="s">
         <v>12</v>
@@ -4451,20 +4682,20 @@
         <v>44756</v>
       </c>
       <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
         <v>3</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="6"/>
-        <v>a_3_1</v>
+        <v>i_2_3</v>
       </c>
       <c r="F96">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G96">
         <v>-20</v>
@@ -4472,8 +4703,8 @@
       <c r="H96" t="s">
         <v>12</v>
       </c>
-      <c r="I96" t="s">
-        <v>12</v>
+      <c r="I96">
+        <v>20</v>
       </c>
       <c r="J96" t="s">
         <v>12</v>
@@ -4490,20 +4721,20 @@
         <v>44756</v>
       </c>
       <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
         <v>3</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="6"/>
-        <v>b_3_1</v>
+        <v>j_2_3</v>
       </c>
       <c r="F97">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G97">
         <v>50</v>
@@ -4511,8 +4742,8 @@
       <c r="H97" t="s">
         <v>12</v>
       </c>
-      <c r="I97" t="s">
-        <v>12</v>
+      <c r="I97">
+        <v>50</v>
       </c>
       <c r="J97" t="s">
         <v>12</v>
@@ -4529,20 +4760,20 @@
         <v>44756</v>
       </c>
       <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
         <v>3</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="6"/>
-        <v>c_3_1</v>
+        <v>k_2_3</v>
       </c>
       <c r="F98">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G98">
         <v>100</v>
@@ -4550,8 +4781,8 @@
       <c r="H98" t="s">
         <v>12</v>
       </c>
-      <c r="I98" t="s">
-        <v>12</v>
+      <c r="I98">
+        <v>100</v>
       </c>
       <c r="J98" t="s">
         <v>12</v>
@@ -4568,20 +4799,20 @@
         <v>44756</v>
       </c>
       <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
         <v>3</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="6"/>
-        <v>d_3_1</v>
+        <v>l_2_3</v>
       </c>
       <c r="F99">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G99">
         <v>200</v>
@@ -4589,8 +4820,8 @@
       <c r="H99" t="s">
         <v>12</v>
       </c>
-      <c r="I99" t="s">
-        <v>12</v>
+      <c r="I99">
+        <v>200</v>
       </c>
       <c r="J99" t="s">
         <v>12</v>
@@ -4610,17 +4841,17 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="6"/>
-        <v>e_3_2</v>
+        <v>a_3_1</v>
       </c>
       <c r="F100">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G100">
         <v>-20</v>
@@ -4628,8 +4859,8 @@
       <c r="H100" t="s">
         <v>12</v>
       </c>
-      <c r="I100">
-        <v>20</v>
+      <c r="I100" t="s">
+        <v>12</v>
       </c>
       <c r="J100" t="s">
         <v>12</v>
@@ -4649,17 +4880,17 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="6"/>
-        <v>f_3_2</v>
+        <v>b_3_1</v>
       </c>
       <c r="F101">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G101">
         <v>50</v>
@@ -4667,8 +4898,8 @@
       <c r="H101" t="s">
         <v>12</v>
       </c>
-      <c r="I101">
-        <v>50</v>
+      <c r="I101" t="s">
+        <v>12</v>
       </c>
       <c r="J101" t="s">
         <v>12</v>
@@ -4688,17 +4919,17 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="6"/>
-        <v>g_3_2</v>
+        <v>c_3_1</v>
       </c>
       <c r="F102">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G102">
         <v>100</v>
@@ -4706,8 +4937,8 @@
       <c r="H102" t="s">
         <v>12</v>
       </c>
-      <c r="I102">
-        <v>100</v>
+      <c r="I102" t="s">
+        <v>12</v>
       </c>
       <c r="J102" t="s">
         <v>12</v>
@@ -4727,17 +4958,17 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="6"/>
-        <v>h_3_2</v>
+        <v>d_3_1</v>
       </c>
       <c r="F103">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G103">
         <v>200</v>
@@ -4745,8 +4976,8 @@
       <c r="H103" t="s">
         <v>12</v>
       </c>
-      <c r="I103">
-        <v>200</v>
+      <c r="I103" t="s">
+        <v>12</v>
       </c>
       <c r="J103" t="s">
         <v>12</v>
@@ -4766,26 +4997,26 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="6"/>
-        <v>i_3_3</v>
+        <f t="shared" ref="E104" si="7">D104&amp;"_" &amp; B104 &amp; "_" &amp; C104</f>
+        <v>x_3_2</v>
       </c>
       <c r="F104">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G104">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H104" t="s">
         <v>12</v>
       </c>
-      <c r="I104">
-        <v>20</v>
+      <c r="I104" t="s">
+        <v>12</v>
       </c>
       <c r="J104" t="s">
         <v>12</v>
@@ -4794,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
@@ -4805,26 +5036,26 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="6"/>
-        <v>j_3_3</v>
+        <v>e_3_2</v>
       </c>
       <c r="F105">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G105">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
       </c>
       <c r="I105">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J105" t="s">
         <v>12</v>
@@ -4833,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="L105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
@@ -4844,26 +5075,26 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="6"/>
-        <v>k_3_3</v>
+        <v>f_3_2</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G106">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
       </c>
       <c r="I106">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J106" t="s">
         <v>12</v>
@@ -4883,26 +5114,26 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="6"/>
-        <v>l_3_3</v>
+        <v>g_3_2</v>
       </c>
       <c r="F107">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G107">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
       </c>
       <c r="I107">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J107" t="s">
         <v>12</v>
@@ -4916,32 +5147,32 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="6"/>
-        <v>b_1_1</v>
+        <v>h_3_2</v>
       </c>
       <c r="F108">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="G108">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="J108" t="s">
         <v>12</v>
@@ -4955,32 +5186,32 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="6"/>
-        <v>d_1_1</v>
+        <f t="shared" ref="E109" si="8">D109&amp;"_" &amp; B109 &amp; "_" &amp; C109</f>
+        <v>x_3_3</v>
       </c>
       <c r="F109">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G109">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H109" t="s">
         <v>12</v>
       </c>
-      <c r="I109">
-        <v>10</v>
+      <c r="I109" t="s">
+        <v>12</v>
       </c>
       <c r="J109" t="s">
         <v>12</v>
@@ -4994,26 +5225,26 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="6"/>
-        <v>g_1_1</v>
+        <v>i_3_3</v>
       </c>
       <c r="F110">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G110">
-        <v>25</v>
+        <v>-20</v>
       </c>
       <c r="H110" t="s">
         <v>12</v>
@@ -5028,37 +5259,37 @@
         <v>12</v>
       </c>
       <c r="L110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="6"/>
-        <v>c_1_1</v>
+        <v>j_3_3</v>
       </c>
       <c r="F111">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G111">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H111" t="s">
         <v>12</v>
       </c>
       <c r="I111">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J111" t="s">
         <v>12</v>
@@ -5072,32 +5303,32 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="6"/>
-        <v>f_1_1</v>
+        <v>k_3_3</v>
       </c>
       <c r="F112">
         <v>50</v>
       </c>
       <c r="G112">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H112" t="s">
         <v>12</v>
       </c>
       <c r="I112">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J112" t="s">
         <v>12</v>
@@ -5111,32 +5342,32 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>44814</v>
+        <v>44756</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="6"/>
-        <v>b_2_1</v>
+        <v>l_3_3</v>
       </c>
       <c r="F113">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G113">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="H113" t="s">
         <v>12</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="J113" t="s">
         <v>12</v>
@@ -5153,20 +5384,20 @@
         <v>44814</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="6"/>
-        <v>d_2_1</v>
+        <v>x_1_1</v>
       </c>
       <c r="F114">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G114">
         <v>25</v>
@@ -5174,8 +5405,8 @@
       <c r="H114" t="s">
         <v>12</v>
       </c>
-      <c r="I114">
-        <v>10</v>
+      <c r="I114" t="s">
+        <v>12</v>
       </c>
       <c r="J114" t="s">
         <v>12</v>
@@ -5192,20 +5423,20 @@
         <v>44814</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="6"/>
-        <v>g_2_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F115">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G115">
         <v>25</v>
@@ -5214,7 +5445,7 @@
         <v>12</v>
       </c>
       <c r="I115">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J115" t="s">
         <v>12</v>
@@ -5231,20 +5462,20 @@
         <v>44814</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="6"/>
-        <v>c_2_1</v>
+        <v>d_1_1</v>
       </c>
       <c r="F116">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G116">
         <v>25</v>
@@ -5253,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="I116">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J116" t="s">
         <v>12</v>
@@ -5270,20 +5501,20 @@
         <v>44814</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="6"/>
-        <v>f_2_1</v>
+        <v>g_1_1</v>
       </c>
       <c r="F117">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G117">
         <v>25</v>
@@ -5292,7 +5523,7 @@
         <v>12</v>
       </c>
       <c r="I117">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J117" t="s">
         <v>12</v>
@@ -5309,20 +5540,20 @@
         <v>44814</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="6"/>
-        <v>e_2_2</v>
+        <v>c_1_1</v>
       </c>
       <c r="F118">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="G118">
         <v>25</v>
@@ -5331,7 +5562,7 @@
         <v>12</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J118" t="s">
         <v>12</v>
@@ -5348,20 +5579,20 @@
         <v>44814</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="6"/>
-        <v>i_2_2</v>
+        <v>f_1_1</v>
       </c>
       <c r="F119">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="G119">
         <v>25</v>
@@ -5370,7 +5601,7 @@
         <v>12</v>
       </c>
       <c r="I119">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J119" t="s">
         <v>12</v>
@@ -5390,17 +5621,17 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="6"/>
-        <v>l_2_2</v>
+        <v>x_2_1</v>
       </c>
       <c r="F120">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G120">
         <v>25</v>
@@ -5408,8 +5639,8 @@
       <c r="H120" t="s">
         <v>12</v>
       </c>
-      <c r="I120">
-        <v>20</v>
+      <c r="I120" t="s">
+        <v>12</v>
       </c>
       <c r="J120" t="s">
         <v>12</v>
@@ -5429,17 +5660,17 @@
         <v>2</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="6"/>
-        <v>k_2_2</v>
+        <v>b_2_1</v>
       </c>
       <c r="F121">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G121">
         <v>25</v>
@@ -5448,7 +5679,7 @@
         <v>12</v>
       </c>
       <c r="I121">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J121" t="s">
         <v>12</v>
@@ -5468,17 +5699,17 @@
         <v>2</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="6"/>
-        <v>j_2_2</v>
+        <v>d_2_1</v>
       </c>
       <c r="F122">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="G122">
         <v>25</v>
@@ -5487,7 +5718,7 @@
         <v>12</v>
       </c>
       <c r="I122">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J122" t="s">
         <v>12</v>
@@ -5501,32 +5732,32 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="6"/>
-        <v>a_1_1</v>
+        <v>g_2_1</v>
       </c>
       <c r="F123">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G123">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
       </c>
-      <c r="I123" t="s">
-        <v>12</v>
+      <c r="I123">
+        <v>20</v>
       </c>
       <c r="J123" t="s">
         <v>12</v>
@@ -5535,37 +5766,37 @@
         <v>12</v>
       </c>
       <c r="L123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="6"/>
-        <v>b_1_1</v>
+        <v>c_2_1</v>
       </c>
       <c r="F124">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="G124">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H124" t="s">
         <v>12</v>
       </c>
-      <c r="I124" t="s">
-        <v>12</v>
+      <c r="I124">
+        <v>35</v>
       </c>
       <c r="J124" t="s">
         <v>12</v>
@@ -5579,32 +5810,32 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="6"/>
-        <v>c_1_1</v>
+        <v>f_2_1</v>
       </c>
       <c r="F125">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G125">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H125" t="s">
         <v>12</v>
       </c>
-      <c r="I125" t="s">
-        <v>12</v>
+      <c r="I125">
+        <v>50</v>
       </c>
       <c r="J125" t="s">
         <v>12</v>
@@ -5618,26 +5849,26 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="6"/>
-        <v>d_1_1</v>
+        <v>x_2_2</v>
       </c>
       <c r="F126">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G126">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="H126" t="s">
         <v>12</v>
@@ -5657,10 +5888,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -5670,19 +5901,19 @@
       </c>
       <c r="E127" t="str">
         <f t="shared" si="6"/>
-        <v>e_1_2</v>
+        <v>e_2_2</v>
       </c>
       <c r="F127">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="G127">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H127" t="s">
         <v>12</v>
       </c>
       <c r="I127">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J127" t="s">
         <v>12</v>
@@ -5691,37 +5922,37 @@
         <v>12</v>
       </c>
       <c r="L127" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="6"/>
-        <v>f_1_2</v>
+        <v>i_2_2</v>
       </c>
       <c r="F128">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="G128">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H128" t="s">
         <v>12</v>
       </c>
       <c r="I128">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J128" t="s">
         <v>12</v>
@@ -5735,32 +5966,32 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="6"/>
-        <v>g_1_2</v>
+        <v>l_2_2</v>
       </c>
       <c r="F129">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G129">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H129" t="s">
         <v>12</v>
       </c>
       <c r="I129">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J129" t="s">
         <v>12</v>
@@ -5774,32 +6005,32 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="6"/>
-        <v>h_1_2</v>
+        <v>k_2_2</v>
       </c>
       <c r="F130">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G130">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="H130" t="s">
         <v>12</v>
       </c>
       <c r="I130">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="J130" t="s">
         <v>12</v>
@@ -5813,32 +6044,32 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>44760</v>
+        <v>44814</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="6"/>
-        <v>i_1_3</v>
+        <v>j_2_2</v>
       </c>
       <c r="F131">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G131">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H131" t="s">
         <v>12</v>
       </c>
       <c r="I131">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J131" t="s">
         <v>12</v>
@@ -5847,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="L131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
@@ -5858,26 +6089,26 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="6"/>
-        <v>j_1_3</v>
+        <v>a_1_1</v>
       </c>
       <c r="F132">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G132">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H132" t="s">
         <v>12</v>
       </c>
-      <c r="I132">
-        <v>50</v>
+      <c r="I132" t="s">
+        <v>12</v>
       </c>
       <c r="J132" t="s">
         <v>12</v>
@@ -5886,7 +6117,7 @@
         <v>12</v>
       </c>
       <c r="L132" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
@@ -5897,26 +6128,26 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="6"/>
-        <v>k_1_3</v>
+        <v>b_1_1</v>
       </c>
       <c r="F133">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G133">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H133" t="s">
         <v>12</v>
       </c>
-      <c r="I133">
-        <v>100</v>
+      <c r="I133" t="s">
+        <v>12</v>
       </c>
       <c r="J133" t="s">
         <v>12</v>
@@ -5936,26 +6167,26 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="6"/>
-        <v>l_1_3</v>
+        <v>c_1_1</v>
       </c>
       <c r="F134">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G134">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H134" t="s">
         <v>12</v>
       </c>
-      <c r="I134">
-        <v>200</v>
+      <c r="I134" t="s">
+        <v>12</v>
       </c>
       <c r="J134" t="s">
         <v>12</v>
@@ -5972,23 +6203,23 @@
         <v>44760</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="6"/>
-        <v>a_2_1</v>
+        <v>d_1_1</v>
       </c>
       <c r="F135">
         <v>250</v>
       </c>
       <c r="G135">
-        <v>-20</v>
+        <v>200</v>
       </c>
       <c r="H135" t="s">
         <v>12</v>
@@ -6003,7 +6234,7 @@
         <v>12</v>
       </c>
       <c r="L135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
@@ -6011,23 +6242,23 @@
         <v>44760</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="6"/>
-        <v>b_2_1</v>
+        <v>x_1_2</v>
       </c>
       <c r="F136">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G136">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H136" t="s">
         <v>12</v>
@@ -6050,29 +6281,29 @@
         <v>44760</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="6"/>
-        <v>c_2_1</v>
+        <v>e_1_2</v>
       </c>
       <c r="F137">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G137">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="H137" t="s">
         <v>12</v>
       </c>
-      <c r="I137" t="s">
-        <v>12</v>
+      <c r="I137">
+        <v>20</v>
       </c>
       <c r="J137" t="s">
         <v>12</v>
@@ -6081,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="L137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
@@ -6089,29 +6320,29 @@
         <v>44760</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="6"/>
-        <v>d_2_1</v>
+        <v>f_1_2</v>
       </c>
       <c r="F138">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G138">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H138" t="s">
         <v>12</v>
       </c>
-      <c r="I138" t="s">
-        <v>12</v>
+      <c r="I138">
+        <v>50</v>
       </c>
       <c r="J138" t="s">
         <v>12</v>
@@ -6128,29 +6359,29 @@
         <v>44760</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="6"/>
-        <v>e_2_2</v>
+        <v>g_1_2</v>
       </c>
       <c r="F139">
         <v>150</v>
       </c>
       <c r="G139">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H139" t="s">
         <v>12</v>
       </c>
       <c r="I139">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J139" t="s">
         <v>12</v>
@@ -6159,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="L139" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
@@ -6167,29 +6398,29 @@
         <v>44760</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="6"/>
-        <v>f_2_2</v>
+        <v>h_1_2</v>
       </c>
       <c r="F140">
         <v>150</v>
       </c>
       <c r="G140">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H140" t="s">
         <v>12</v>
       </c>
       <c r="I140">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J140" t="s">
         <v>12</v>
@@ -6206,29 +6437,29 @@
         <v>44760</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="6"/>
-        <v>g_2_2</v>
+        <v>x_1_3</v>
       </c>
       <c r="F141">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G141">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H141" t="s">
         <v>12</v>
       </c>
-      <c r="I141">
-        <v>100</v>
+      <c r="I141" t="s">
+        <v>12</v>
       </c>
       <c r="J141" t="s">
         <v>12</v>
@@ -6245,29 +6476,29 @@
         <v>44760</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="6"/>
-        <v>h_2_2</v>
+        <v>i_1_3</v>
       </c>
       <c r="F142">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G142">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
       </c>
       <c r="I142">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="J142" t="s">
         <v>12</v>
@@ -6276,7 +6507,7 @@
         <v>12</v>
       </c>
       <c r="L142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
@@ -6284,29 +6515,29 @@
         <v>44760</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>3</v>
       </c>
       <c r="D143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="6"/>
-        <v>i_2_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F143">
         <v>50</v>
       </c>
       <c r="G143">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H143" t="s">
         <v>12</v>
       </c>
       <c r="I143">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J143" t="s">
         <v>12</v>
@@ -6315,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="L143" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
@@ -6323,29 +6554,29 @@
         <v>44760</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>3</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="6"/>
-        <v>j_2_3</v>
+        <v>k_1_3</v>
       </c>
       <c r="F144">
         <v>50</v>
       </c>
       <c r="G144">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
       </c>
       <c r="I144">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J144" t="s">
         <v>12</v>
@@ -6362,29 +6593,29 @@
         <v>44760</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="6"/>
-        <v>k_2_3</v>
+        <v>l_1_3</v>
       </c>
       <c r="F145">
         <v>50</v>
       </c>
       <c r="G145">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H145" t="s">
         <v>12</v>
       </c>
       <c r="I145">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J145" t="s">
         <v>12</v>
@@ -6404,26 +6635,26 @@
         <v>2</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="6"/>
-        <v>l_2_3</v>
+        <v>a_2_1</v>
       </c>
       <c r="F146">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G146">
-        <v>200</v>
+        <v>-20</v>
       </c>
       <c r="H146" t="s">
         <v>12</v>
       </c>
-      <c r="I146">
-        <v>200</v>
+      <c r="I146" t="s">
+        <v>12</v>
       </c>
       <c r="J146" t="s">
         <v>12</v>
@@ -6432,7 +6663,7 @@
         <v>12</v>
       </c>
       <c r="L146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
@@ -6440,23 +6671,23 @@
         <v>44760</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="6"/>
-        <v>a_3_1</v>
+        <v>b_2_1</v>
       </c>
       <c r="F147">
         <v>250</v>
       </c>
       <c r="G147">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H147" t="s">
         <v>12</v>
@@ -6471,7 +6702,7 @@
         <v>12</v>
       </c>
       <c r="L147" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
@@ -6479,23 +6710,23 @@
         <v>44760</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" ref="E148:E211" si="7">D148&amp;"_" &amp; B148 &amp; "_" &amp; C148</f>
-        <v>b_3_1</v>
+        <f t="shared" si="6"/>
+        <v>c_2_1</v>
       </c>
       <c r="F148">
         <v>250</v>
       </c>
       <c r="G148">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H148" t="s">
         <v>12</v>
@@ -6518,23 +6749,23 @@
         <v>44760</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="7"/>
-        <v>c_3_1</v>
+        <f t="shared" si="6"/>
+        <v>d_2_1</v>
       </c>
       <c r="F149">
         <v>250</v>
       </c>
       <c r="G149">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H149" t="s">
         <v>12</v>
@@ -6557,23 +6788,23 @@
         <v>44760</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="7"/>
-        <v>d_3_1</v>
+        <f t="shared" ref="E150" si="9">D150&amp;"_" &amp; B150 &amp; "_" &amp; C150</f>
+        <v>x_2_2</v>
       </c>
       <c r="F150">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G150">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H150" t="s">
         <v>12</v>
@@ -6596,7 +6827,7 @@
         <v>44760</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -6605,8 +6836,8 @@
         <v>18</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="7"/>
-        <v>e_3_2</v>
+        <f t="shared" si="6"/>
+        <v>e_2_2</v>
       </c>
       <c r="F151">
         <v>150</v>
@@ -6635,7 +6866,7 @@
         <v>44760</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -6644,8 +6875,8 @@
         <v>19</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="7"/>
-        <v>f_3_2</v>
+        <f t="shared" si="6"/>
+        <v>f_2_2</v>
       </c>
       <c r="F152">
         <v>150</v>
@@ -6674,7 +6905,7 @@
         <v>44760</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -6683,8 +6914,8 @@
         <v>25</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="7"/>
-        <v>g_3_2</v>
+        <f t="shared" si="6"/>
+        <v>g_2_2</v>
       </c>
       <c r="F153">
         <v>150</v>
@@ -6713,7 +6944,7 @@
         <v>44760</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -6722,8 +6953,8 @@
         <v>20</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="7"/>
-        <v>h_3_2</v>
+        <f t="shared" si="6"/>
+        <v>h_2_2</v>
       </c>
       <c r="F154">
         <v>150</v>
@@ -6752,29 +6983,29 @@
         <v>44760</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155">
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="7"/>
-        <v>i_3_3</v>
+        <f t="shared" si="6"/>
+        <v>x_2_3</v>
       </c>
       <c r="F155">
         <v>50</v>
       </c>
       <c r="G155">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
       </c>
-      <c r="I155">
-        <v>20</v>
+      <c r="I155" t="s">
+        <v>12</v>
       </c>
       <c r="J155" t="s">
         <v>12</v>
@@ -6783,7 +7014,7 @@
         <v>12</v>
       </c>
       <c r="L155" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
@@ -6791,29 +7022,29 @@
         <v>44760</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156">
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="7"/>
-        <v>j_3_3</v>
+        <f t="shared" si="6"/>
+        <v>i_2_3</v>
       </c>
       <c r="F156">
         <v>50</v>
       </c>
       <c r="G156">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H156" t="s">
         <v>12</v>
       </c>
       <c r="I156">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J156" t="s">
         <v>12</v>
@@ -6822,7 +7053,7 @@
         <v>12</v>
       </c>
       <c r="L156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
@@ -6830,29 +7061,29 @@
         <v>44760</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157">
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="7"/>
-        <v>k_3_3</v>
+        <f t="shared" si="6"/>
+        <v>j_2_3</v>
       </c>
       <c r="F157">
         <v>50</v>
       </c>
       <c r="G157">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
       </c>
       <c r="I157">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J157" t="s">
         <v>12</v>
@@ -6869,29 +7100,29 @@
         <v>44760</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158">
         <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="7"/>
-        <v>l_3_3</v>
+        <f t="shared" si="6"/>
+        <v>k_2_3</v>
       </c>
       <c r="F158">
         <v>50</v>
       </c>
       <c r="G158">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H158" t="s">
         <v>12</v>
       </c>
       <c r="I158">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J158" t="s">
         <v>12</v>
@@ -6905,116 +7136,116 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="7"/>
-        <v>a_1_1</v>
-      </c>
-      <c r="F159" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
-      <c r="H159">
-        <v>-30</v>
+        <f t="shared" si="6"/>
+        <v>l_2_3</v>
+      </c>
+      <c r="F159">
+        <v>50</v>
+      </c>
+      <c r="G159">
+        <v>200</v>
+      </c>
+      <c r="H159" t="s">
+        <v>12</v>
       </c>
       <c r="I159">
-        <v>20</v>
-      </c>
-      <c r="J159">
-        <v>100</v>
-      </c>
-      <c r="K159">
-        <v>25</v>
+        <v>200</v>
+      </c>
+      <c r="J159" t="s">
+        <v>12</v>
+      </c>
+      <c r="K159" t="s">
+        <v>12</v>
       </c>
       <c r="L159" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="7"/>
-        <v>b_1_1</v>
-      </c>
-      <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
-      <c r="H160">
-        <v>150</v>
-      </c>
-      <c r="I160">
-        <v>50</v>
-      </c>
-      <c r="J160">
-        <v>100</v>
-      </c>
-      <c r="K160">
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>a_3_1</v>
+      </c>
+      <c r="F160">
+        <v>250</v>
+      </c>
+      <c r="G160">
+        <v>-20</v>
+      </c>
+      <c r="H160" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" t="s">
+        <v>12</v>
+      </c>
+      <c r="J160" t="s">
+        <v>12</v>
+      </c>
+      <c r="K160" t="s">
+        <v>12</v>
       </c>
       <c r="L160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>44829</v>
+        <v>44760</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="7"/>
-        <v>c_1_1</v>
-      </c>
-      <c r="F161" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
-      <c r="H161">
-        <v>150</v>
-      </c>
-      <c r="I161">
-        <v>20</v>
-      </c>
-      <c r="J161">
-        <v>100</v>
-      </c>
-      <c r="K161">
-        <v>25</v>
+        <f t="shared" ref="E161:E237" si="10">D161&amp;"_" &amp; B161 &amp; "_" &amp; C161</f>
+        <v>b_3_1</v>
+      </c>
+      <c r="F161">
+        <v>250</v>
+      </c>
+      <c r="G161">
+        <v>50</v>
+      </c>
+      <c r="H161" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" t="s">
+        <v>12</v>
+      </c>
+      <c r="J161" t="s">
+        <v>12</v>
+      </c>
+      <c r="K161" t="s">
+        <v>12</v>
       </c>
       <c r="L161" t="s">
         <v>15</v>
@@ -7022,26 +7253,26 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="7"/>
-        <v>h_1_1</v>
+        <f t="shared" si="10"/>
+        <v>c_3_1</v>
       </c>
       <c r="F162">
         <v>250</v>
       </c>
       <c r="G162">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="H162" t="s">
         <v>12</v>
@@ -7056,31 +7287,31 @@
         <v>12</v>
       </c>
       <c r="L162" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="7"/>
-        <v>b_1_1</v>
+        <f t="shared" si="10"/>
+        <v>d_3_1</v>
       </c>
       <c r="F163">
         <v>250</v>
       </c>
       <c r="G163">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H163" t="s">
         <v>12</v>
@@ -7100,26 +7331,26 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="7"/>
-        <v>c_1_1</v>
+        <f t="shared" si="10"/>
+        <v>x_3_2</v>
       </c>
       <c r="F164">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G164">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H164" t="s">
         <v>12</v>
@@ -7139,32 +7370,32 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="7"/>
-        <v>d_1_1</v>
+        <f t="shared" si="10"/>
+        <v>e_3_2</v>
       </c>
       <c r="F165">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G165">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H165" t="s">
         <v>12</v>
       </c>
-      <c r="I165" t="s">
-        <v>12</v>
+      <c r="I165">
+        <v>20</v>
       </c>
       <c r="J165" t="s">
         <v>12</v>
@@ -7173,37 +7404,37 @@
         <v>12</v>
       </c>
       <c r="L165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="7"/>
-        <v>e_1_2</v>
+        <f t="shared" si="10"/>
+        <v>f_3_2</v>
       </c>
       <c r="F166">
         <v>150</v>
       </c>
       <c r="G166">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H166" t="s">
         <v>12</v>
       </c>
       <c r="I166">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J166" t="s">
         <v>12</v>
@@ -7212,37 +7443,37 @@
         <v>12</v>
       </c>
       <c r="L166" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="7"/>
-        <v>f_1_2</v>
+        <f t="shared" si="10"/>
+        <v>g_3_2</v>
       </c>
       <c r="F167">
         <v>150</v>
       </c>
       <c r="G167">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H167" t="s">
         <v>12</v>
       </c>
       <c r="I167">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J167" t="s">
         <v>12</v>
@@ -7256,32 +7487,32 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="7"/>
-        <v>g_1_2</v>
+        <f t="shared" si="10"/>
+        <v>h_3_2</v>
       </c>
       <c r="F168">
         <v>150</v>
       </c>
       <c r="G168">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="H168" t="s">
         <v>12</v>
       </c>
       <c r="I168">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="J168" t="s">
         <v>12</v>
@@ -7295,32 +7526,32 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="7"/>
-        <v>a_1_2</v>
+        <f t="shared" si="10"/>
+        <v>x_3_3</v>
       </c>
       <c r="F169">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G169">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H169" t="s">
         <v>12</v>
       </c>
-      <c r="I169">
-        <v>50</v>
+      <c r="I169" t="s">
+        <v>12</v>
       </c>
       <c r="J169" t="s">
         <v>12</v>
@@ -7334,10 +7565,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C170">
         <v>3</v>
@@ -7346,8 +7577,8 @@
         <v>21</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="7"/>
-        <v>i_1_3</v>
+        <f t="shared" si="10"/>
+        <v>i_3_3</v>
       </c>
       <c r="F170">
         <v>50</v>
@@ -7373,10 +7604,10 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C171">
         <v>3</v>
@@ -7385,20 +7616,20 @@
         <v>22</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="7"/>
-        <v>j_1_3</v>
+        <f t="shared" si="10"/>
+        <v>j_3_3</v>
       </c>
       <c r="F171">
         <v>50</v>
       </c>
       <c r="G171">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H171" t="s">
         <v>12</v>
       </c>
       <c r="I171">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J171" t="s">
         <v>12</v>
@@ -7412,10 +7643,10 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -7424,20 +7655,20 @@
         <v>23</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="7"/>
-        <v>k_1_3</v>
+        <f t="shared" si="10"/>
+        <v>k_3_3</v>
       </c>
       <c r="F172">
         <v>50</v>
       </c>
       <c r="G172">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
       </c>
       <c r="I172">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="J172" t="s">
         <v>12</v>
@@ -7451,10 +7682,10 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>44800</v>
+        <v>44760</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C173">
         <v>3</v>
@@ -7463,20 +7694,20 @@
         <v>24</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="7"/>
-        <v>l_1_3</v>
+        <f t="shared" si="10"/>
+        <v>l_3_3</v>
       </c>
       <c r="F173">
         <v>50</v>
       </c>
       <c r="G173">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H173" t="s">
         <v>12</v>
       </c>
       <c r="I173">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J173" t="s">
         <v>12</v>
@@ -7490,26 +7721,26 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="7"/>
-        <v>h_2_1</v>
+        <f t="shared" si="10"/>
+        <v>x_1_1</v>
       </c>
       <c r="F174">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G174">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H174" t="s">
         <v>12</v>
@@ -7524,82 +7755,82 @@
         <v>12</v>
       </c>
       <c r="L174" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="7"/>
-        <v>b_2_1</v>
-      </c>
-      <c r="F175">
-        <v>250</v>
-      </c>
-      <c r="G175">
+        <f t="shared" si="10"/>
+        <v>a_1_1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175">
+        <v>-30</v>
+      </c>
+      <c r="I175">
         <v>20</v>
       </c>
-      <c r="H175" t="s">
-        <v>12</v>
-      </c>
-      <c r="I175" t="s">
-        <v>12</v>
-      </c>
-      <c r="J175" t="s">
-        <v>12</v>
-      </c>
-      <c r="K175" t="s">
-        <v>12</v>
+      <c r="J175">
+        <v>100</v>
+      </c>
+      <c r="K175">
+        <v>25</v>
       </c>
       <c r="L175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="7"/>
-        <v>c_2_1</v>
-      </c>
-      <c r="F176">
-        <v>250</v>
-      </c>
-      <c r="G176">
-        <v>35</v>
-      </c>
-      <c r="H176" t="s">
-        <v>12</v>
-      </c>
-      <c r="I176" t="s">
-        <v>12</v>
-      </c>
-      <c r="J176" t="s">
-        <v>12</v>
-      </c>
-      <c r="K176" t="s">
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>b_1_1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176">
+        <v>150</v>
+      </c>
+      <c r="I176">
+        <v>50</v>
+      </c>
+      <c r="J176">
+        <v>100</v>
+      </c>
+      <c r="K176">
+        <v>25</v>
       </c>
       <c r="L176" t="s">
         <v>15</v>
@@ -7607,38 +7838,38 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>44800</v>
+        <v>44829</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="7"/>
-        <v>d_2_1</v>
-      </c>
-      <c r="F177">
-        <v>250</v>
-      </c>
-      <c r="G177">
-        <v>50</v>
-      </c>
-      <c r="H177" t="s">
-        <v>12</v>
-      </c>
-      <c r="I177" t="s">
-        <v>12</v>
-      </c>
-      <c r="J177" t="s">
-        <v>12</v>
-      </c>
-      <c r="K177" t="s">
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>c_1_1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177">
+        <v>150</v>
+      </c>
+      <c r="I177">
+        <v>20</v>
+      </c>
+      <c r="J177">
+        <v>100</v>
+      </c>
+      <c r="K177">
+        <v>25</v>
       </c>
       <c r="L177" t="s">
         <v>15</v>
@@ -7649,20 +7880,20 @@
         <v>44800</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="7"/>
-        <v>e_2_2</v>
+        <f t="shared" si="10"/>
+        <v>h_1_1</v>
       </c>
       <c r="F178">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G178">
         <v>-20</v>
@@ -7670,8 +7901,8 @@
       <c r="H178" t="s">
         <v>12</v>
       </c>
-      <c r="I178">
-        <v>20</v>
+      <c r="I178" t="s">
+        <v>12</v>
       </c>
       <c r="J178" t="s">
         <v>12</v>
@@ -7688,20 +7919,20 @@
         <v>44800</v>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="7"/>
-        <v>f_2_2</v>
+        <f t="shared" si="10"/>
+        <v>b_1_1</v>
       </c>
       <c r="F179">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G179">
         <v>20</v>
@@ -7709,8 +7940,8 @@
       <c r="H179" t="s">
         <v>12</v>
       </c>
-      <c r="I179">
-        <v>20</v>
+      <c r="I179" t="s">
+        <v>12</v>
       </c>
       <c r="J179" t="s">
         <v>12</v>
@@ -7727,20 +7958,20 @@
         <v>44800</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="7"/>
-        <v>g_2_2</v>
+        <f t="shared" si="10"/>
+        <v>c_1_1</v>
       </c>
       <c r="F180">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G180">
         <v>35</v>
@@ -7748,8 +7979,8 @@
       <c r="H180" t="s">
         <v>12</v>
       </c>
-      <c r="I180">
-        <v>35</v>
+      <c r="I180" t="s">
+        <v>12</v>
       </c>
       <c r="J180" t="s">
         <v>12</v>
@@ -7766,20 +7997,20 @@
         <v>44800</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="7"/>
-        <v>a_2_2</v>
+        <f t="shared" si="10"/>
+        <v>d_1_1</v>
       </c>
       <c r="F181">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G181">
         <v>50</v>
@@ -7787,8 +8018,8 @@
       <c r="H181" t="s">
         <v>12</v>
       </c>
-      <c r="I181">
-        <v>50</v>
+      <c r="I181" t="s">
+        <v>12</v>
       </c>
       <c r="J181" t="s">
         <v>12</v>
@@ -7805,29 +8036,29 @@
         <v>44800</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="7"/>
-        <v>i_2_3</v>
+        <f t="shared" si="10"/>
+        <v>x_1_2</v>
       </c>
       <c r="F182">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G182">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="H182" t="s">
         <v>12</v>
       </c>
-      <c r="I182">
-        <v>20</v>
+      <c r="I182" t="s">
+        <v>12</v>
       </c>
       <c r="J182" t="s">
         <v>12</v>
@@ -7836,7 +8067,7 @@
         <v>12</v>
       </c>
       <c r="L182" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
@@ -7844,23 +8075,23 @@
         <v>44800</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="7"/>
-        <v>j_2_3</v>
+        <f t="shared" si="10"/>
+        <v>e_1_2</v>
       </c>
       <c r="F183">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G183">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="H183" t="s">
         <v>12</v>
@@ -7875,7 +8106,7 @@
         <v>12</v>
       </c>
       <c r="L183" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
@@ -7883,29 +8114,29 @@
         <v>44800</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="7"/>
-        <v>k_2_3</v>
+        <f t="shared" si="10"/>
+        <v>f_1_2</v>
       </c>
       <c r="F184">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G184">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H184" t="s">
         <v>12</v>
       </c>
       <c r="I184">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J184" t="s">
         <v>12</v>
@@ -7922,29 +8153,29 @@
         <v>44800</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="7"/>
-        <v>l_2_3</v>
+        <f t="shared" si="10"/>
+        <v>g_1_2</v>
       </c>
       <c r="F185">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G185">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H185" t="s">
         <v>12</v>
       </c>
       <c r="I185">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J185" t="s">
         <v>12</v>
@@ -7961,29 +8192,29 @@
         <v>44800</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="7"/>
-        <v>h_3_1</v>
+        <f t="shared" si="10"/>
+        <v>a_1_2</v>
       </c>
       <c r="F186">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G186">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="H186" t="s">
         <v>12</v>
       </c>
-      <c r="I186" t="s">
-        <v>12</v>
+      <c r="I186">
+        <v>50</v>
       </c>
       <c r="J186" t="s">
         <v>12</v>
@@ -7992,7 +8223,7 @@
         <v>12</v>
       </c>
       <c r="L186" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
@@ -8000,23 +8231,23 @@
         <v>44800</v>
       </c>
       <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
         <v>3</v>
       </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
       <c r="D187" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="7"/>
-        <v>b_3_1</v>
+        <f t="shared" si="10"/>
+        <v>x_1_3</v>
       </c>
       <c r="F187">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G187">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H187" t="s">
         <v>12</v>
@@ -8039,29 +8270,29 @@
         <v>44800</v>
       </c>
       <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
         <v>3</v>
       </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
       <c r="D188" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="7"/>
-        <v>c_3_1</v>
+        <f t="shared" si="10"/>
+        <v>i_1_3</v>
       </c>
       <c r="F188">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G188">
-        <v>35</v>
+        <v>-20</v>
       </c>
       <c r="H188" t="s">
         <v>12</v>
       </c>
-      <c r="I188" t="s">
-        <v>12</v>
+      <c r="I188">
+        <v>20</v>
       </c>
       <c r="J188" t="s">
         <v>12</v>
@@ -8070,7 +8301,7 @@
         <v>12</v>
       </c>
       <c r="L188" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
@@ -8078,29 +8309,29 @@
         <v>44800</v>
       </c>
       <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
         <v>3</v>
       </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
       <c r="D189" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="7"/>
-        <v>d_3_1</v>
+        <f t="shared" si="10"/>
+        <v>j_1_3</v>
       </c>
       <c r="F189">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G189">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H189" t="s">
         <v>12</v>
       </c>
-      <c r="I189" t="s">
-        <v>12</v>
+      <c r="I189">
+        <v>20</v>
       </c>
       <c r="J189" t="s">
         <v>12</v>
@@ -8117,29 +8348,29 @@
         <v>44800</v>
       </c>
       <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
         <v>3</v>
       </c>
-      <c r="C190">
-        <v>2</v>
-      </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="7"/>
-        <v>e_3_2</v>
+        <f t="shared" si="10"/>
+        <v>k_1_3</v>
       </c>
       <c r="F190">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G190">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="H190" t="s">
         <v>12</v>
       </c>
       <c r="I190">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J190" t="s">
         <v>12</v>
@@ -8148,7 +8379,7 @@
         <v>12</v>
       </c>
       <c r="L190" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
@@ -8156,29 +8387,29 @@
         <v>44800</v>
       </c>
       <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
         <v>3</v>
       </c>
-      <c r="C191">
-        <v>2</v>
-      </c>
       <c r="D191" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="7"/>
-        <v>f_3_2</v>
+        <f t="shared" si="10"/>
+        <v>l_1_3</v>
       </c>
       <c r="F191">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G191">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H191" t="s">
         <v>12</v>
       </c>
       <c r="I191">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J191" t="s">
         <v>12</v>
@@ -8195,29 +8426,29 @@
         <v>44800</v>
       </c>
       <c r="B192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="7"/>
-        <v>g_3_2</v>
+        <f t="shared" si="10"/>
+        <v>h_2_1</v>
       </c>
       <c r="F192">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G192">
-        <v>75</v>
+        <v>-20</v>
       </c>
       <c r="H192" t="s">
         <v>12</v>
       </c>
-      <c r="I192">
-        <v>75</v>
+      <c r="I192" t="s">
+        <v>12</v>
       </c>
       <c r="J192" t="s">
         <v>12</v>
@@ -8226,7 +8457,7 @@
         <v>12</v>
       </c>
       <c r="L192" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
@@ -8234,29 +8465,29 @@
         <v>44800</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="7"/>
-        <v>a_3_2</v>
+        <f t="shared" si="10"/>
+        <v>b_2_1</v>
       </c>
       <c r="F193">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G193">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H193" t="s">
         <v>12</v>
       </c>
-      <c r="I193">
-        <v>50</v>
+      <c r="I193" t="s">
+        <v>12</v>
       </c>
       <c r="J193" t="s">
         <v>12</v>
@@ -8273,29 +8504,29 @@
         <v>44800</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" si="7"/>
-        <v>i_3_3</v>
+        <f t="shared" si="10"/>
+        <v>c_2_1</v>
       </c>
       <c r="F194">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G194">
-        <v>-20</v>
+        <v>35</v>
       </c>
       <c r="H194" t="s">
         <v>12</v>
       </c>
-      <c r="I194">
-        <v>20</v>
+      <c r="I194" t="s">
+        <v>12</v>
       </c>
       <c r="J194" t="s">
         <v>12</v>
@@ -8304,7 +8535,7 @@
         <v>12</v>
       </c>
       <c r="L194" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
@@ -8312,29 +8543,29 @@
         <v>44800</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" si="7"/>
-        <v>j_3_3</v>
+        <f t="shared" si="10"/>
+        <v>d_2_1</v>
       </c>
       <c r="F195">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G195">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H195" t="s">
         <v>12</v>
       </c>
-      <c r="I195">
-        <v>20</v>
+      <c r="I195" t="s">
+        <v>12</v>
       </c>
       <c r="J195" t="s">
         <v>12</v>
@@ -8351,29 +8582,29 @@
         <v>44800</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" si="7"/>
-        <v>k_3_3</v>
+        <f t="shared" si="10"/>
+        <v>x_2_2</v>
       </c>
       <c r="F196">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G196">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H196" t="s">
         <v>12</v>
       </c>
-      <c r="I196">
-        <v>75</v>
+      <c r="I196" t="s">
+        <v>12</v>
       </c>
       <c r="J196" t="s">
         <v>12</v>
@@ -8390,29 +8621,29 @@
         <v>44800</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="7"/>
-        <v>l_3_3</v>
+        <f t="shared" si="10"/>
+        <v>e_2_2</v>
       </c>
       <c r="F197">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G197">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H197" t="s">
         <v>12</v>
       </c>
       <c r="I197">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J197" t="s">
         <v>12</v>
@@ -8421,37 +8652,37 @@
         <v>12</v>
       </c>
       <c r="L197" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="7"/>
-        <v>a_1_1</v>
+        <f t="shared" si="10"/>
+        <v>f_2_2</v>
       </c>
       <c r="F198">
-        <v>-25</v>
+        <v>150</v>
       </c>
       <c r="G198">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H198" t="s">
         <v>12</v>
       </c>
       <c r="I198">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J198" t="s">
         <v>12</v>
@@ -8460,37 +8691,37 @@
         <v>12</v>
       </c>
       <c r="L198" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="7"/>
-        <v>b_1_1</v>
+        <f t="shared" si="10"/>
+        <v>g_2_2</v>
       </c>
       <c r="F199">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G199">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="H199" t="s">
         <v>12</v>
       </c>
       <c r="I199">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J199" t="s">
         <v>12</v>
@@ -8504,32 +8735,32 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="7"/>
-        <v>c_1_1</v>
+        <f t="shared" si="10"/>
+        <v>a_2_2</v>
       </c>
       <c r="F200">
         <v>150</v>
       </c>
       <c r="G200">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H200" t="s">
         <v>12</v>
       </c>
       <c r="I200">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J200" t="s">
         <v>12</v>
@@ -8543,32 +8774,32 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D201" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="7"/>
-        <v>d_1_1</v>
+        <f t="shared" si="10"/>
+        <v>x_2_3</v>
       </c>
       <c r="F201">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G201">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H201" t="s">
         <v>12</v>
       </c>
-      <c r="I201">
-        <v>250</v>
+      <c r="I201" t="s">
+        <v>12</v>
       </c>
       <c r="J201" t="s">
         <v>12</v>
@@ -8582,32 +8813,32 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="7"/>
-        <v>e_1_2</v>
+        <f t="shared" si="10"/>
+        <v>i_2_3</v>
       </c>
       <c r="F202">
         <v>50</v>
       </c>
       <c r="G202">
-        <v>75</v>
+        <v>-20</v>
       </c>
       <c r="H202" t="s">
         <v>12</v>
       </c>
       <c r="I202">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J202" t="s">
         <v>12</v>
@@ -8616,37 +8847,37 @@
         <v>12</v>
       </c>
       <c r="L202" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D203" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="7"/>
-        <v>f_1_2</v>
+        <f t="shared" si="10"/>
+        <v>j_2_3</v>
       </c>
       <c r="F203">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G203">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H203" t="s">
         <v>12</v>
       </c>
       <c r="I203">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="J203" t="s">
         <v>12</v>
@@ -8660,32 +8891,32 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D204" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="7"/>
-        <v>g_1_2</v>
+        <f t="shared" si="10"/>
+        <v>k_2_3</v>
       </c>
       <c r="F204">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G204">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H204" t="s">
         <v>12</v>
       </c>
       <c r="I204">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="J204" t="s">
         <v>12</v>
@@ -8699,32 +8930,32 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B205">
         <v>2</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E205" t="str">
-        <f t="shared" si="7"/>
-        <v>a_2_1</v>
+        <f t="shared" si="10"/>
+        <v>l_2_3</v>
       </c>
       <c r="F205">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="G205">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H205" t="s">
         <v>12</v>
       </c>
       <c r="I205">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J205" t="s">
         <v>12</v>
@@ -8733,37 +8964,37 @@
         <v>12</v>
       </c>
       <c r="L205" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="7"/>
-        <v>b_2_1</v>
+        <f t="shared" si="10"/>
+        <v>h_3_1</v>
       </c>
       <c r="F206">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G206">
-        <v>150</v>
+        <v>-20</v>
       </c>
       <c r="H206" t="s">
         <v>12</v>
       </c>
-      <c r="I206">
-        <v>50</v>
+      <c r="I206" t="s">
+        <v>12</v>
       </c>
       <c r="J206" t="s">
         <v>12</v>
@@ -8772,37 +9003,37 @@
         <v>12</v>
       </c>
       <c r="L206" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="7"/>
-        <v>c_2_1</v>
+        <f t="shared" si="10"/>
+        <v>b_3_1</v>
       </c>
       <c r="F207">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G207">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H207" t="s">
         <v>12</v>
       </c>
-      <c r="I207">
-        <v>150</v>
+      <c r="I207" t="s">
+        <v>12</v>
       </c>
       <c r="J207" t="s">
         <v>12</v>
@@ -8816,32 +9047,32 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="7"/>
-        <v>d_2_1</v>
+        <f t="shared" si="10"/>
+        <v>c_3_1</v>
       </c>
       <c r="F208">
         <v>250</v>
       </c>
       <c r="G208">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="H208" t="s">
         <v>12</v>
       </c>
-      <c r="I208">
-        <v>250</v>
+      <c r="I208" t="s">
+        <v>12</v>
       </c>
       <c r="J208" t="s">
         <v>12</v>
@@ -8855,32 +9086,32 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="7"/>
-        <v>e_2_2</v>
+        <f t="shared" si="10"/>
+        <v>d_3_1</v>
       </c>
       <c r="F209">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G209">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H209" t="s">
         <v>12</v>
       </c>
-      <c r="I209">
-        <v>50</v>
+      <c r="I209" t="s">
+        <v>12</v>
       </c>
       <c r="J209" t="s">
         <v>12</v>
@@ -8894,32 +9125,32 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C210">
         <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="7"/>
-        <v>f_2_2</v>
+        <f t="shared" si="10"/>
+        <v>x_3_2</v>
       </c>
       <c r="F210">
         <v>150</v>
       </c>
       <c r="G210">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H210" t="s">
         <v>12</v>
       </c>
-      <c r="I210">
-        <v>150</v>
+      <c r="I210" t="s">
+        <v>12</v>
       </c>
       <c r="J210" t="s">
         <v>12</v>
@@ -8933,32 +9164,32 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
-        <v>44839</v>
+        <v>44800</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C211">
         <v>2</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E211" t="str">
-        <f t="shared" si="7"/>
-        <v>g_2_2</v>
+        <f t="shared" si="10"/>
+        <v>e_3_2</v>
       </c>
       <c r="F211">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G211">
-        <v>75</v>
+        <v>-20</v>
       </c>
       <c r="H211" t="s">
         <v>12</v>
       </c>
       <c r="I211">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="J211" t="s">
         <v>12</v>
@@ -8967,37 +9198,37 @@
         <v>12</v>
       </c>
       <c r="L211" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
-        <v>44849</v>
+        <v>44800</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E212" t="str">
-        <f t="shared" ref="E212:E275" si="8">D212&amp;"_" &amp; B212 &amp; "_" &amp; C212</f>
-        <v>a_1_1</v>
+        <f t="shared" si="10"/>
+        <v>f_3_2</v>
       </c>
       <c r="F212">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G212">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="H212" t="s">
         <v>12</v>
       </c>
-      <c r="I212" t="s">
-        <v>12</v>
+      <c r="I212">
+        <v>20</v>
       </c>
       <c r="J212" t="s">
         <v>12</v>
@@ -9006,37 +9237,37 @@
         <v>12</v>
       </c>
       <c r="L212" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <v>44849</v>
+        <v>44800</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E213" t="str">
-        <f t="shared" si="8"/>
-        <v>b_1_1</v>
+        <f t="shared" si="10"/>
+        <v>g_3_2</v>
       </c>
       <c r="F213">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G213">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H213" t="s">
         <v>12</v>
       </c>
-      <c r="I213" t="s">
-        <v>12</v>
+      <c r="I213">
+        <v>75</v>
       </c>
       <c r="J213" t="s">
         <v>12</v>
@@ -9050,32 +9281,32 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <v>44849</v>
+        <v>44800</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="8"/>
-        <v>c_1_1</v>
+        <f t="shared" si="10"/>
+        <v>a_3_2</v>
       </c>
       <c r="F214">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G214">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H214" t="s">
         <v>12</v>
       </c>
-      <c r="I214" t="s">
-        <v>12</v>
+      <c r="I214">
+        <v>50</v>
       </c>
       <c r="J214" t="s">
         <v>12</v>
@@ -9089,26 +9320,26 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <v>44849</v>
+        <v>44800</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E215" t="str">
-        <f t="shared" si="8"/>
-        <v>h_1_1</v>
+        <f t="shared" si="10"/>
+        <v>x_3_3</v>
       </c>
       <c r="F215">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G215">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H215" t="s">
         <v>12</v>
@@ -9128,32 +9359,32 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>44849</v>
+        <v>44800</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D216" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E216" t="str">
-        <f t="shared" si="8"/>
-        <v>e_1_2</v>
+        <f t="shared" si="10"/>
+        <v>i_3_3</v>
       </c>
       <c r="F216">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G216">
-        <v>25</v>
+        <v>-20</v>
       </c>
       <c r="H216" t="s">
         <v>12</v>
       </c>
       <c r="I216">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J216" t="s">
         <v>12</v>
@@ -9162,37 +9393,37 @@
         <v>12</v>
       </c>
       <c r="L216" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>44849</v>
+        <v>44800</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D217" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E217" t="str">
-        <f t="shared" si="8"/>
-        <v>f_1_2</v>
+        <f t="shared" si="10"/>
+        <v>j_3_3</v>
       </c>
       <c r="F217">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G217">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H217" t="s">
         <v>12</v>
       </c>
       <c r="I217">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J217" t="s">
         <v>12</v>
@@ -9206,32 +9437,32 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <v>44849</v>
+        <v>44800</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D218" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E218" t="str">
-        <f t="shared" si="8"/>
-        <v>g_1_2</v>
+        <f t="shared" si="10"/>
+        <v>k_3_3</v>
       </c>
       <c r="F218">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G218">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H218" t="s">
         <v>12</v>
       </c>
       <c r="I218">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J218" t="s">
         <v>12</v>
@@ -9245,32 +9476,32 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <v>44849</v>
+        <v>44800</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D219" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E219" t="str">
-        <f t="shared" si="8"/>
-        <v>d_1_2</v>
+        <f t="shared" si="10"/>
+        <v>l_3_3</v>
       </c>
       <c r="F219">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G219">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H219" t="s">
         <v>12</v>
       </c>
       <c r="I219">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J219" t="s">
         <v>12</v>
@@ -9284,32 +9515,32 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E220" t="str">
-        <f t="shared" si="8"/>
-        <v>i_1_3</v>
+        <f t="shared" si="10"/>
+        <v>x_1_1</v>
       </c>
       <c r="F220">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H220" t="s">
         <v>12</v>
       </c>
-      <c r="I220">
-        <v>25</v>
+      <c r="I220" t="s">
+        <v>12</v>
       </c>
       <c r="J220" t="s">
         <v>12</v>
@@ -9323,32 +9554,32 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="8"/>
-        <v>j_1_3</v>
+        <f t="shared" si="10"/>
+        <v>a_1_1</v>
       </c>
       <c r="F221">
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="G221">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
       </c>
       <c r="I221">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J221" t="s">
         <v>12</v>
@@ -9357,37 +9588,37 @@
         <v>12</v>
       </c>
       <c r="L221" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" si="8"/>
-        <v>k_1_3</v>
+        <f t="shared" si="10"/>
+        <v>b_1_1</v>
       </c>
       <c r="F222">
         <v>50</v>
       </c>
       <c r="G222">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H222" t="s">
         <v>12</v>
       </c>
       <c r="I222">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J222" t="s">
         <v>12</v>
@@ -9401,23 +9632,23 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E223" t="str">
-        <f t="shared" si="8"/>
-        <v>l_1_3</v>
+        <f t="shared" si="10"/>
+        <v>c_1_1</v>
       </c>
       <c r="F223">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G223">
         <v>150</v>
@@ -9440,32 +9671,32 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E224" t="str">
-        <f t="shared" si="8"/>
-        <v>a_2_1</v>
+        <f t="shared" si="10"/>
+        <v>d_1_1</v>
       </c>
       <c r="F224">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G224">
-        <v>-20</v>
+        <v>150</v>
       </c>
       <c r="H224" t="s">
         <v>12</v>
       </c>
-      <c r="I224" t="s">
-        <v>12</v>
+      <c r="I224">
+        <v>250</v>
       </c>
       <c r="J224" t="s">
         <v>12</v>
@@ -9474,31 +9705,31 @@
         <v>12</v>
       </c>
       <c r="L224" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E225" t="str">
-        <f t="shared" si="8"/>
-        <v>b_2_1</v>
+        <f t="shared" si="10"/>
+        <v>x_1_2</v>
       </c>
       <c r="F225">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H225" t="s">
         <v>12</v>
@@ -9518,32 +9749,32 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E226" t="str">
-        <f t="shared" si="8"/>
-        <v>c_2_1</v>
+        <f t="shared" si="10"/>
+        <v>e_1_2</v>
       </c>
       <c r="F226">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G226">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H226" t="s">
         <v>12</v>
       </c>
-      <c r="I226" t="s">
-        <v>12</v>
+      <c r="I226">
+        <v>50</v>
       </c>
       <c r="J226" t="s">
         <v>12</v>
@@ -9557,32 +9788,32 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E227" t="str">
-        <f t="shared" si="8"/>
-        <v>h_2_1</v>
+        <f t="shared" si="10"/>
+        <v>f_1_2</v>
       </c>
       <c r="F227">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G227">
+        <v>75</v>
+      </c>
+      <c r="H227" t="s">
+        <v>12</v>
+      </c>
+      <c r="I227">
         <v>150</v>
-      </c>
-      <c r="H227" t="s">
-        <v>12</v>
-      </c>
-      <c r="I227" t="s">
-        <v>12</v>
       </c>
       <c r="J227" t="s">
         <v>12</v>
@@ -9596,32 +9827,32 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228">
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E228" t="str">
-        <f t="shared" si="8"/>
-        <v>e_2_2</v>
+        <f t="shared" si="10"/>
+        <v>g_1_2</v>
       </c>
       <c r="F228">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G228">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H228" t="s">
         <v>12</v>
       </c>
       <c r="I228">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="J228" t="s">
         <v>12</v>
@@ -9635,32 +9866,32 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B229">
         <v>2</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E229" t="str">
-        <f t="shared" si="8"/>
-        <v>f_2_2</v>
+        <f t="shared" si="10"/>
+        <v>x_2_1</v>
       </c>
       <c r="F229">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H229" t="s">
         <v>12</v>
       </c>
-      <c r="I229">
-        <v>50</v>
+      <c r="I229" t="s">
+        <v>12</v>
       </c>
       <c r="J229" t="s">
         <v>12</v>
@@ -9674,23 +9905,23 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B230">
         <v>2</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E230" t="str">
-        <f t="shared" si="8"/>
-        <v>g_2_2</v>
+        <f t="shared" si="10"/>
+        <v>a_2_1</v>
       </c>
       <c r="F230">
-        <v>150</v>
+        <v>-25</v>
       </c>
       <c r="G230">
         <v>100</v>
@@ -9699,7 +9930,7 @@
         <v>12</v>
       </c>
       <c r="I230">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J230" t="s">
         <v>12</v>
@@ -9708,28 +9939,28 @@
         <v>12</v>
       </c>
       <c r="L230" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B231">
         <v>2</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E231" t="str">
-        <f t="shared" si="8"/>
-        <v>d_2_2</v>
+        <f t="shared" si="10"/>
+        <v>b_2_1</v>
       </c>
       <c r="F231">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G231">
         <v>150</v>
@@ -9738,7 +9969,7 @@
         <v>12</v>
       </c>
       <c r="I231">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J231" t="s">
         <v>12</v>
@@ -9752,32 +9983,32 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B232">
         <v>2</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="8"/>
-        <v>i_2_3</v>
+        <f t="shared" si="10"/>
+        <v>c_2_1</v>
       </c>
       <c r="F232">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G232">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="H232" t="s">
         <v>12</v>
       </c>
       <c r="I232">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J232" t="s">
         <v>12</v>
@@ -9791,32 +10022,32 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B233">
         <v>2</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E233" t="str">
-        <f t="shared" si="8"/>
-        <v>j_2_3</v>
+        <f t="shared" si="10"/>
+        <v>d_2_1</v>
       </c>
       <c r="F233">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G233">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H233" t="s">
         <v>12</v>
       </c>
       <c r="I233">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J233" t="s">
         <v>12</v>
@@ -9830,23 +10061,23 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B234">
         <v>2</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E234" t="str">
-        <f t="shared" si="8"/>
-        <v>k_2_3</v>
+        <f t="shared" si="10"/>
+        <v>x_2_2</v>
       </c>
       <c r="F234">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G234">
         <v>100</v>
@@ -9854,8 +10085,8 @@
       <c r="H234" t="s">
         <v>12</v>
       </c>
-      <c r="I234">
-        <v>100</v>
+      <c r="I234" t="s">
+        <v>12</v>
       </c>
       <c r="J234" t="s">
         <v>12</v>
@@ -9869,32 +10100,32 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
-        <v>44849</v>
+        <v>44839</v>
       </c>
       <c r="B235">
         <v>2</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E235" t="str">
-        <f t="shared" si="8"/>
-        <v>l_2_3</v>
+        <f t="shared" si="10"/>
+        <v>e_2_2</v>
       </c>
       <c r="F235">
         <v>50</v>
       </c>
       <c r="G235">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H235" t="s">
         <v>12</v>
       </c>
       <c r="I235">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J235" t="s">
         <v>12</v>
@@ -9908,32 +10139,32 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
-        <v>44867</v>
+        <v>44839</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E236" t="str">
-        <f t="shared" si="8"/>
-        <v>j_1_1</v>
+        <f t="shared" si="10"/>
+        <v>f_2_2</v>
       </c>
       <c r="F236">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G236">
+        <v>75</v>
+      </c>
+      <c r="H236" t="s">
+        <v>12</v>
+      </c>
+      <c r="I236">
         <v>150</v>
-      </c>
-      <c r="H236" t="s">
-        <v>12</v>
-      </c>
-      <c r="I236">
-        <v>50</v>
       </c>
       <c r="J236" t="s">
         <v>12</v>
@@ -9947,32 +10178,32 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <v>44867</v>
+        <v>44839</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E237" t="str">
-        <f t="shared" si="8"/>
-        <v>k_1_1</v>
+        <f t="shared" si="10"/>
+        <v>g_2_2</v>
       </c>
       <c r="F237">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G237">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H237" t="s">
         <v>12</v>
       </c>
       <c r="I237">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J237" t="s">
         <v>12</v>
@@ -9986,7 +10217,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -9995,23 +10226,23 @@
         <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E238" t="str">
-        <f t="shared" si="8"/>
-        <v>l_1_1</v>
+        <f t="shared" ref="E238:E301" si="11">D238&amp;"_" &amp; B238 &amp; "_" &amp; C238</f>
+        <v>a_1_1</v>
       </c>
       <c r="F238">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G238">
-        <v>150</v>
+        <v>-20</v>
       </c>
       <c r="H238" t="s">
         <v>12</v>
       </c>
-      <c r="I238">
-        <v>200</v>
+      <c r="I238" t="s">
+        <v>12</v>
       </c>
       <c r="J238" t="s">
         <v>12</v>
@@ -10020,37 +10251,37 @@
         <v>12</v>
       </c>
       <c r="L238" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="8"/>
-        <v>f_1_2</v>
+        <f t="shared" si="11"/>
+        <v>b_1_1</v>
       </c>
       <c r="F239">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G239">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H239" t="s">
         <v>12</v>
       </c>
-      <c r="I239">
-        <v>50</v>
+      <c r="I239" t="s">
+        <v>12</v>
       </c>
       <c r="J239" t="s">
         <v>12</v>
@@ -10064,32 +10295,32 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E240" t="str">
-        <f t="shared" si="8"/>
-        <v>g_1_2</v>
+        <f t="shared" si="11"/>
+        <v>c_1_1</v>
       </c>
       <c r="F240">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G240">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H240" t="s">
         <v>12</v>
       </c>
-      <c r="I240">
-        <v>150</v>
+      <c r="I240" t="s">
+        <v>12</v>
       </c>
       <c r="J240" t="s">
         <v>12</v>
@@ -10103,32 +10334,32 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E241" t="str">
-        <f t="shared" si="8"/>
-        <v>i_1_2</v>
+        <f t="shared" si="11"/>
+        <v>h_1_1</v>
       </c>
       <c r="F241">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G241">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H241" t="s">
         <v>12</v>
       </c>
-      <c r="I241">
-        <v>200</v>
+      <c r="I241" t="s">
+        <v>12</v>
       </c>
       <c r="J241" t="s">
         <v>12</v>
@@ -10142,23 +10373,23 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E242" t="str">
-        <f t="shared" si="8"/>
-        <v>b_1_3</v>
+        <f t="shared" si="11"/>
+        <v>e_1_2</v>
       </c>
       <c r="F242">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G242">
         <v>25</v>
@@ -10167,7 +10398,7 @@
         <v>12</v>
       </c>
       <c r="I242">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J242" t="s">
         <v>12</v>
@@ -10181,32 +10412,32 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E243" t="str">
-        <f t="shared" si="8"/>
-        <v>c_1_3</v>
+        <f t="shared" si="11"/>
+        <v>f_1_2</v>
       </c>
       <c r="F243">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G243">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H243" t="s">
         <v>12</v>
       </c>
       <c r="I243">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J243" t="s">
         <v>12</v>
@@ -10220,32 +10451,32 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
       <c r="C244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E244" t="str">
-        <f t="shared" si="8"/>
-        <v>d_1_3</v>
+        <f t="shared" si="11"/>
+        <v>g_1_2</v>
       </c>
       <c r="F244">
         <v>150</v>
       </c>
       <c r="G244">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H244" t="s">
         <v>12</v>
       </c>
       <c r="I244">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J244" t="s">
         <v>12</v>
@@ -10259,32 +10490,32 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="8"/>
-        <v>e_1_3</v>
+        <f t="shared" si="11"/>
+        <v>d_1_2</v>
       </c>
       <c r="F245">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G245">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="H245" t="s">
         <v>12</v>
       </c>
       <c r="I245">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="J245" t="s">
         <v>12</v>
@@ -10298,23 +10529,23 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
       <c r="C246">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D246" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E246" t="str">
-        <f t="shared" si="8"/>
-        <v>h_1_5</v>
+        <f t="shared" si="11"/>
+        <v>i_1_3</v>
       </c>
       <c r="F246">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G246">
         <v>25</v>
@@ -10323,7 +10554,7 @@
         <v>12</v>
       </c>
       <c r="I246">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="J246" t="s">
         <v>12</v>
@@ -10337,32 +10568,32 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E247" t="str">
-        <f t="shared" si="8"/>
-        <v>a_1_1</v>
+        <f t="shared" si="11"/>
+        <v>j_1_3</v>
       </c>
       <c r="F247">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="G247">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H247" t="s">
         <v>12</v>
       </c>
-      <c r="I247" t="s">
-        <v>12</v>
+      <c r="I247">
+        <v>50</v>
       </c>
       <c r="J247" t="s">
         <v>12</v>
@@ -10371,31 +10602,31 @@
         <v>12</v>
       </c>
       <c r="L247" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D248" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E248" t="str">
-        <f t="shared" si="8"/>
-        <v>h_1_1</v>
+        <f t="shared" si="11"/>
+        <v>k_1_3</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G248">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H248" t="s">
         <v>12</v>
@@ -10415,20 +10646,20 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D249" t="s">
         <v>24</v>
       </c>
       <c r="E249" t="str">
-        <f t="shared" si="8"/>
-        <v>l_1_1</v>
+        <f t="shared" si="11"/>
+        <v>l_1_3</v>
       </c>
       <c r="F249">
         <v>50</v>
@@ -10440,7 +10671,7 @@
         <v>12</v>
       </c>
       <c r="I249">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J249" t="s">
         <v>12</v>
@@ -10454,32 +10685,32 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E250" t="str">
-        <f t="shared" si="8"/>
-        <v>k_1_1</v>
+        <f t="shared" si="11"/>
+        <v>a_2_1</v>
       </c>
       <c r="F250">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G250">
-        <v>150</v>
+        <v>-20</v>
       </c>
       <c r="H250" t="s">
         <v>12</v>
       </c>
-      <c r="I250">
-        <v>50</v>
+      <c r="I250" t="s">
+        <v>12</v>
       </c>
       <c r="J250" t="s">
         <v>12</v>
@@ -10488,37 +10719,37 @@
         <v>12</v>
       </c>
       <c r="L250" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E251" t="str">
-        <f t="shared" si="8"/>
-        <v>i_1_2</v>
+        <f t="shared" si="11"/>
+        <v>b_2_1</v>
       </c>
       <c r="F251">
         <v>250</v>
       </c>
       <c r="G251">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H251" t="s">
         <v>12</v>
       </c>
-      <c r="I251">
-        <v>150</v>
+      <c r="I251" t="s">
+        <v>12</v>
       </c>
       <c r="J251" t="s">
         <v>12</v>
@@ -10532,32 +10763,32 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E252" t="str">
-        <f t="shared" si="8"/>
-        <v>j_1_2</v>
+        <f t="shared" si="11"/>
+        <v>c_2_1</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G252">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H252" t="s">
         <v>12</v>
       </c>
-      <c r="I252">
-        <v>100</v>
+      <c r="I252" t="s">
+        <v>12</v>
       </c>
       <c r="J252" t="s">
         <v>12</v>
@@ -10571,32 +10802,32 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E253" t="str">
-        <f t="shared" si="8"/>
-        <v>g_1_2</v>
+        <f t="shared" si="11"/>
+        <v>h_2_1</v>
       </c>
       <c r="F253">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G253">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H253" t="s">
         <v>12</v>
       </c>
-      <c r="I253">
-        <v>50</v>
+      <c r="I253" t="s">
+        <v>12</v>
       </c>
       <c r="J253" t="s">
         <v>12</v>
@@ -10610,32 +10841,32 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E254" t="str">
-        <f t="shared" si="8"/>
-        <v>f_1_3</v>
+        <f t="shared" si="11"/>
+        <v>e_2_2</v>
       </c>
       <c r="F254">
         <v>150</v>
       </c>
       <c r="G254">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H254" t="s">
         <v>12</v>
       </c>
       <c r="I254">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J254" t="s">
         <v>12</v>
@@ -10649,32 +10880,32 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E255" t="str">
-        <f t="shared" si="8"/>
-        <v>e_1_3</v>
+        <f t="shared" si="11"/>
+        <v>f_2_2</v>
       </c>
       <c r="F255">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G255">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H255" t="s">
         <v>12</v>
       </c>
       <c r="I255">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J255" t="s">
         <v>12</v>
@@ -10688,26 +10919,26 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E256" t="str">
-        <f t="shared" si="8"/>
-        <v>d_1_3</v>
+        <f t="shared" si="11"/>
+        <v>g_2_2</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G256">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H256" t="s">
         <v>12</v>
@@ -10727,32 +10958,32 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E257" t="str">
-        <f t="shared" si="8"/>
-        <v>c_1_4</v>
+        <f t="shared" si="11"/>
+        <v>d_2_2</v>
       </c>
       <c r="F257">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G257">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="H257" t="s">
         <v>12</v>
       </c>
       <c r="I257">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J257" t="s">
         <v>12</v>
@@ -10766,23 +10997,23 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D258" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E258" t="str">
-        <f t="shared" si="8"/>
-        <v>b_1_4</v>
+        <f t="shared" si="11"/>
+        <v>i_2_3</v>
       </c>
       <c r="F258">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G258">
         <v>25</v>
@@ -10791,7 +11022,7 @@
         <v>12</v>
       </c>
       <c r="I258">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J258" t="s">
         <v>12</v>
@@ -10805,32 +11036,32 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" si="8"/>
-        <v>a_1_4</v>
+        <f t="shared" si="11"/>
+        <v>j_2_3</v>
       </c>
       <c r="F259">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G259">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H259" t="s">
         <v>12</v>
       </c>
       <c r="I259">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J259" t="s">
         <v>12</v>
@@ -10844,32 +11075,32 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B260">
         <v>2</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D260" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" si="8"/>
-        <v>a_2_1</v>
+        <f t="shared" si="11"/>
+        <v>k_2_3</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G260">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H260" t="s">
         <v>12</v>
       </c>
       <c r="I260">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J260" t="s">
         <v>12</v>
@@ -10883,20 +11114,20 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
-        <v>44874</v>
+        <v>44849</v>
       </c>
       <c r="B261">
         <v>2</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D261" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E261" t="str">
-        <f t="shared" si="8"/>
-        <v>e_2_1</v>
+        <f t="shared" si="11"/>
+        <v>l_2_3</v>
       </c>
       <c r="F261">
         <v>50</v>
@@ -10908,7 +11139,7 @@
         <v>12</v>
       </c>
       <c r="I261">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J261" t="s">
         <v>12</v>
@@ -10922,23 +11153,23 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="8"/>
-        <v>i_2_1</v>
+        <f t="shared" si="11"/>
+        <v>j_1_1</v>
       </c>
       <c r="F262">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G262">
         <v>150</v>
@@ -10961,23 +11192,23 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E263" t="str">
-        <f t="shared" si="8"/>
-        <v>b_2_2</v>
+        <f t="shared" si="11"/>
+        <v>k_1_1</v>
       </c>
       <c r="F263">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G263">
         <v>150</v>
@@ -10986,7 +11217,7 @@
         <v>12</v>
       </c>
       <c r="I263">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J263" t="s">
         <v>12</v>
@@ -11000,32 +11231,32 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E264" t="str">
-        <f t="shared" si="8"/>
-        <v>f_2_2</v>
+        <f t="shared" si="11"/>
+        <v>l_1_1</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G264">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H264" t="s">
         <v>12</v>
       </c>
       <c r="I264">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="J264" t="s">
         <v>12</v>
@@ -11039,20 +11270,20 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C265">
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E265" t="str">
-        <f t="shared" si="8"/>
-        <v>k_2_2</v>
+        <f t="shared" si="11"/>
+        <v>f_1_2</v>
       </c>
       <c r="F265">
         <v>50</v>
@@ -11078,20 +11309,20 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="8"/>
-        <v>c_2_3</v>
+        <f t="shared" si="11"/>
+        <v>g_1_2</v>
       </c>
       <c r="F266">
         <v>150</v>
@@ -11103,7 +11334,7 @@
         <v>12</v>
       </c>
       <c r="I266">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J266" t="s">
         <v>12</v>
@@ -11117,23 +11348,23 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D267" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="8"/>
-        <v>g_2_3</v>
+        <f t="shared" si="11"/>
+        <v>i_1_2</v>
       </c>
       <c r="F267">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G267">
         <v>75</v>
@@ -11142,7 +11373,7 @@
         <v>12</v>
       </c>
       <c r="I267">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J267" t="s">
         <v>12</v>
@@ -11156,23 +11387,23 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C268">
         <v>3</v>
       </c>
       <c r="D268" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="8"/>
-        <v>l_2_3</v>
+        <f t="shared" si="11"/>
+        <v>b_1_3</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G268">
         <v>25</v>
@@ -11181,7 +11412,7 @@
         <v>12</v>
       </c>
       <c r="I268">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J268" t="s">
         <v>12</v>
@@ -11195,23 +11426,23 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C269">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E269" t="str">
-        <f t="shared" si="8"/>
-        <v>d_2_4</v>
+        <f t="shared" si="11"/>
+        <v>c_1_3</v>
       </c>
       <c r="F269">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G269">
         <v>25</v>
@@ -11220,7 +11451,7 @@
         <v>12</v>
       </c>
       <c r="I269">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J269" t="s">
         <v>12</v>
@@ -11234,20 +11465,20 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E270" t="str">
-        <f t="shared" si="8"/>
-        <v>j_2_4</v>
+        <f t="shared" si="11"/>
+        <v>d_1_3</v>
       </c>
       <c r="F270">
         <v>150</v>
@@ -11273,23 +11504,23 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
-        <v>44874</v>
+        <v>44867</v>
       </c>
       <c r="B271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C271">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D271" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E271" t="str">
-        <f t="shared" si="8"/>
-        <v>h_2_4</v>
+        <f t="shared" si="11"/>
+        <v>e_1_3</v>
       </c>
       <c r="F271">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G271">
         <v>25</v>
@@ -11298,7 +11529,7 @@
         <v>12</v>
       </c>
       <c r="I271">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="J271" t="s">
         <v>12</v>
@@ -11312,32 +11543,32 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
-        <v>44715</v>
+        <v>44867</v>
       </c>
       <c r="B272">
         <v>1</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D272" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E272" t="str">
-        <f t="shared" si="8"/>
-        <v>a_1_1</v>
+        <f t="shared" si="11"/>
+        <v>h_1_5</v>
       </c>
       <c r="F272">
         <v>250</v>
       </c>
       <c r="G272">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="H272" t="s">
         <v>12</v>
       </c>
-      <c r="I272" t="s">
-        <v>12</v>
+      <c r="I272">
+        <v>250</v>
       </c>
       <c r="J272" t="s">
         <v>12</v>
@@ -11346,12 +11577,12 @@
         <v>12</v>
       </c>
       <c r="L272" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
-        <v>44715</v>
+        <v>44867</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -11360,17 +11591,17 @@
         <v>1</v>
       </c>
       <c r="D273" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E273" t="str">
-        <f t="shared" si="8"/>
-        <v>b_1_1</v>
+        <f t="shared" si="11"/>
+        <v>a_1_1</v>
       </c>
       <c r="F273">
-        <v>250</v>
+        <v>-25</v>
       </c>
       <c r="G273">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H273" t="s">
         <v>12</v>
@@ -11385,12 +11616,12 @@
         <v>12</v>
       </c>
       <c r="L273" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -11399,23 +11630,23 @@
         <v>1</v>
       </c>
       <c r="D274" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E274" t="str">
-        <f t="shared" si="8"/>
-        <v>c_1_1</v>
+        <f t="shared" si="11"/>
+        <v>h_1_1</v>
       </c>
       <c r="F274">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G274">
+        <v>150</v>
+      </c>
+      <c r="H274" t="s">
+        <v>12</v>
+      </c>
+      <c r="I274">
         <v>100</v>
-      </c>
-      <c r="H274" t="s">
-        <v>12</v>
-      </c>
-      <c r="I274" t="s">
-        <v>12</v>
       </c>
       <c r="J274" t="s">
         <v>12</v>
@@ -11429,7 +11660,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -11438,23 +11669,23 @@
         <v>1</v>
       </c>
       <c r="D275" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E275" t="str">
-        <f t="shared" si="8"/>
-        <v>d_1_1</v>
+        <f t="shared" si="11"/>
+        <v>l_1_1</v>
       </c>
       <c r="F275">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G275">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H275" t="s">
         <v>12</v>
       </c>
-      <c r="I275" t="s">
-        <v>12</v>
+      <c r="I275">
+        <v>50</v>
       </c>
       <c r="J275" t="s">
         <v>12</v>
@@ -11468,32 +11699,32 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E276" t="str">
-        <f t="shared" ref="E276:E283" si="9">D276&amp;"_" &amp; B276 &amp; "_" &amp; C276</f>
-        <v>e_1_2</v>
+        <f t="shared" si="11"/>
+        <v>k_1_1</v>
       </c>
       <c r="F276">
         <v>150</v>
       </c>
       <c r="G276">
-        <v>-20</v>
+        <v>150</v>
       </c>
       <c r="H276" t="s">
         <v>12</v>
       </c>
       <c r="I276">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J276" t="s">
         <v>12</v>
@@ -11502,12 +11733,12 @@
         <v>12</v>
       </c>
       <c r="L276" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -11516,23 +11747,23 @@
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E277" t="str">
-        <f t="shared" si="9"/>
-        <v>f_1_2</v>
+        <f t="shared" si="11"/>
+        <v>i_1_2</v>
       </c>
       <c r="F277">
+        <v>250</v>
+      </c>
+      <c r="G277">
         <v>150</v>
       </c>
-      <c r="G277">
-        <v>50</v>
-      </c>
       <c r="H277" t="s">
         <v>12</v>
       </c>
       <c r="I277">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J277" t="s">
         <v>12</v>
@@ -11546,7 +11777,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -11555,17 +11786,17 @@
         <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E278" t="str">
-        <f t="shared" si="9"/>
-        <v>g_1_2</v>
+        <f t="shared" si="11"/>
+        <v>j_1_2</v>
       </c>
       <c r="F278">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G278">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H278" t="s">
         <v>12</v>
@@ -11585,7 +11816,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -11594,23 +11825,23 @@
         <v>2</v>
       </c>
       <c r="D279" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E279" t="str">
-        <f t="shared" si="9"/>
-        <v>h_1_2</v>
+        <f t="shared" si="11"/>
+        <v>g_1_2</v>
       </c>
       <c r="F279">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G279">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="H279" t="s">
         <v>12</v>
       </c>
       <c r="I279">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="J279" t="s">
         <v>12</v>
@@ -11624,7 +11855,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -11633,23 +11864,23 @@
         <v>3</v>
       </c>
       <c r="D280" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E280" t="str">
-        <f t="shared" si="9"/>
-        <v>i_1_3</v>
+        <f t="shared" si="11"/>
+        <v>f_1_3</v>
       </c>
       <c r="F280">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G280">
-        <v>-20</v>
+        <v>75</v>
       </c>
       <c r="H280" t="s">
         <v>12</v>
       </c>
       <c r="I280">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J280" t="s">
         <v>12</v>
@@ -11658,12 +11889,12 @@
         <v>12</v>
       </c>
       <c r="L280" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -11672,23 +11903,23 @@
         <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E281" t="str">
-        <f t="shared" si="9"/>
-        <v>j_1_3</v>
+        <f t="shared" si="11"/>
+        <v>e_1_3</v>
       </c>
       <c r="F281">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G281">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H281" t="s">
         <v>12</v>
       </c>
       <c r="I281">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J281" t="s">
         <v>12</v>
@@ -11702,7 +11933,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
-        <v>44715</v>
+        <v>44874</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -11711,17 +11942,17 @@
         <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E282" t="str">
-        <f t="shared" si="9"/>
-        <v>k_1_3</v>
+        <f t="shared" si="11"/>
+        <v>d_1_3</v>
       </c>
       <c r="F282">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G282">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H282" t="s">
         <v>12</v>
@@ -11741,40 +11972,1054 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>4</v>
+      </c>
+      <c r="D283" t="s">
+        <v>16</v>
+      </c>
+      <c r="E283" t="str">
+        <f t="shared" si="11"/>
+        <v>c_1_4</v>
+      </c>
+      <c r="F283">
+        <v>50</v>
+      </c>
+      <c r="G283">
+        <v>25</v>
+      </c>
+      <c r="H283" t="s">
+        <v>12</v>
+      </c>
+      <c r="I283">
+        <v>50</v>
+      </c>
+      <c r="J283" t="s">
+        <v>12</v>
+      </c>
+      <c r="K283" t="s">
+        <v>12</v>
+      </c>
+      <c r="L283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A284" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>4</v>
+      </c>
+      <c r="D284" t="s">
+        <v>14</v>
+      </c>
+      <c r="E284" t="str">
+        <f t="shared" si="11"/>
+        <v>b_1_4</v>
+      </c>
+      <c r="F284">
+        <v>150</v>
+      </c>
+      <c r="G284">
+        <v>25</v>
+      </c>
+      <c r="H284" t="s">
+        <v>12</v>
+      </c>
+      <c r="I284">
+        <v>50</v>
+      </c>
+      <c r="J284" t="s">
+        <v>12</v>
+      </c>
+      <c r="K284" t="s">
+        <v>12</v>
+      </c>
+      <c r="L284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>4</v>
+      </c>
+      <c r="D285" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" t="str">
+        <f t="shared" si="11"/>
+        <v>a_1_4</v>
+      </c>
+      <c r="F285">
+        <v>250</v>
+      </c>
+      <c r="G285">
+        <v>25</v>
+      </c>
+      <c r="H285" t="s">
+        <v>12</v>
+      </c>
+      <c r="I285">
+        <v>150</v>
+      </c>
+      <c r="J285" t="s">
+        <v>12</v>
+      </c>
+      <c r="K285" t="s">
+        <v>12</v>
+      </c>
+      <c r="L285" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286" t="str">
+        <f t="shared" si="11"/>
+        <v>a_2_1</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>150</v>
+      </c>
+      <c r="H286" t="s">
+        <v>12</v>
+      </c>
+      <c r="I286">
+        <v>50</v>
+      </c>
+      <c r="J286" t="s">
+        <v>12</v>
+      </c>
+      <c r="K286" t="s">
+        <v>12</v>
+      </c>
+      <c r="L286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>18</v>
+      </c>
+      <c r="E287" t="str">
+        <f t="shared" si="11"/>
+        <v>e_2_1</v>
+      </c>
+      <c r="F287">
+        <v>50</v>
+      </c>
+      <c r="G287">
+        <v>150</v>
+      </c>
+      <c r="H287" t="s">
+        <v>12</v>
+      </c>
+      <c r="I287">
+        <v>50</v>
+      </c>
+      <c r="J287" t="s">
+        <v>12</v>
+      </c>
+      <c r="K287" t="s">
+        <v>12</v>
+      </c>
+      <c r="L287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>21</v>
+      </c>
+      <c r="E288" t="str">
+        <f t="shared" si="11"/>
+        <v>i_2_1</v>
+      </c>
+      <c r="F288">
+        <v>150</v>
+      </c>
+      <c r="G288">
+        <v>150</v>
+      </c>
+      <c r="H288" t="s">
+        <v>12</v>
+      </c>
+      <c r="I288">
+        <v>50</v>
+      </c>
+      <c r="J288" t="s">
+        <v>12</v>
+      </c>
+      <c r="K288" t="s">
+        <v>12</v>
+      </c>
+      <c r="L288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s">
+        <v>14</v>
+      </c>
+      <c r="E289" t="str">
+        <f t="shared" si="11"/>
+        <v>b_2_2</v>
+      </c>
+      <c r="F289">
+        <v>250</v>
+      </c>
+      <c r="G289">
+        <v>150</v>
+      </c>
+      <c r="H289" t="s">
+        <v>12</v>
+      </c>
+      <c r="I289">
+        <v>50</v>
+      </c>
+      <c r="J289" t="s">
+        <v>12</v>
+      </c>
+      <c r="K289" t="s">
+        <v>12</v>
+      </c>
+      <c r="L289" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+      <c r="D290" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290" t="str">
+        <f t="shared" si="11"/>
+        <v>f_2_2</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>75</v>
+      </c>
+      <c r="H290" t="s">
+        <v>12</v>
+      </c>
+      <c r="I290">
+        <v>50</v>
+      </c>
+      <c r="J290" t="s">
+        <v>12</v>
+      </c>
+      <c r="K290" t="s">
+        <v>12</v>
+      </c>
+      <c r="L290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>23</v>
+      </c>
+      <c r="E291" t="str">
+        <f t="shared" si="11"/>
+        <v>k_2_2</v>
+      </c>
+      <c r="F291">
+        <v>50</v>
+      </c>
+      <c r="G291">
+        <v>75</v>
+      </c>
+      <c r="H291" t="s">
+        <v>12</v>
+      </c>
+      <c r="I291">
+        <v>50</v>
+      </c>
+      <c r="J291" t="s">
+        <v>12</v>
+      </c>
+      <c r="K291" t="s">
+        <v>12</v>
+      </c>
+      <c r="L291" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292" t="s">
+        <v>16</v>
+      </c>
+      <c r="E292" t="str">
+        <f t="shared" si="11"/>
+        <v>c_2_3</v>
+      </c>
+      <c r="F292">
+        <v>150</v>
+      </c>
+      <c r="G292">
+        <v>75</v>
+      </c>
+      <c r="H292" t="s">
+        <v>12</v>
+      </c>
+      <c r="I292">
+        <v>100</v>
+      </c>
+      <c r="J292" t="s">
+        <v>12</v>
+      </c>
+      <c r="K292" t="s">
+        <v>12</v>
+      </c>
+      <c r="L292" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="D293" t="s">
+        <v>25</v>
+      </c>
+      <c r="E293" t="str">
+        <f t="shared" si="11"/>
+        <v>g_2_3</v>
+      </c>
+      <c r="F293">
+        <v>250</v>
+      </c>
+      <c r="G293">
+        <v>75</v>
+      </c>
+      <c r="H293" t="s">
+        <v>12</v>
+      </c>
+      <c r="I293">
+        <v>100</v>
+      </c>
+      <c r="J293" t="s">
+        <v>12</v>
+      </c>
+      <c r="K293" t="s">
+        <v>12</v>
+      </c>
+      <c r="L293" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+      <c r="D294" t="s">
+        <v>24</v>
+      </c>
+      <c r="E294" t="str">
+        <f t="shared" si="11"/>
+        <v>l_2_3</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>25</v>
+      </c>
+      <c r="H294" t="s">
+        <v>12</v>
+      </c>
+      <c r="I294">
+        <v>100</v>
+      </c>
+      <c r="J294" t="s">
+        <v>12</v>
+      </c>
+      <c r="K294" t="s">
+        <v>12</v>
+      </c>
+      <c r="L294" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295">
+        <v>4</v>
+      </c>
+      <c r="D295" t="s">
+        <v>17</v>
+      </c>
+      <c r="E295" t="str">
+        <f t="shared" si="11"/>
+        <v>d_2_4</v>
+      </c>
+      <c r="F295">
+        <v>50</v>
+      </c>
+      <c r="G295">
+        <v>25</v>
+      </c>
+      <c r="H295" t="s">
+        <v>12</v>
+      </c>
+      <c r="I295">
+        <v>150</v>
+      </c>
+      <c r="J295" t="s">
+        <v>12</v>
+      </c>
+      <c r="K295" t="s">
+        <v>12</v>
+      </c>
+      <c r="L295" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296">
+        <v>4</v>
+      </c>
+      <c r="D296" t="s">
+        <v>22</v>
+      </c>
+      <c r="E296" t="str">
+        <f t="shared" si="11"/>
+        <v>j_2_4</v>
+      </c>
+      <c r="F296">
+        <v>150</v>
+      </c>
+      <c r="G296">
+        <v>25</v>
+      </c>
+      <c r="H296" t="s">
+        <v>12</v>
+      </c>
+      <c r="I296">
+        <v>150</v>
+      </c>
+      <c r="J296" t="s">
+        <v>12</v>
+      </c>
+      <c r="K296" t="s">
+        <v>12</v>
+      </c>
+      <c r="L296" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>4</v>
+      </c>
+      <c r="D297" t="s">
+        <v>20</v>
+      </c>
+      <c r="E297" t="str">
+        <f t="shared" si="11"/>
+        <v>h_2_4</v>
+      </c>
+      <c r="F297">
+        <v>250</v>
+      </c>
+      <c r="G297">
+        <v>25</v>
+      </c>
+      <c r="H297" t="s">
+        <v>12</v>
+      </c>
+      <c r="I297">
+        <v>150</v>
+      </c>
+      <c r="J297" t="s">
+        <v>12</v>
+      </c>
+      <c r="K297" t="s">
+        <v>12</v>
+      </c>
+      <c r="L297" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
         <v>44715</v>
       </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
-      <c r="C283">
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298" t="str">
+        <f t="shared" si="11"/>
+        <v>a_1_1</v>
+      </c>
+      <c r="F298">
+        <v>250</v>
+      </c>
+      <c r="G298">
+        <v>-20</v>
+      </c>
+      <c r="H298" t="s">
+        <v>12</v>
+      </c>
+      <c r="I298" t="s">
+        <v>12</v>
+      </c>
+      <c r="J298" t="s">
+        <v>12</v>
+      </c>
+      <c r="K298" t="s">
+        <v>12</v>
+      </c>
+      <c r="L298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>14</v>
+      </c>
+      <c r="E299" t="str">
+        <f t="shared" si="11"/>
+        <v>b_1_1</v>
+      </c>
+      <c r="F299">
+        <v>250</v>
+      </c>
+      <c r="G299">
+        <v>50</v>
+      </c>
+      <c r="H299" t="s">
+        <v>12</v>
+      </c>
+      <c r="I299" t="s">
+        <v>12</v>
+      </c>
+      <c r="J299" t="s">
+        <v>12</v>
+      </c>
+      <c r="K299" t="s">
+        <v>12</v>
+      </c>
+      <c r="L299" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>16</v>
+      </c>
+      <c r="E300" t="str">
+        <f t="shared" si="11"/>
+        <v>c_1_1</v>
+      </c>
+      <c r="F300">
+        <v>250</v>
+      </c>
+      <c r="G300">
+        <v>100</v>
+      </c>
+      <c r="H300" t="s">
+        <v>12</v>
+      </c>
+      <c r="I300" t="s">
+        <v>12</v>
+      </c>
+      <c r="J300" t="s">
+        <v>12</v>
+      </c>
+      <c r="K300" t="s">
+        <v>12</v>
+      </c>
+      <c r="L300" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>17</v>
+      </c>
+      <c r="E301" t="str">
+        <f t="shared" si="11"/>
+        <v>d_1_1</v>
+      </c>
+      <c r="F301">
+        <v>250</v>
+      </c>
+      <c r="G301">
+        <v>200</v>
+      </c>
+      <c r="H301" t="s">
+        <v>12</v>
+      </c>
+      <c r="I301" t="s">
+        <v>12</v>
+      </c>
+      <c r="J301" t="s">
+        <v>12</v>
+      </c>
+      <c r="K301" t="s">
+        <v>12</v>
+      </c>
+      <c r="L301" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302" t="s">
+        <v>18</v>
+      </c>
+      <c r="E302" t="str">
+        <f t="shared" ref="E302:E309" si="12">D302&amp;"_" &amp; B302 &amp; "_" &amp; C302</f>
+        <v>e_1_2</v>
+      </c>
+      <c r="F302">
+        <v>150</v>
+      </c>
+      <c r="G302">
+        <v>-20</v>
+      </c>
+      <c r="H302" t="s">
+        <v>12</v>
+      </c>
+      <c r="I302">
+        <v>20</v>
+      </c>
+      <c r="J302" t="s">
+        <v>12</v>
+      </c>
+      <c r="K302" t="s">
+        <v>12</v>
+      </c>
+      <c r="L302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303" t="str">
+        <f t="shared" si="12"/>
+        <v>f_1_2</v>
+      </c>
+      <c r="F303">
+        <v>150</v>
+      </c>
+      <c r="G303">
+        <v>50</v>
+      </c>
+      <c r="H303" t="s">
+        <v>12</v>
+      </c>
+      <c r="I303">
+        <v>50</v>
+      </c>
+      <c r="J303" t="s">
+        <v>12</v>
+      </c>
+      <c r="K303" t="s">
+        <v>12</v>
+      </c>
+      <c r="L303" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304" t="s">
+        <v>25</v>
+      </c>
+      <c r="E304" t="str">
+        <f t="shared" si="12"/>
+        <v>g_1_2</v>
+      </c>
+      <c r="F304">
+        <v>150</v>
+      </c>
+      <c r="G304">
+        <v>100</v>
+      </c>
+      <c r="H304" t="s">
+        <v>12</v>
+      </c>
+      <c r="I304">
+        <v>100</v>
+      </c>
+      <c r="J304" t="s">
+        <v>12</v>
+      </c>
+      <c r="K304" t="s">
+        <v>12</v>
+      </c>
+      <c r="L304" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s">
+        <v>20</v>
+      </c>
+      <c r="E305" t="str">
+        <f t="shared" si="12"/>
+        <v>h_1_2</v>
+      </c>
+      <c r="F305">
+        <v>150</v>
+      </c>
+      <c r="G305">
+        <v>200</v>
+      </c>
+      <c r="H305" t="s">
+        <v>12</v>
+      </c>
+      <c r="I305">
+        <v>200</v>
+      </c>
+      <c r="J305" t="s">
+        <v>12</v>
+      </c>
+      <c r="K305" t="s">
+        <v>12</v>
+      </c>
+      <c r="L305" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
         <v>3</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D306" t="s">
+        <v>21</v>
+      </c>
+      <c r="E306" t="str">
+        <f t="shared" si="12"/>
+        <v>i_1_3</v>
+      </c>
+      <c r="F306">
+        <v>50</v>
+      </c>
+      <c r="G306">
+        <v>-20</v>
+      </c>
+      <c r="H306" t="s">
+        <v>12</v>
+      </c>
+      <c r="I306">
+        <v>20</v>
+      </c>
+      <c r="J306" t="s">
+        <v>12</v>
+      </c>
+      <c r="K306" t="s">
+        <v>12</v>
+      </c>
+      <c r="L306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>3</v>
+      </c>
+      <c r="D307" t="s">
+        <v>22</v>
+      </c>
+      <c r="E307" t="str">
+        <f t="shared" si="12"/>
+        <v>j_1_3</v>
+      </c>
+      <c r="F307">
+        <v>50</v>
+      </c>
+      <c r="G307">
+        <v>50</v>
+      </c>
+      <c r="H307" t="s">
+        <v>12</v>
+      </c>
+      <c r="I307">
+        <v>50</v>
+      </c>
+      <c r="J307" t="s">
+        <v>12</v>
+      </c>
+      <c r="K307" t="s">
+        <v>12</v>
+      </c>
+      <c r="L307" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>3</v>
+      </c>
+      <c r="D308" t="s">
+        <v>23</v>
+      </c>
+      <c r="E308" t="str">
+        <f t="shared" si="12"/>
+        <v>k_1_3</v>
+      </c>
+      <c r="F308">
+        <v>50</v>
+      </c>
+      <c r="G308">
+        <v>100</v>
+      </c>
+      <c r="H308" t="s">
+        <v>12</v>
+      </c>
+      <c r="I308">
+        <v>100</v>
+      </c>
+      <c r="J308" t="s">
+        <v>12</v>
+      </c>
+      <c r="K308" t="s">
+        <v>12</v>
+      </c>
+      <c r="L308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>3</v>
+      </c>
+      <c r="D309" t="s">
         <v>24</v>
       </c>
-      <c r="E283" t="str">
-        <f t="shared" si="9"/>
+      <c r="E309" t="str">
+        <f t="shared" si="12"/>
         <v>l_1_3</v>
       </c>
-      <c r="F283">
-        <v>50</v>
-      </c>
-      <c r="G283">
+      <c r="F309">
+        <v>50</v>
+      </c>
+      <c r="G309">
         <v>200</v>
       </c>
-      <c r="H283" t="s">
-        <v>12</v>
-      </c>
-      <c r="I283">
+      <c r="H309" t="s">
+        <v>12</v>
+      </c>
+      <c r="I309">
         <v>200</v>
       </c>
-      <c r="J283" t="s">
-        <v>12</v>
-      </c>
-      <c r="K283" t="s">
-        <v>12</v>
-      </c>
-      <c r="L283" t="s">
+      <c r="J309" t="s">
+        <v>12</v>
+      </c>
+      <c r="K309" t="s">
+        <v>12</v>
+      </c>
+      <c r="L309" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\prj_lauraramirez_sedimentplumes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF0B76-5989-44BE-BDE4-B5146DE0D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45927935-603C-49FA-A80F-2F4F103ED0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="0" windowWidth="13200" windowHeight="13680" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="43470" yWindow="-15645" windowWidth="17340" windowHeight="15285" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l_ce" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ltloggerdatacapturesummary_l_ce!$A$1:$L$311</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -981,20 +984,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-  <dimension ref="A1:L309"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="9" max="9" width="24.08984375" customWidth="1"/>
-    <col min="10" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3671875" customWidth="1"/>
+    <col min="9" max="9" width="24.1015625" customWidth="1"/>
+    <col min="10" max="11" width="15.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44835</v>
       </c>
@@ -1071,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44835</v>
       </c>
@@ -1110,7 +1115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44835</v>
       </c>
@@ -1149,7 +1154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44835</v>
       </c>
@@ -1188,7 +1193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44835</v>
       </c>
@@ -1227,7 +1232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44835</v>
       </c>
@@ -1266,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44835</v>
       </c>
@@ -1305,7 +1310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44835</v>
       </c>
@@ -1344,7 +1349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44835</v>
       </c>
@@ -1383,7 +1388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1422,7 +1427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44835</v>
       </c>
@@ -1461,7 +1466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44835</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44835</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44835</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
@@ -1617,7 +1622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
@@ -1695,7 +1700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44835</v>
       </c>
@@ -1734,7 +1739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44835</v>
       </c>
@@ -1773,7 +1778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44835</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44835</v>
       </c>
@@ -1851,7 +1856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44835</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44835</v>
       </c>
@@ -1929,7 +1934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44835</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44835</v>
       </c>
@@ -2007,7 +2012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>44835</v>
       </c>
@@ -2046,7 +2051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>44835</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>44835</v>
       </c>
@@ -2124,7 +2129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>44835</v>
       </c>
@@ -2163,7 +2168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>44835</v>
       </c>
@@ -2202,7 +2207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>44835</v>
       </c>
@@ -2241,7 +2246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>44835</v>
       </c>
@@ -2280,7 +2285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>44835</v>
       </c>
@@ -2319,7 +2324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>44835</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>44835</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>44835</v>
       </c>
@@ -2436,7 +2441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44821</v>
       </c>
@@ -2453,17 +2458,17 @@
         <f t="shared" si="5"/>
         <v>a_1_1</v>
       </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>12</v>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>-45</v>
       </c>
       <c r="H38">
         <v>90</v>
       </c>
       <c r="I38">
-        <v>20</v>
+        <v>-45</v>
       </c>
       <c r="J38">
         <v>50</v>
@@ -2475,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>44821</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>44821</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>44821</v>
       </c>
@@ -2592,7 +2597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>44821</v>
       </c>
@@ -2670,7 +2675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44821</v>
       </c>
@@ -2687,17 +2692,17 @@
         <f t="shared" si="0"/>
         <v>a_1_2</v>
       </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>-45</v>
       </c>
       <c r="H44">
         <v>90</v>
       </c>
       <c r="I44">
-        <v>20</v>
+        <v>-45</v>
       </c>
       <c r="J44">
         <v>50</v>
@@ -2709,7 +2714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44821</v>
       </c>
@@ -2748,7 +2753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44821</v>
       </c>
@@ -2787,7 +2792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44821</v>
       </c>
@@ -2826,7 +2831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>44821</v>
       </c>
@@ -2865,7 +2870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>44821</v>
       </c>
@@ -2904,7 +2909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>44821</v>
       </c>
@@ -2912,26 +2917,26 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>a_1_2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
+        <v>a_1_3</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>-45</v>
       </c>
       <c r="H50">
         <v>90</v>
       </c>
       <c r="I50">
-        <v>20</v>
+        <v>-45</v>
       </c>
       <c r="J50">
         <v>50</v>
@@ -2943,7 +2948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>44821</v>
       </c>
@@ -2951,14 +2956,14 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>x_1_2</v>
+        <v>x_1_3</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -2982,7 +2987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>44821</v>
       </c>
@@ -3021,7 +3026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>44821</v>
       </c>
@@ -3060,7 +3065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>44821</v>
       </c>
@@ -3099,7 +3104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>44821</v>
       </c>
@@ -3116,17 +3121,17 @@
         <f t="shared" si="0"/>
         <v>a_2_1</v>
       </c>
-      <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>-45</v>
       </c>
       <c r="H55">
         <v>90</v>
       </c>
       <c r="I55">
-        <v>20</v>
+        <v>-45</v>
       </c>
       <c r="J55">
         <v>50</v>
@@ -3138,7 +3143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>44821</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>44821</v>
       </c>
@@ -3216,7 +3221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>44821</v>
       </c>
@@ -3255,7 +3260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>44821</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>44821</v>
       </c>
@@ -3333,7 +3338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>44821</v>
       </c>
@@ -3350,17 +3355,17 @@
         <f t="shared" si="0"/>
         <v>a_2_2</v>
       </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>-45</v>
       </c>
       <c r="H61">
         <v>90</v>
       </c>
       <c r="I61">
-        <v>20</v>
+        <v>-45</v>
       </c>
       <c r="J61">
         <v>50</v>
@@ -3372,7 +3377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>44821</v>
       </c>
@@ -3389,8 +3394,29 @@
         <f t="shared" si="0"/>
         <v>x_2_2</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>44821</v>
       </c>
@@ -3429,7 +3455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>44821</v>
       </c>
@@ -3468,7 +3494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>44821</v>
       </c>
@@ -3507,7 +3533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
@@ -3546,7 +3572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>44821</v>
       </c>
@@ -3563,17 +3589,17 @@
         <f t="shared" si="0"/>
         <v>a_2_3</v>
       </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>12</v>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67">
+        <v>-45</v>
       </c>
       <c r="H67">
         <v>90</v>
       </c>
       <c r="I67">
-        <v>20</v>
+        <v>-45</v>
       </c>
       <c r="J67">
         <v>50</v>
@@ -3585,7 +3611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>44821</v>
       </c>
@@ -3624,7 +3650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>44821</v>
       </c>
@@ -3663,7 +3689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>44821</v>
       </c>
@@ -3702,7 +3728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>44821</v>
       </c>
@@ -3741,7 +3767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>44756</v>
       </c>
@@ -3780,7 +3806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>44756</v>
       </c>
@@ -3819,7 +3845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
@@ -3858,7 +3884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>44756</v>
       </c>
@@ -3897,7 +3923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>44756</v>
       </c>
@@ -3936,7 +3962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>44756</v>
       </c>
@@ -3975,7 +4001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>44756</v>
       </c>
@@ -4014,7 +4040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>44756</v>
       </c>
@@ -4053,7 +4079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>44756</v>
       </c>
@@ -4092,7 +4118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>44756</v>
       </c>
@@ -4131,7 +4157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>44756</v>
       </c>
@@ -4170,7 +4196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>44756</v>
       </c>
@@ -4209,7 +4235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>44756</v>
       </c>
@@ -4248,7 +4274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>44756</v>
       </c>
@@ -4287,7 +4313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
@@ -4326,7 +4352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>44756</v>
       </c>
@@ -4365,7 +4391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>44756</v>
       </c>
@@ -4404,7 +4430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>44756</v>
       </c>
@@ -4443,7 +4469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>44756</v>
       </c>
@@ -4482,7 +4508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>44756</v>
       </c>
@@ -4521,7 +4547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>44756</v>
       </c>
@@ -4560,7 +4586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>44756</v>
       </c>
@@ -4599,7 +4625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>44756</v>
       </c>
@@ -4638,7 +4664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>44756</v>
       </c>
@@ -4677,7 +4703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>44756</v>
       </c>
@@ -4716,7 +4742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>44756</v>
       </c>
@@ -4755,7 +4781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>44756</v>
       </c>
@@ -4794,7 +4820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>44756</v>
       </c>
@@ -4833,7 +4859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>44756</v>
       </c>
@@ -4872,7 +4898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>44756</v>
       </c>
@@ -4911,7 +4937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>44756</v>
       </c>
@@ -4950,7 +4976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>44756</v>
       </c>
@@ -4989,7 +5015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>44756</v>
       </c>
@@ -5028,7 +5054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>44756</v>
       </c>
@@ -5067,7 +5093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>44756</v>
       </c>
@@ -5106,7 +5132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>44756</v>
       </c>
@@ -5145,7 +5171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>44756</v>
       </c>
@@ -5184,7 +5210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>44756</v>
       </c>
@@ -5223,7 +5249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>44756</v>
       </c>
@@ -5262,7 +5288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>44756</v>
       </c>
@@ -5301,7 +5327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>44756</v>
       </c>
@@ -5340,7 +5366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>44756</v>
       </c>
@@ -5379,7 +5405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>44814</v>
       </c>
@@ -5418,7 +5444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>44814</v>
       </c>
@@ -5457,7 +5483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>44814</v>
       </c>
@@ -5496,7 +5522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>44814</v>
       </c>
@@ -5535,7 +5561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>44814</v>
       </c>
@@ -5574,7 +5600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>44814</v>
       </c>
@@ -5613,7 +5639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>44814</v>
       </c>
@@ -5652,7 +5678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>44814</v>
       </c>
@@ -5691,7 +5717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
@@ -5730,7 +5756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>44814</v>
       </c>
@@ -5769,7 +5795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>44814</v>
       </c>
@@ -5808,7 +5834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>44814</v>
       </c>
@@ -5847,7 +5873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>44814</v>
       </c>
@@ -5886,7 +5912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>44814</v>
       </c>
@@ -5925,7 +5951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>44814</v>
       </c>
@@ -5964,7 +5990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>44814</v>
       </c>
@@ -6003,7 +6029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>44814</v>
       </c>
@@ -6042,7 +6068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>44814</v>
       </c>
@@ -6081,7 +6107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>44760</v>
       </c>
@@ -6120,7 +6146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>44760</v>
       </c>
@@ -6159,7 +6185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>44760</v>
       </c>
@@ -6198,7 +6224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>44760</v>
       </c>
@@ -6237,7 +6263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>44760</v>
       </c>
@@ -6276,7 +6302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>44760</v>
       </c>
@@ -6315,7 +6341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>44760</v>
       </c>
@@ -6354,7 +6380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>44760</v>
       </c>
@@ -6393,7 +6419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>44760</v>
       </c>
@@ -6432,7 +6458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>44760</v>
       </c>
@@ -6471,7 +6497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>44760</v>
       </c>
@@ -6510,7 +6536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>44760</v>
       </c>
@@ -6549,7 +6575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>44760</v>
       </c>
@@ -6588,7 +6614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>44760</v>
       </c>
@@ -6627,7 +6653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>44760</v>
       </c>
@@ -6666,7 +6692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>44760</v>
       </c>
@@ -6705,7 +6731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>44760</v>
       </c>
@@ -6744,7 +6770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>44760</v>
       </c>
@@ -6783,7 +6809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>44760</v>
       </c>
@@ -6822,7 +6848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>44760</v>
       </c>
@@ -6861,7 +6887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>44760</v>
       </c>
@@ -6900,7 +6926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>44760</v>
       </c>
@@ -6939,7 +6965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
@@ -6978,7 +7004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>44760</v>
       </c>
@@ -7017,7 +7043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>44760</v>
       </c>
@@ -7056,7 +7082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>44760</v>
       </c>
@@ -7095,7 +7121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>44760</v>
       </c>
@@ -7134,7 +7160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>44760</v>
       </c>
@@ -7173,7 +7199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>44760</v>
       </c>
@@ -7212,7 +7238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>44760</v>
       </c>
@@ -7251,7 +7277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>44760</v>
       </c>
@@ -7290,7 +7316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>44760</v>
       </c>
@@ -7329,7 +7355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>44760</v>
       </c>
@@ -7368,7 +7394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>44760</v>
       </c>
@@ -7407,7 +7433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>44760</v>
       </c>
@@ -7446,7 +7472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>44760</v>
       </c>
@@ -7485,7 +7511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>44760</v>
       </c>
@@ -7524,7 +7550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>44760</v>
       </c>
@@ -7563,7 +7589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>44760</v>
       </c>
@@ -7602,7 +7628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>44760</v>
       </c>
@@ -7641,7 +7667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>44760</v>
       </c>
@@ -7680,7 +7706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>44760</v>
       </c>
@@ -7719,7 +7745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>44829</v>
       </c>
@@ -7758,7 +7784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>44829</v>
       </c>
@@ -7782,7 +7808,7 @@
         <v>12</v>
       </c>
       <c r="H175">
-        <v>-30</v>
+        <v>330</v>
       </c>
       <c r="I175">
         <v>20</v>
@@ -7797,7 +7823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>44829</v>
       </c>
@@ -7824,7 +7850,7 @@
         <v>150</v>
       </c>
       <c r="I176">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J176">
         <v>100</v>
@@ -7836,7 +7862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>44829</v>
       </c>
@@ -7863,7 +7889,7 @@
         <v>150</v>
       </c>
       <c r="I177">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>100</v>
@@ -7875,7 +7901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>44800</v>
       </c>
@@ -7914,7 +7940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>44800</v>
       </c>
@@ -7953,7 +7979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>44800</v>
       </c>
@@ -7992,7 +8018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>44800</v>
       </c>
@@ -8031,7 +8057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>44800</v>
       </c>
@@ -8070,7 +8096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>44800</v>
       </c>
@@ -8109,7 +8135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>44800</v>
       </c>
@@ -8148,7 +8174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>44800</v>
       </c>
@@ -8187,7 +8213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>44800</v>
       </c>
@@ -8226,7 +8252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>44800</v>
       </c>
@@ -8265,7 +8291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>44800</v>
       </c>
@@ -8304,7 +8330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>44800</v>
       </c>
@@ -8343,7 +8369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>44800</v>
       </c>
@@ -8382,7 +8408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>44800</v>
       </c>
@@ -8421,7 +8447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>44800</v>
       </c>
@@ -8460,7 +8486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>44800</v>
       </c>
@@ -8499,7 +8525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>44800</v>
       </c>
@@ -8538,7 +8564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>44800</v>
       </c>
@@ -8577,7 +8603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>44800</v>
       </c>
@@ -8616,7 +8642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>44800</v>
       </c>
@@ -8655,7 +8681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>44800</v>
       </c>
@@ -8694,7 +8720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>44800</v>
       </c>
@@ -8733,7 +8759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>44800</v>
       </c>
@@ -8772,7 +8798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>44800</v>
       </c>
@@ -8811,7 +8837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>44800</v>
       </c>
@@ -8850,7 +8876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>44800</v>
       </c>
@@ -8889,7 +8915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>44800</v>
       </c>
@@ -8928,7 +8954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>44800</v>
       </c>
@@ -8967,7 +8993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>44800</v>
       </c>
@@ -9006,7 +9032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>44800</v>
       </c>
@@ -9045,7 +9071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>44800</v>
       </c>
@@ -9084,7 +9110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>44800</v>
       </c>
@@ -9123,7 +9149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>44800</v>
       </c>
@@ -9162,7 +9188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>44800</v>
       </c>
@@ -9201,7 +9227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>44800</v>
       </c>
@@ -9240,7 +9266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>44800</v>
       </c>
@@ -9279,7 +9305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>44800</v>
       </c>
@@ -9318,7 +9344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>44800</v>
       </c>
@@ -9357,7 +9383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>44800</v>
       </c>
@@ -9396,7 +9422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>44800</v>
       </c>
@@ -9435,7 +9461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>44800</v>
       </c>
@@ -9474,7 +9500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>44800</v>
       </c>
@@ -9513,7 +9539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>44839</v>
       </c>
@@ -9552,7 +9578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>44839</v>
       </c>
@@ -9591,7 +9617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>44839</v>
       </c>
@@ -9630,7 +9656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>44839</v>
       </c>
@@ -9669,7 +9695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>44839</v>
       </c>
@@ -9708,7 +9734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>44839</v>
       </c>
@@ -9747,7 +9773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>44839</v>
       </c>
@@ -9786,7 +9812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>44839</v>
       </c>
@@ -9825,7 +9851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>44839</v>
       </c>
@@ -9864,7 +9890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>44839</v>
       </c>
@@ -9903,7 +9929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>44839</v>
       </c>
@@ -9942,7 +9968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>44839</v>
       </c>
@@ -9981,7 +10007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>44839</v>
       </c>
@@ -10020,7 +10046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>44839</v>
       </c>
@@ -10059,7 +10085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>44839</v>
       </c>
@@ -10098,7 +10124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>44839</v>
       </c>
@@ -10137,7 +10163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>44839</v>
       </c>
@@ -10176,7 +10202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>44839</v>
       </c>
@@ -10215,7 +10241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>44849</v>
       </c>
@@ -10254,7 +10280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>44849</v>
       </c>
@@ -10293,7 +10319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>44849</v>
       </c>
@@ -10332,7 +10358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>44849</v>
       </c>
@@ -10371,7 +10397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>44849</v>
       </c>
@@ -10410,7 +10436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>44849</v>
       </c>
@@ -10449,7 +10475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>44849</v>
       </c>
@@ -10488,7 +10514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>44849</v>
       </c>
@@ -10527,7 +10553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>44849</v>
       </c>
@@ -10566,7 +10592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>44849</v>
       </c>
@@ -10605,7 +10631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>44849</v>
       </c>
@@ -10644,7 +10670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>44849</v>
       </c>
@@ -10683,7 +10709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>44849</v>
       </c>
@@ -10722,7 +10748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>44849</v>
       </c>
@@ -10761,7 +10787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>44849</v>
       </c>
@@ -10800,7 +10826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>44849</v>
       </c>
@@ -10839,7 +10865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>44849</v>
       </c>
@@ -10878,7 +10904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>44849</v>
       </c>
@@ -10917,7 +10943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>44849</v>
       </c>
@@ -10956,7 +10982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>44849</v>
       </c>
@@ -10995,7 +11021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>44849</v>
       </c>
@@ -11034,7 +11060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>44849</v>
       </c>
@@ -11073,7 +11099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>44849</v>
       </c>
@@ -11112,7 +11138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>44849</v>
       </c>
@@ -11151,7 +11177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>44867</v>
       </c>
@@ -11190,7 +11216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>44867</v>
       </c>
@@ -11229,7 +11255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>44867</v>
       </c>
@@ -11268,7 +11294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>44867</v>
       </c>
@@ -11307,7 +11333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>44867</v>
       </c>
@@ -11346,7 +11372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>44867</v>
       </c>
@@ -11385,7 +11411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>44867</v>
       </c>
@@ -11424,7 +11450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>44867</v>
       </c>
@@ -11463,7 +11489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>44867</v>
       </c>
@@ -11502,7 +11528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>44867</v>
       </c>
@@ -11541,7 +11567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>44867</v>
       </c>
@@ -11580,7 +11606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>44867</v>
       </c>
@@ -11619,7 +11645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>44874</v>
       </c>
@@ -11658,7 +11684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>44874</v>
       </c>
@@ -11697,7 +11723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>44874</v>
       </c>
@@ -11736,7 +11762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>44874</v>
       </c>
@@ -11744,14 +11770,14 @@
         <v>1</v>
       </c>
       <c r="C277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D277" t="s">
         <v>21</v>
       </c>
       <c r="E277" t="str">
         <f t="shared" si="11"/>
-        <v>i_1_2</v>
+        <v>i_1_1</v>
       </c>
       <c r="F277">
         <v>250</v>
@@ -11775,7 +11801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>44874</v>
       </c>
@@ -11814,7 +11840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>44874</v>
       </c>
@@ -11853,7 +11879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>44874</v>
       </c>
@@ -11861,14 +11887,14 @@
         <v>1</v>
       </c>
       <c r="C280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D280" t="s">
         <v>19</v>
       </c>
       <c r="E280" t="str">
         <f t="shared" si="11"/>
-        <v>f_1_3</v>
+        <v>f_1_2</v>
       </c>
       <c r="F280">
         <v>150</v>
@@ -11892,7 +11918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>44874</v>
       </c>
@@ -11900,14 +11926,14 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D281" t="s">
         <v>18</v>
       </c>
       <c r="E281" t="str">
         <f t="shared" si="11"/>
-        <v>e_1_3</v>
+        <v>e_1_2</v>
       </c>
       <c r="F281">
         <v>250</v>
@@ -11931,7 +11957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>44874</v>
       </c>
@@ -11970,7 +11996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>44874</v>
       </c>
@@ -11978,14 +12004,14 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D283" t="s">
         <v>16</v>
       </c>
       <c r="E283" t="str">
         <f t="shared" si="11"/>
-        <v>c_1_4</v>
+        <v>c_1_3</v>
       </c>
       <c r="F283">
         <v>50</v>
@@ -12009,7 +12035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>44874</v>
       </c>
@@ -12017,14 +12043,14 @@
         <v>1</v>
       </c>
       <c r="C284">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D284" t="s">
         <v>14</v>
       </c>
       <c r="E284" t="str">
         <f t="shared" si="11"/>
-        <v>b_1_4</v>
+        <v>b_1_3</v>
       </c>
       <c r="F284">
         <v>150</v>
@@ -12048,7 +12074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>44874</v>
       </c>
@@ -12056,14 +12082,14 @@
         <v>1</v>
       </c>
       <c r="C285">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D285" t="s">
         <v>11</v>
       </c>
       <c r="E285" t="str">
         <f t="shared" si="11"/>
-        <v>a_1_4</v>
+        <v>a_1_3</v>
       </c>
       <c r="F285">
         <v>250</v>
@@ -12087,7 +12113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>44874</v>
       </c>
@@ -12126,7 +12152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>44874</v>
       </c>
@@ -12165,7 +12191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>44874</v>
       </c>
@@ -12204,7 +12230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>44874</v>
       </c>
@@ -12212,14 +12238,14 @@
         <v>2</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D289" t="s">
         <v>14</v>
       </c>
       <c r="E289" t="str">
         <f t="shared" si="11"/>
-        <v>b_2_2</v>
+        <v>b_2_1</v>
       </c>
       <c r="F289">
         <v>250</v>
@@ -12243,7 +12269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>44874</v>
       </c>
@@ -12282,7 +12308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>44874</v>
       </c>
@@ -12321,7 +12347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>44874</v>
       </c>
@@ -12329,14 +12355,14 @@
         <v>2</v>
       </c>
       <c r="C292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D292" t="s">
         <v>16</v>
       </c>
       <c r="E292" t="str">
         <f t="shared" si="11"/>
-        <v>c_2_3</v>
+        <v>c_2_2</v>
       </c>
       <c r="F292">
         <v>150</v>
@@ -12360,7 +12386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>44874</v>
       </c>
@@ -12368,14 +12394,14 @@
         <v>2</v>
       </c>
       <c r="C293">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D293" t="s">
         <v>25</v>
       </c>
       <c r="E293" t="str">
         <f t="shared" si="11"/>
-        <v>g_2_3</v>
+        <v>g_2_2</v>
       </c>
       <c r="F293">
         <v>250</v>
@@ -12399,7 +12425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>44874</v>
       </c>
@@ -12438,7 +12464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>44874</v>
       </c>
@@ -12446,14 +12472,14 @@
         <v>2</v>
       </c>
       <c r="C295">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D295" t="s">
         <v>17</v>
       </c>
       <c r="E295" t="str">
         <f t="shared" si="11"/>
-        <v>d_2_4</v>
+        <v>d_2_3</v>
       </c>
       <c r="F295">
         <v>50</v>
@@ -12477,7 +12503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>44874</v>
       </c>
@@ -12485,14 +12511,14 @@
         <v>2</v>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D296" t="s">
         <v>22</v>
       </c>
       <c r="E296" t="str">
         <f t="shared" si="11"/>
-        <v>j_2_4</v>
+        <v>j_2_3</v>
       </c>
       <c r="F296">
         <v>150</v>
@@ -12516,7 +12542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>44874</v>
       </c>
@@ -12524,14 +12550,14 @@
         <v>2</v>
       </c>
       <c r="C297">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D297" t="s">
         <v>20</v>
       </c>
       <c r="E297" t="str">
         <f t="shared" si="11"/>
-        <v>h_2_4</v>
+        <v>h_2_3</v>
       </c>
       <c r="F297">
         <v>250</v>
@@ -12555,7 +12581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>44715</v>
       </c>
@@ -12594,7 +12620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>44715</v>
       </c>
@@ -12633,7 +12659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>44715</v>
       </c>
@@ -12672,7 +12698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>44715</v>
       </c>
@@ -12711,7 +12737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>44715</v>
       </c>
@@ -12725,7 +12751,7 @@
         <v>18</v>
       </c>
       <c r="E302" t="str">
-        <f t="shared" ref="E302:E309" si="12">D302&amp;"_" &amp; B302 &amp; "_" &amp; C302</f>
+        <f t="shared" ref="E302:E311" si="12">D302&amp;"_" &amp; B302 &amp; "_" &amp; C302</f>
         <v>e_1_2</v>
       </c>
       <c r="F302">
@@ -12750,7 +12776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>44715</v>
       </c>
@@ -12761,141 +12787,141 @@
         <v>2</v>
       </c>
       <c r="D303" t="s">
+        <v>27</v>
+      </c>
+      <c r="E303" t="str">
+        <f t="shared" ref="E303" si="13">D303&amp;"_" &amp; B303 &amp; "_" &amp; C303</f>
+        <v>x_1_2</v>
+      </c>
+      <c r="F303">
+        <v>150</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303" t="s">
+        <v>12</v>
+      </c>
+      <c r="I303">
+        <v>20</v>
+      </c>
+      <c r="J303" t="s">
+        <v>12</v>
+      </c>
+      <c r="K303" t="s">
+        <v>12</v>
+      </c>
+      <c r="L303" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304" t="s">
         <v>19</v>
       </c>
-      <c r="E303" t="str">
+      <c r="E304" t="str">
         <f t="shared" si="12"/>
         <v>f_1_2</v>
       </c>
-      <c r="F303">
+      <c r="F304">
         <v>150</v>
       </c>
-      <c r="G303">
-        <v>50</v>
-      </c>
-      <c r="H303" t="s">
-        <v>12</v>
-      </c>
-      <c r="I303">
-        <v>50</v>
-      </c>
-      <c r="J303" t="s">
-        <v>12</v>
-      </c>
-      <c r="K303" t="s">
-        <v>12</v>
-      </c>
-      <c r="L303" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A304" s="1">
+      <c r="G304">
+        <v>50</v>
+      </c>
+      <c r="H304" t="s">
+        <v>12</v>
+      </c>
+      <c r="I304">
+        <v>50</v>
+      </c>
+      <c r="J304" t="s">
+        <v>12</v>
+      </c>
+      <c r="K304" t="s">
+        <v>12</v>
+      </c>
+      <c r="L304" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" s="1">
         <v>44715</v>
       </c>
-      <c r="B304">
-        <v>1</v>
-      </c>
-      <c r="C304">
-        <v>2</v>
-      </c>
-      <c r="D304" t="s">
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s">
         <v>25</v>
       </c>
-      <c r="E304" t="str">
+      <c r="E305" t="str">
         <f t="shared" si="12"/>
         <v>g_1_2</v>
       </c>
-      <c r="F304">
+      <c r="F305">
         <v>150</v>
       </c>
-      <c r="G304">
+      <c r="G305">
         <v>100</v>
       </c>
-      <c r="H304" t="s">
-        <v>12</v>
-      </c>
-      <c r="I304">
+      <c r="H305" t="s">
+        <v>12</v>
+      </c>
+      <c r="I305">
         <v>100</v>
       </c>
-      <c r="J304" t="s">
-        <v>12</v>
-      </c>
-      <c r="K304" t="s">
-        <v>12</v>
-      </c>
-      <c r="L304" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A305" s="1">
+      <c r="J305" t="s">
+        <v>12</v>
+      </c>
+      <c r="K305" t="s">
+        <v>12</v>
+      </c>
+      <c r="L305" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" s="1">
         <v>44715</v>
       </c>
-      <c r="B305">
-        <v>1</v>
-      </c>
-      <c r="C305">
-        <v>2</v>
-      </c>
-      <c r="D305" t="s">
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s">
         <v>20</v>
       </c>
-      <c r="E305" t="str">
+      <c r="E306" t="str">
         <f t="shared" si="12"/>
         <v>h_1_2</v>
       </c>
-      <c r="F305">
+      <c r="F306">
         <v>150</v>
       </c>
-      <c r="G305">
+      <c r="G306">
         <v>200</v>
       </c>
-      <c r="H305" t="s">
-        <v>12</v>
-      </c>
-      <c r="I305">
+      <c r="H306" t="s">
+        <v>12</v>
+      </c>
+      <c r="I306">
         <v>200</v>
       </c>
-      <c r="J305" t="s">
-        <v>12</v>
-      </c>
-      <c r="K305" t="s">
-        <v>12</v>
-      </c>
-      <c r="L305" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A306" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B306">
-        <v>1</v>
-      </c>
-      <c r="C306">
-        <v>3</v>
-      </c>
-      <c r="D306" t="s">
-        <v>21</v>
-      </c>
-      <c r="E306" t="str">
-        <f t="shared" si="12"/>
-        <v>i_1_3</v>
-      </c>
-      <c r="F306">
-        <v>50</v>
-      </c>
-      <c r="G306">
-        <v>-20</v>
-      </c>
-      <c r="H306" t="s">
-        <v>12</v>
-      </c>
-      <c r="I306">
-        <v>20</v>
-      </c>
       <c r="J306" t="s">
         <v>12</v>
       </c>
@@ -12903,10 +12929,10 @@
         <v>12</v>
       </c>
       <c r="L306" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>44715</v>
       </c>
@@ -12917,113 +12943,199 @@
         <v>3</v>
       </c>
       <c r="D307" t="s">
+        <v>21</v>
+      </c>
+      <c r="E307" t="str">
+        <f t="shared" ref="E307" si="14">D307&amp;"_" &amp; B307 &amp; "_" &amp; C307</f>
+        <v>i_1_3</v>
+      </c>
+      <c r="F307">
+        <v>50</v>
+      </c>
+      <c r="G307">
+        <v>-20</v>
+      </c>
+      <c r="H307" t="s">
+        <v>12</v>
+      </c>
+      <c r="I307">
+        <v>20</v>
+      </c>
+      <c r="J307" t="s">
+        <v>12</v>
+      </c>
+      <c r="K307" t="s">
+        <v>12</v>
+      </c>
+      <c r="L307" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>3</v>
+      </c>
+      <c r="D308" t="s">
+        <v>27</v>
+      </c>
+      <c r="E308" t="str">
+        <f t="shared" si="12"/>
+        <v>x_1_3</v>
+      </c>
+      <c r="F308">
+        <v>50</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308" t="s">
+        <v>12</v>
+      </c>
+      <c r="I308">
+        <v>20</v>
+      </c>
+      <c r="J308" t="s">
+        <v>12</v>
+      </c>
+      <c r="K308" t="s">
+        <v>12</v>
+      </c>
+      <c r="L308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>3</v>
+      </c>
+      <c r="D309" t="s">
         <v>22</v>
       </c>
-      <c r="E307" t="str">
+      <c r="E309" t="str">
         <f t="shared" si="12"/>
         <v>j_1_3</v>
       </c>
-      <c r="F307">
-        <v>50</v>
-      </c>
-      <c r="G307">
-        <v>50</v>
-      </c>
-      <c r="H307" t="s">
-        <v>12</v>
-      </c>
-      <c r="I307">
-        <v>50</v>
-      </c>
-      <c r="J307" t="s">
-        <v>12</v>
-      </c>
-      <c r="K307" t="s">
-        <v>12</v>
-      </c>
-      <c r="L307" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A308" s="1">
+      <c r="F309">
+        <v>50</v>
+      </c>
+      <c r="G309">
+        <v>50</v>
+      </c>
+      <c r="H309" t="s">
+        <v>12</v>
+      </c>
+      <c r="I309">
+        <v>50</v>
+      </c>
+      <c r="J309" t="s">
+        <v>12</v>
+      </c>
+      <c r="K309" t="s">
+        <v>12</v>
+      </c>
+      <c r="L309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310" s="1">
         <v>44715</v>
       </c>
-      <c r="B308">
-        <v>1</v>
-      </c>
-      <c r="C308">
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
         <v>3</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D310" t="s">
         <v>23</v>
       </c>
-      <c r="E308" t="str">
+      <c r="E310" t="str">
         <f t="shared" si="12"/>
         <v>k_1_3</v>
       </c>
-      <c r="F308">
-        <v>50</v>
-      </c>
-      <c r="G308">
+      <c r="F310">
+        <v>50</v>
+      </c>
+      <c r="G310">
         <v>100</v>
       </c>
-      <c r="H308" t="s">
-        <v>12</v>
-      </c>
-      <c r="I308">
+      <c r="H310" t="s">
+        <v>12</v>
+      </c>
+      <c r="I310">
         <v>100</v>
       </c>
-      <c r="J308" t="s">
-        <v>12</v>
-      </c>
-      <c r="K308" t="s">
-        <v>12</v>
-      </c>
-      <c r="L308" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A309" s="1">
+      <c r="J310" t="s">
+        <v>12</v>
+      </c>
+      <c r="K310" t="s">
+        <v>12</v>
+      </c>
+      <c r="L310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311" s="1">
         <v>44715</v>
       </c>
-      <c r="B309">
-        <v>1</v>
-      </c>
-      <c r="C309">
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
         <v>3</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D311" t="s">
         <v>24</v>
       </c>
-      <c r="E309" t="str">
+      <c r="E311" t="str">
         <f t="shared" si="12"/>
         <v>l_1_3</v>
       </c>
-      <c r="F309">
-        <v>50</v>
-      </c>
-      <c r="G309">
+      <c r="F311">
+        <v>50</v>
+      </c>
+      <c r="G311">
         <v>200</v>
       </c>
-      <c r="H309" t="s">
-        <v>12</v>
-      </c>
-      <c r="I309">
+      <c r="H311" t="s">
+        <v>12</v>
+      </c>
+      <c r="I311">
         <v>200</v>
       </c>
-      <c r="J309" t="s">
-        <v>12</v>
-      </c>
-      <c r="K309" t="s">
-        <v>12</v>
-      </c>
-      <c r="L309" t="s">
+      <c r="J311" t="s">
+        <v>12</v>
+      </c>
+      <c r="K311" t="s">
+        <v>12</v>
+      </c>
+      <c r="L311" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L311" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2022" month="9" day="17" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="9" day="25" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2FC1C2-B96B-4781-B321-8C6D213DD0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD4B055-7263-4534-8BB3-1A93C53FC581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="210" windowWidth="13940" windowHeight="13470" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l_ce" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ltloggerdatacapturesummary_l_ce!$A$1:$L$338</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -266,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,12 +445,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -613,10 +606,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -992,12 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H339" sqref="H339"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I273" sqref="I273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1045,7 +1036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44835</v>
       </c>
@@ -1084,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44835</v>
       </c>
@@ -1123,7 +1114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44835</v>
       </c>
@@ -1162,7 +1153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44835</v>
       </c>
@@ -1201,7 +1192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44835</v>
       </c>
@@ -1240,7 +1231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44835</v>
       </c>
@@ -1279,7 +1270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44835</v>
       </c>
@@ -1318,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44835</v>
       </c>
@@ -1357,7 +1348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44835</v>
       </c>
@@ -1396,7 +1387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1435,7 +1426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44835</v>
       </c>
@@ -1474,7 +1465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44835</v>
       </c>
@@ -1513,7 +1504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44835</v>
       </c>
@@ -1552,7 +1543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44835</v>
       </c>
@@ -1591,7 +1582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
@@ -1630,7 +1621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
@@ -1669,7 +1660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
@@ -1708,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44835</v>
       </c>
@@ -1747,7 +1738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44835</v>
       </c>
@@ -1786,7 +1777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44835</v>
       </c>
@@ -1825,7 +1816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44835</v>
       </c>
@@ -1864,7 +1855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44835</v>
       </c>
@@ -1903,7 +1894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44835</v>
       </c>
@@ -1942,7 +1933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44835</v>
       </c>
@@ -1981,7 +1972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44835</v>
       </c>
@@ -2020,7 +2011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44835</v>
       </c>
@@ -2059,7 +2050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44835</v>
       </c>
@@ -2098,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44835</v>
       </c>
@@ -2137,7 +2128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44835</v>
       </c>
@@ -2176,7 +2167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44835</v>
       </c>
@@ -2215,7 +2206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44835</v>
       </c>
@@ -2254,7 +2245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44835</v>
       </c>
@@ -2293,7 +2284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44835</v>
       </c>
@@ -2332,7 +2323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44835</v>
       </c>
@@ -2371,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44835</v>
       </c>
@@ -2410,7 +2401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44835</v>
       </c>
@@ -2449,7 +2440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44821</v>
       </c>
@@ -2488,7 +2479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44821</v>
       </c>
@@ -2527,7 +2518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44821</v>
       </c>
@@ -2566,7 +2557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44821</v>
       </c>
@@ -2605,7 +2596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
@@ -2644,7 +2635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44821</v>
       </c>
@@ -2683,7 +2674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44821</v>
       </c>
@@ -2722,7 +2713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44821</v>
       </c>
@@ -2761,7 +2752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44821</v>
       </c>
@@ -2800,7 +2791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44821</v>
       </c>
@@ -2839,7 +2830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44821</v>
       </c>
@@ -2878,7 +2869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44821</v>
       </c>
@@ -2917,7 +2908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44821</v>
       </c>
@@ -2956,7 +2947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44821</v>
       </c>
@@ -2995,7 +2986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44821</v>
       </c>
@@ -3034,7 +3025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44821</v>
       </c>
@@ -3073,7 +3064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44821</v>
       </c>
@@ -3112,7 +3103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44821</v>
       </c>
@@ -3151,7 +3142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44821</v>
       </c>
@@ -3190,7 +3181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44821</v>
       </c>
@@ -3229,7 +3220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44821</v>
       </c>
@@ -3268,7 +3259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44821</v>
       </c>
@@ -3307,7 +3298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44821</v>
       </c>
@@ -3346,7 +3337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44821</v>
       </c>
@@ -3385,7 +3376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44821</v>
       </c>
@@ -3424,7 +3415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44821</v>
       </c>
@@ -3463,7 +3454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44821</v>
       </c>
@@ -3502,7 +3493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44821</v>
       </c>
@@ -3541,7 +3532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
@@ -3580,7 +3571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44821</v>
       </c>
@@ -3619,7 +3610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44821</v>
       </c>
@@ -3658,7 +3649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44821</v>
       </c>
@@ -3697,7 +3688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44821</v>
       </c>
@@ -3736,7 +3727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44821</v>
       </c>
@@ -3775,7 +3766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44756</v>
       </c>
@@ -3814,7 +3805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44756</v>
       </c>
@@ -3853,7 +3844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
@@ -3892,7 +3883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44756</v>
       </c>
@@ -3931,7 +3922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44756</v>
       </c>
@@ -3970,7 +3961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44756</v>
       </c>
@@ -4009,7 +4000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44756</v>
       </c>
@@ -4048,7 +4039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44756</v>
       </c>
@@ -4087,7 +4078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44756</v>
       </c>
@@ -4126,7 +4117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44756</v>
       </c>
@@ -4165,7 +4156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44756</v>
       </c>
@@ -4204,7 +4195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44756</v>
       </c>
@@ -4243,7 +4234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44756</v>
       </c>
@@ -4282,7 +4273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44756</v>
       </c>
@@ -4321,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
@@ -4360,7 +4351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44756</v>
       </c>
@@ -4399,7 +4390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44756</v>
       </c>
@@ -4438,7 +4429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44756</v>
       </c>
@@ -4477,7 +4468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44756</v>
       </c>
@@ -4516,7 +4507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44756</v>
       </c>
@@ -4555,7 +4546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44756</v>
       </c>
@@ -4594,7 +4585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44756</v>
       </c>
@@ -4633,7 +4624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44756</v>
       </c>
@@ -4672,7 +4663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44756</v>
       </c>
@@ -4711,7 +4702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44756</v>
       </c>
@@ -4750,7 +4741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44756</v>
       </c>
@@ -4789,7 +4780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44756</v>
       </c>
@@ -4828,7 +4819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44756</v>
       </c>
@@ -4867,7 +4858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44756</v>
       </c>
@@ -4906,7 +4897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44756</v>
       </c>
@@ -4945,7 +4936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44756</v>
       </c>
@@ -4984,7 +4975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44756</v>
       </c>
@@ -5023,7 +5014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44756</v>
       </c>
@@ -5062,7 +5053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44756</v>
       </c>
@@ -5101,7 +5092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44756</v>
       </c>
@@ -5140,7 +5131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44756</v>
       </c>
@@ -5179,7 +5170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44756</v>
       </c>
@@ -5218,7 +5209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44756</v>
       </c>
@@ -5257,7 +5248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44756</v>
       </c>
@@ -5296,7 +5287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44756</v>
       </c>
@@ -5335,7 +5326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44756</v>
       </c>
@@ -5374,7 +5365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44756</v>
       </c>
@@ -5413,7 +5404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44814</v>
       </c>
@@ -5452,7 +5443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44814</v>
       </c>
@@ -5491,7 +5482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44814</v>
       </c>
@@ -5530,7 +5521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44814</v>
       </c>
@@ -5569,7 +5560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44814</v>
       </c>
@@ -5608,7 +5599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44814</v>
       </c>
@@ -5647,7 +5638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44814</v>
       </c>
@@ -5686,7 +5677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44814</v>
       </c>
@@ -5725,7 +5716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
@@ -5764,7 +5755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44814</v>
       </c>
@@ -5803,7 +5794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44814</v>
       </c>
@@ -5842,7 +5833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44814</v>
       </c>
@@ -5881,7 +5872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44814</v>
       </c>
@@ -5920,7 +5911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44814</v>
       </c>
@@ -5959,7 +5950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44814</v>
       </c>
@@ -5998,7 +5989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44814</v>
       </c>
@@ -6037,7 +6028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44814</v>
       </c>
@@ -6076,7 +6067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44814</v>
       </c>
@@ -6115,7 +6106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44760</v>
       </c>
@@ -6154,7 +6145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44760</v>
       </c>
@@ -6193,7 +6184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44760</v>
       </c>
@@ -6232,7 +6223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44760</v>
       </c>
@@ -6271,7 +6262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44760</v>
       </c>
@@ -6310,7 +6301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44760</v>
       </c>
@@ -6349,7 +6340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44760</v>
       </c>
@@ -6388,7 +6379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44760</v>
       </c>
@@ -6427,7 +6418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44760</v>
       </c>
@@ -6466,7 +6457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44760</v>
       </c>
@@ -6505,7 +6496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44760</v>
       </c>
@@ -6544,7 +6535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44760</v>
       </c>
@@ -6583,7 +6574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44760</v>
       </c>
@@ -6622,7 +6613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44760</v>
       </c>
@@ -6661,7 +6652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44760</v>
       </c>
@@ -6700,7 +6691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44760</v>
       </c>
@@ -6739,7 +6730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44760</v>
       </c>
@@ -6778,7 +6769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44760</v>
       </c>
@@ -6817,7 +6808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44760</v>
       </c>
@@ -6856,7 +6847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44760</v>
       </c>
@@ -6895,7 +6886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44760</v>
       </c>
@@ -6934,7 +6925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44760</v>
       </c>
@@ -6973,7 +6964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
@@ -7012,7 +7003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44760</v>
       </c>
@@ -7051,7 +7042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44760</v>
       </c>
@@ -7090,7 +7081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44760</v>
       </c>
@@ -7129,7 +7120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44760</v>
       </c>
@@ -7168,7 +7159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44760</v>
       </c>
@@ -7207,7 +7198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44760</v>
       </c>
@@ -7246,7 +7237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44760</v>
       </c>
@@ -7285,7 +7276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44760</v>
       </c>
@@ -7324,7 +7315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44760</v>
       </c>
@@ -7363,7 +7354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44760</v>
       </c>
@@ -7402,7 +7393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44760</v>
       </c>
@@ -7441,7 +7432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44760</v>
       </c>
@@ -7480,7 +7471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44760</v>
       </c>
@@ -7519,7 +7510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44760</v>
       </c>
@@ -7558,7 +7549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44760</v>
       </c>
@@ -7597,7 +7588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44760</v>
       </c>
@@ -7636,7 +7627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44760</v>
       </c>
@@ -7675,7 +7666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44760</v>
       </c>
@@ -7714,7 +7705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44760</v>
       </c>
@@ -7753,7 +7744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44829</v>
       </c>
@@ -7792,7 +7783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44829</v>
       </c>
@@ -7831,7 +7822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44829</v>
       </c>
@@ -7870,7 +7861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44829</v>
       </c>
@@ -7909,7 +7900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44800</v>
       </c>
@@ -7948,7 +7939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44800</v>
       </c>
@@ -7987,7 +7978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44800</v>
       </c>
@@ -8026,7 +8017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44800</v>
       </c>
@@ -8065,7 +8056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44800</v>
       </c>
@@ -8104,7 +8095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44800</v>
       </c>
@@ -8143,7 +8134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44800</v>
       </c>
@@ -8182,7 +8173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44800</v>
       </c>
@@ -8221,7 +8212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>44800</v>
       </c>
@@ -8260,7 +8251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>44800</v>
       </c>
@@ -8299,7 +8290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44800</v>
       </c>
@@ -8338,7 +8329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>44800</v>
       </c>
@@ -8377,7 +8368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>44800</v>
       </c>
@@ -8416,7 +8407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>44800</v>
       </c>
@@ -8455,7 +8446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>44800</v>
       </c>
@@ -8494,7 +8485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>44800</v>
       </c>
@@ -8533,7 +8524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>44800</v>
       </c>
@@ -8572,7 +8563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>44800</v>
       </c>
@@ -8611,7 +8602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>44800</v>
       </c>
@@ -8650,7 +8641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>44800</v>
       </c>
@@ -8689,7 +8680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>44800</v>
       </c>
@@ -8728,7 +8719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>44800</v>
       </c>
@@ -8767,7 +8758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>44800</v>
       </c>
@@ -8806,7 +8797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>44800</v>
       </c>
@@ -8845,7 +8836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>44800</v>
       </c>
@@ -8884,7 +8875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>44800</v>
       </c>
@@ -8923,7 +8914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>44800</v>
       </c>
@@ -8962,7 +8953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>44800</v>
       </c>
@@ -9001,7 +8992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>44800</v>
       </c>
@@ -9040,7 +9031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>44800</v>
       </c>
@@ -9079,7 +9070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>44800</v>
       </c>
@@ -9118,7 +9109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>44800</v>
       </c>
@@ -9157,7 +9148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>44800</v>
       </c>
@@ -9196,7 +9187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>44800</v>
       </c>
@@ -9235,7 +9226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>44800</v>
       </c>
@@ -9274,7 +9265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>44800</v>
       </c>
@@ -9313,7 +9304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>44800</v>
       </c>
@@ -9352,7 +9343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>44800</v>
       </c>
@@ -9391,7 +9382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>44800</v>
       </c>
@@ -9430,7 +9421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>44800</v>
       </c>
@@ -9469,7 +9460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>44800</v>
       </c>
@@ -9508,7 +9499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>44800</v>
       </c>
@@ -9547,7 +9538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>44839</v>
       </c>
@@ -9586,7 +9577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>44839</v>
       </c>
@@ -9625,7 +9616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>44839</v>
       </c>
@@ -9664,7 +9655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>44839</v>
       </c>
@@ -9703,7 +9694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>44839</v>
       </c>
@@ -9742,7 +9733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>44839</v>
       </c>
@@ -9781,7 +9772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>44839</v>
       </c>
@@ -9820,7 +9811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>44839</v>
       </c>
@@ -9859,7 +9850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>44839</v>
       </c>
@@ -9898,7 +9889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>44839</v>
       </c>
@@ -9937,7 +9928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>44839</v>
       </c>
@@ -9976,7 +9967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>44839</v>
       </c>
@@ -10015,7 +10006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>44839</v>
       </c>
@@ -10054,7 +10045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>44839</v>
       </c>
@@ -10093,7 +10084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>44839</v>
       </c>
@@ -10132,7 +10123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>44839</v>
       </c>
@@ -10171,7 +10162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>44839</v>
       </c>
@@ -10210,7 +10201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>44839</v>
       </c>
@@ -10249,7 +10240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>44839</v>
       </c>
@@ -10288,7 +10279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>44839</v>
       </c>
@@ -10327,7 +10318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>44849</v>
       </c>
@@ -10366,7 +10357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>44849</v>
       </c>
@@ -10405,7 +10396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>44849</v>
       </c>
@@ -10444,7 +10435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>44849</v>
       </c>
@@ -10483,7 +10474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>44849</v>
       </c>
@@ -10503,11 +10494,15 @@
       <c r="F244">
         <v>100</v>
       </c>
-      <c r="G244" s="2"/>
+      <c r="G244">
+        <v>-20</v>
+      </c>
       <c r="H244" t="s">
         <v>12</v>
       </c>
-      <c r="I244" s="2"/>
+      <c r="I244" t="s">
+        <v>12</v>
+      </c>
       <c r="J244" t="s">
         <v>12</v>
       </c>
@@ -10518,7 +10513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>44849</v>
       </c>
@@ -10557,7 +10552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>44849</v>
       </c>
@@ -10596,7 +10591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>44849</v>
       </c>
@@ -10635,7 +10630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>44849</v>
       </c>
@@ -10674,7 +10669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>44849</v>
       </c>
@@ -10713,7 +10708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>44849</v>
       </c>
@@ -10733,11 +10728,15 @@
       <c r="F250">
         <v>100</v>
       </c>
-      <c r="G250" s="2"/>
+      <c r="G250">
+        <v>-20</v>
+      </c>
       <c r="H250" t="s">
         <v>12</v>
       </c>
-      <c r="I250" s="2"/>
+      <c r="I250" t="s">
+        <v>12</v>
+      </c>
       <c r="J250" t="s">
         <v>12</v>
       </c>
@@ -10748,7 +10747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>44849</v>
       </c>
@@ -10787,7 +10786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>44849</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>44849</v>
       </c>
@@ -10865,7 +10864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>44849</v>
       </c>
@@ -10904,7 +10903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>44849</v>
       </c>
@@ -10943,7 +10942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>44849</v>
       </c>
@@ -10982,7 +10981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>44849</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>44849</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>44849</v>
       </c>
@@ -11099,7 +11098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>44849</v>
       </c>
@@ -11119,11 +11118,15 @@
       <c r="F260">
         <v>100</v>
       </c>
-      <c r="G260" s="2"/>
+      <c r="G260">
+        <v>-20</v>
+      </c>
       <c r="H260" t="s">
         <v>12</v>
       </c>
-      <c r="I260" s="2"/>
+      <c r="I260" t="s">
+        <v>12</v>
+      </c>
       <c r="J260" t="s">
         <v>12</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>44849</v>
       </c>
@@ -11173,7 +11176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>44849</v>
       </c>
@@ -11212,7 +11215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>44849</v>
       </c>
@@ -11251,7 +11254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>44849</v>
       </c>
@@ -11290,7 +11293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>44849</v>
       </c>
@@ -11329,7 +11332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>44849</v>
       </c>
@@ -11349,11 +11352,15 @@
       <c r="F266">
         <v>100</v>
       </c>
-      <c r="G266" s="2"/>
+      <c r="G266">
+        <v>-20</v>
+      </c>
       <c r="H266" t="s">
         <v>12</v>
       </c>
-      <c r="I266" s="2"/>
+      <c r="I266" t="s">
+        <v>12</v>
+      </c>
       <c r="J266" t="s">
         <v>12</v>
       </c>
@@ -11364,7 +11371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>44849</v>
       </c>
@@ -11403,7 +11410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>44849</v>
       </c>
@@ -11442,7 +11449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>44849</v>
       </c>
@@ -11481,7 +11488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>44849</v>
       </c>
@@ -11520,7 +11527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>44849</v>
       </c>
@@ -13614,7 +13621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>44715</v>
       </c>
@@ -13653,7 +13660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>44715</v>
       </c>
@@ -13692,7 +13699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>44715</v>
       </c>
@@ -13731,7 +13738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>44715</v>
       </c>
@@ -13770,7 +13777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>44715</v>
       </c>
@@ -13809,7 +13816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>44715</v>
       </c>
@@ -13848,7 +13855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>44715</v>
       </c>
@@ -13887,7 +13894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>44715</v>
       </c>
@@ -13926,7 +13933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>44715</v>
       </c>
@@ -13965,7 +13972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>44715</v>
       </c>
@@ -14004,7 +14011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>44715</v>
       </c>
@@ -14043,7 +14050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>44715</v>
       </c>
@@ -14082,7 +14089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>44715</v>
       </c>
@@ -14121,7 +14128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>44715</v>
       </c>
@@ -14161,13 +14168,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L338" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2022" month="11" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L338" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD4B055-7263-4534-8BB3-1A93C53FC581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A23E47-0070-48D9-A3EF-15455ED8E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="12140" yWindow="50" windowWidth="13310" windowHeight="13640" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l_ce" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ltloggerdatacapturesummary_l_ce!$A$1:$L$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ltloggerdatacapturesummary_l_ce!$A$1:$L$339</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -984,11 +984,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-  <dimension ref="A1:L338"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I273" sqref="I273"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2440,7 +2441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44821</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44821</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44821</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44821</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44821</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44821</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44821</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44821</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44821</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44821</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44821</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44821</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44821</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44821</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44821</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44821</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44821</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44821</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44821</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44821</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44821</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44821</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44821</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44821</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44821</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44821</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44821</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44821</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44821</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44821</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44821</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44821</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44756</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44756</v>
       </c>
@@ -3844,7 +3845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44756</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44756</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44756</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44756</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44756</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44756</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44756</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44756</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44756</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44756</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44756</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44756</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44756</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44756</v>
       </c>
@@ -4468,7 +4469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44756</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44756</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44756</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44756</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44756</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44756</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44756</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44756</v>
       </c>
@@ -4780,7 +4781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44756</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44756</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44756</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44756</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44756</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44756</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44756</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44756</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44756</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44756</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44756</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44756</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44756</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44756</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44756</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44756</v>
       </c>
@@ -5404,7 +5405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44814</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44814</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44814</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44814</v>
       </c>
@@ -5560,7 +5561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44814</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44814</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44814</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44814</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44814</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44814</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44814</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44814</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44814</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44814</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44814</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44814</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44814</v>
       </c>
@@ -6106,7 +6107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44760</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44760</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44760</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44760</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44760</v>
       </c>
@@ -6301,7 +6302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44760</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44760</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44760</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44760</v>
       </c>
@@ -6457,7 +6458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44760</v>
       </c>
@@ -6496,7 +6497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44760</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44760</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44760</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44760</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44760</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44760</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44760</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44760</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44760</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44760</v>
       </c>
@@ -6886,7 +6887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44760</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44760</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44760</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44760</v>
       </c>
@@ -7081,7 +7082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44760</v>
       </c>
@@ -7120,7 +7121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44760</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44760</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44760</v>
       </c>
@@ -7237,7 +7238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44760</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44760</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44760</v>
       </c>
@@ -7354,7 +7355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44760</v>
       </c>
@@ -7393,7 +7394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44760</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44760</v>
       </c>
@@ -7471,7 +7472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44760</v>
       </c>
@@ -7510,7 +7511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44760</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44760</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44760</v>
       </c>
@@ -7627,7 +7628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44760</v>
       </c>
@@ -7666,7 +7667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44760</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44760</v>
       </c>
@@ -7744,7 +7745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44829</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44829</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44829</v>
       </c>
@@ -7861,7 +7862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44829</v>
       </c>
@@ -7900,7 +7901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44800</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44800</v>
       </c>
@@ -7978,7 +7979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44800</v>
       </c>
@@ -8017,7 +8018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44800</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44800</v>
       </c>
@@ -8095,7 +8096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44800</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44800</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44800</v>
       </c>
@@ -8212,7 +8213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>44800</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>44800</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44800</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>44800</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>44800</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>44800</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>44800</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>44800</v>
       </c>
@@ -8524,7 +8525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>44800</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>44800</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>44800</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>44800</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>44800</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>44800</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>44800</v>
       </c>
@@ -8797,7 +8798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>44800</v>
       </c>
@@ -8836,7 +8837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>44800</v>
       </c>
@@ -8875,7 +8876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>44800</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>44800</v>
       </c>
@@ -8953,7 +8954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>44800</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>44800</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>44800</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>44800</v>
       </c>
@@ -9109,7 +9110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>44800</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>44800</v>
       </c>
@@ -9187,7 +9188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>44800</v>
       </c>
@@ -9226,7 +9227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>44800</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>44800</v>
       </c>
@@ -9304,7 +9305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>44800</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>44800</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>44800</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>44800</v>
       </c>
@@ -9460,7 +9461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>44800</v>
       </c>
@@ -9499,7 +9500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>44800</v>
       </c>
@@ -10332,7 +10333,7 @@
         <v>11</v>
       </c>
       <c r="E240" t="str">
-        <f t="shared" ref="E240:E328" si="11">D240&amp;"_" &amp; B240 &amp; "_" &amp; C240</f>
+        <f t="shared" ref="E240:E329" si="11">D240&amp;"_" &amp; B240 &amp; "_" &amp; C240</f>
         <v>a_1_1</v>
       </c>
       <c r="F240">
@@ -10368,17 +10369,17 @@
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E241" t="str">
         <f t="shared" si="11"/>
-        <v>b_1_1</v>
+        <v>x_1_1</v>
       </c>
       <c r="F241">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G241">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H241" t="s">
         <v>12</v>
@@ -10393,7 +10394,7 @@
         <v>12</v>
       </c>
       <c r="L241" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
@@ -10407,17 +10408,17 @@
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="11"/>
-        <v>c_1_1</v>
+        <v>b_1_1</v>
       </c>
       <c r="F242">
         <v>250</v>
       </c>
       <c r="G242">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H242" t="s">
         <v>12</v>
@@ -10446,17 +10447,17 @@
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="11"/>
-        <v>h_1_1</v>
+        <v>c_1_1</v>
       </c>
       <c r="F243">
         <v>250</v>
       </c>
       <c r="G243">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H243" t="s">
         <v>12</v>
@@ -10482,20 +10483,20 @@
         <v>1</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="11"/>
-        <v>a_1_2</v>
+        <v>h_1_1</v>
       </c>
       <c r="F244">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G244">
-        <v>-20</v>
+        <v>150</v>
       </c>
       <c r="H244" t="s">
         <v>12</v>
@@ -10524,17 +10525,17 @@
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="11"/>
-        <v>x_1_2</v>
+        <v>a_1_2</v>
       </c>
       <c r="F245">
         <v>100</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="H245" t="s">
         <v>12</v>
@@ -10563,23 +10564,23 @@
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="11"/>
-        <v>e_1_2</v>
+        <v>x_1_2</v>
       </c>
       <c r="F246">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G246">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H246" t="s">
         <v>12</v>
       </c>
-      <c r="I246">
-        <v>25</v>
+      <c r="I246" t="s">
+        <v>12</v>
       </c>
       <c r="J246" t="s">
         <v>12</v>
@@ -10602,23 +10603,23 @@
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E247" t="str">
         <f t="shared" si="11"/>
-        <v>f_1_2</v>
+        <v>e_1_2</v>
       </c>
       <c r="F247">
         <v>150</v>
       </c>
       <c r="G247">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H247" t="s">
         <v>12</v>
       </c>
       <c r="I247">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J247" t="s">
         <v>12</v>
@@ -10641,23 +10642,23 @@
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="11"/>
-        <v>g_1_2</v>
+        <v>f_1_2</v>
       </c>
       <c r="F248">
         <v>150</v>
       </c>
       <c r="G248">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H248" t="s">
         <v>12</v>
       </c>
       <c r="I248">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J248" t="s">
         <v>12</v>
@@ -10680,23 +10681,23 @@
         <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E249" t="str">
         <f t="shared" si="11"/>
-        <v>d_1_2</v>
+        <v>g_1_2</v>
       </c>
       <c r="F249">
         <v>150</v>
       </c>
       <c r="G249">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H249" t="s">
         <v>12</v>
       </c>
       <c r="I249">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J249" t="s">
         <v>12</v>
@@ -10716,26 +10717,26 @@
         <v>1</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D250" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E250" t="str">
         <f t="shared" si="11"/>
-        <v>a_1_3</v>
+        <v>d_1_2</v>
       </c>
       <c r="F250">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G250">
-        <v>-20</v>
+        <v>150</v>
       </c>
       <c r="H250" t="s">
         <v>12</v>
       </c>
-      <c r="I250" t="s">
-        <v>12</v>
+      <c r="I250">
+        <v>150</v>
       </c>
       <c r="J250" t="s">
         <v>12</v>
@@ -10758,17 +10759,17 @@
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E251" t="str">
         <f t="shared" si="11"/>
-        <v>x_1_3</v>
+        <v>a_1_3</v>
       </c>
       <c r="F251">
         <v>100</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="H251" t="s">
         <v>12</v>
@@ -10797,23 +10798,23 @@
         <v>3</v>
       </c>
       <c r="D252" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E252" t="str">
         <f t="shared" si="11"/>
-        <v>i_1_3</v>
+        <v>x_1_3</v>
       </c>
       <c r="F252">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G252">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H252" t="s">
         <v>12</v>
       </c>
-      <c r="I252">
-        <v>25</v>
+      <c r="I252" t="s">
+        <v>12</v>
       </c>
       <c r="J252" t="s">
         <v>12</v>
@@ -10836,23 +10837,23 @@
         <v>3</v>
       </c>
       <c r="D253" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E253" t="str">
         <f t="shared" si="11"/>
-        <v>j_1_3</v>
+        <v>i_1_3</v>
       </c>
       <c r="F253">
         <v>50</v>
       </c>
       <c r="G253">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H253" t="s">
         <v>12</v>
       </c>
       <c r="I253">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J253" t="s">
         <v>12</v>
@@ -10875,23 +10876,23 @@
         <v>3</v>
       </c>
       <c r="D254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E254" t="str">
         <f t="shared" si="11"/>
-        <v>k_1_3</v>
+        <v>j_1_3</v>
       </c>
       <c r="F254">
         <v>50</v>
       </c>
       <c r="G254">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H254" t="s">
         <v>12</v>
       </c>
       <c r="I254">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J254" t="s">
         <v>12</v>
@@ -10914,23 +10915,23 @@
         <v>3</v>
       </c>
       <c r="D255" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E255" t="str">
         <f t="shared" si="11"/>
-        <v>l_1_3</v>
+        <v>k_1_3</v>
       </c>
       <c r="F255">
         <v>50</v>
       </c>
       <c r="G255">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H255" t="s">
         <v>12</v>
       </c>
       <c r="I255">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J255" t="s">
         <v>12</v>
@@ -10947,29 +10948,29 @@
         <v>44849</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D256" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E256" t="str">
         <f t="shared" si="11"/>
-        <v>a_2_1</v>
+        <v>l_1_3</v>
       </c>
       <c r="F256">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G256">
-        <v>-20</v>
+        <v>150</v>
       </c>
       <c r="H256" t="s">
         <v>12</v>
       </c>
-      <c r="I256" t="s">
-        <v>12</v>
+      <c r="I256">
+        <v>150</v>
       </c>
       <c r="J256" t="s">
         <v>12</v>
@@ -10978,7 +10979,7 @@
         <v>12</v>
       </c>
       <c r="L256" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
@@ -10992,17 +10993,17 @@
         <v>1</v>
       </c>
       <c r="D257" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E257" t="str">
         <f t="shared" si="11"/>
-        <v>b_2_1</v>
+        <v>a_2_1</v>
       </c>
       <c r="F257">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G257">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="H257" t="s">
         <v>12</v>
@@ -11017,7 +11018,7 @@
         <v>12</v>
       </c>
       <c r="L257" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.35">
@@ -11031,17 +11032,17 @@
         <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E258" t="str">
         <f t="shared" si="11"/>
-        <v>c_2_1</v>
+        <v>b_2_1</v>
       </c>
       <c r="F258">
         <v>250</v>
       </c>
       <c r="G258">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H258" t="s">
         <v>12</v>
@@ -11070,17 +11071,17 @@
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E259" t="str">
         <f t="shared" si="11"/>
-        <v>h_2_1</v>
+        <v>c_2_1</v>
       </c>
       <c r="F259">
         <v>250</v>
       </c>
       <c r="G259">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H259" t="s">
         <v>12</v>
@@ -11106,20 +11107,20 @@
         <v>2</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" ref="E260:E261" si="12">D260&amp;"_" &amp; B260 &amp; "_" &amp; C260</f>
-        <v>a_2_2</v>
+        <f t="shared" si="11"/>
+        <v>h_2_1</v>
       </c>
       <c r="F260">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G260">
-        <v>-20</v>
+        <v>150</v>
       </c>
       <c r="H260" t="s">
         <v>12</v>
@@ -11148,17 +11149,17 @@
         <v>2</v>
       </c>
       <c r="D261" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E261" t="str">
-        <f t="shared" si="12"/>
-        <v>x_2_2</v>
+        <f t="shared" ref="E261:E262" si="12">D261&amp;"_" &amp; B261 &amp; "_" &amp; C261</f>
+        <v>a_2_2</v>
       </c>
       <c r="F261">
         <v>100</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="H261" t="s">
         <v>12</v>
@@ -11187,23 +11188,23 @@
         <v>2</v>
       </c>
       <c r="D262" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="11"/>
-        <v>e_2_2</v>
+        <f t="shared" si="12"/>
+        <v>x_2_2</v>
       </c>
       <c r="F262">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G262">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
       </c>
-      <c r="I262">
-        <v>25</v>
+      <c r="I262" t="s">
+        <v>12</v>
       </c>
       <c r="J262" t="s">
         <v>12</v>
@@ -11226,23 +11227,23 @@
         <v>2</v>
       </c>
       <c r="D263" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E263" t="str">
         <f t="shared" si="11"/>
-        <v>f_2_2</v>
+        <v>e_2_2</v>
       </c>
       <c r="F263">
         <v>150</v>
       </c>
       <c r="G263">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H263" t="s">
         <v>12</v>
       </c>
       <c r="I263">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J263" t="s">
         <v>12</v>
@@ -11265,23 +11266,23 @@
         <v>2</v>
       </c>
       <c r="D264" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E264" t="str">
         <f t="shared" si="11"/>
-        <v>g_2_2</v>
+        <v>f_2_2</v>
       </c>
       <c r="F264">
         <v>150</v>
       </c>
       <c r="G264">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H264" t="s">
         <v>12</v>
       </c>
       <c r="I264">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J264" t="s">
         <v>12</v>
@@ -11304,23 +11305,23 @@
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E265" t="str">
         <f t="shared" si="11"/>
-        <v>d_2_2</v>
+        <v>g_2_2</v>
       </c>
       <c r="F265">
         <v>150</v>
       </c>
       <c r="G265">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H265" t="s">
         <v>12</v>
       </c>
       <c r="I265">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J265" t="s">
         <v>12</v>
@@ -11340,26 +11341,26 @@
         <v>2</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" ref="E266:E267" si="13">D266&amp;"_" &amp; B266 &amp; "_" &amp; C266</f>
-        <v>a_2_3</v>
+        <f t="shared" si="11"/>
+        <v>d_2_2</v>
       </c>
       <c r="F266">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G266">
-        <v>-20</v>
+        <v>150</v>
       </c>
       <c r="H266" t="s">
         <v>12</v>
       </c>
-      <c r="I266" t="s">
-        <v>12</v>
+      <c r="I266">
+        <v>150</v>
       </c>
       <c r="J266" t="s">
         <v>12</v>
@@ -11382,17 +11383,17 @@
         <v>3</v>
       </c>
       <c r="D267" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="13"/>
-        <v>x_2_3</v>
+        <f t="shared" ref="E267:E268" si="13">D267&amp;"_" &amp; B267 &amp; "_" &amp; C267</f>
+        <v>a_2_3</v>
       </c>
       <c r="F267">
         <v>100</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="H267" t="s">
         <v>12</v>
@@ -11421,23 +11422,23 @@
         <v>3</v>
       </c>
       <c r="D268" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="11"/>
-        <v>i_2_3</v>
+        <f t="shared" si="13"/>
+        <v>x_2_3</v>
       </c>
       <c r="F268">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G268">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H268" t="s">
         <v>12</v>
       </c>
-      <c r="I268">
-        <v>25</v>
+      <c r="I268" t="s">
+        <v>12</v>
       </c>
       <c r="J268" t="s">
         <v>12</v>
@@ -11460,23 +11461,23 @@
         <v>3</v>
       </c>
       <c r="D269" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E269" t="str">
         <f t="shared" si="11"/>
-        <v>j_2_3</v>
+        <v>i_2_3</v>
       </c>
       <c r="F269">
         <v>50</v>
       </c>
       <c r="G269">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H269" t="s">
         <v>12</v>
       </c>
       <c r="I269">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J269" t="s">
         <v>12</v>
@@ -11499,23 +11500,23 @@
         <v>3</v>
       </c>
       <c r="D270" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E270" t="str">
         <f t="shared" si="11"/>
-        <v>k_2_3</v>
+        <v>j_2_3</v>
       </c>
       <c r="F270">
         <v>50</v>
       </c>
       <c r="G270">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H270" t="s">
         <v>12</v>
       </c>
       <c r="I270">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J270" t="s">
         <v>12</v>
@@ -11538,23 +11539,23 @@
         <v>3</v>
       </c>
       <c r="D271" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E271" t="str">
         <f t="shared" si="11"/>
-        <v>l_2_3</v>
+        <v>k_2_3</v>
       </c>
       <c r="F271">
         <v>50</v>
       </c>
       <c r="G271">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H271" t="s">
         <v>12</v>
       </c>
       <c r="I271">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="J271" t="s">
         <v>12</v>
@@ -11568,32 +11569,32 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
-        <v>44867</v>
+        <v>44849</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D272" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E272" t="str">
-        <f>D272&amp;"_" &amp; B272 &amp; "_" &amp; C272</f>
-        <v>a_1_1</v>
+        <f t="shared" si="11"/>
+        <v>l_2_3</v>
       </c>
       <c r="F272">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="G272">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H272" t="s">
         <v>12</v>
       </c>
       <c r="I272">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J272" t="s">
         <v>12</v>
@@ -11602,10 +11603,10 @@
         <v>12</v>
       </c>
       <c r="L272" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>44867</v>
       </c>
@@ -11616,180 +11617,180 @@
         <v>1</v>
       </c>
       <c r="D273" t="s">
+        <v>11</v>
+      </c>
+      <c r="E273" t="str">
+        <f>D273&amp;"_" &amp; B273 &amp; "_" &amp; C273</f>
+        <v>a_1_1</v>
+      </c>
+      <c r="F273">
+        <v>-25</v>
+      </c>
+      <c r="G273">
+        <v>75</v>
+      </c>
+      <c r="H273" t="s">
+        <v>12</v>
+      </c>
+      <c r="I273">
+        <v>25</v>
+      </c>
+      <c r="J273" t="s">
+        <v>12</v>
+      </c>
+      <c r="K273" t="s">
+        <v>12</v>
+      </c>
+      <c r="L273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
         <v>27</v>
       </c>
-      <c r="E273" t="str">
+      <c r="E274" t="str">
         <f t="shared" si="11"/>
         <v>x_1_1</v>
       </c>
-      <c r="F273">
+      <c r="F274">
         <v>0</v>
       </c>
-      <c r="G273">
+      <c r="G274">
         <v>75</v>
       </c>
-      <c r="H273" t="s">
-        <v>12</v>
-      </c>
-      <c r="I273" t="s">
-        <v>12</v>
-      </c>
-      <c r="J273" t="s">
-        <v>12</v>
-      </c>
-      <c r="K273" t="s">
-        <v>12</v>
-      </c>
-      <c r="L273" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A274" s="1">
+      <c r="H274" t="s">
+        <v>12</v>
+      </c>
+      <c r="I274" t="s">
+        <v>12</v>
+      </c>
+      <c r="J274" t="s">
+        <v>12</v>
+      </c>
+      <c r="K274" t="s">
+        <v>12</v>
+      </c>
+      <c r="L274" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="1">
         <v>44867</v>
       </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274" t="s">
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
         <v>22</v>
       </c>
-      <c r="E274" t="str">
+      <c r="E275" t="str">
         <f t="shared" si="11"/>
         <v>j_1_1</v>
       </c>
-      <c r="F274">
-        <v>50</v>
-      </c>
-      <c r="G274">
+      <c r="F275">
+        <v>50</v>
+      </c>
+      <c r="G275">
         <v>150</v>
       </c>
-      <c r="H274" t="s">
-        <v>12</v>
-      </c>
-      <c r="I274">
-        <v>50</v>
-      </c>
-      <c r="J274" t="s">
-        <v>12</v>
-      </c>
-      <c r="K274" t="s">
-        <v>12</v>
-      </c>
-      <c r="L274" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A275" s="1">
+      <c r="H275" t="s">
+        <v>12</v>
+      </c>
+      <c r="I275">
+        <v>50</v>
+      </c>
+      <c r="J275" t="s">
+        <v>12</v>
+      </c>
+      <c r="K275" t="s">
+        <v>12</v>
+      </c>
+      <c r="L275" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="1">
         <v>44867</v>
       </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
-      </c>
-      <c r="D275" t="s">
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
         <v>23</v>
       </c>
-      <c r="E275" t="str">
+      <c r="E276" t="str">
         <f t="shared" si="11"/>
         <v>k_1_1</v>
       </c>
-      <c r="F275">
+      <c r="F276">
         <v>150</v>
       </c>
-      <c r="G275">
+      <c r="G276">
         <v>150</v>
       </c>
-      <c r="H275" t="s">
-        <v>12</v>
-      </c>
-      <c r="I275">
+      <c r="H276" t="s">
+        <v>12</v>
+      </c>
+      <c r="I276">
         <v>150</v>
       </c>
-      <c r="J275" t="s">
-        <v>12</v>
-      </c>
-      <c r="K275" t="s">
-        <v>12</v>
-      </c>
-      <c r="L275" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A276" s="1">
+      <c r="J276" t="s">
+        <v>12</v>
+      </c>
+      <c r="K276" t="s">
+        <v>12</v>
+      </c>
+      <c r="L276" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="1">
         <v>44867</v>
       </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-      <c r="C276">
-        <v>1</v>
-      </c>
-      <c r="D276" t="s">
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277" t="s">
         <v>24</v>
       </c>
-      <c r="E276" t="str">
+      <c r="E277" t="str">
         <f t="shared" si="11"/>
         <v>l_1_1</v>
       </c>
-      <c r="F276">
+      <c r="F277">
         <v>200</v>
       </c>
-      <c r="G276">
+      <c r="G277">
         <v>150</v>
       </c>
-      <c r="H276" t="s">
-        <v>12</v>
-      </c>
-      <c r="I276">
+      <c r="H277" t="s">
+        <v>12</v>
+      </c>
+      <c r="I277">
         <v>200</v>
       </c>
-      <c r="J276" t="s">
-        <v>12</v>
-      </c>
-      <c r="K276" t="s">
-        <v>12</v>
-      </c>
-      <c r="L276" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A277" s="1">
-        <v>44867</v>
-      </c>
-      <c r="B277">
-        <v>1</v>
-      </c>
-      <c r="C277">
-        <v>2</v>
-      </c>
-      <c r="D277" t="s">
-        <v>11</v>
-      </c>
-      <c r="E277" t="str">
-        <f>D277&amp;"_" &amp; B277 &amp; "_" &amp; C277</f>
-        <v>a_1_2</v>
-      </c>
-      <c r="F277">
-        <v>-25</v>
-      </c>
-      <c r="G277">
-        <v>75</v>
-      </c>
-      <c r="H277" t="s">
-        <v>12</v>
-      </c>
-      <c r="I277" t="s">
-        <v>12</v>
-      </c>
       <c r="J277" t="s">
         <v>12</v>
       </c>
@@ -11797,10 +11798,10 @@
         <v>12</v>
       </c>
       <c r="L277" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>44867</v>
       </c>
@@ -11811,14 +11812,14 @@
         <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E278" t="str">
         <f>D278&amp;"_" &amp; B278 &amp; "_" &amp; C278</f>
-        <v>x_1_2</v>
+        <v>a_1_2</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G278">
         <v>75</v>
@@ -11836,10 +11837,10 @@
         <v>12</v>
       </c>
       <c r="L278" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>44867</v>
       </c>
@@ -11850,131 +11851,131 @@
         <v>2</v>
       </c>
       <c r="D279" t="s">
+        <v>27</v>
+      </c>
+      <c r="E279" t="str">
+        <f>D279&amp;"_" &amp; B279 &amp; "_" &amp; C279</f>
+        <v>x_1_2</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>75</v>
+      </c>
+      <c r="H279" t="s">
+        <v>12</v>
+      </c>
+      <c r="I279" t="s">
+        <v>12</v>
+      </c>
+      <c r="J279" t="s">
+        <v>12</v>
+      </c>
+      <c r="K279" t="s">
+        <v>12</v>
+      </c>
+      <c r="L279" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
         <v>19</v>
       </c>
-      <c r="E279" t="str">
+      <c r="E280" t="str">
         <f t="shared" si="11"/>
         <v>f_1_2</v>
       </c>
-      <c r="F279">
-        <v>50</v>
-      </c>
-      <c r="G279">
+      <c r="F280">
+        <v>50</v>
+      </c>
+      <c r="G280">
         <v>75</v>
       </c>
-      <c r="H279" t="s">
-        <v>12</v>
-      </c>
-      <c r="I279">
-        <v>50</v>
-      </c>
-      <c r="J279" t="s">
-        <v>12</v>
-      </c>
-      <c r="K279" t="s">
-        <v>12</v>
-      </c>
-      <c r="L279" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A280" s="1">
+      <c r="H280" t="s">
+        <v>12</v>
+      </c>
+      <c r="I280">
+        <v>50</v>
+      </c>
+      <c r="J280" t="s">
+        <v>12</v>
+      </c>
+      <c r="K280" t="s">
+        <v>12</v>
+      </c>
+      <c r="L280" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="1">
         <v>44867</v>
       </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-      <c r="C280">
-        <v>2</v>
-      </c>
-      <c r="D280" t="s">
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
         <v>25</v>
       </c>
-      <c r="E280" t="str">
+      <c r="E281" t="str">
         <f t="shared" si="11"/>
         <v>g_1_2</v>
       </c>
-      <c r="F280">
+      <c r="F281">
         <v>150</v>
       </c>
-      <c r="G280">
+      <c r="G281">
         <v>75</v>
       </c>
-      <c r="H280" t="s">
-        <v>12</v>
-      </c>
-      <c r="I280">
+      <c r="H281" t="s">
+        <v>12</v>
+      </c>
+      <c r="I281">
         <v>150</v>
       </c>
-      <c r="J280" t="s">
-        <v>12</v>
-      </c>
-      <c r="K280" t="s">
-        <v>12</v>
-      </c>
-      <c r="L280" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A281" s="1">
+      <c r="J281" t="s">
+        <v>12</v>
+      </c>
+      <c r="K281" t="s">
+        <v>12</v>
+      </c>
+      <c r="L281" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="1">
         <v>44867</v>
       </c>
-      <c r="B281">
-        <v>1</v>
-      </c>
-      <c r="C281">
-        <v>2</v>
-      </c>
-      <c r="D281" t="s">
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
         <v>21</v>
       </c>
-      <c r="E281" t="str">
+      <c r="E282" t="str">
         <f t="shared" si="11"/>
         <v>i_1_2</v>
       </c>
-      <c r="F281">
+      <c r="F282">
         <v>200</v>
-      </c>
-      <c r="G281">
-        <v>75</v>
-      </c>
-      <c r="H281" t="s">
-        <v>12</v>
-      </c>
-      <c r="I281">
-        <v>200</v>
-      </c>
-      <c r="J281" t="s">
-        <v>12</v>
-      </c>
-      <c r="K281" t="s">
-        <v>12</v>
-      </c>
-      <c r="L281" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A282" s="1">
-        <v>44867</v>
-      </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-      <c r="C282">
-        <v>3</v>
-      </c>
-      <c r="D282" t="s">
-        <v>11</v>
-      </c>
-      <c r="E282" t="str">
-        <f>D282&amp;"_" &amp; B282 &amp; "_" &amp; C282</f>
-        <v>a_1_3</v>
-      </c>
-      <c r="F282">
-        <v>-25</v>
       </c>
       <c r="G282">
         <v>75</v>
@@ -11982,8 +11983,8 @@
       <c r="H282" t="s">
         <v>12</v>
       </c>
-      <c r="I282" t="s">
-        <v>12</v>
+      <c r="I282">
+        <v>200</v>
       </c>
       <c r="J282" t="s">
         <v>12</v>
@@ -11992,10 +11993,10 @@
         <v>12</v>
       </c>
       <c r="L282" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>44867</v>
       </c>
@@ -12006,14 +12007,14 @@
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E283" t="str">
         <f>D283&amp;"_" &amp; B283 &amp; "_" &amp; C283</f>
-        <v>x_1_3</v>
+        <v>a_1_3</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G283">
         <v>75</v>
@@ -12031,10 +12032,10 @@
         <v>12</v>
       </c>
       <c r="L283" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>44867</v>
       </c>
@@ -12045,1766 +12046,1766 @@
         <v>3</v>
       </c>
       <c r="D284" t="s">
+        <v>27</v>
+      </c>
+      <c r="E284" t="str">
+        <f>D284&amp;"_" &amp; B284 &amp; "_" &amp; C284</f>
+        <v>x_1_3</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>75</v>
+      </c>
+      <c r="H284" t="s">
+        <v>12</v>
+      </c>
+      <c r="I284" t="s">
+        <v>12</v>
+      </c>
+      <c r="J284" t="s">
+        <v>12</v>
+      </c>
+      <c r="K284" t="s">
+        <v>12</v>
+      </c>
+      <c r="L284" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285" t="s">
         <v>14</v>
       </c>
-      <c r="E284" t="str">
+      <c r="E285" t="str">
         <f t="shared" si="11"/>
         <v>b_1_3</v>
       </c>
-      <c r="F284">
-        <v>50</v>
-      </c>
-      <c r="G284">
+      <c r="F285">
+        <v>50</v>
+      </c>
+      <c r="G285">
         <v>25</v>
       </c>
-      <c r="H284" t="s">
-        <v>12</v>
-      </c>
-      <c r="I284">
-        <v>50</v>
-      </c>
-      <c r="J284" t="s">
-        <v>12</v>
-      </c>
-      <c r="K284" t="s">
-        <v>12</v>
-      </c>
-      <c r="L284" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A285" s="1">
+      <c r="H285" t="s">
+        <v>12</v>
+      </c>
+      <c r="I285">
+        <v>50</v>
+      </c>
+      <c r="J285" t="s">
+        <v>12</v>
+      </c>
+      <c r="K285" t="s">
+        <v>12</v>
+      </c>
+      <c r="L285" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="1">
         <v>44867</v>
       </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-      <c r="C285">
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
         <v>3</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D286" t="s">
         <v>16</v>
       </c>
-      <c r="E285" t="str">
+      <c r="E286" t="str">
         <f t="shared" si="11"/>
         <v>c_1_3</v>
       </c>
-      <c r="F285">
+      <c r="F286">
         <v>100</v>
       </c>
-      <c r="G285">
+      <c r="G286">
         <v>25</v>
       </c>
-      <c r="H285" t="s">
-        <v>12</v>
-      </c>
-      <c r="I285">
+      <c r="H286" t="s">
+        <v>12</v>
+      </c>
+      <c r="I286">
         <v>100</v>
       </c>
-      <c r="J285" t="s">
-        <v>12</v>
-      </c>
-      <c r="K285" t="s">
-        <v>12</v>
-      </c>
-      <c r="L285" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A286" s="1">
+      <c r="J286" t="s">
+        <v>12</v>
+      </c>
+      <c r="K286" t="s">
+        <v>12</v>
+      </c>
+      <c r="L286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="1">
         <v>44867</v>
       </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-      <c r="C286">
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
         <v>3</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D287" t="s">
         <v>17</v>
       </c>
-      <c r="E286" t="str">
+      <c r="E287" t="str">
         <f t="shared" si="11"/>
         <v>d_1_3</v>
       </c>
-      <c r="F286">
+      <c r="F287">
         <v>150</v>
       </c>
-      <c r="G286">
+      <c r="G287">
         <v>25</v>
       </c>
-      <c r="H286" t="s">
-        <v>12</v>
-      </c>
-      <c r="I286">
+      <c r="H287" t="s">
+        <v>12</v>
+      </c>
+      <c r="I287">
         <v>150</v>
       </c>
-      <c r="J286" t="s">
-        <v>12</v>
-      </c>
-      <c r="K286" t="s">
-        <v>12</v>
-      </c>
-      <c r="L286" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A287" s="1">
+      <c r="J287" t="s">
+        <v>12</v>
+      </c>
+      <c r="K287" t="s">
+        <v>12</v>
+      </c>
+      <c r="L287" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="1">
         <v>44867</v>
       </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-      <c r="C287">
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
         <v>3</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D288" t="s">
         <v>18</v>
       </c>
-      <c r="E287" t="str">
+      <c r="E288" t="str">
         <f t="shared" si="11"/>
         <v>e_1_3</v>
       </c>
-      <c r="F287">
+      <c r="F288">
         <v>200</v>
       </c>
-      <c r="G287">
+      <c r="G288">
         <v>25</v>
       </c>
-      <c r="H287" t="s">
-        <v>12</v>
-      </c>
-      <c r="I287">
+      <c r="H288" t="s">
+        <v>12</v>
+      </c>
+      <c r="I288">
         <v>200</v>
       </c>
-      <c r="J287" t="s">
-        <v>12</v>
-      </c>
-      <c r="K287" t="s">
-        <v>12</v>
-      </c>
-      <c r="L287" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A288" s="1">
+      <c r="J288" t="s">
+        <v>12</v>
+      </c>
+      <c r="K288" t="s">
+        <v>12</v>
+      </c>
+      <c r="L288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="1">
         <v>44867</v>
       </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-      <c r="C288">
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
         <v>5</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D289" t="s">
         <v>20</v>
       </c>
-      <c r="E288" t="str">
+      <c r="E289" t="str">
         <f t="shared" si="11"/>
         <v>h_1_5</v>
       </c>
-      <c r="F288">
+      <c r="F289">
         <v>250</v>
       </c>
-      <c r="G288">
+      <c r="G289">
         <v>25</v>
       </c>
-      <c r="H288" t="s">
-        <v>12</v>
-      </c>
-      <c r="I288">
+      <c r="H289" t="s">
+        <v>12</v>
+      </c>
+      <c r="I289">
         <v>250</v>
       </c>
-      <c r="J288" t="s">
-        <v>12</v>
-      </c>
-      <c r="K288" t="s">
-        <v>12</v>
-      </c>
-      <c r="L288" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A289" s="1">
+      <c r="J289" t="s">
+        <v>12</v>
+      </c>
+      <c r="K289" t="s">
+        <v>12</v>
+      </c>
+      <c r="L289" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="1">
         <v>44874</v>
       </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-      <c r="C289">
-        <v>1</v>
-      </c>
-      <c r="D289" t="s">
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
         <v>27</v>
       </c>
-      <c r="E289" t="str">
+      <c r="E290" t="str">
         <f t="shared" si="11"/>
         <v>x_1_1</v>
       </c>
-      <c r="F289">
+      <c r="F290">
         <v>100</v>
       </c>
-      <c r="G289">
+      <c r="G290">
         <v>150</v>
       </c>
-      <c r="I289" t="s">
-        <v>12</v>
-      </c>
-      <c r="J289" t="s">
-        <v>12</v>
-      </c>
-      <c r="K289" t="s">
-        <v>12</v>
-      </c>
-      <c r="L289" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A290" s="1">
+      <c r="I290" t="s">
+        <v>12</v>
+      </c>
+      <c r="J290" t="s">
+        <v>12</v>
+      </c>
+      <c r="K290" t="s">
+        <v>12</v>
+      </c>
+      <c r="L290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="1">
         <v>44874</v>
       </c>
-      <c r="B290">
-        <v>1</v>
-      </c>
-      <c r="C290">
-        <v>1</v>
-      </c>
-      <c r="D290" t="s">
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
         <v>20</v>
       </c>
-      <c r="E290" t="str">
+      <c r="E291" t="str">
         <f t="shared" si="11"/>
         <v>h_1_1</v>
       </c>
-      <c r="F290">
+      <c r="F291">
         <v>0</v>
       </c>
-      <c r="G290">
+      <c r="G291">
         <v>150</v>
       </c>
-      <c r="H290" t="s">
-        <v>12</v>
-      </c>
-      <c r="I290">
+      <c r="H291" t="s">
+        <v>12</v>
+      </c>
+      <c r="I291">
         <v>100</v>
       </c>
-      <c r="J290" t="s">
-        <v>12</v>
-      </c>
-      <c r="K290" t="s">
-        <v>12</v>
-      </c>
-      <c r="L290" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A291" s="1">
+      <c r="J291" t="s">
+        <v>12</v>
+      </c>
+      <c r="K291" t="s">
+        <v>12</v>
+      </c>
+      <c r="L291" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="1">
         <v>44874</v>
       </c>
-      <c r="B291">
-        <v>1</v>
-      </c>
-      <c r="C291">
-        <v>1</v>
-      </c>
-      <c r="D291" t="s">
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
         <v>24</v>
       </c>
-      <c r="E291" t="str">
+      <c r="E292" t="str">
         <f t="shared" si="11"/>
         <v>l_1_1</v>
       </c>
-      <c r="F291">
-        <v>50</v>
-      </c>
-      <c r="G291">
+      <c r="F292">
+        <v>50</v>
+      </c>
+      <c r="G292">
         <v>150</v>
       </c>
-      <c r="H291" t="s">
-        <v>12</v>
-      </c>
-      <c r="I291">
-        <v>50</v>
-      </c>
-      <c r="J291" t="s">
-        <v>12</v>
-      </c>
-      <c r="K291" t="s">
-        <v>12</v>
-      </c>
-      <c r="L291" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A292" s="1">
+      <c r="H292" t="s">
+        <v>12</v>
+      </c>
+      <c r="I292">
+        <v>50</v>
+      </c>
+      <c r="J292" t="s">
+        <v>12</v>
+      </c>
+      <c r="K292" t="s">
+        <v>12</v>
+      </c>
+      <c r="L292" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="1">
         <v>44874</v>
       </c>
-      <c r="B292">
-        <v>1</v>
-      </c>
-      <c r="C292">
-        <v>1</v>
-      </c>
-      <c r="D292" t="s">
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
         <v>27</v>
       </c>
-      <c r="E292" t="str">
+      <c r="E293" t="str">
         <f t="shared" si="11"/>
         <v>x_1_1</v>
       </c>
-      <c r="F292">
+      <c r="F293">
         <v>100</v>
       </c>
-      <c r="G292">
+      <c r="G293">
         <v>150</v>
       </c>
-      <c r="I292" t="s">
-        <v>12</v>
-      </c>
-      <c r="J292" t="s">
-        <v>12</v>
-      </c>
-      <c r="K292" t="s">
-        <v>12</v>
-      </c>
-      <c r="L292" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A293" s="1">
+      <c r="I293" t="s">
+        <v>12</v>
+      </c>
+      <c r="J293" t="s">
+        <v>12</v>
+      </c>
+      <c r="K293" t="s">
+        <v>12</v>
+      </c>
+      <c r="L293" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="1">
         <v>44874</v>
       </c>
-      <c r="B293">
-        <v>1</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-      <c r="D293" t="s">
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
         <v>23</v>
       </c>
-      <c r="E293" t="str">
+      <c r="E294" t="str">
         <f t="shared" si="11"/>
         <v>k_1_1</v>
       </c>
-      <c r="F293">
+      <c r="F294">
         <v>150</v>
       </c>
-      <c r="G293">
+      <c r="G294">
         <v>150</v>
       </c>
-      <c r="H293" t="s">
-        <v>12</v>
-      </c>
-      <c r="I293">
-        <v>50</v>
-      </c>
-      <c r="J293" t="s">
-        <v>12</v>
-      </c>
-      <c r="K293" t="s">
-        <v>12</v>
-      </c>
-      <c r="L293" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A294" s="1">
+      <c r="H294" t="s">
+        <v>12</v>
+      </c>
+      <c r="I294">
+        <v>50</v>
+      </c>
+      <c r="J294" t="s">
+        <v>12</v>
+      </c>
+      <c r="K294" t="s">
+        <v>12</v>
+      </c>
+      <c r="L294" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="1">
         <v>44874</v>
       </c>
-      <c r="B294">
-        <v>1</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-      <c r="D294" t="s">
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
         <v>21</v>
       </c>
-      <c r="E294" t="str">
+      <c r="E295" t="str">
         <f t="shared" si="11"/>
         <v>i_1_1</v>
       </c>
-      <c r="F294">
+      <c r="F295">
         <v>250</v>
       </c>
-      <c r="G294">
+      <c r="G295">
         <v>150</v>
       </c>
-      <c r="H294" t="s">
-        <v>12</v>
-      </c>
-      <c r="I294">
+      <c r="H295" t="s">
+        <v>12</v>
+      </c>
+      <c r="I295">
         <v>150</v>
       </c>
-      <c r="J294" t="s">
-        <v>12</v>
-      </c>
-      <c r="K294" t="s">
-        <v>12</v>
-      </c>
-      <c r="L294" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A295" s="1">
+      <c r="J295" t="s">
+        <v>12</v>
+      </c>
+      <c r="K295" t="s">
+        <v>12</v>
+      </c>
+      <c r="L295" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="1">
         <v>44874</v>
       </c>
-      <c r="B295">
-        <v>1</v>
-      </c>
-      <c r="C295">
-        <v>2</v>
-      </c>
-      <c r="D295" t="s">
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296" t="s">
         <v>27</v>
       </c>
-      <c r="E295" t="str">
+      <c r="E296" t="str">
         <f t="shared" si="11"/>
         <v>x_1_2</v>
       </c>
-      <c r="F295">
+      <c r="F296">
         <v>100</v>
       </c>
-      <c r="G295">
+      <c r="G296">
         <v>75</v>
       </c>
-      <c r="I295" t="s">
-        <v>12</v>
-      </c>
-      <c r="J295" t="s">
-        <v>12</v>
-      </c>
-      <c r="K295" t="s">
-        <v>12</v>
-      </c>
-      <c r="L295" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A296" s="1">
+      <c r="I296" t="s">
+        <v>12</v>
+      </c>
+      <c r="J296" t="s">
+        <v>12</v>
+      </c>
+      <c r="K296" t="s">
+        <v>12</v>
+      </c>
+      <c r="L296" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="1">
         <v>44874</v>
       </c>
-      <c r="B296">
-        <v>1</v>
-      </c>
-      <c r="C296">
-        <v>2</v>
-      </c>
-      <c r="D296" t="s">
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="D297" t="s">
         <v>22</v>
       </c>
-      <c r="E296" t="str">
+      <c r="E297" t="str">
         <f t="shared" si="11"/>
         <v>j_1_2</v>
       </c>
-      <c r="F296">
+      <c r="F297">
         <v>0</v>
       </c>
-      <c r="G296">
+      <c r="G297">
         <v>75</v>
       </c>
-      <c r="H296" t="s">
-        <v>12</v>
-      </c>
-      <c r="I296">
+      <c r="H297" t="s">
+        <v>12</v>
+      </c>
+      <c r="I297">
         <v>100</v>
       </c>
-      <c r="J296" t="s">
-        <v>12</v>
-      </c>
-      <c r="K296" t="s">
-        <v>12</v>
-      </c>
-      <c r="L296" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A297" s="1">
+      <c r="J297" t="s">
+        <v>12</v>
+      </c>
+      <c r="K297" t="s">
+        <v>12</v>
+      </c>
+      <c r="L297" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="1">
         <v>44874</v>
       </c>
-      <c r="B297">
-        <v>1</v>
-      </c>
-      <c r="C297">
-        <v>2</v>
-      </c>
-      <c r="D297" t="s">
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+      <c r="D298" t="s">
         <v>25</v>
       </c>
-      <c r="E297" t="str">
+      <c r="E298" t="str">
         <f t="shared" si="11"/>
         <v>g_1_2</v>
       </c>
-      <c r="F297">
-        <v>50</v>
-      </c>
-      <c r="G297">
+      <c r="F298">
+        <v>50</v>
+      </c>
+      <c r="G298">
         <v>75</v>
       </c>
-      <c r="H297" t="s">
-        <v>12</v>
-      </c>
-      <c r="I297">
-        <v>50</v>
-      </c>
-      <c r="J297" t="s">
-        <v>12</v>
-      </c>
-      <c r="K297" t="s">
-        <v>12</v>
-      </c>
-      <c r="L297" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A298" s="1">
+      <c r="H298" t="s">
+        <v>12</v>
+      </c>
+      <c r="I298">
+        <v>50</v>
+      </c>
+      <c r="J298" t="s">
+        <v>12</v>
+      </c>
+      <c r="K298" t="s">
+        <v>12</v>
+      </c>
+      <c r="L298" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="1">
         <v>44874</v>
       </c>
-      <c r="B298">
-        <v>1</v>
-      </c>
-      <c r="C298">
-        <v>2</v>
-      </c>
-      <c r="D298" t="s">
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
         <v>27</v>
       </c>
-      <c r="E298" t="str">
+      <c r="E299" t="str">
         <f t="shared" si="11"/>
         <v>x_1_2</v>
       </c>
-      <c r="F298">
+      <c r="F299">
         <v>100</v>
       </c>
-      <c r="G298">
+      <c r="G299">
         <v>75</v>
       </c>
-      <c r="I298" t="s">
-        <v>12</v>
-      </c>
-      <c r="J298" t="s">
-        <v>12</v>
-      </c>
-      <c r="K298" t="s">
-        <v>12</v>
-      </c>
-      <c r="L298" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A299" s="1">
+      <c r="I299" t="s">
+        <v>12</v>
+      </c>
+      <c r="J299" t="s">
+        <v>12</v>
+      </c>
+      <c r="K299" t="s">
+        <v>12</v>
+      </c>
+      <c r="L299" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="1">
         <v>44874</v>
       </c>
-      <c r="B299">
-        <v>1</v>
-      </c>
-      <c r="C299">
-        <v>2</v>
-      </c>
-      <c r="D299" t="s">
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+      <c r="D300" t="s">
         <v>19</v>
       </c>
-      <c r="E299" t="str">
+      <c r="E300" t="str">
         <f t="shared" si="11"/>
         <v>f_1_2</v>
       </c>
-      <c r="F299">
+      <c r="F300">
         <v>150</v>
       </c>
-      <c r="G299">
+      <c r="G300">
         <v>75</v>
       </c>
-      <c r="H299" t="s">
-        <v>12</v>
-      </c>
-      <c r="I299">
-        <v>50</v>
-      </c>
-      <c r="J299" t="s">
-        <v>12</v>
-      </c>
-      <c r="K299" t="s">
-        <v>12</v>
-      </c>
-      <c r="L299" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A300" s="1">
+      <c r="H300" t="s">
+        <v>12</v>
+      </c>
+      <c r="I300">
+        <v>50</v>
+      </c>
+      <c r="J300" t="s">
+        <v>12</v>
+      </c>
+      <c r="K300" t="s">
+        <v>12</v>
+      </c>
+      <c r="L300" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="1">
         <v>44874</v>
       </c>
-      <c r="B300">
-        <v>1</v>
-      </c>
-      <c r="C300">
-        <v>2</v>
-      </c>
-      <c r="D300" t="s">
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301" t="s">
         <v>18</v>
       </c>
-      <c r="E300" t="str">
+      <c r="E301" t="str">
         <f t="shared" si="11"/>
         <v>e_1_2</v>
       </c>
-      <c r="F300">
+      <c r="F301">
         <v>250</v>
       </c>
-      <c r="G300">
+      <c r="G301">
         <v>75</v>
       </c>
-      <c r="H300" t="s">
-        <v>12</v>
-      </c>
-      <c r="I300">
+      <c r="H301" t="s">
+        <v>12</v>
+      </c>
+      <c r="I301">
         <v>150</v>
       </c>
-      <c r="J300" t="s">
-        <v>12</v>
-      </c>
-      <c r="K300" t="s">
-        <v>12</v>
-      </c>
-      <c r="L300" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A301" s="1">
+      <c r="J301" t="s">
+        <v>12</v>
+      </c>
+      <c r="K301" t="s">
+        <v>12</v>
+      </c>
+      <c r="L301" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="1">
         <v>44874</v>
       </c>
-      <c r="B301">
-        <v>1</v>
-      </c>
-      <c r="C301">
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
         <v>3</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D302" t="s">
         <v>27</v>
       </c>
-      <c r="E301" t="str">
+      <c r="E302" t="str">
         <f t="shared" si="11"/>
         <v>x_1_3</v>
       </c>
-      <c r="F301">
+      <c r="F302">
         <v>100</v>
       </c>
-      <c r="G301">
+      <c r="G302">
         <v>25</v>
       </c>
-      <c r="H301" t="s">
-        <v>12</v>
-      </c>
-      <c r="I301" t="s">
-        <v>12</v>
-      </c>
-      <c r="J301" t="s">
-        <v>12</v>
-      </c>
-      <c r="K301" t="s">
-        <v>12</v>
-      </c>
-      <c r="L301" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A302" s="1">
+      <c r="H302" t="s">
+        <v>12</v>
+      </c>
+      <c r="I302" t="s">
+        <v>12</v>
+      </c>
+      <c r="J302" t="s">
+        <v>12</v>
+      </c>
+      <c r="K302" t="s">
+        <v>12</v>
+      </c>
+      <c r="L302" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="1">
         <v>44874</v>
       </c>
-      <c r="B302">
-        <v>1</v>
-      </c>
-      <c r="C302">
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
         <v>3</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D303" t="s">
         <v>17</v>
       </c>
-      <c r="E302" t="str">
+      <c r="E303" t="str">
         <f t="shared" si="11"/>
         <v>d_1_3</v>
       </c>
-      <c r="F302">
+      <c r="F303">
         <v>0</v>
       </c>
-      <c r="G302">
+      <c r="G303">
         <v>25</v>
       </c>
-      <c r="H302" t="s">
-        <v>12</v>
-      </c>
-      <c r="I302">
+      <c r="H303" t="s">
+        <v>12</v>
+      </c>
+      <c r="I303">
         <v>100</v>
       </c>
-      <c r="J302" t="s">
-        <v>12</v>
-      </c>
-      <c r="K302" t="s">
-        <v>12</v>
-      </c>
-      <c r="L302" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A303" s="1">
+      <c r="J303" t="s">
+        <v>12</v>
+      </c>
+      <c r="K303" t="s">
+        <v>12</v>
+      </c>
+      <c r="L303" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="1">
         <v>44874</v>
       </c>
-      <c r="B303">
-        <v>1</v>
-      </c>
-      <c r="C303">
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
         <v>3</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D304" t="s">
         <v>16</v>
       </c>
-      <c r="E303" t="str">
+      <c r="E304" t="str">
         <f t="shared" si="11"/>
         <v>c_1_3</v>
       </c>
-      <c r="F303">
-        <v>50</v>
-      </c>
-      <c r="G303">
+      <c r="F304">
+        <v>50</v>
+      </c>
+      <c r="G304">
         <v>25</v>
       </c>
-      <c r="H303" t="s">
-        <v>12</v>
-      </c>
-      <c r="I303">
-        <v>50</v>
-      </c>
-      <c r="J303" t="s">
-        <v>12</v>
-      </c>
-      <c r="K303" t="s">
-        <v>12</v>
-      </c>
-      <c r="L303" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A304" s="1">
+      <c r="H304" t="s">
+        <v>12</v>
+      </c>
+      <c r="I304">
+        <v>50</v>
+      </c>
+      <c r="J304" t="s">
+        <v>12</v>
+      </c>
+      <c r="K304" t="s">
+        <v>12</v>
+      </c>
+      <c r="L304" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="1">
         <v>44874</v>
       </c>
-      <c r="B304">
-        <v>1</v>
-      </c>
-      <c r="C304">
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
         <v>3</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D305" t="s">
         <v>27</v>
       </c>
-      <c r="E304" t="str">
+      <c r="E305" t="str">
         <f t="shared" si="11"/>
         <v>x_1_3</v>
       </c>
-      <c r="F304">
+      <c r="F305">
         <v>100</v>
       </c>
-      <c r="G304">
+      <c r="G305">
         <v>25</v>
       </c>
-      <c r="H304" t="s">
-        <v>12</v>
-      </c>
-      <c r="I304" t="s">
-        <v>12</v>
-      </c>
-      <c r="J304" t="s">
-        <v>12</v>
-      </c>
-      <c r="K304" t="s">
-        <v>12</v>
-      </c>
-      <c r="L304" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A305" s="1">
+      <c r="H305" t="s">
+        <v>12</v>
+      </c>
+      <c r="I305" t="s">
+        <v>12</v>
+      </c>
+      <c r="J305" t="s">
+        <v>12</v>
+      </c>
+      <c r="K305" t="s">
+        <v>12</v>
+      </c>
+      <c r="L305" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="1">
         <v>44874</v>
       </c>
-      <c r="B305">
-        <v>1</v>
-      </c>
-      <c r="C305">
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
         <v>3</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D306" t="s">
         <v>14</v>
       </c>
-      <c r="E305" t="str">
+      <c r="E306" t="str">
         <f t="shared" si="11"/>
         <v>b_1_3</v>
       </c>
-      <c r="F305">
+      <c r="F306">
         <v>150</v>
       </c>
-      <c r="G305">
+      <c r="G306">
         <v>25</v>
       </c>
-      <c r="H305" t="s">
-        <v>12</v>
-      </c>
-      <c r="I305">
-        <v>50</v>
-      </c>
-      <c r="J305" t="s">
-        <v>12</v>
-      </c>
-      <c r="K305" t="s">
-        <v>12</v>
-      </c>
-      <c r="L305" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A306" s="1">
+      <c r="H306" t="s">
+        <v>12</v>
+      </c>
+      <c r="I306">
+        <v>50</v>
+      </c>
+      <c r="J306" t="s">
+        <v>12</v>
+      </c>
+      <c r="K306" t="s">
+        <v>12</v>
+      </c>
+      <c r="L306" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="1">
         <v>44874</v>
       </c>
-      <c r="B306">
-        <v>1</v>
-      </c>
-      <c r="C306">
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
         <v>3</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D307" t="s">
         <v>11</v>
       </c>
-      <c r="E306" t="str">
+      <c r="E307" t="str">
         <f t="shared" si="11"/>
         <v>a_1_3</v>
       </c>
-      <c r="F306">
+      <c r="F307">
         <v>250</v>
       </c>
-      <c r="G306">
+      <c r="G307">
         <v>25</v>
       </c>
-      <c r="H306" t="s">
-        <v>12</v>
-      </c>
-      <c r="I306">
+      <c r="H307" t="s">
+        <v>12</v>
+      </c>
+      <c r="I307">
         <v>150</v>
       </c>
-      <c r="J306" t="s">
-        <v>12</v>
-      </c>
-      <c r="K306" t="s">
-        <v>12</v>
-      </c>
-      <c r="L306" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A307" s="1">
+      <c r="J307" t="s">
+        <v>12</v>
+      </c>
+      <c r="K307" t="s">
+        <v>12</v>
+      </c>
+      <c r="L307" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="1">
         <v>44874</v>
       </c>
-      <c r="B307">
-        <v>2</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-      <c r="D307" t="s">
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
         <v>27</v>
       </c>
-      <c r="E307" t="str">
+      <c r="E308" t="str">
         <f t="shared" si="11"/>
         <v>x_2_1</v>
       </c>
-      <c r="F307">
+      <c r="F308">
         <v>100</v>
       </c>
-      <c r="G307">
+      <c r="G308">
         <v>150</v>
       </c>
-      <c r="H307" t="s">
-        <v>12</v>
-      </c>
-      <c r="I307" t="s">
-        <v>12</v>
-      </c>
-      <c r="J307" t="s">
-        <v>12</v>
-      </c>
-      <c r="K307" t="s">
-        <v>12</v>
-      </c>
-      <c r="L307" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A308" s="1">
+      <c r="H308" t="s">
+        <v>12</v>
+      </c>
+      <c r="I308" t="s">
+        <v>12</v>
+      </c>
+      <c r="J308" t="s">
+        <v>12</v>
+      </c>
+      <c r="K308" t="s">
+        <v>12</v>
+      </c>
+      <c r="L308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="1">
         <v>44874</v>
       </c>
-      <c r="B308">
-        <v>2</v>
-      </c>
-      <c r="C308">
-        <v>1</v>
-      </c>
-      <c r="D308" t="s">
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
         <v>21</v>
       </c>
-      <c r="E308" t="str">
+      <c r="E309" t="str">
         <f t="shared" si="11"/>
         <v>i_2_1</v>
       </c>
-      <c r="F308">
+      <c r="F309">
         <v>250</v>
       </c>
-      <c r="G308">
+      <c r="G309">
         <v>150</v>
       </c>
-      <c r="H308" t="s">
-        <v>12</v>
-      </c>
-      <c r="I308">
-        <v>50</v>
-      </c>
-      <c r="J308" t="s">
-        <v>12</v>
-      </c>
-      <c r="K308" t="s">
-        <v>12</v>
-      </c>
-      <c r="L308" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A309" s="1">
+      <c r="H309" t="s">
+        <v>12</v>
+      </c>
+      <c r="I309">
+        <v>50</v>
+      </c>
+      <c r="J309" t="s">
+        <v>12</v>
+      </c>
+      <c r="K309" t="s">
+        <v>12</v>
+      </c>
+      <c r="L309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="1">
         <v>44874</v>
       </c>
-      <c r="B309">
-        <v>2</v>
-      </c>
-      <c r="C309">
-        <v>1</v>
-      </c>
-      <c r="D309" t="s">
+      <c r="B310">
+        <v>2</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
         <v>27</v>
       </c>
-      <c r="E309" t="str">
+      <c r="E310" t="str">
         <f t="shared" si="11"/>
         <v>x_2_1</v>
       </c>
-      <c r="F309">
+      <c r="F310">
         <v>100</v>
       </c>
-      <c r="G309">
+      <c r="G310">
         <v>150</v>
       </c>
-      <c r="H309" t="s">
-        <v>12</v>
-      </c>
-      <c r="I309" t="s">
-        <v>12</v>
-      </c>
-      <c r="J309" t="s">
-        <v>12</v>
-      </c>
-      <c r="K309" t="s">
-        <v>12</v>
-      </c>
-      <c r="L309" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A310" s="1">
+      <c r="H310" t="s">
+        <v>12</v>
+      </c>
+      <c r="I310" t="s">
+        <v>12</v>
+      </c>
+      <c r="J310" t="s">
+        <v>12</v>
+      </c>
+      <c r="K310" t="s">
+        <v>12</v>
+      </c>
+      <c r="L310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="1">
         <v>44874</v>
       </c>
-      <c r="B310">
-        <v>2</v>
-      </c>
-      <c r="C310">
-        <v>1</v>
-      </c>
-      <c r="D310" t="s">
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
         <v>23</v>
       </c>
-      <c r="E310" t="str">
+      <c r="E311" t="str">
         <f t="shared" si="11"/>
         <v>k_2_1</v>
       </c>
-      <c r="F310">
+      <c r="F311">
         <v>150</v>
       </c>
-      <c r="G310">
+      <c r="G311">
         <v>150</v>
       </c>
-      <c r="H310" t="s">
-        <v>12</v>
-      </c>
-      <c r="I310">
-        <v>50</v>
-      </c>
-      <c r="J310" t="s">
-        <v>12</v>
-      </c>
-      <c r="K310" t="s">
-        <v>12</v>
-      </c>
-      <c r="L310" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A311" s="1">
+      <c r="H311" t="s">
+        <v>12</v>
+      </c>
+      <c r="I311">
+        <v>50</v>
+      </c>
+      <c r="J311" t="s">
+        <v>12</v>
+      </c>
+      <c r="K311" t="s">
+        <v>12</v>
+      </c>
+      <c r="L311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="1">
         <v>44874</v>
       </c>
-      <c r="B311">
-        <v>2</v>
-      </c>
-      <c r="C311">
-        <v>1</v>
-      </c>
-      <c r="D311" t="s">
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
         <v>20</v>
       </c>
-      <c r="E311" t="str">
+      <c r="E312" t="str">
         <f t="shared" si="11"/>
         <v>h_2_1</v>
       </c>
-      <c r="F311">
+      <c r="F312">
         <v>0</v>
       </c>
-      <c r="G311">
+      <c r="G312">
         <v>150</v>
       </c>
-      <c r="H311" t="s">
-        <v>12</v>
-      </c>
-      <c r="I311">
+      <c r="H312" t="s">
+        <v>12</v>
+      </c>
+      <c r="I312">
         <v>100</v>
       </c>
-      <c r="J311" t="s">
-        <v>12</v>
-      </c>
-      <c r="K311" t="s">
-        <v>12</v>
-      </c>
-      <c r="L311" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A312" s="1">
+      <c r="J312" t="s">
+        <v>12</v>
+      </c>
+      <c r="K312" t="s">
+        <v>12</v>
+      </c>
+      <c r="L312" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="1">
         <v>44874</v>
       </c>
-      <c r="B312">
-        <v>2</v>
-      </c>
-      <c r="C312">
-        <v>1</v>
-      </c>
-      <c r="D312" t="s">
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
         <v>24</v>
       </c>
-      <c r="E312" t="str">
+      <c r="E313" t="str">
         <f t="shared" si="11"/>
         <v>l_2_1</v>
       </c>
-      <c r="F312">
-        <v>100</v>
-      </c>
-      <c r="G312">
+      <c r="F313">
+        <v>50</v>
+      </c>
+      <c r="G313">
         <v>150</v>
       </c>
-      <c r="H312" t="s">
-        <v>12</v>
-      </c>
-      <c r="I312">
-        <v>50</v>
-      </c>
-      <c r="J312" t="s">
-        <v>12</v>
-      </c>
-      <c r="K312" t="s">
-        <v>12</v>
-      </c>
-      <c r="L312" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A313" s="1">
+      <c r="H313" t="s">
+        <v>12</v>
+      </c>
+      <c r="I313">
+        <v>50</v>
+      </c>
+      <c r="J313" t="s">
+        <v>12</v>
+      </c>
+      <c r="K313" t="s">
+        <v>12</v>
+      </c>
+      <c r="L313" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="1">
         <v>44874</v>
       </c>
-      <c r="B313">
-        <v>2</v>
-      </c>
-      <c r="C313">
-        <v>2</v>
-      </c>
-      <c r="D313" t="s">
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
         <v>27</v>
       </c>
-      <c r="E313" t="str">
+      <c r="E314" t="str">
         <f t="shared" si="11"/>
         <v>x_2_2</v>
       </c>
-      <c r="F313">
+      <c r="F314">
         <v>100</v>
       </c>
-      <c r="G313">
+      <c r="G314">
         <v>75</v>
       </c>
-      <c r="H313" t="s">
-        <v>12</v>
-      </c>
-      <c r="I313" t="s">
-        <v>12</v>
-      </c>
-      <c r="J313" t="s">
-        <v>12</v>
-      </c>
-      <c r="K313" t="s">
-        <v>12</v>
-      </c>
-      <c r="L313" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A314" s="1">
+      <c r="H314" t="s">
+        <v>12</v>
+      </c>
+      <c r="I314" t="s">
+        <v>12</v>
+      </c>
+      <c r="J314" t="s">
+        <v>12</v>
+      </c>
+      <c r="K314" t="s">
+        <v>12</v>
+      </c>
+      <c r="L314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="1">
         <v>44874</v>
       </c>
-      <c r="B314">
-        <v>2</v>
-      </c>
-      <c r="C314">
-        <v>2</v>
-      </c>
-      <c r="D314" t="s">
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315" t="s">
         <v>18</v>
       </c>
-      <c r="E314" t="str">
+      <c r="E315" t="str">
         <f t="shared" si="11"/>
         <v>e_2_2</v>
       </c>
-      <c r="F314">
+      <c r="F315">
         <v>250</v>
       </c>
-      <c r="G314">
+      <c r="G315">
         <v>75</v>
       </c>
-      <c r="H314" t="s">
-        <v>12</v>
-      </c>
-      <c r="I314">
+      <c r="H315" t="s">
+        <v>12</v>
+      </c>
+      <c r="I315">
         <v>150</v>
       </c>
-      <c r="J314" t="s">
-        <v>12</v>
-      </c>
-      <c r="K314" t="s">
-        <v>12</v>
-      </c>
-      <c r="L314" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A315" s="1">
+      <c r="J315" t="s">
+        <v>12</v>
+      </c>
+      <c r="K315" t="s">
+        <v>12</v>
+      </c>
+      <c r="L315" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="1">
         <v>44874</v>
       </c>
-      <c r="B315">
-        <v>2</v>
-      </c>
-      <c r="C315">
-        <v>2</v>
-      </c>
-      <c r="D315" t="s">
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316" t="s">
         <v>27</v>
       </c>
-      <c r="E315" t="str">
+      <c r="E316" t="str">
         <f t="shared" si="11"/>
         <v>x_2_2</v>
       </c>
-      <c r="F315">
+      <c r="F316">
         <v>100</v>
       </c>
-      <c r="G315">
+      <c r="G316">
         <v>75</v>
       </c>
-      <c r="H315" t="s">
-        <v>12</v>
-      </c>
-      <c r="I315" t="s">
-        <v>12</v>
-      </c>
-      <c r="J315" t="s">
-        <v>12</v>
-      </c>
-      <c r="K315" t="s">
-        <v>12</v>
-      </c>
-      <c r="L315" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A316" s="1">
+      <c r="H316" t="s">
+        <v>12</v>
+      </c>
+      <c r="I316" t="s">
+        <v>12</v>
+      </c>
+      <c r="J316" t="s">
+        <v>12</v>
+      </c>
+      <c r="K316" t="s">
+        <v>12</v>
+      </c>
+      <c r="L316" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="1">
         <v>44874</v>
       </c>
-      <c r="B316">
-        <v>2</v>
-      </c>
-      <c r="C316">
-        <v>2</v>
-      </c>
-      <c r="D316" t="s">
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317" t="s">
         <v>19</v>
       </c>
-      <c r="E316" t="str">
+      <c r="E317" t="str">
         <f t="shared" si="11"/>
         <v>f_2_2</v>
       </c>
-      <c r="F316">
+      <c r="F317">
         <v>150</v>
       </c>
-      <c r="G316">
+      <c r="G317">
         <v>75</v>
       </c>
-      <c r="H316" t="s">
-        <v>12</v>
-      </c>
-      <c r="I316">
-        <v>50</v>
-      </c>
-      <c r="J316" t="s">
-        <v>12</v>
-      </c>
-      <c r="K316" t="s">
-        <v>12</v>
-      </c>
-      <c r="L316" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A317" s="1">
+      <c r="H317" t="s">
+        <v>12</v>
+      </c>
+      <c r="I317">
+        <v>50</v>
+      </c>
+      <c r="J317" t="s">
+        <v>12</v>
+      </c>
+      <c r="K317" t="s">
+        <v>12</v>
+      </c>
+      <c r="L317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="1">
         <v>44874</v>
       </c>
-      <c r="B317">
-        <v>2</v>
-      </c>
-      <c r="C317">
-        <v>2</v>
-      </c>
-      <c r="D317" t="s">
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+      <c r="D318" t="s">
         <v>22</v>
       </c>
-      <c r="E317" t="str">
+      <c r="E318" t="str">
         <f t="shared" si="11"/>
         <v>j_2_2</v>
       </c>
-      <c r="F317">
+      <c r="F318">
         <v>0</v>
       </c>
-      <c r="G317">
+      <c r="G318">
         <v>75</v>
       </c>
-      <c r="H317" t="s">
-        <v>12</v>
-      </c>
-      <c r="I317">
+      <c r="H318" t="s">
+        <v>12</v>
+      </c>
+      <c r="I318">
         <v>100</v>
       </c>
-      <c r="J317" t="s">
-        <v>12</v>
-      </c>
-      <c r="K317" t="s">
-        <v>12</v>
-      </c>
-      <c r="L317" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A318" s="1">
+      <c r="J318" t="s">
+        <v>12</v>
+      </c>
+      <c r="K318" t="s">
+        <v>12</v>
+      </c>
+      <c r="L318" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="1">
         <v>44874</v>
       </c>
-      <c r="B318">
-        <v>2</v>
-      </c>
-      <c r="C318">
-        <v>2</v>
-      </c>
-      <c r="D318" t="s">
+      <c r="B319">
+        <v>2</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+      <c r="D319" t="s">
         <v>25</v>
       </c>
-      <c r="E318" t="str">
+      <c r="E319" t="str">
         <f t="shared" si="11"/>
         <v>g_2_2</v>
       </c>
-      <c r="F318">
-        <v>50</v>
-      </c>
-      <c r="G318">
+      <c r="F319">
+        <v>50</v>
+      </c>
+      <c r="G319">
         <v>75</v>
       </c>
-      <c r="H318" t="s">
-        <v>12</v>
-      </c>
-      <c r="I318">
-        <v>50</v>
-      </c>
-      <c r="J318" t="s">
-        <v>12</v>
-      </c>
-      <c r="K318" t="s">
-        <v>12</v>
-      </c>
-      <c r="L318" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A319" s="1">
+      <c r="H319" t="s">
+        <v>12</v>
+      </c>
+      <c r="I319">
+        <v>50</v>
+      </c>
+      <c r="J319" t="s">
+        <v>12</v>
+      </c>
+      <c r="K319" t="s">
+        <v>12</v>
+      </c>
+      <c r="L319" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="1">
         <v>44874</v>
       </c>
-      <c r="B319">
-        <v>2</v>
-      </c>
-      <c r="C319">
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
         <v>3</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D320" t="s">
         <v>27</v>
       </c>
-      <c r="E319" t="str">
+      <c r="E320" t="str">
         <f t="shared" si="11"/>
         <v>x_2_3</v>
       </c>
-      <c r="F319">
+      <c r="F320">
         <v>100</v>
       </c>
-      <c r="G319">
+      <c r="G320">
         <v>25</v>
       </c>
-      <c r="H319" t="s">
-        <v>12</v>
-      </c>
-      <c r="I319" t="s">
-        <v>12</v>
-      </c>
-      <c r="J319" t="s">
-        <v>12</v>
-      </c>
-      <c r="K319" t="s">
-        <v>12</v>
-      </c>
-      <c r="L319" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A320" s="1">
+      <c r="H320" t="s">
+        <v>12</v>
+      </c>
+      <c r="I320" t="s">
+        <v>12</v>
+      </c>
+      <c r="J320" t="s">
+        <v>12</v>
+      </c>
+      <c r="K320" t="s">
+        <v>12</v>
+      </c>
+      <c r="L320" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="1">
         <v>44874</v>
       </c>
-      <c r="B320">
-        <v>2</v>
-      </c>
-      <c r="C320">
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
         <v>3</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D321" t="s">
         <v>11</v>
       </c>
-      <c r="E320" t="str">
+      <c r="E321" t="str">
         <f t="shared" si="11"/>
         <v>a_2_3</v>
       </c>
-      <c r="F320">
+      <c r="F321">
         <v>250</v>
       </c>
-      <c r="G320">
+      <c r="G321">
         <v>25</v>
       </c>
-      <c r="H320" t="s">
-        <v>12</v>
-      </c>
-      <c r="I320">
+      <c r="H321" t="s">
+        <v>12</v>
+      </c>
+      <c r="I321">
         <v>150</v>
       </c>
-      <c r="J320" t="s">
-        <v>12</v>
-      </c>
-      <c r="K320" t="s">
-        <v>12</v>
-      </c>
-      <c r="L320" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A321" s="1">
+      <c r="J321" t="s">
+        <v>12</v>
+      </c>
+      <c r="K321" t="s">
+        <v>12</v>
+      </c>
+      <c r="L321" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="1">
         <v>44874</v>
       </c>
-      <c r="B321">
-        <v>2</v>
-      </c>
-      <c r="C321">
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
         <v>3</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D322" t="s">
         <v>27</v>
       </c>
-      <c r="E321" t="str">
+      <c r="E322" t="str">
         <f t="shared" si="11"/>
         <v>x_2_3</v>
       </c>
-      <c r="F321">
+      <c r="F322">
         <v>100</v>
       </c>
-      <c r="G321">
+      <c r="G322">
         <v>25</v>
       </c>
-      <c r="H321" t="s">
-        <v>12</v>
-      </c>
-      <c r="I321" t="s">
-        <v>12</v>
-      </c>
-      <c r="J321" t="s">
-        <v>12</v>
-      </c>
-      <c r="K321" t="s">
-        <v>12</v>
-      </c>
-      <c r="L321" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A322" s="1">
+      <c r="H322" t="s">
+        <v>12</v>
+      </c>
+      <c r="I322" t="s">
+        <v>12</v>
+      </c>
+      <c r="J322" t="s">
+        <v>12</v>
+      </c>
+      <c r="K322" t="s">
+        <v>12</v>
+      </c>
+      <c r="L322" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="1">
         <v>44874</v>
       </c>
-      <c r="B322">
-        <v>2</v>
-      </c>
-      <c r="C322">
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323">
         <v>3</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D323" t="s">
         <v>14</v>
       </c>
-      <c r="E322" t="str">
+      <c r="E323" t="str">
         <f t="shared" si="11"/>
         <v>b_2_3</v>
       </c>
-      <c r="F322">
+      <c r="F323">
         <v>150</v>
       </c>
-      <c r="G322">
+      <c r="G323">
         <v>25</v>
       </c>
-      <c r="H322" t="s">
-        <v>12</v>
-      </c>
-      <c r="I322">
-        <v>50</v>
-      </c>
-      <c r="J322" t="s">
-        <v>12</v>
-      </c>
-      <c r="K322" t="s">
-        <v>12</v>
-      </c>
-      <c r="L322" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A323" s="1">
+      <c r="H323" t="s">
+        <v>12</v>
+      </c>
+      <c r="I323">
+        <v>50</v>
+      </c>
+      <c r="J323" t="s">
+        <v>12</v>
+      </c>
+      <c r="K323" t="s">
+        <v>12</v>
+      </c>
+      <c r="L323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="1">
         <v>44874</v>
       </c>
-      <c r="B323">
-        <v>2</v>
-      </c>
-      <c r="C323">
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324">
         <v>3</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D324" t="s">
         <v>17</v>
       </c>
-      <c r="E323" t="str">
+      <c r="E324" t="str">
         <f t="shared" si="11"/>
         <v>d_2_3</v>
       </c>
-      <c r="F323">
+      <c r="F324">
         <v>0</v>
       </c>
-      <c r="G323">
+      <c r="G324">
         <v>25</v>
       </c>
-      <c r="H323" t="s">
-        <v>12</v>
-      </c>
-      <c r="I323">
+      <c r="H324" t="s">
+        <v>12</v>
+      </c>
+      <c r="I324">
         <v>100</v>
       </c>
-      <c r="J323" t="s">
-        <v>12</v>
-      </c>
-      <c r="K323" t="s">
-        <v>12</v>
-      </c>
-      <c r="L323" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A324" s="1">
+      <c r="J324" t="s">
+        <v>12</v>
+      </c>
+      <c r="K324" t="s">
+        <v>12</v>
+      </c>
+      <c r="L324" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="1">
         <v>44874</v>
       </c>
-      <c r="B324">
-        <v>2</v>
-      </c>
-      <c r="C324">
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
         <v>3</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D325" t="s">
         <v>16</v>
       </c>
-      <c r="E324" t="str">
+      <c r="E325" t="str">
         <f t="shared" si="11"/>
         <v>c_2_3</v>
       </c>
-      <c r="F324">
-        <v>50</v>
-      </c>
-      <c r="G324">
+      <c r="F325">
+        <v>50</v>
+      </c>
+      <c r="G325">
         <v>25</v>
       </c>
-      <c r="H324" t="s">
-        <v>12</v>
-      </c>
-      <c r="I324">
-        <v>50</v>
-      </c>
-      <c r="J324" t="s">
-        <v>12</v>
-      </c>
-      <c r="K324" t="s">
-        <v>12</v>
-      </c>
-      <c r="L324" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A325" s="1">
+      <c r="H325" t="s">
+        <v>12</v>
+      </c>
+      <c r="I325">
+        <v>50</v>
+      </c>
+      <c r="J325" t="s">
+        <v>12</v>
+      </c>
+      <c r="K325" t="s">
+        <v>12</v>
+      </c>
+      <c r="L325" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="1">
         <v>44715</v>
       </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
-      <c r="C325">
-        <v>1</v>
-      </c>
-      <c r="D325" t="s">
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
         <v>11</v>
       </c>
-      <c r="E325" t="str">
+      <c r="E326" t="str">
         <f t="shared" si="11"/>
         <v>a_1_1</v>
       </c>
-      <c r="F325">
+      <c r="F326">
         <v>250</v>
       </c>
-      <c r="G325">
+      <c r="G326">
         <v>-20</v>
       </c>
-      <c r="H325" t="s">
-        <v>12</v>
-      </c>
-      <c r="I325" t="s">
-        <v>12</v>
-      </c>
-      <c r="J325" t="s">
-        <v>12</v>
-      </c>
-      <c r="K325" t="s">
-        <v>12</v>
-      </c>
-      <c r="L325" t="s">
+      <c r="H326" t="s">
+        <v>12</v>
+      </c>
+      <c r="I326" t="s">
+        <v>12</v>
+      </c>
+      <c r="J326" t="s">
+        <v>12</v>
+      </c>
+      <c r="K326" t="s">
+        <v>12</v>
+      </c>
+      <c r="L326" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A326" s="1">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="1">
         <v>44715</v>
       </c>
-      <c r="B326">
-        <v>1</v>
-      </c>
-      <c r="C326">
-        <v>1</v>
-      </c>
-      <c r="D326" t="s">
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
         <v>14</v>
       </c>
-      <c r="E326" t="str">
+      <c r="E327" t="str">
         <f t="shared" si="11"/>
         <v>b_1_1</v>
       </c>
-      <c r="F326">
+      <c r="F327">
         <v>250</v>
       </c>
-      <c r="G326">
-        <v>50</v>
-      </c>
-      <c r="H326" t="s">
-        <v>12</v>
-      </c>
-      <c r="I326" t="s">
-        <v>12</v>
-      </c>
-      <c r="J326" t="s">
-        <v>12</v>
-      </c>
-      <c r="K326" t="s">
-        <v>12</v>
-      </c>
-      <c r="L326" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A327" s="1">
+      <c r="G327">
+        <v>50</v>
+      </c>
+      <c r="H327" t="s">
+        <v>12</v>
+      </c>
+      <c r="I327" t="s">
+        <v>12</v>
+      </c>
+      <c r="J327" t="s">
+        <v>12</v>
+      </c>
+      <c r="K327" t="s">
+        <v>12</v>
+      </c>
+      <c r="L327" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="1">
         <v>44715</v>
       </c>
-      <c r="B327">
-        <v>1</v>
-      </c>
-      <c r="C327">
-        <v>1</v>
-      </c>
-      <c r="D327" t="s">
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328" t="s">
         <v>16</v>
       </c>
-      <c r="E327" t="str">
+      <c r="E328" t="str">
         <f t="shared" si="11"/>
         <v>c_1_1</v>
       </c>
-      <c r="F327">
+      <c r="F328">
         <v>250</v>
       </c>
-      <c r="G327">
+      <c r="G328">
         <v>100</v>
       </c>
-      <c r="H327" t="s">
-        <v>12</v>
-      </c>
-      <c r="I327" t="s">
-        <v>12</v>
-      </c>
-      <c r="J327" t="s">
-        <v>12</v>
-      </c>
-      <c r="K327" t="s">
-        <v>12</v>
-      </c>
-      <c r="L327" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A328" s="1">
+      <c r="H328" t="s">
+        <v>12</v>
+      </c>
+      <c r="I328" t="s">
+        <v>12</v>
+      </c>
+      <c r="J328" t="s">
+        <v>12</v>
+      </c>
+      <c r="K328" t="s">
+        <v>12</v>
+      </c>
+      <c r="L328" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="1">
         <v>44715</v>
       </c>
-      <c r="B328">
-        <v>1</v>
-      </c>
-      <c r="C328">
-        <v>1</v>
-      </c>
-      <c r="D328" t="s">
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
         <v>17</v>
       </c>
-      <c r="E328" t="str">
+      <c r="E329" t="str">
         <f t="shared" si="11"/>
         <v>d_1_1</v>
       </c>
-      <c r="F328">
+      <c r="F329">
         <v>250</v>
       </c>
-      <c r="G328">
+      <c r="G329">
         <v>200</v>
       </c>
-      <c r="H328" t="s">
-        <v>12</v>
-      </c>
-      <c r="I328" t="s">
-        <v>12</v>
-      </c>
-      <c r="J328" t="s">
-        <v>12</v>
-      </c>
-      <c r="K328" t="s">
-        <v>12</v>
-      </c>
-      <c r="L328" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A329" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B329">
-        <v>1</v>
-      </c>
-      <c r="C329">
-        <v>2</v>
-      </c>
-      <c r="D329" t="s">
-        <v>18</v>
-      </c>
-      <c r="E329" t="str">
-        <f t="shared" ref="E329:E338" si="14">D329&amp;"_" &amp; B329 &amp; "_" &amp; C329</f>
-        <v>e_1_2</v>
-      </c>
-      <c r="F329">
-        <v>150</v>
-      </c>
-      <c r="G329">
-        <v>-20</v>
-      </c>
       <c r="H329" t="s">
         <v>12</v>
       </c>
-      <c r="I329">
-        <v>20</v>
+      <c r="I329" t="s">
+        <v>12</v>
       </c>
       <c r="J329" t="s">
         <v>12</v>
@@ -13813,10 +13814,10 @@
         <v>12</v>
       </c>
       <c r="L329" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>44715</v>
       </c>
@@ -13827,17 +13828,17 @@
         <v>2</v>
       </c>
       <c r="D330" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E330" t="str">
-        <f t="shared" ref="E330" si="15">D330&amp;"_" &amp; B330 &amp; "_" &amp; C330</f>
-        <v>x_1_2</v>
+        <f t="shared" ref="E330:E339" si="14">D330&amp;"_" &amp; B330 &amp; "_" &amp; C330</f>
+        <v>e_1_2</v>
       </c>
       <c r="F330">
         <v>150</v>
       </c>
       <c r="G330">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="H330" t="s">
         <v>12</v>
@@ -13855,7 +13856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>44715</v>
       </c>
@@ -13866,141 +13867,141 @@
         <v>2</v>
       </c>
       <c r="D331" t="s">
+        <v>27</v>
+      </c>
+      <c r="E331" t="str">
+        <f t="shared" ref="E331" si="15">D331&amp;"_" &amp; B331 &amp; "_" &amp; C331</f>
+        <v>x_1_2</v>
+      </c>
+      <c r="F331">
+        <v>150</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331" t="s">
+        <v>12</v>
+      </c>
+      <c r="I331">
+        <v>20</v>
+      </c>
+      <c r="J331" t="s">
+        <v>12</v>
+      </c>
+      <c r="K331" t="s">
+        <v>12</v>
+      </c>
+      <c r="L331" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
         <v>19</v>
       </c>
-      <c r="E331" t="str">
+      <c r="E332" t="str">
         <f t="shared" si="14"/>
         <v>f_1_2</v>
       </c>
-      <c r="F331">
+      <c r="F332">
         <v>150</v>
       </c>
-      <c r="G331">
-        <v>50</v>
-      </c>
-      <c r="H331" t="s">
-        <v>12</v>
-      </c>
-      <c r="I331">
-        <v>50</v>
-      </c>
-      <c r="J331" t="s">
-        <v>12</v>
-      </c>
-      <c r="K331" t="s">
-        <v>12</v>
-      </c>
-      <c r="L331" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A332" s="1">
+      <c r="G332">
+        <v>50</v>
+      </c>
+      <c r="H332" t="s">
+        <v>12</v>
+      </c>
+      <c r="I332">
+        <v>50</v>
+      </c>
+      <c r="J332" t="s">
+        <v>12</v>
+      </c>
+      <c r="K332" t="s">
+        <v>12</v>
+      </c>
+      <c r="L332" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="1">
         <v>44715</v>
       </c>
-      <c r="B332">
-        <v>1</v>
-      </c>
-      <c r="C332">
-        <v>2</v>
-      </c>
-      <c r="D332" t="s">
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333" t="s">
         <v>25</v>
       </c>
-      <c r="E332" t="str">
+      <c r="E333" t="str">
         <f t="shared" si="14"/>
         <v>g_1_2</v>
       </c>
-      <c r="F332">
+      <c r="F333">
         <v>150</v>
       </c>
-      <c r="G332">
+      <c r="G333">
         <v>100</v>
       </c>
-      <c r="H332" t="s">
-        <v>12</v>
-      </c>
-      <c r="I332">
+      <c r="H333" t="s">
+        <v>12</v>
+      </c>
+      <c r="I333">
         <v>100</v>
       </c>
-      <c r="J332" t="s">
-        <v>12</v>
-      </c>
-      <c r="K332" t="s">
-        <v>12</v>
-      </c>
-      <c r="L332" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A333" s="1">
+      <c r="J333" t="s">
+        <v>12</v>
+      </c>
+      <c r="K333" t="s">
+        <v>12</v>
+      </c>
+      <c r="L333" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="1">
         <v>44715</v>
       </c>
-      <c r="B333">
-        <v>1</v>
-      </c>
-      <c r="C333">
-        <v>2</v>
-      </c>
-      <c r="D333" t="s">
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s">
         <v>20</v>
       </c>
-      <c r="E333" t="str">
+      <c r="E334" t="str">
         <f t="shared" si="14"/>
         <v>h_1_2</v>
       </c>
-      <c r="F333">
+      <c r="F334">
         <v>150</v>
       </c>
-      <c r="G333">
+      <c r="G334">
         <v>200</v>
       </c>
-      <c r="H333" t="s">
-        <v>12</v>
-      </c>
-      <c r="I333">
+      <c r="H334" t="s">
+        <v>12</v>
+      </c>
+      <c r="I334">
         <v>200</v>
       </c>
-      <c r="J333" t="s">
-        <v>12</v>
-      </c>
-      <c r="K333" t="s">
-        <v>12</v>
-      </c>
-      <c r="L333" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A334" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B334">
-        <v>1</v>
-      </c>
-      <c r="C334">
-        <v>3</v>
-      </c>
-      <c r="D334" t="s">
-        <v>21</v>
-      </c>
-      <c r="E334" t="str">
-        <f t="shared" ref="E334" si="16">D334&amp;"_" &amp; B334 &amp; "_" &amp; C334</f>
-        <v>i_1_3</v>
-      </c>
-      <c r="F334">
-        <v>50</v>
-      </c>
-      <c r="G334">
-        <v>-20</v>
-      </c>
-      <c r="H334" t="s">
-        <v>12</v>
-      </c>
-      <c r="I334">
-        <v>20</v>
-      </c>
       <c r="J334" t="s">
         <v>12</v>
       </c>
@@ -14008,10 +14009,10 @@
         <v>12</v>
       </c>
       <c r="L334" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>44715</v>
       </c>
@@ -14022,153 +14023,198 @@
         <v>3</v>
       </c>
       <c r="D335" t="s">
+        <v>21</v>
+      </c>
+      <c r="E335" t="str">
+        <f t="shared" ref="E335" si="16">D335&amp;"_" &amp; B335 &amp; "_" &amp; C335</f>
+        <v>i_1_3</v>
+      </c>
+      <c r="F335">
+        <v>50</v>
+      </c>
+      <c r="G335">
+        <v>-20</v>
+      </c>
+      <c r="H335" t="s">
+        <v>12</v>
+      </c>
+      <c r="I335">
+        <v>20</v>
+      </c>
+      <c r="J335" t="s">
+        <v>12</v>
+      </c>
+      <c r="K335" t="s">
+        <v>12</v>
+      </c>
+      <c r="L335" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>3</v>
+      </c>
+      <c r="D336" t="s">
         <v>27</v>
       </c>
-      <c r="E335" t="str">
+      <c r="E336" t="str">
         <f t="shared" si="14"/>
         <v>x_1_3</v>
       </c>
-      <c r="F335">
-        <v>50</v>
-      </c>
-      <c r="G335">
+      <c r="F336">
+        <v>50</v>
+      </c>
+      <c r="G336">
         <v>0</v>
       </c>
-      <c r="H335" t="s">
-        <v>12</v>
-      </c>
-      <c r="I335">
+      <c r="H336" t="s">
+        <v>12</v>
+      </c>
+      <c r="I336">
         <v>20</v>
       </c>
-      <c r="J335" t="s">
-        <v>12</v>
-      </c>
-      <c r="K335" t="s">
-        <v>12</v>
-      </c>
-      <c r="L335" t="s">
+      <c r="J336" t="s">
+        <v>12</v>
+      </c>
+      <c r="K336" t="s">
+        <v>12</v>
+      </c>
+      <c r="L336" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A336" s="1">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="1">
         <v>44715</v>
       </c>
-      <c r="B336">
-        <v>1</v>
-      </c>
-      <c r="C336">
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
         <v>3</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D337" t="s">
         <v>22</v>
       </c>
-      <c r="E336" t="str">
+      <c r="E337" t="str">
         <f t="shared" si="14"/>
         <v>j_1_3</v>
       </c>
-      <c r="F336">
-        <v>50</v>
-      </c>
-      <c r="G336">
-        <v>50</v>
-      </c>
-      <c r="H336" t="s">
-        <v>12</v>
-      </c>
-      <c r="I336">
-        <v>50</v>
-      </c>
-      <c r="J336" t="s">
-        <v>12</v>
-      </c>
-      <c r="K336" t="s">
-        <v>12</v>
-      </c>
-      <c r="L336" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A337" s="1">
+      <c r="F337">
+        <v>50</v>
+      </c>
+      <c r="G337">
+        <v>50</v>
+      </c>
+      <c r="H337" t="s">
+        <v>12</v>
+      </c>
+      <c r="I337">
+        <v>50</v>
+      </c>
+      <c r="J337" t="s">
+        <v>12</v>
+      </c>
+      <c r="K337" t="s">
+        <v>12</v>
+      </c>
+      <c r="L337" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="1">
         <v>44715</v>
       </c>
-      <c r="B337">
-        <v>1</v>
-      </c>
-      <c r="C337">
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
         <v>3</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D338" t="s">
         <v>23</v>
       </c>
-      <c r="E337" t="str">
+      <c r="E338" t="str">
         <f t="shared" si="14"/>
         <v>k_1_3</v>
       </c>
-      <c r="F337">
-        <v>50</v>
-      </c>
-      <c r="G337">
+      <c r="F338">
+        <v>50</v>
+      </c>
+      <c r="G338">
         <v>100</v>
       </c>
-      <c r="H337" t="s">
-        <v>12</v>
-      </c>
-      <c r="I337">
+      <c r="H338" t="s">
+        <v>12</v>
+      </c>
+      <c r="I338">
         <v>100</v>
       </c>
-      <c r="J337" t="s">
-        <v>12</v>
-      </c>
-      <c r="K337" t="s">
-        <v>12</v>
-      </c>
-      <c r="L337" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A338" s="1">
+      <c r="J338" t="s">
+        <v>12</v>
+      </c>
+      <c r="K338" t="s">
+        <v>12</v>
+      </c>
+      <c r="L338" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="1">
         <v>44715</v>
       </c>
-      <c r="B338">
-        <v>1</v>
-      </c>
-      <c r="C338">
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
         <v>3</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D339" t="s">
         <v>24</v>
       </c>
-      <c r="E338" t="str">
+      <c r="E339" t="str">
         <f t="shared" si="14"/>
         <v>l_1_3</v>
       </c>
-      <c r="F338">
-        <v>50</v>
-      </c>
-      <c r="G338">
+      <c r="F339">
+        <v>50</v>
+      </c>
+      <c r="G339">
         <v>200</v>
       </c>
-      <c r="H338" t="s">
-        <v>12</v>
-      </c>
-      <c r="I338">
+      <c r="H339" t="s">
+        <v>12</v>
+      </c>
+      <c r="I339">
         <v>200</v>
       </c>
-      <c r="J338" t="s">
-        <v>12</v>
-      </c>
-      <c r="K338" t="s">
-        <v>12</v>
-      </c>
-      <c r="L338" t="s">
+      <c r="J339" t="s">
+        <v>12</v>
+      </c>
+      <c r="K339" t="s">
+        <v>12</v>
+      </c>
+      <c r="L339" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L338" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}"/>
+  <autoFilter ref="A1:L339" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\prj_lauraramirez_sedimentplumes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A23E47-0070-48D9-A3EF-15455ED8E9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6148A16-32E2-4AE1-9A8D-FAF039A4E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="50" windowWidth="13310" windowHeight="13640" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="-10605" yWindow="-28950" windowWidth="18240" windowHeight="28320" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l_ce" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ltloggerdatacapturesummary_l_ce!$A$1:$L$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ltloggerdatacapturesummary_l_ce!$A$1:$L$365</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>distance_from_disturbance_ft</t>
+  </si>
+  <si>
+    <t>b_1_1</t>
+  </si>
+  <si>
+    <t>d_1_1</t>
+  </si>
+  <si>
+    <t>e_1_1</t>
+  </si>
+  <si>
+    <t>f_1_1</t>
+  </si>
+  <si>
+    <t>h_1_1</t>
   </si>
 </sst>
 </file>
@@ -985,21 +1000,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L339"/>
+  <dimension ref="A1:L370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="9" max="9" width="24.08984375" customWidth="1"/>
-    <col min="10" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3671875" customWidth="1"/>
+    <col min="9" max="9" width="24.1015625" customWidth="1"/>
+    <col min="10" max="11" width="15.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44835</v>
       </c>
@@ -1076,7 +1091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44835</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44835</v>
       </c>
@@ -1154,7 +1169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44835</v>
       </c>
@@ -1193,7 +1208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44835</v>
       </c>
@@ -1232,7 +1247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44835</v>
       </c>
@@ -1271,7 +1286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44835</v>
       </c>
@@ -1310,7 +1325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44835</v>
       </c>
@@ -1349,7 +1364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44835</v>
       </c>
@@ -1388,7 +1403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1427,7 +1442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44835</v>
       </c>
@@ -1466,7 +1481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44835</v>
       </c>
@@ -1505,7 +1520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44835</v>
       </c>
@@ -1544,7 +1559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44835</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
@@ -1661,7 +1676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44835</v>
       </c>
@@ -1739,7 +1754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44835</v>
       </c>
@@ -1778,7 +1793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44835</v>
       </c>
@@ -1817,7 +1832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44835</v>
       </c>
@@ -1856,7 +1871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44835</v>
       </c>
@@ -1895,7 +1910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44835</v>
       </c>
@@ -1934,7 +1949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44835</v>
       </c>
@@ -1973,7 +1988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44835</v>
       </c>
@@ -2012,7 +2027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>44835</v>
       </c>
@@ -2051,7 +2066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>44835</v>
       </c>
@@ -2090,7 +2105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>44835</v>
       </c>
@@ -2129,7 +2144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>44835</v>
       </c>
@@ -2168,7 +2183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>44835</v>
       </c>
@@ -2207,7 +2222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>44835</v>
       </c>
@@ -2246,7 +2261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>44835</v>
       </c>
@@ -2285,7 +2300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>44835</v>
       </c>
@@ -2324,7 +2339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>44835</v>
       </c>
@@ -2363,7 +2378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>44835</v>
       </c>
@@ -2402,7 +2417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>44835</v>
       </c>
@@ -2441,7 +2456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44821</v>
       </c>
@@ -2480,7 +2495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>44821</v>
       </c>
@@ -2519,7 +2534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>44821</v>
       </c>
@@ -2558,7 +2573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>44821</v>
       </c>
@@ -2597,7 +2612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
@@ -2636,7 +2651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>44821</v>
       </c>
@@ -2675,7 +2690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44821</v>
       </c>
@@ -2714,7 +2729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44821</v>
       </c>
@@ -2753,7 +2768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44821</v>
       </c>
@@ -2792,7 +2807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44821</v>
       </c>
@@ -2831,7 +2846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>44821</v>
       </c>
@@ -2870,7 +2885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>44821</v>
       </c>
@@ -2909,7 +2924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>44821</v>
       </c>
@@ -2948,7 +2963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>44821</v>
       </c>
@@ -2987,7 +3002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>44821</v>
       </c>
@@ -3026,7 +3041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>44821</v>
       </c>
@@ -3065,7 +3080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>44821</v>
       </c>
@@ -3104,7 +3119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>44821</v>
       </c>
@@ -3143,7 +3158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>44821</v>
       </c>
@@ -3182,7 +3197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>44821</v>
       </c>
@@ -3221,7 +3236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>44821</v>
       </c>
@@ -3260,7 +3275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>44821</v>
       </c>
@@ -3299,7 +3314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>44821</v>
       </c>
@@ -3338,7 +3353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>44821</v>
       </c>
@@ -3377,7 +3392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>44821</v>
       </c>
@@ -3416,7 +3431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>44821</v>
       </c>
@@ -3455,7 +3470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>44821</v>
       </c>
@@ -3494,7 +3509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>44821</v>
       </c>
@@ -3533,7 +3548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
@@ -3572,7 +3587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>44821</v>
       </c>
@@ -3611,7 +3626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>44821</v>
       </c>
@@ -3650,7 +3665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>44821</v>
       </c>
@@ -3689,7 +3704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>44821</v>
       </c>
@@ -3728,7 +3743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>44821</v>
       </c>
@@ -3767,7 +3782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>44756</v>
       </c>
@@ -3806,7 +3821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>44756</v>
       </c>
@@ -3845,7 +3860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
@@ -3884,7 +3899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>44756</v>
       </c>
@@ -3923,7 +3938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>44756</v>
       </c>
@@ -3962,7 +3977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>44756</v>
       </c>
@@ -4001,7 +4016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>44756</v>
       </c>
@@ -4040,7 +4055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>44756</v>
       </c>
@@ -4079,7 +4094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>44756</v>
       </c>
@@ -4118,7 +4133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>44756</v>
       </c>
@@ -4157,7 +4172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>44756</v>
       </c>
@@ -4196,7 +4211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>44756</v>
       </c>
@@ -4235,7 +4250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>44756</v>
       </c>
@@ -4274,7 +4289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>44756</v>
       </c>
@@ -4313,7 +4328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
@@ -4352,7 +4367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>44756</v>
       </c>
@@ -4391,7 +4406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>44756</v>
       </c>
@@ -4430,7 +4445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>44756</v>
       </c>
@@ -4469,7 +4484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>44756</v>
       </c>
@@ -4508,7 +4523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>44756</v>
       </c>
@@ -4547,7 +4562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>44756</v>
       </c>
@@ -4586,7 +4601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>44756</v>
       </c>
@@ -4625,7 +4640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>44756</v>
       </c>
@@ -4664,7 +4679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>44756</v>
       </c>
@@ -4703,7 +4718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>44756</v>
       </c>
@@ -4742,7 +4757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>44756</v>
       </c>
@@ -4781,7 +4796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>44756</v>
       </c>
@@ -4820,7 +4835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>44756</v>
       </c>
@@ -4859,7 +4874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>44756</v>
       </c>
@@ -4898,7 +4913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>44756</v>
       </c>
@@ -4937,7 +4952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>44756</v>
       </c>
@@ -4976,7 +4991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>44756</v>
       </c>
@@ -5015,7 +5030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>44756</v>
       </c>
@@ -5054,7 +5069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>44756</v>
       </c>
@@ -5093,7 +5108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>44756</v>
       </c>
@@ -5132,7 +5147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>44756</v>
       </c>
@@ -5171,7 +5186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>44756</v>
       </c>
@@ -5210,7 +5225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>44756</v>
       </c>
@@ -5249,7 +5264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>44756</v>
       </c>
@@ -5288,7 +5303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>44756</v>
       </c>
@@ -5327,7 +5342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>44756</v>
       </c>
@@ -5366,7 +5381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>44756</v>
       </c>
@@ -5405,7 +5420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>44814</v>
       </c>
@@ -5444,7 +5459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>44814</v>
       </c>
@@ -5483,7 +5498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>44814</v>
       </c>
@@ -5522,7 +5537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>44814</v>
       </c>
@@ -5561,7 +5576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>44814</v>
       </c>
@@ -5600,7 +5615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>44814</v>
       </c>
@@ -5639,7 +5654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>44814</v>
       </c>
@@ -5678,7 +5693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>44814</v>
       </c>
@@ -5717,7 +5732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
@@ -5756,7 +5771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>44814</v>
       </c>
@@ -5795,7 +5810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>44814</v>
       </c>
@@ -5834,7 +5849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>44814</v>
       </c>
@@ -5873,7 +5888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>44814</v>
       </c>
@@ -5912,7 +5927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>44814</v>
       </c>
@@ -5951,7 +5966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>44814</v>
       </c>
@@ -5990,7 +6005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>44814</v>
       </c>
@@ -6029,7 +6044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>44814</v>
       </c>
@@ -6068,7 +6083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>44814</v>
       </c>
@@ -6107,7 +6122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>44760</v>
       </c>
@@ -6146,7 +6161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>44760</v>
       </c>
@@ -6185,7 +6200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>44760</v>
       </c>
@@ -6224,7 +6239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>44760</v>
       </c>
@@ -6263,7 +6278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>44760</v>
       </c>
@@ -6302,7 +6317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>44760</v>
       </c>
@@ -6341,7 +6356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>44760</v>
       </c>
@@ -6380,7 +6395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>44760</v>
       </c>
@@ -6419,7 +6434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>44760</v>
       </c>
@@ -6458,7 +6473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>44760</v>
       </c>
@@ -6497,7 +6512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>44760</v>
       </c>
@@ -6536,7 +6551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>44760</v>
       </c>
@@ -6575,7 +6590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>44760</v>
       </c>
@@ -6614,7 +6629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>44760</v>
       </c>
@@ -6653,7 +6668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>44760</v>
       </c>
@@ -6692,7 +6707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>44760</v>
       </c>
@@ -6731,7 +6746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>44760</v>
       </c>
@@ -6770,7 +6785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>44760</v>
       </c>
@@ -6809,7 +6824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>44760</v>
       </c>
@@ -6848,7 +6863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>44760</v>
       </c>
@@ -6887,7 +6902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>44760</v>
       </c>
@@ -6926,7 +6941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>44760</v>
       </c>
@@ -6965,7 +6980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
@@ -7004,7 +7019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>44760</v>
       </c>
@@ -7043,7 +7058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>44760</v>
       </c>
@@ -7082,7 +7097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>44760</v>
       </c>
@@ -7121,7 +7136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>44760</v>
       </c>
@@ -7160,7 +7175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>44760</v>
       </c>
@@ -7199,7 +7214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>44760</v>
       </c>
@@ -7238,7 +7253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>44760</v>
       </c>
@@ -7277,7 +7292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>44760</v>
       </c>
@@ -7316,7 +7331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>44760</v>
       </c>
@@ -7355,7 +7370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>44760</v>
       </c>
@@ -7394,7 +7409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>44760</v>
       </c>
@@ -7433,7 +7448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>44760</v>
       </c>
@@ -7472,7 +7487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>44760</v>
       </c>
@@ -7511,7 +7526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>44760</v>
       </c>
@@ -7550,7 +7565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>44760</v>
       </c>
@@ -7589,7 +7604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>44760</v>
       </c>
@@ -7628,7 +7643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>44760</v>
       </c>
@@ -7667,7 +7682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>44760</v>
       </c>
@@ -7706,7 +7721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>44760</v>
       </c>
@@ -7745,7 +7760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>44829</v>
       </c>
@@ -7784,7 +7799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>44829</v>
       </c>
@@ -7823,7 +7838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>44829</v>
       </c>
@@ -7862,7 +7877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>44829</v>
       </c>
@@ -7901,7 +7916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>44800</v>
       </c>
@@ -7940,7 +7955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>44800</v>
       </c>
@@ -7979,7 +7994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>44800</v>
       </c>
@@ -8018,7 +8033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>44800</v>
       </c>
@@ -8057,7 +8072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>44800</v>
       </c>
@@ -8096,7 +8111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>44800</v>
       </c>
@@ -8135,7 +8150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>44800</v>
       </c>
@@ -8174,7 +8189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>44800</v>
       </c>
@@ -8213,7 +8228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>44800</v>
       </c>
@@ -8252,7 +8267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>44800</v>
       </c>
@@ -8291,7 +8306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>44800</v>
       </c>
@@ -8330,7 +8345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>44800</v>
       </c>
@@ -8369,7 +8384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>44800</v>
       </c>
@@ -8408,7 +8423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>44800</v>
       </c>
@@ -8447,7 +8462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>44800</v>
       </c>
@@ -8486,7 +8501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>44800</v>
       </c>
@@ -8525,7 +8540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>44800</v>
       </c>
@@ -8564,7 +8579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>44800</v>
       </c>
@@ -8603,7 +8618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>44800</v>
       </c>
@@ -8642,7 +8657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>44800</v>
       </c>
@@ -8681,7 +8696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>44800</v>
       </c>
@@ -8720,7 +8735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>44800</v>
       </c>
@@ -8759,7 +8774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>44800</v>
       </c>
@@ -8798,7 +8813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>44800</v>
       </c>
@@ -8837,7 +8852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>44800</v>
       </c>
@@ -8876,7 +8891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>44800</v>
       </c>
@@ -8915,7 +8930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>44800</v>
       </c>
@@ -8954,7 +8969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>44800</v>
       </c>
@@ -8993,7 +9008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>44800</v>
       </c>
@@ -9032,7 +9047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>44800</v>
       </c>
@@ -9071,7 +9086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>44800</v>
       </c>
@@ -9110,7 +9125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>44800</v>
       </c>
@@ -9149,7 +9164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>44800</v>
       </c>
@@ -9188,7 +9203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>44800</v>
       </c>
@@ -9227,7 +9242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>44800</v>
       </c>
@@ -9266,7 +9281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>44800</v>
       </c>
@@ -9305,7 +9320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>44800</v>
       </c>
@@ -9344,7 +9359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>44800</v>
       </c>
@@ -9383,7 +9398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>44800</v>
       </c>
@@ -9422,7 +9437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>44800</v>
       </c>
@@ -9461,7 +9476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>44800</v>
       </c>
@@ -9500,7 +9515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>44800</v>
       </c>
@@ -9539,7 +9554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>44839</v>
       </c>
@@ -9578,7 +9593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>44839</v>
       </c>
@@ -9617,7 +9632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>44839</v>
       </c>
@@ -9656,7 +9671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>44839</v>
       </c>
@@ -9695,7 +9710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>44839</v>
       </c>
@@ -9734,7 +9749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>44839</v>
       </c>
@@ -9773,7 +9788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>44839</v>
       </c>
@@ -9812,7 +9827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>44839</v>
       </c>
@@ -9851,7 +9866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>44839</v>
       </c>
@@ -9890,7 +9905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>44839</v>
       </c>
@@ -9929,7 +9944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>44839</v>
       </c>
@@ -9968,7 +9983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>44839</v>
       </c>
@@ -10007,7 +10022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>44839</v>
       </c>
@@ -10046,7 +10061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>44839</v>
       </c>
@@ -10085,7 +10100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>44839</v>
       </c>
@@ -10124,7 +10139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>44839</v>
       </c>
@@ -10163,7 +10178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>44839</v>
       </c>
@@ -10202,7 +10217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>44839</v>
       </c>
@@ -10241,7 +10256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>44839</v>
       </c>
@@ -10280,7 +10295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>44839</v>
       </c>
@@ -10319,7 +10334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>44849</v>
       </c>
@@ -10358,7 +10373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>44849</v>
       </c>
@@ -10397,7 +10412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>44849</v>
       </c>
@@ -10436,7 +10451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>44849</v>
       </c>
@@ -10475,7 +10490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>44849</v>
       </c>
@@ -10514,7 +10529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>44849</v>
       </c>
@@ -10553,7 +10568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>44849</v>
       </c>
@@ -10592,7 +10607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>44849</v>
       </c>
@@ -10631,7 +10646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>44849</v>
       </c>
@@ -10670,7 +10685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>44849</v>
       </c>
@@ -10709,7 +10724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>44849</v>
       </c>
@@ -10748,7 +10763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>44849</v>
       </c>
@@ -10787,7 +10802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>44849</v>
       </c>
@@ -10826,7 +10841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>44849</v>
       </c>
@@ -10865,7 +10880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>44849</v>
       </c>
@@ -10904,7 +10919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>44849</v>
       </c>
@@ -10943,7 +10958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>44849</v>
       </c>
@@ -10982,7 +10997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>44849</v>
       </c>
@@ -11021,7 +11036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>44849</v>
       </c>
@@ -11060,7 +11075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>44849</v>
       </c>
@@ -11099,7 +11114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>44849</v>
       </c>
@@ -11138,7 +11153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>44849</v>
       </c>
@@ -11177,7 +11192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>44849</v>
       </c>
@@ -11216,7 +11231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>44849</v>
       </c>
@@ -11255,7 +11270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>44849</v>
       </c>
@@ -11294,7 +11309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>44849</v>
       </c>
@@ -11333,7 +11348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>44849</v>
       </c>
@@ -11372,7 +11387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>44849</v>
       </c>
@@ -11411,7 +11426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>44849</v>
       </c>
@@ -11450,7 +11465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>44849</v>
       </c>
@@ -11489,7 +11504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>44849</v>
       </c>
@@ -11528,7 +11543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>44849</v>
       </c>
@@ -11567,7 +11582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>44849</v>
       </c>
@@ -11606,7 +11621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>44867</v>
       </c>
@@ -11645,7 +11660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>44867</v>
       </c>
@@ -11684,7 +11699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>44867</v>
       </c>
@@ -11723,7 +11738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>44867</v>
       </c>
@@ -11762,7 +11777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>44867</v>
       </c>
@@ -11801,7 +11816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>44867</v>
       </c>
@@ -11840,7 +11855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>44867</v>
       </c>
@@ -11879,7 +11894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>44867</v>
       </c>
@@ -11918,7 +11933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>44867</v>
       </c>
@@ -11957,7 +11972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>44867</v>
       </c>
@@ -11996,7 +12011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>44867</v>
       </c>
@@ -12035,7 +12050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>44867</v>
       </c>
@@ -12074,7 +12089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>44867</v>
       </c>
@@ -12113,7 +12128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>44867</v>
       </c>
@@ -12152,7 +12167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>44867</v>
       </c>
@@ -12191,7 +12206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>44867</v>
       </c>
@@ -12230,7 +12245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>44867</v>
       </c>
@@ -12269,7 +12284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>44874</v>
       </c>
@@ -12305,7 +12320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>44874</v>
       </c>
@@ -12344,7 +12359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>44874</v>
       </c>
@@ -12383,7 +12398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>44874</v>
       </c>
@@ -12419,7 +12434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>44874</v>
       </c>
@@ -12458,7 +12473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>44874</v>
       </c>
@@ -12497,7 +12512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>44874</v>
       </c>
@@ -12533,7 +12548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>44874</v>
       </c>
@@ -12572,7 +12587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>44874</v>
       </c>
@@ -12611,7 +12626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>44874</v>
       </c>
@@ -12647,7 +12662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>44874</v>
       </c>
@@ -12686,7 +12701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>44874</v>
       </c>
@@ -12725,7 +12740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>44874</v>
       </c>
@@ -12764,7 +12779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>44874</v>
       </c>
@@ -12803,7 +12818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>44874</v>
       </c>
@@ -12842,7 +12857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>44874</v>
       </c>
@@ -12881,7 +12896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>44874</v>
       </c>
@@ -12920,7 +12935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>44874</v>
       </c>
@@ -12959,7 +12974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>44874</v>
       </c>
@@ -12998,7 +13013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>44874</v>
       </c>
@@ -13037,7 +13052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>44874</v>
       </c>
@@ -13076,7 +13091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>44874</v>
       </c>
@@ -13115,7 +13130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>44874</v>
       </c>
@@ -13154,7 +13169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>44874</v>
       </c>
@@ -13193,7 +13208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>44874</v>
       </c>
@@ -13232,7 +13247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>44874</v>
       </c>
@@ -13271,7 +13286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>44874</v>
       </c>
@@ -13310,7 +13325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>44874</v>
       </c>
@@ -13349,7 +13364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>44874</v>
       </c>
@@ -13388,7 +13403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>44874</v>
       </c>
@@ -13427,7 +13442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>44874</v>
       </c>
@@ -13466,7 +13481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>44874</v>
       </c>
@@ -13505,7 +13520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>44874</v>
       </c>
@@ -13544,7 +13559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>44874</v>
       </c>
@@ -13583,7 +13598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>44874</v>
       </c>
@@ -13622,7 +13637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>44874</v>
       </c>
@@ -13661,7 +13676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>44715</v>
       </c>
@@ -13700,7 +13715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>44715</v>
       </c>
@@ -13739,7 +13754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>44715</v>
       </c>
@@ -13778,7 +13793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>44715</v>
       </c>
@@ -13817,7 +13832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>44715</v>
       </c>
@@ -13856,7 +13871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>44715</v>
       </c>
@@ -13895,7 +13910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>44715</v>
       </c>
@@ -13934,7 +13949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>44715</v>
       </c>
@@ -13973,7 +13988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>44715</v>
       </c>
@@ -14012,7 +14027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>44715</v>
       </c>
@@ -14051,7 +14066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>44715</v>
       </c>
@@ -14090,7 +14105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>44715</v>
       </c>
@@ -14129,7 +14144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>44715</v>
       </c>
@@ -14168,7 +14183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>44715</v>
       </c>
@@ -14207,11 +14222,1215 @@
         <v>15</v>
       </c>
     </row>
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A340" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>11</v>
+      </c>
+      <c r="E340" t="str">
+        <f>D340&amp;"_" &amp; B340 &amp; "_" &amp; C340</f>
+        <v>a_2_1</v>
+      </c>
+      <c r="F340">
+        <v>-25</v>
+      </c>
+      <c r="G340">
+        <v>75</v>
+      </c>
+      <c r="H340" t="s">
+        <v>12</v>
+      </c>
+      <c r="I340">
+        <v>25</v>
+      </c>
+      <c r="J340" t="s">
+        <v>12</v>
+      </c>
+      <c r="K340" t="s">
+        <v>12</v>
+      </c>
+      <c r="L340" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A341" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341" t="s">
+        <v>27</v>
+      </c>
+      <c r="E341" t="str">
+        <f t="shared" ref="E341:E356" si="17">D341&amp;"_" &amp; B341 &amp; "_" &amp; C341</f>
+        <v>x_2_1</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>75</v>
+      </c>
+      <c r="H341" t="s">
+        <v>12</v>
+      </c>
+      <c r="I341" t="s">
+        <v>12</v>
+      </c>
+      <c r="J341" t="s">
+        <v>12</v>
+      </c>
+      <c r="K341" t="s">
+        <v>12</v>
+      </c>
+      <c r="L341" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A342" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
+        <v>22</v>
+      </c>
+      <c r="E342" t="str">
+        <f t="shared" si="17"/>
+        <v>j_2_1</v>
+      </c>
+      <c r="F342">
+        <v>50</v>
+      </c>
+      <c r="G342">
+        <v>150</v>
+      </c>
+      <c r="H342" t="s">
+        <v>12</v>
+      </c>
+      <c r="I342">
+        <v>50</v>
+      </c>
+      <c r="J342" t="s">
+        <v>12</v>
+      </c>
+      <c r="K342" t="s">
+        <v>12</v>
+      </c>
+      <c r="L342" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>23</v>
+      </c>
+      <c r="E343" t="str">
+        <f t="shared" si="17"/>
+        <v>k_2_1</v>
+      </c>
+      <c r="F343">
+        <v>150</v>
+      </c>
+      <c r="G343">
+        <v>150</v>
+      </c>
+      <c r="H343" t="s">
+        <v>12</v>
+      </c>
+      <c r="I343">
+        <v>150</v>
+      </c>
+      <c r="J343" t="s">
+        <v>12</v>
+      </c>
+      <c r="K343" t="s">
+        <v>12</v>
+      </c>
+      <c r="L343" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A344" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>24</v>
+      </c>
+      <c r="E344" t="str">
+        <f t="shared" si="17"/>
+        <v>l_2_1</v>
+      </c>
+      <c r="F344">
+        <v>200</v>
+      </c>
+      <c r="G344">
+        <v>150</v>
+      </c>
+      <c r="H344" t="s">
+        <v>12</v>
+      </c>
+      <c r="I344">
+        <v>200</v>
+      </c>
+      <c r="J344" t="s">
+        <v>12</v>
+      </c>
+      <c r="K344" t="s">
+        <v>12</v>
+      </c>
+      <c r="L344" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345">
+        <v>2</v>
+      </c>
+      <c r="D345" t="s">
+        <v>11</v>
+      </c>
+      <c r="E345" t="str">
+        <f>D345&amp;"_" &amp; B345 &amp; "_" &amp; C345</f>
+        <v>a_2_2</v>
+      </c>
+      <c r="F345">
+        <v>-25</v>
+      </c>
+      <c r="G345">
+        <v>75</v>
+      </c>
+      <c r="H345" t="s">
+        <v>12</v>
+      </c>
+      <c r="I345" t="s">
+        <v>12</v>
+      </c>
+      <c r="J345" t="s">
+        <v>12</v>
+      </c>
+      <c r="K345" t="s">
+        <v>12</v>
+      </c>
+      <c r="L345" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346" t="s">
+        <v>27</v>
+      </c>
+      <c r="E346" t="str">
+        <f>D346&amp;"_" &amp; B346 &amp; "_" &amp; C346</f>
+        <v>x_2_2</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>75</v>
+      </c>
+      <c r="H346" t="s">
+        <v>12</v>
+      </c>
+      <c r="I346" t="s">
+        <v>12</v>
+      </c>
+      <c r="J346" t="s">
+        <v>12</v>
+      </c>
+      <c r="K346" t="s">
+        <v>12</v>
+      </c>
+      <c r="L346" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A347" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347" t="s">
+        <v>19</v>
+      </c>
+      <c r="E347" t="str">
+        <f t="shared" ref="E347:E356" si="18">D347&amp;"_" &amp; B347 &amp; "_" &amp; C347</f>
+        <v>f_2_2</v>
+      </c>
+      <c r="F347">
+        <v>50</v>
+      </c>
+      <c r="G347">
+        <v>75</v>
+      </c>
+      <c r="H347" t="s">
+        <v>12</v>
+      </c>
+      <c r="I347">
+        <v>50</v>
+      </c>
+      <c r="J347" t="s">
+        <v>12</v>
+      </c>
+      <c r="K347" t="s">
+        <v>12</v>
+      </c>
+      <c r="L347" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348" t="s">
+        <v>25</v>
+      </c>
+      <c r="E348" t="str">
+        <f t="shared" si="18"/>
+        <v>g_2_2</v>
+      </c>
+      <c r="F348">
+        <v>150</v>
+      </c>
+      <c r="G348">
+        <v>75</v>
+      </c>
+      <c r="H348" t="s">
+        <v>12</v>
+      </c>
+      <c r="I348">
+        <v>150</v>
+      </c>
+      <c r="J348" t="s">
+        <v>12</v>
+      </c>
+      <c r="K348" t="s">
+        <v>12</v>
+      </c>
+      <c r="L348" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B349">
+        <v>2</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349" t="s">
+        <v>21</v>
+      </c>
+      <c r="E349" t="str">
+        <f t="shared" si="18"/>
+        <v>i_2_2</v>
+      </c>
+      <c r="F349">
+        <v>200</v>
+      </c>
+      <c r="G349">
+        <v>75</v>
+      </c>
+      <c r="H349" t="s">
+        <v>12</v>
+      </c>
+      <c r="I349">
+        <v>200</v>
+      </c>
+      <c r="J349" t="s">
+        <v>12</v>
+      </c>
+      <c r="K349" t="s">
+        <v>12</v>
+      </c>
+      <c r="L349" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+      <c r="D350" t="s">
+        <v>11</v>
+      </c>
+      <c r="E350" t="str">
+        <f>D350&amp;"_" &amp; B350 &amp; "_" &amp; C350</f>
+        <v>a_2_3</v>
+      </c>
+      <c r="F350">
+        <v>-25</v>
+      </c>
+      <c r="G350">
+        <v>75</v>
+      </c>
+      <c r="H350" t="s">
+        <v>12</v>
+      </c>
+      <c r="I350" t="s">
+        <v>12</v>
+      </c>
+      <c r="J350" t="s">
+        <v>12</v>
+      </c>
+      <c r="K350" t="s">
+        <v>12</v>
+      </c>
+      <c r="L350" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351">
+        <v>3</v>
+      </c>
+      <c r="D351" t="s">
+        <v>27</v>
+      </c>
+      <c r="E351" t="str">
+        <f>D351&amp;"_" &amp; B351 &amp; "_" &amp; C351</f>
+        <v>x_2_3</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>75</v>
+      </c>
+      <c r="H351" t="s">
+        <v>12</v>
+      </c>
+      <c r="I351" t="s">
+        <v>12</v>
+      </c>
+      <c r="J351" t="s">
+        <v>12</v>
+      </c>
+      <c r="K351" t="s">
+        <v>12</v>
+      </c>
+      <c r="L351" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+      <c r="C352">
+        <v>3</v>
+      </c>
+      <c r="D352" t="s">
+        <v>14</v>
+      </c>
+      <c r="E352" t="str">
+        <f t="shared" ref="E352:E356" si="19">D352&amp;"_" &amp; B352 &amp; "_" &amp; C352</f>
+        <v>b_2_3</v>
+      </c>
+      <c r="F352">
+        <v>50</v>
+      </c>
+      <c r="G352">
+        <v>25</v>
+      </c>
+      <c r="H352" t="s">
+        <v>12</v>
+      </c>
+      <c r="I352">
+        <v>50</v>
+      </c>
+      <c r="J352" t="s">
+        <v>12</v>
+      </c>
+      <c r="K352" t="s">
+        <v>12</v>
+      </c>
+      <c r="L352" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B353">
+        <v>2</v>
+      </c>
+      <c r="C353">
+        <v>3</v>
+      </c>
+      <c r="D353" t="s">
+        <v>16</v>
+      </c>
+      <c r="E353" t="str">
+        <f t="shared" si="19"/>
+        <v>c_2_3</v>
+      </c>
+      <c r="F353">
+        <v>100</v>
+      </c>
+      <c r="G353">
+        <v>25</v>
+      </c>
+      <c r="H353" t="s">
+        <v>12</v>
+      </c>
+      <c r="I353">
+        <v>100</v>
+      </c>
+      <c r="J353" t="s">
+        <v>12</v>
+      </c>
+      <c r="K353" t="s">
+        <v>12</v>
+      </c>
+      <c r="L353" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+      <c r="D354" t="s">
+        <v>17</v>
+      </c>
+      <c r="E354" t="str">
+        <f t="shared" si="19"/>
+        <v>d_2_3</v>
+      </c>
+      <c r="F354">
+        <v>150</v>
+      </c>
+      <c r="G354">
+        <v>25</v>
+      </c>
+      <c r="H354" t="s">
+        <v>12</v>
+      </c>
+      <c r="I354">
+        <v>150</v>
+      </c>
+      <c r="J354" t="s">
+        <v>12</v>
+      </c>
+      <c r="K354" t="s">
+        <v>12</v>
+      </c>
+      <c r="L354" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+      <c r="D355" t="s">
+        <v>18</v>
+      </c>
+      <c r="E355" t="str">
+        <f t="shared" si="19"/>
+        <v>e_2_3</v>
+      </c>
+      <c r="F355">
+        <v>200</v>
+      </c>
+      <c r="G355">
+        <v>25</v>
+      </c>
+      <c r="H355" t="s">
+        <v>12</v>
+      </c>
+      <c r="I355">
+        <v>200</v>
+      </c>
+      <c r="J355" t="s">
+        <v>12</v>
+      </c>
+      <c r="K355" t="s">
+        <v>12</v>
+      </c>
+      <c r="L355" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B356">
+        <v>2</v>
+      </c>
+      <c r="C356">
+        <v>5</v>
+      </c>
+      <c r="D356" t="s">
+        <v>20</v>
+      </c>
+      <c r="E356" t="str">
+        <f t="shared" si="19"/>
+        <v>h_2_5</v>
+      </c>
+      <c r="F356">
+        <v>250</v>
+      </c>
+      <c r="G356">
+        <v>25</v>
+      </c>
+      <c r="H356" t="s">
+        <v>12</v>
+      </c>
+      <c r="I356">
+        <v>250</v>
+      </c>
+      <c r="J356" t="s">
+        <v>12</v>
+      </c>
+      <c r="K356" t="s">
+        <v>12</v>
+      </c>
+      <c r="L356" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>14</v>
+      </c>
+      <c r="E357" t="s">
+        <v>29</v>
+      </c>
+      <c r="F357" t="s">
+        <v>12</v>
+      </c>
+      <c r="G357">
+        <v>25</v>
+      </c>
+      <c r="H357">
+        <v>165</v>
+      </c>
+      <c r="I357">
+        <v>20</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>25</v>
+      </c>
+      <c r="L357" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>17</v>
+      </c>
+      <c r="E358" t="s">
+        <v>30</v>
+      </c>
+      <c r="F358" t="s">
+        <v>12</v>
+      </c>
+      <c r="G358" t="s">
+        <v>12</v>
+      </c>
+      <c r="H358">
+        <v>165</v>
+      </c>
+      <c r="I358">
+        <v>50</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>25</v>
+      </c>
+      <c r="L358" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>18</v>
+      </c>
+      <c r="E359" t="s">
+        <v>31</v>
+      </c>
+      <c r="F359" t="s">
+        <v>12</v>
+      </c>
+      <c r="G359" t="s">
+        <v>12</v>
+      </c>
+      <c r="H359">
+        <v>165</v>
+      </c>
+      <c r="I359">
+        <v>75</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>25</v>
+      </c>
+      <c r="L359" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360" t="s">
+        <v>19</v>
+      </c>
+      <c r="E360" t="s">
+        <v>32</v>
+      </c>
+      <c r="F360" t="s">
+        <v>12</v>
+      </c>
+      <c r="G360" t="s">
+        <v>12</v>
+      </c>
+      <c r="H360">
+        <v>165</v>
+      </c>
+      <c r="I360">
+        <v>100</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>25</v>
+      </c>
+      <c r="L360" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>20</v>
+      </c>
+      <c r="E361" t="s">
+        <v>33</v>
+      </c>
+      <c r="F361" t="s">
+        <v>12</v>
+      </c>
+      <c r="G361" t="s">
+        <v>12</v>
+      </c>
+      <c r="H361">
+        <v>165</v>
+      </c>
+      <c r="I361">
+        <v>150</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>25</v>
+      </c>
+      <c r="L361" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+      <c r="D362" t="s">
+        <v>22</v>
+      </c>
+      <c r="E362" t="str">
+        <f t="shared" ref="E362:E370" si="20">D362&amp;"_" &amp; B362 &amp; "_" &amp; C362</f>
+        <v>j_3_2</v>
+      </c>
+      <c r="F362" t="s">
+        <v>12</v>
+      </c>
+      <c r="G362" t="s">
+        <v>12</v>
+      </c>
+      <c r="H362">
+        <v>195</v>
+      </c>
+      <c r="I362">
+        <v>50</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>25</v>
+      </c>
+      <c r="L362" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>23</v>
+      </c>
+      <c r="E363" t="str">
+        <f t="shared" si="20"/>
+        <v>k_3_2</v>
+      </c>
+      <c r="F363" t="s">
+        <v>12</v>
+      </c>
+      <c r="G363" t="s">
+        <v>12</v>
+      </c>
+      <c r="H363">
+        <v>195</v>
+      </c>
+      <c r="I363">
+        <v>75</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>25</v>
+      </c>
+      <c r="L363" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364" t="s">
+        <v>24</v>
+      </c>
+      <c r="E364" t="str">
+        <f t="shared" si="20"/>
+        <v>l_3_2</v>
+      </c>
+      <c r="F364" t="s">
+        <v>12</v>
+      </c>
+      <c r="G364" t="s">
+        <v>12</v>
+      </c>
+      <c r="H364">
+        <v>195</v>
+      </c>
+      <c r="I364">
+        <v>100</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>25</v>
+      </c>
+      <c r="L364" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>25</v>
+      </c>
+      <c r="E365" t="str">
+        <f t="shared" si="20"/>
+        <v>g_3_2</v>
+      </c>
+      <c r="F365" t="s">
+        <v>12</v>
+      </c>
+      <c r="G365" t="s">
+        <v>12</v>
+      </c>
+      <c r="H365">
+        <v>195</v>
+      </c>
+      <c r="I365">
+        <v>150</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>25</v>
+      </c>
+      <c r="L365" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>2</v>
+      </c>
+      <c r="D366" t="s">
+        <v>18</v>
+      </c>
+      <c r="E366" t="str">
+        <f t="shared" si="20"/>
+        <v>e_1_2</v>
+      </c>
+      <c r="F366">
+        <v>105</v>
+      </c>
+      <c r="G366">
+        <v>25</v>
+      </c>
+      <c r="H366" t="s">
+        <v>12</v>
+      </c>
+      <c r="I366">
+        <v>5</v>
+      </c>
+      <c r="J366" t="s">
+        <v>12</v>
+      </c>
+      <c r="K366" t="s">
+        <v>12</v>
+      </c>
+      <c r="L366" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>2</v>
+      </c>
+      <c r="D367" t="s">
+        <v>21</v>
+      </c>
+      <c r="E367" t="str">
+        <f t="shared" si="20"/>
+        <v>i_1_2</v>
+      </c>
+      <c r="F367">
+        <v>115</v>
+      </c>
+      <c r="G367">
+        <v>25</v>
+      </c>
+      <c r="H367" t="s">
+        <v>12</v>
+      </c>
+      <c r="I367">
+        <v>10</v>
+      </c>
+      <c r="J367" t="s">
+        <v>12</v>
+      </c>
+      <c r="K367" t="s">
+        <v>12</v>
+      </c>
+      <c r="L367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>2</v>
+      </c>
+      <c r="D368" t="s">
+        <v>22</v>
+      </c>
+      <c r="E368" t="str">
+        <f t="shared" si="20"/>
+        <v>j_1_2</v>
+      </c>
+      <c r="F368">
+        <v>150</v>
+      </c>
+      <c r="G368">
+        <v>25</v>
+      </c>
+      <c r="H368" t="s">
+        <v>12</v>
+      </c>
+      <c r="I368">
+        <v>50</v>
+      </c>
+      <c r="J368" t="s">
+        <v>12</v>
+      </c>
+      <c r="K368" t="s">
+        <v>12</v>
+      </c>
+      <c r="L368" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+      <c r="D369" t="s">
+        <v>24</v>
+      </c>
+      <c r="E369" t="str">
+        <f t="shared" si="20"/>
+        <v>l_1_2</v>
+      </c>
+      <c r="F369">
+        <v>120</v>
+      </c>
+      <c r="G369">
+        <v>25</v>
+      </c>
+      <c r="H369" t="s">
+        <v>12</v>
+      </c>
+      <c r="I369">
+        <v>20</v>
+      </c>
+      <c r="J369" t="s">
+        <v>12</v>
+      </c>
+      <c r="K369" t="s">
+        <v>12</v>
+      </c>
+      <c r="L369" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>2</v>
+      </c>
+      <c r="D370" t="s">
+        <v>23</v>
+      </c>
+      <c r="E370" t="str">
+        <f t="shared" si="20"/>
+        <v>k_1_2</v>
+      </c>
+      <c r="F370">
+        <v>135</v>
+      </c>
+      <c r="G370">
+        <v>25</v>
+      </c>
+      <c r="H370" t="s">
+        <v>12</v>
+      </c>
+      <c r="I370">
+        <v>35</v>
+      </c>
+      <c r="J370" t="s">
+        <v>12</v>
+      </c>
+      <c r="K370" t="s">
+        <v>12</v>
+      </c>
+      <c r="L370" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L339" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
+  <autoFilter ref="A1:L365" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>
+        <dateGroupItem year="2022" month="9" day="10" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6148A16-32E2-4AE1-9A8D-FAF039A4E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E4132F-871F-4946-B5BC-74B43D7C9C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10605" yWindow="-28950" windowWidth="18240" windowHeight="28320" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="12330" windowHeight="13220" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l_ce" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ltloggerdatacapturesummary_l_ce!$A$1:$L$365</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ltloggerdatacapturesummary_l_ce!$A$1:$L$370</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -123,21 +123,6 @@
   </si>
   <si>
     <t>distance_from_disturbance_ft</t>
-  </si>
-  <si>
-    <t>b_1_1</t>
-  </si>
-  <si>
-    <t>d_1_1</t>
-  </si>
-  <si>
-    <t>e_1_1</t>
-  </si>
-  <si>
-    <t>f_1_1</t>
-  </si>
-  <si>
-    <t>h_1_1</t>
   </si>
 </sst>
 </file>
@@ -999,22 +984,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B371" sqref="B371"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D356" sqref="D356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.3671875" customWidth="1"/>
-    <col min="9" max="9" width="24.1015625" customWidth="1"/>
-    <col min="10" max="11" width="15.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" customWidth="1"/>
+    <col min="10" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44835</v>
       </c>
@@ -1091,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44835</v>
       </c>
@@ -1130,7 +1114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44835</v>
       </c>
@@ -1169,7 +1153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44835</v>
       </c>
@@ -1208,7 +1192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44835</v>
       </c>
@@ -1247,7 +1231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44835</v>
       </c>
@@ -1286,7 +1270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44835</v>
       </c>
@@ -1325,7 +1309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44835</v>
       </c>
@@ -1364,7 +1348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44835</v>
       </c>
@@ -1403,7 +1387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1442,7 +1426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44835</v>
       </c>
@@ -1481,7 +1465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44835</v>
       </c>
@@ -1520,7 +1504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44835</v>
       </c>
@@ -1559,7 +1543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44835</v>
       </c>
@@ -1598,7 +1582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
@@ -1637,7 +1621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
@@ -1676,7 +1660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
@@ -1715,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44835</v>
       </c>
@@ -1754,7 +1738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44835</v>
       </c>
@@ -1793,7 +1777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44835</v>
       </c>
@@ -1832,7 +1816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44835</v>
       </c>
@@ -1871,7 +1855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44835</v>
       </c>
@@ -1910,7 +1894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44835</v>
       </c>
@@ -1949,7 +1933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44835</v>
       </c>
@@ -1988,7 +1972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44835</v>
       </c>
@@ -2027,7 +2011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44835</v>
       </c>
@@ -2066,7 +2050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44835</v>
       </c>
@@ -2105,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44835</v>
       </c>
@@ -2144,7 +2128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44835</v>
       </c>
@@ -2183,7 +2167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44835</v>
       </c>
@@ -2222,7 +2206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44835</v>
       </c>
@@ -2261,7 +2245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44835</v>
       </c>
@@ -2300,7 +2284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44835</v>
       </c>
@@ -2339,7 +2323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44835</v>
       </c>
@@ -2378,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44835</v>
       </c>
@@ -2417,7 +2401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44835</v>
       </c>
@@ -2456,7 +2440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44821</v>
       </c>
@@ -2495,7 +2479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44821</v>
       </c>
@@ -2534,7 +2518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44821</v>
       </c>
@@ -2573,7 +2557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44821</v>
       </c>
@@ -2612,7 +2596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
@@ -2651,7 +2635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44821</v>
       </c>
@@ -2690,7 +2674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44821</v>
       </c>
@@ -2729,7 +2713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44821</v>
       </c>
@@ -2768,7 +2752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44821</v>
       </c>
@@ -2807,7 +2791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44821</v>
       </c>
@@ -2846,7 +2830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44821</v>
       </c>
@@ -2885,7 +2869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44821</v>
       </c>
@@ -2924,7 +2908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44821</v>
       </c>
@@ -2963,7 +2947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44821</v>
       </c>
@@ -3002,7 +2986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44821</v>
       </c>
@@ -3041,7 +3025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44821</v>
       </c>
@@ -3080,7 +3064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44821</v>
       </c>
@@ -3119,7 +3103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44821</v>
       </c>
@@ -3158,7 +3142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44821</v>
       </c>
@@ -3197,7 +3181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44821</v>
       </c>
@@ -3236,7 +3220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44821</v>
       </c>
@@ -3275,7 +3259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44821</v>
       </c>
@@ -3314,7 +3298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44821</v>
       </c>
@@ -3353,7 +3337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44821</v>
       </c>
@@ -3392,7 +3376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44821</v>
       </c>
@@ -3431,7 +3415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44821</v>
       </c>
@@ -3470,7 +3454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44821</v>
       </c>
@@ -3509,7 +3493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44821</v>
       </c>
@@ -3548,7 +3532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
@@ -3587,7 +3571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44821</v>
       </c>
@@ -3626,7 +3610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44821</v>
       </c>
@@ -3665,7 +3649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44821</v>
       </c>
@@ -3704,7 +3688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44821</v>
       </c>
@@ -3743,7 +3727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44821</v>
       </c>
@@ -3782,7 +3766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44756</v>
       </c>
@@ -3821,7 +3805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44756</v>
       </c>
@@ -3860,7 +3844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
@@ -3899,7 +3883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44756</v>
       </c>
@@ -3938,7 +3922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44756</v>
       </c>
@@ -3977,7 +3961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44756</v>
       </c>
@@ -4016,7 +4000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44756</v>
       </c>
@@ -4055,7 +4039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44756</v>
       </c>
@@ -4094,7 +4078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44756</v>
       </c>
@@ -4133,7 +4117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44756</v>
       </c>
@@ -4172,7 +4156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44756</v>
       </c>
@@ -4211,7 +4195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44756</v>
       </c>
@@ -4250,7 +4234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44756</v>
       </c>
@@ -4289,7 +4273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44756</v>
       </c>
@@ -4328,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
@@ -4367,7 +4351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44756</v>
       </c>
@@ -4406,7 +4390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44756</v>
       </c>
@@ -4445,7 +4429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44756</v>
       </c>
@@ -4484,7 +4468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44756</v>
       </c>
@@ -4523,7 +4507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44756</v>
       </c>
@@ -4562,7 +4546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44756</v>
       </c>
@@ -4601,7 +4585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44756</v>
       </c>
@@ -4640,7 +4624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44756</v>
       </c>
@@ -4679,7 +4663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44756</v>
       </c>
@@ -4718,7 +4702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44756</v>
       </c>
@@ -4757,7 +4741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44756</v>
       </c>
@@ -4796,7 +4780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44756</v>
       </c>
@@ -4835,7 +4819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44756</v>
       </c>
@@ -4874,7 +4858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44756</v>
       </c>
@@ -4913,7 +4897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44756</v>
       </c>
@@ -4952,7 +4936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44756</v>
       </c>
@@ -4991,7 +4975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44756</v>
       </c>
@@ -5030,7 +5014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44756</v>
       </c>
@@ -5069,7 +5053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44756</v>
       </c>
@@ -5108,7 +5092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44756</v>
       </c>
@@ -5147,7 +5131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44756</v>
       </c>
@@ -5186,7 +5170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44756</v>
       </c>
@@ -5225,7 +5209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44756</v>
       </c>
@@ -5264,7 +5248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44756</v>
       </c>
@@ -5303,7 +5287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44756</v>
       </c>
@@ -5342,7 +5326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44756</v>
       </c>
@@ -5381,7 +5365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44756</v>
       </c>
@@ -5420,7 +5404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44814</v>
       </c>
@@ -5459,7 +5443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44814</v>
       </c>
@@ -5498,7 +5482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44814</v>
       </c>
@@ -5537,7 +5521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44814</v>
       </c>
@@ -5576,7 +5560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44814</v>
       </c>
@@ -5615,7 +5599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44814</v>
       </c>
@@ -5654,7 +5638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44814</v>
       </c>
@@ -5693,7 +5677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44814</v>
       </c>
@@ -5732,7 +5716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
@@ -5771,7 +5755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44814</v>
       </c>
@@ -5810,7 +5794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44814</v>
       </c>
@@ -5849,7 +5833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44814</v>
       </c>
@@ -5888,7 +5872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44814</v>
       </c>
@@ -5927,7 +5911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44814</v>
       </c>
@@ -5966,7 +5950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44814</v>
       </c>
@@ -6005,7 +5989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44814</v>
       </c>
@@ -6044,7 +6028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44814</v>
       </c>
@@ -6083,7 +6067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44814</v>
       </c>
@@ -6122,7 +6106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44760</v>
       </c>
@@ -6161,7 +6145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44760</v>
       </c>
@@ -6200,7 +6184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44760</v>
       </c>
@@ -6239,7 +6223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44760</v>
       </c>
@@ -6278,7 +6262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44760</v>
       </c>
@@ -6317,7 +6301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44760</v>
       </c>
@@ -6356,7 +6340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44760</v>
       </c>
@@ -6395,7 +6379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44760</v>
       </c>
@@ -6434,7 +6418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44760</v>
       </c>
@@ -6473,7 +6457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44760</v>
       </c>
@@ -6512,7 +6496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44760</v>
       </c>
@@ -6551,7 +6535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44760</v>
       </c>
@@ -6590,7 +6574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44760</v>
       </c>
@@ -6629,7 +6613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44760</v>
       </c>
@@ -6668,7 +6652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44760</v>
       </c>
@@ -6707,7 +6691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44760</v>
       </c>
@@ -6746,7 +6730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44760</v>
       </c>
@@ -6785,7 +6769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44760</v>
       </c>
@@ -6824,7 +6808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44760</v>
       </c>
@@ -6863,7 +6847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44760</v>
       </c>
@@ -6902,7 +6886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44760</v>
       </c>
@@ -6941,7 +6925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44760</v>
       </c>
@@ -6980,7 +6964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
@@ -7019,7 +7003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44760</v>
       </c>
@@ -7058,7 +7042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44760</v>
       </c>
@@ -7097,7 +7081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44760</v>
       </c>
@@ -7136,7 +7120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44760</v>
       </c>
@@ -7175,7 +7159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44760</v>
       </c>
@@ -7214,7 +7198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44760</v>
       </c>
@@ -7253,7 +7237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44760</v>
       </c>
@@ -7292,7 +7276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44760</v>
       </c>
@@ -7331,7 +7315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44760</v>
       </c>
@@ -7370,7 +7354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44760</v>
       </c>
@@ -7409,7 +7393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44760</v>
       </c>
@@ -7448,7 +7432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44760</v>
       </c>
@@ -7487,7 +7471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44760</v>
       </c>
@@ -7526,7 +7510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44760</v>
       </c>
@@ -7565,7 +7549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44760</v>
       </c>
@@ -7604,7 +7588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44760</v>
       </c>
@@ -7643,7 +7627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44760</v>
       </c>
@@ -7682,7 +7666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44760</v>
       </c>
@@ -7721,7 +7705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44760</v>
       </c>
@@ -7760,7 +7744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44829</v>
       </c>
@@ -7799,7 +7783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44829</v>
       </c>
@@ -7838,7 +7822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44829</v>
       </c>
@@ -7877,7 +7861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44829</v>
       </c>
@@ -7916,7 +7900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44800</v>
       </c>
@@ -7955,7 +7939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44800</v>
       </c>
@@ -7994,7 +7978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44800</v>
       </c>
@@ -8033,7 +8017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44800</v>
       </c>
@@ -8072,7 +8056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44800</v>
       </c>
@@ -8111,7 +8095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44800</v>
       </c>
@@ -8150,7 +8134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44800</v>
       </c>
@@ -8189,7 +8173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44800</v>
       </c>
@@ -8228,7 +8212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>44800</v>
       </c>
@@ -8267,7 +8251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>44800</v>
       </c>
@@ -8306,7 +8290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44800</v>
       </c>
@@ -8345,7 +8329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>44800</v>
       </c>
@@ -8384,7 +8368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>44800</v>
       </c>
@@ -8423,7 +8407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>44800</v>
       </c>
@@ -8462,7 +8446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>44800</v>
       </c>
@@ -8501,7 +8485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>44800</v>
       </c>
@@ -8540,7 +8524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>44800</v>
       </c>
@@ -8579,7 +8563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>44800</v>
       </c>
@@ -8618,7 +8602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>44800</v>
       </c>
@@ -8657,7 +8641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>44800</v>
       </c>
@@ -8696,7 +8680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>44800</v>
       </c>
@@ -8735,7 +8719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>44800</v>
       </c>
@@ -8774,7 +8758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>44800</v>
       </c>
@@ -8813,7 +8797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>44800</v>
       </c>
@@ -8852,7 +8836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>44800</v>
       </c>
@@ -8891,7 +8875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>44800</v>
       </c>
@@ -8930,7 +8914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>44800</v>
       </c>
@@ -8969,7 +8953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>44800</v>
       </c>
@@ -9008,7 +8992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>44800</v>
       </c>
@@ -9047,7 +9031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>44800</v>
       </c>
@@ -9086,7 +9070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>44800</v>
       </c>
@@ -9125,7 +9109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>44800</v>
       </c>
@@ -9164,7 +9148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>44800</v>
       </c>
@@ -9203,7 +9187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>44800</v>
       </c>
@@ -9242,7 +9226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>44800</v>
       </c>
@@ -9281,7 +9265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>44800</v>
       </c>
@@ -9320,7 +9304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>44800</v>
       </c>
@@ -9359,7 +9343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>44800</v>
       </c>
@@ -9398,7 +9382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>44800</v>
       </c>
@@ -9437,7 +9421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>44800</v>
       </c>
@@ -9476,7 +9460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>44800</v>
       </c>
@@ -9515,7 +9499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>44800</v>
       </c>
@@ -9554,7 +9538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>44839</v>
       </c>
@@ -9593,7 +9577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>44839</v>
       </c>
@@ -9632,7 +9616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>44839</v>
       </c>
@@ -9671,7 +9655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>44839</v>
       </c>
@@ -9710,7 +9694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>44839</v>
       </c>
@@ -9749,7 +9733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>44839</v>
       </c>
@@ -9788,7 +9772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>44839</v>
       </c>
@@ -9827,7 +9811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>44839</v>
       </c>
@@ -9866,7 +9850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>44839</v>
       </c>
@@ -9905,7 +9889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>44839</v>
       </c>
@@ -9944,7 +9928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>44839</v>
       </c>
@@ -9983,7 +9967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>44839</v>
       </c>
@@ -10022,7 +10006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>44839</v>
       </c>
@@ -10061,7 +10045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>44839</v>
       </c>
@@ -10100,7 +10084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>44839</v>
       </c>
@@ -10139,7 +10123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>44839</v>
       </c>
@@ -10178,7 +10162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>44839</v>
       </c>
@@ -10217,7 +10201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>44839</v>
       </c>
@@ -10256,7 +10240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>44839</v>
       </c>
@@ -10295,7 +10279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>44839</v>
       </c>
@@ -10334,7 +10318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>44849</v>
       </c>
@@ -10373,7 +10357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>44849</v>
       </c>
@@ -10412,7 +10396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>44849</v>
       </c>
@@ -10451,7 +10435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>44849</v>
       </c>
@@ -10490,7 +10474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>44849</v>
       </c>
@@ -10529,7 +10513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>44849</v>
       </c>
@@ -10568,7 +10552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>44849</v>
       </c>
@@ -10607,7 +10591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>44849</v>
       </c>
@@ -10646,7 +10630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>44849</v>
       </c>
@@ -10685,7 +10669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>44849</v>
       </c>
@@ -10724,7 +10708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>44849</v>
       </c>
@@ -10763,7 +10747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>44849</v>
       </c>
@@ -10802,7 +10786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>44849</v>
       </c>
@@ -10841,7 +10825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>44849</v>
       </c>
@@ -10880,7 +10864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>44849</v>
       </c>
@@ -10919,7 +10903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>44849</v>
       </c>
@@ -10958,7 +10942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>44849</v>
       </c>
@@ -10997,7 +10981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>44849</v>
       </c>
@@ -11036,7 +11020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>44849</v>
       </c>
@@ -11075,7 +11059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>44849</v>
       </c>
@@ -11114,7 +11098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>44849</v>
       </c>
@@ -11153,7 +11137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>44849</v>
       </c>
@@ -11192,7 +11176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>44849</v>
       </c>
@@ -11231,7 +11215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>44849</v>
       </c>
@@ -11270,7 +11254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>44849</v>
       </c>
@@ -11309,7 +11293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>44849</v>
       </c>
@@ -11348,7 +11332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>44849</v>
       </c>
@@ -11387,7 +11371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>44849</v>
       </c>
@@ -11426,7 +11410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>44849</v>
       </c>
@@ -11465,7 +11449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>44849</v>
       </c>
@@ -11504,7 +11488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>44849</v>
       </c>
@@ -11543,7 +11527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>44849</v>
       </c>
@@ -11582,7 +11566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>44849</v>
       </c>
@@ -11621,7 +11605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>44867</v>
       </c>
@@ -11660,7 +11644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>44867</v>
       </c>
@@ -11699,7 +11683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>44867</v>
       </c>
@@ -11738,7 +11722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>44867</v>
       </c>
@@ -11777,7 +11761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>44867</v>
       </c>
@@ -11816,7 +11800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>44867</v>
       </c>
@@ -11855,7 +11839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>44867</v>
       </c>
@@ -11894,7 +11878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>44867</v>
       </c>
@@ -11933,7 +11917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>44867</v>
       </c>
@@ -11972,7 +11956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>44867</v>
       </c>
@@ -12011,7 +11995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>44867</v>
       </c>
@@ -12050,7 +12034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>44867</v>
       </c>
@@ -12089,7 +12073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>44867</v>
       </c>
@@ -12128,7 +12112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>44867</v>
       </c>
@@ -12167,7 +12151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>44867</v>
       </c>
@@ -12206,7 +12190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>44867</v>
       </c>
@@ -12245,7 +12229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>44867</v>
       </c>
@@ -12284,7 +12268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>44874</v>
       </c>
@@ -12320,7 +12304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>44874</v>
       </c>
@@ -12359,7 +12343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>44874</v>
       </c>
@@ -12398,7 +12382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>44874</v>
       </c>
@@ -12434,7 +12418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>44874</v>
       </c>
@@ -12473,7 +12457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>44874</v>
       </c>
@@ -12512,7 +12496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>44874</v>
       </c>
@@ -12548,7 +12532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>44874</v>
       </c>
@@ -12587,7 +12571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>44874</v>
       </c>
@@ -12626,7 +12610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>44874</v>
       </c>
@@ -12662,7 +12646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>44874</v>
       </c>
@@ -12701,7 +12685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>44874</v>
       </c>
@@ -12740,7 +12724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>44874</v>
       </c>
@@ -12779,7 +12763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>44874</v>
       </c>
@@ -12818,7 +12802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>44874</v>
       </c>
@@ -12857,7 +12841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>44874</v>
       </c>
@@ -12896,7 +12880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>44874</v>
       </c>
@@ -12935,7 +12919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>44874</v>
       </c>
@@ -12974,7 +12958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>44874</v>
       </c>
@@ -13013,7 +12997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>44874</v>
       </c>
@@ -13052,7 +13036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>44874</v>
       </c>
@@ -13091,7 +13075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>44874</v>
       </c>
@@ -13130,7 +13114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>44874</v>
       </c>
@@ -13169,7 +13153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>44874</v>
       </c>
@@ -13208,7 +13192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>44874</v>
       </c>
@@ -13247,7 +13231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>44874</v>
       </c>
@@ -13286,7 +13270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>44874</v>
       </c>
@@ -13325,7 +13309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>44874</v>
       </c>
@@ -13364,7 +13348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>44874</v>
       </c>
@@ -13403,7 +13387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>44874</v>
       </c>
@@ -13442,7 +13426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>44874</v>
       </c>
@@ -13481,7 +13465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>44874</v>
       </c>
@@ -13520,7 +13504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>44874</v>
       </c>
@@ -13559,7 +13543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>44874</v>
       </c>
@@ -13598,7 +13582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>44874</v>
       </c>
@@ -13637,7 +13621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>44874</v>
       </c>
@@ -13676,7 +13660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>44715</v>
       </c>
@@ -13715,7 +13699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>44715</v>
       </c>
@@ -13754,7 +13738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>44715</v>
       </c>
@@ -13793,7 +13777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>44715</v>
       </c>
@@ -13832,7 +13816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>44715</v>
       </c>
@@ -13871,7 +13855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>44715</v>
       </c>
@@ -13910,7 +13894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>44715</v>
       </c>
@@ -13949,7 +13933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>44715</v>
       </c>
@@ -13988,7 +13972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>44715</v>
       </c>
@@ -14027,7 +14011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>44715</v>
       </c>
@@ -14066,7 +14050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>44715</v>
       </c>
@@ -14105,7 +14089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>44715</v>
       </c>
@@ -14144,7 +14128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>44715</v>
       </c>
@@ -14183,7 +14167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>44715</v>
       </c>
@@ -14222,7 +14206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>44867</v>
       </c>
@@ -14261,7 +14245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>44867</v>
       </c>
@@ -14275,7 +14259,7 @@
         <v>27</v>
       </c>
       <c r="E341" t="str">
-        <f t="shared" ref="E341:E356" si="17">D341&amp;"_" &amp; B341 &amp; "_" &amp; C341</f>
+        <f t="shared" ref="E341:E344" si="17">D341&amp;"_" &amp; B341 &amp; "_" &amp; C341</f>
         <v>x_2_1</v>
       </c>
       <c r="F341">
@@ -14300,7 +14284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>44867</v>
       </c>
@@ -14339,7 +14323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>44867</v>
       </c>
@@ -14378,7 +14362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>44867</v>
       </c>
@@ -14417,7 +14401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>44867</v>
       </c>
@@ -14456,7 +14440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>44867</v>
       </c>
@@ -14495,7 +14479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>44867</v>
       </c>
@@ -14509,7 +14493,7 @@
         <v>19</v>
       </c>
       <c r="E347" t="str">
-        <f t="shared" ref="E347:E356" si="18">D347&amp;"_" &amp; B347 &amp; "_" &amp; C347</f>
+        <f t="shared" ref="E347:E349" si="18">D347&amp;"_" &amp; B347 &amp; "_" &amp; C347</f>
         <v>f_2_2</v>
       </c>
       <c r="F347">
@@ -14534,7 +14518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>44867</v>
       </c>
@@ -14573,7 +14557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>44867</v>
       </c>
@@ -14612,7 +14596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>44867</v>
       </c>
@@ -14651,7 +14635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>44867</v>
       </c>
@@ -14690,7 +14674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>44867</v>
       </c>
@@ -14729,7 +14713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>44867</v>
       </c>
@@ -14768,7 +14752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>44867</v>
       </c>
@@ -14807,7 +14791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>44867</v>
       </c>
@@ -14846,7 +14830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>44867</v>
       </c>
@@ -14885,555 +14869,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A357" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B357">
-        <v>3</v>
-      </c>
-      <c r="C357">
-        <v>1</v>
-      </c>
-      <c r="D357" t="s">
-        <v>14</v>
-      </c>
-      <c r="E357" t="s">
-        <v>29</v>
-      </c>
-      <c r="F357" t="s">
-        <v>12</v>
-      </c>
-      <c r="G357">
-        <v>25</v>
-      </c>
-      <c r="H357">
-        <v>165</v>
-      </c>
-      <c r="I357">
-        <v>20</v>
-      </c>
-      <c r="J357">
-        <v>0</v>
-      </c>
-      <c r="K357">
-        <v>25</v>
-      </c>
-      <c r="L357" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A358" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B358">
-        <v>3</v>
-      </c>
-      <c r="C358">
-        <v>1</v>
-      </c>
-      <c r="D358" t="s">
-        <v>17</v>
-      </c>
-      <c r="E358" t="s">
-        <v>30</v>
-      </c>
-      <c r="F358" t="s">
-        <v>12</v>
-      </c>
-      <c r="G358" t="s">
-        <v>12</v>
-      </c>
-      <c r="H358">
-        <v>165</v>
-      </c>
-      <c r="I358">
-        <v>50</v>
-      </c>
-      <c r="J358">
-        <v>0</v>
-      </c>
-      <c r="K358">
-        <v>25</v>
-      </c>
-      <c r="L358" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A359" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B359">
-        <v>3</v>
-      </c>
-      <c r="C359">
-        <v>1</v>
-      </c>
-      <c r="D359" t="s">
-        <v>18</v>
-      </c>
-      <c r="E359" t="s">
-        <v>31</v>
-      </c>
-      <c r="F359" t="s">
-        <v>12</v>
-      </c>
-      <c r="G359" t="s">
-        <v>12</v>
-      </c>
-      <c r="H359">
-        <v>165</v>
-      </c>
-      <c r="I359">
-        <v>75</v>
-      </c>
-      <c r="J359">
-        <v>0</v>
-      </c>
-      <c r="K359">
-        <v>25</v>
-      </c>
-      <c r="L359" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A360" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B360">
-        <v>3</v>
-      </c>
-      <c r="C360">
-        <v>1</v>
-      </c>
-      <c r="D360" t="s">
-        <v>19</v>
-      </c>
-      <c r="E360" t="s">
-        <v>32</v>
-      </c>
-      <c r="F360" t="s">
-        <v>12</v>
-      </c>
-      <c r="G360" t="s">
-        <v>12</v>
-      </c>
-      <c r="H360">
-        <v>165</v>
-      </c>
-      <c r="I360">
-        <v>100</v>
-      </c>
-      <c r="J360">
-        <v>0</v>
-      </c>
-      <c r="K360">
-        <v>25</v>
-      </c>
-      <c r="L360" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A361" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B361">
-        <v>3</v>
-      </c>
-      <c r="C361">
-        <v>1</v>
-      </c>
-      <c r="D361" t="s">
-        <v>20</v>
-      </c>
-      <c r="E361" t="s">
-        <v>33</v>
-      </c>
-      <c r="F361" t="s">
-        <v>12</v>
-      </c>
-      <c r="G361" t="s">
-        <v>12</v>
-      </c>
-      <c r="H361">
-        <v>165</v>
-      </c>
-      <c r="I361">
-        <v>150</v>
-      </c>
-      <c r="J361">
-        <v>0</v>
-      </c>
-      <c r="K361">
-        <v>25</v>
-      </c>
-      <c r="L361" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A362" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B362">
-        <v>3</v>
-      </c>
-      <c r="C362">
-        <v>2</v>
-      </c>
-      <c r="D362" t="s">
-        <v>22</v>
-      </c>
-      <c r="E362" t="str">
-        <f t="shared" ref="E362:E370" si="20">D362&amp;"_" &amp; B362 &amp; "_" &amp; C362</f>
-        <v>j_3_2</v>
-      </c>
-      <c r="F362" t="s">
-        <v>12</v>
-      </c>
-      <c r="G362" t="s">
-        <v>12</v>
-      </c>
-      <c r="H362">
-        <v>195</v>
-      </c>
-      <c r="I362">
-        <v>50</v>
-      </c>
-      <c r="J362">
-        <v>0</v>
-      </c>
-      <c r="K362">
-        <v>25</v>
-      </c>
-      <c r="L362" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A363" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B363">
-        <v>3</v>
-      </c>
-      <c r="C363">
-        <v>2</v>
-      </c>
-      <c r="D363" t="s">
-        <v>23</v>
-      </c>
-      <c r="E363" t="str">
-        <f t="shared" si="20"/>
-        <v>k_3_2</v>
-      </c>
-      <c r="F363" t="s">
-        <v>12</v>
-      </c>
-      <c r="G363" t="s">
-        <v>12</v>
-      </c>
-      <c r="H363">
-        <v>195</v>
-      </c>
-      <c r="I363">
-        <v>75</v>
-      </c>
-      <c r="J363">
-        <v>0</v>
-      </c>
-      <c r="K363">
-        <v>25</v>
-      </c>
-      <c r="L363" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A364" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B364">
-        <v>3</v>
-      </c>
-      <c r="C364">
-        <v>2</v>
-      </c>
-      <c r="D364" t="s">
-        <v>24</v>
-      </c>
-      <c r="E364" t="str">
-        <f t="shared" si="20"/>
-        <v>l_3_2</v>
-      </c>
-      <c r="F364" t="s">
-        <v>12</v>
-      </c>
-      <c r="G364" t="s">
-        <v>12</v>
-      </c>
-      <c r="H364">
-        <v>195</v>
-      </c>
-      <c r="I364">
-        <v>100</v>
-      </c>
-      <c r="J364">
-        <v>0</v>
-      </c>
-      <c r="K364">
-        <v>25</v>
-      </c>
-      <c r="L364" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A365" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B365">
-        <v>3</v>
-      </c>
-      <c r="C365">
-        <v>2</v>
-      </c>
-      <c r="D365" t="s">
-        <v>25</v>
-      </c>
-      <c r="E365" t="str">
-        <f t="shared" si="20"/>
-        <v>g_3_2</v>
-      </c>
-      <c r="F365" t="s">
-        <v>12</v>
-      </c>
-      <c r="G365" t="s">
-        <v>12</v>
-      </c>
-      <c r="H365">
-        <v>195</v>
-      </c>
-      <c r="I365">
-        <v>150</v>
-      </c>
-      <c r="J365">
-        <v>0</v>
-      </c>
-      <c r="K365">
-        <v>25</v>
-      </c>
-      <c r="L365" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A366" s="1">
-        <v>44814</v>
-      </c>
-      <c r="B366">
-        <v>1</v>
-      </c>
-      <c r="C366">
-        <v>2</v>
-      </c>
-      <c r="D366" t="s">
-        <v>18</v>
-      </c>
-      <c r="E366" t="str">
-        <f t="shared" si="20"/>
-        <v>e_1_2</v>
-      </c>
-      <c r="F366">
-        <v>105</v>
-      </c>
-      <c r="G366">
-        <v>25</v>
-      </c>
-      <c r="H366" t="s">
-        <v>12</v>
-      </c>
-      <c r="I366">
-        <v>5</v>
-      </c>
-      <c r="J366" t="s">
-        <v>12</v>
-      </c>
-      <c r="K366" t="s">
-        <v>12</v>
-      </c>
-      <c r="L366" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A367" s="1">
-        <v>44814</v>
-      </c>
-      <c r="B367">
-        <v>1</v>
-      </c>
-      <c r="C367">
-        <v>2</v>
-      </c>
-      <c r="D367" t="s">
-        <v>21</v>
-      </c>
-      <c r="E367" t="str">
-        <f t="shared" si="20"/>
-        <v>i_1_2</v>
-      </c>
-      <c r="F367">
-        <v>115</v>
-      </c>
-      <c r="G367">
-        <v>25</v>
-      </c>
-      <c r="H367" t="s">
-        <v>12</v>
-      </c>
-      <c r="I367">
-        <v>10</v>
-      </c>
-      <c r="J367" t="s">
-        <v>12</v>
-      </c>
-      <c r="K367" t="s">
-        <v>12</v>
-      </c>
-      <c r="L367" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A368" s="1">
-        <v>44814</v>
-      </c>
-      <c r="B368">
-        <v>1</v>
-      </c>
-      <c r="C368">
-        <v>2</v>
-      </c>
-      <c r="D368" t="s">
-        <v>22</v>
-      </c>
-      <c r="E368" t="str">
-        <f t="shared" si="20"/>
-        <v>j_1_2</v>
-      </c>
-      <c r="F368">
-        <v>150</v>
-      </c>
-      <c r="G368">
-        <v>25</v>
-      </c>
-      <c r="H368" t="s">
-        <v>12</v>
-      </c>
-      <c r="I368">
-        <v>50</v>
-      </c>
-      <c r="J368" t="s">
-        <v>12</v>
-      </c>
-      <c r="K368" t="s">
-        <v>12</v>
-      </c>
-      <c r="L368" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A369" s="1">
-        <v>44814</v>
-      </c>
-      <c r="B369">
-        <v>1</v>
-      </c>
-      <c r="C369">
-        <v>2</v>
-      </c>
-      <c r="D369" t="s">
-        <v>24</v>
-      </c>
-      <c r="E369" t="str">
-        <f t="shared" si="20"/>
-        <v>l_1_2</v>
-      </c>
-      <c r="F369">
-        <v>120</v>
-      </c>
-      <c r="G369">
-        <v>25</v>
-      </c>
-      <c r="H369" t="s">
-        <v>12</v>
-      </c>
-      <c r="I369">
-        <v>20</v>
-      </c>
-      <c r="J369" t="s">
-        <v>12</v>
-      </c>
-      <c r="K369" t="s">
-        <v>12</v>
-      </c>
-      <c r="L369" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A370" s="1">
-        <v>44814</v>
-      </c>
-      <c r="B370">
-        <v>1</v>
-      </c>
-      <c r="C370">
-        <v>2</v>
-      </c>
-      <c r="D370" t="s">
-        <v>23</v>
-      </c>
-      <c r="E370" t="str">
-        <f t="shared" si="20"/>
-        <v>k_1_2</v>
-      </c>
-      <c r="F370">
-        <v>135</v>
-      </c>
-      <c r="G370">
-        <v>25</v>
-      </c>
-      <c r="H370" t="s">
-        <v>12</v>
-      </c>
-      <c r="I370">
-        <v>35</v>
-      </c>
-      <c r="J370" t="s">
-        <v>12</v>
-      </c>
-      <c r="K370" t="s">
-        <v>12</v>
-      </c>
-      <c r="L370" t="s">
-        <v>15</v>
-      </c>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A357" s="1"/>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A359" s="1"/>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A360" s="1"/>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A361" s="1"/>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A362" s="1"/>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A363" s="1"/>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A364" s="1"/>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A365" s="1"/>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A367" s="1"/>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" s="1"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L365" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2022" month="9" day="10" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L370" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748D004F-352B-4F33-AF54-4159209EFE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E362427-85E4-4A2E-9B62-10FF6DC83591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="-28920" windowWidth="16440" windowHeight="28320" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="43365" yWindow="-28920" windowWidth="16440" windowHeight="28320" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l_ce" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,161 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Christopher Bird</author>
+  </authors>
+  <commentList>
+    <comment ref="I160" authorId="0" shapeId="0" xr:uid="{D7733A1E-C6B2-43E9-91E8-7F4497F2CEAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K160" authorId="0" shapeId="0" xr:uid="{9863D9F3-C51E-4A90-8DDF-757E6C50228D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I162" authorId="0" shapeId="0" xr:uid="{B234BCD9-BB0E-466D-93BB-45D8E5FC014E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K162" authorId="0" shapeId="0" xr:uid="{C2CBDB7C-9B9E-4BDA-A1FE-5D6488DFC10D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I163" authorId="0" shapeId="0" xr:uid="{0E1E320A-78A8-4700-AD2E-18C6DE379A2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+50
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K163" authorId="0" shapeId="0" xr:uid="{772AA54B-06B9-4E7D-A7D3-9821635A2445}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Christopher Bird:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+25</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -129,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +418,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -983,12 +1151,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A160" sqref="A160:XFD173"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D347" sqref="D347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1036,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44835</v>
       </c>
@@ -1075,7 +1244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44835</v>
       </c>
@@ -1114,7 +1283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44835</v>
       </c>
@@ -1153,7 +1322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44835</v>
       </c>
@@ -1192,7 +1361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44835</v>
       </c>
@@ -1231,7 +1400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44835</v>
       </c>
@@ -1270,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44835</v>
       </c>
@@ -1309,7 +1478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44835</v>
       </c>
@@ -1348,7 +1517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44835</v>
       </c>
@@ -1387,7 +1556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1426,7 +1595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44835</v>
       </c>
@@ -1465,7 +1634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44835</v>
       </c>
@@ -1504,7 +1673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44835</v>
       </c>
@@ -1543,7 +1712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44835</v>
       </c>
@@ -1582,7 +1751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
@@ -1621,7 +1790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
@@ -1660,7 +1829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
@@ -1699,7 +1868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44835</v>
       </c>
@@ -1738,7 +1907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44835</v>
       </c>
@@ -1777,7 +1946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44835</v>
       </c>
@@ -1816,7 +1985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44835</v>
       </c>
@@ -1855,7 +2024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44835</v>
       </c>
@@ -1894,7 +2063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44835</v>
       </c>
@@ -1933,7 +2102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44835</v>
       </c>
@@ -1972,7 +2141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44835</v>
       </c>
@@ -2011,7 +2180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>44835</v>
       </c>
@@ -2050,7 +2219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>44835</v>
       </c>
@@ -2089,7 +2258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>44835</v>
       </c>
@@ -2128,7 +2297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>44835</v>
       </c>
@@ -2167,7 +2336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>44835</v>
       </c>
@@ -2206,7 +2375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>44835</v>
       </c>
@@ -2245,7 +2414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>44835</v>
       </c>
@@ -2284,7 +2453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>44835</v>
       </c>
@@ -2323,7 +2492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>44835</v>
       </c>
@@ -2362,7 +2531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>44835</v>
       </c>
@@ -2401,7 +2570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>44835</v>
       </c>
@@ -2440,7 +2609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44821</v>
       </c>
@@ -2479,7 +2648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>44821</v>
       </c>
@@ -2518,7 +2687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>44821</v>
       </c>
@@ -2557,7 +2726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>44821</v>
       </c>
@@ -2596,7 +2765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
@@ -2635,7 +2804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>44821</v>
       </c>
@@ -2674,7 +2843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44821</v>
       </c>
@@ -2713,7 +2882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44821</v>
       </c>
@@ -2752,7 +2921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44821</v>
       </c>
@@ -2791,7 +2960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44821</v>
       </c>
@@ -2830,7 +2999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>44821</v>
       </c>
@@ -2869,7 +3038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>44821</v>
       </c>
@@ -2908,7 +3077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>44821</v>
       </c>
@@ -2947,7 +3116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>44821</v>
       </c>
@@ -2986,7 +3155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>44821</v>
       </c>
@@ -3025,7 +3194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>44821</v>
       </c>
@@ -3064,7 +3233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>44821</v>
       </c>
@@ -3103,7 +3272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>44821</v>
       </c>
@@ -3142,7 +3311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>44821</v>
       </c>
@@ -3181,7 +3350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>44821</v>
       </c>
@@ -3220,7 +3389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>44821</v>
       </c>
@@ -3259,7 +3428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>44821</v>
       </c>
@@ -3298,7 +3467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>44821</v>
       </c>
@@ -3337,7 +3506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>44821</v>
       </c>
@@ -3376,7 +3545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>44821</v>
       </c>
@@ -3415,7 +3584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>44821</v>
       </c>
@@ -3454,7 +3623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>44821</v>
       </c>
@@ -3493,7 +3662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>44821</v>
       </c>
@@ -3532,7 +3701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
@@ -3571,7 +3740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>44821</v>
       </c>
@@ -3610,7 +3779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>44821</v>
       </c>
@@ -3649,7 +3818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>44821</v>
       </c>
@@ -3688,7 +3857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>44821</v>
       </c>
@@ -3727,7 +3896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>44821</v>
       </c>
@@ -3766,7 +3935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>44756</v>
       </c>
@@ -3805,7 +3974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>44756</v>
       </c>
@@ -3844,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
@@ -3883,7 +4052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>44756</v>
       </c>
@@ -3922,7 +4091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>44756</v>
       </c>
@@ -3961,7 +4130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>44756</v>
       </c>
@@ -4000,7 +4169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>44756</v>
       </c>
@@ -4039,7 +4208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>44756</v>
       </c>
@@ -4078,7 +4247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>44756</v>
       </c>
@@ -4117,7 +4286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>44756</v>
       </c>
@@ -4156,7 +4325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>44756</v>
       </c>
@@ -4195,7 +4364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>44756</v>
       </c>
@@ -4234,7 +4403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>44756</v>
       </c>
@@ -4273,7 +4442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>44756</v>
       </c>
@@ -4312,7 +4481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
@@ -4351,7 +4520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>44756</v>
       </c>
@@ -4390,7 +4559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>44756</v>
       </c>
@@ -4429,7 +4598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>44756</v>
       </c>
@@ -4468,7 +4637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>44756</v>
       </c>
@@ -4507,7 +4676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>44756</v>
       </c>
@@ -4546,7 +4715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>44756</v>
       </c>
@@ -4585,7 +4754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>44756</v>
       </c>
@@ -4624,7 +4793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>44756</v>
       </c>
@@ -4663,7 +4832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>44756</v>
       </c>
@@ -4702,7 +4871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>44756</v>
       </c>
@@ -4741,7 +4910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>44756</v>
       </c>
@@ -4780,7 +4949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>44756</v>
       </c>
@@ -4819,7 +4988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>44756</v>
       </c>
@@ -4858,7 +5027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>44756</v>
       </c>
@@ -4897,7 +5066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>44756</v>
       </c>
@@ -4936,7 +5105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>44756</v>
       </c>
@@ -4975,7 +5144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>44756</v>
       </c>
@@ -5014,7 +5183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>44756</v>
       </c>
@@ -5053,7 +5222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>44756</v>
       </c>
@@ -5092,7 +5261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>44756</v>
       </c>
@@ -5131,7 +5300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>44756</v>
       </c>
@@ -5170,7 +5339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>44756</v>
       </c>
@@ -5209,7 +5378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>44756</v>
       </c>
@@ -5248,7 +5417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>44756</v>
       </c>
@@ -5287,7 +5456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>44756</v>
       </c>
@@ -5326,7 +5495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>44756</v>
       </c>
@@ -5365,7 +5534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>44756</v>
       </c>
@@ -5404,7 +5573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>44814</v>
       </c>
@@ -5443,7 +5612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>44814</v>
       </c>
@@ -5482,7 +5651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>44814</v>
       </c>
@@ -5521,7 +5690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>44814</v>
       </c>
@@ -5560,7 +5729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>44814</v>
       </c>
@@ -5599,7 +5768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>44814</v>
       </c>
@@ -5638,7 +5807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>44814</v>
       </c>
@@ -5677,7 +5846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>44814</v>
       </c>
@@ -5716,7 +5885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
@@ -5755,7 +5924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>44814</v>
       </c>
@@ -5794,7 +5963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>44814</v>
       </c>
@@ -5833,7 +6002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>44814</v>
       </c>
@@ -5872,7 +6041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>44814</v>
       </c>
@@ -5911,7 +6080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>44814</v>
       </c>
@@ -5950,7 +6119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>44814</v>
       </c>
@@ -5989,7 +6158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>44814</v>
       </c>
@@ -6028,7 +6197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>44814</v>
       </c>
@@ -6067,7 +6236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>44814</v>
       </c>
@@ -6106,7 +6275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>44760</v>
       </c>
@@ -6145,7 +6314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>44760</v>
       </c>
@@ -6184,7 +6353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>44760</v>
       </c>
@@ -6223,7 +6392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>44760</v>
       </c>
@@ -6262,7 +6431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>44760</v>
       </c>
@@ -6301,7 +6470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>44760</v>
       </c>
@@ -6340,7 +6509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>44760</v>
       </c>
@@ -6379,7 +6548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>44760</v>
       </c>
@@ -6418,7 +6587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>44760</v>
       </c>
@@ -6457,7 +6626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>44760</v>
       </c>
@@ -6496,7 +6665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>44760</v>
       </c>
@@ -6535,7 +6704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>44760</v>
       </c>
@@ -6574,7 +6743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>44760</v>
       </c>
@@ -6613,7 +6782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>44760</v>
       </c>
@@ -6652,7 +6821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>44760</v>
       </c>
@@ -6691,7 +6860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>44760</v>
       </c>
@@ -6730,7 +6899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>44760</v>
       </c>
@@ -6769,7 +6938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>44760</v>
       </c>
@@ -6808,7 +6977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>44760</v>
       </c>
@@ -6847,7 +7016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>44760</v>
       </c>
@@ -6886,7 +7055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>44760</v>
       </c>
@@ -6925,7 +7094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>44760</v>
       </c>
@@ -6964,7 +7133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
@@ -7003,7 +7172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>44760</v>
       </c>
@@ -7042,7 +7211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>44760</v>
       </c>
@@ -7081,7 +7250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>44760</v>
       </c>
@@ -7120,7 +7289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>44760</v>
       </c>
@@ -7159,7 +7328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>44760</v>
       </c>
@@ -7225,13 +7394,13 @@
         <v>330</v>
       </c>
       <c r="I160">
-        <v>20</v>
+        <v>29.4</v>
       </c>
       <c r="J160">
         <v>100</v>
       </c>
       <c r="K160">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L160" t="s">
         <v>13</v>
@@ -7303,13 +7472,13 @@
         <v>150</v>
       </c>
       <c r="I162">
-        <v>20</v>
+        <v>11.9</v>
       </c>
       <c r="J162">
         <v>100</v>
       </c>
       <c r="K162">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L162" t="s">
         <v>15</v>
@@ -7342,19 +7511,19 @@
         <v>150</v>
       </c>
       <c r="I163">
-        <v>50</v>
+        <v>41.38</v>
       </c>
       <c r="J163">
         <v>100</v>
       </c>
       <c r="K163">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L163" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>44800</v>
       </c>
@@ -7393,7 +7562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>44800</v>
       </c>
@@ -7432,7 +7601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>44800</v>
       </c>
@@ -7471,7 +7640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>44800</v>
       </c>
@@ -7510,7 +7679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>44800</v>
       </c>
@@ -7549,7 +7718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>44800</v>
       </c>
@@ -7588,7 +7757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>44800</v>
       </c>
@@ -7627,7 +7796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>44800</v>
       </c>
@@ -7666,7 +7835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>44800</v>
       </c>
@@ -7705,7 +7874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>44800</v>
       </c>
@@ -7744,7 +7913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>44800</v>
       </c>
@@ -7783,7 +7952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>44800</v>
       </c>
@@ -7822,7 +7991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>44800</v>
       </c>
@@ -7861,7 +8030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>44800</v>
       </c>
@@ -7900,7 +8069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>44800</v>
       </c>
@@ -7939,7 +8108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>44800</v>
       </c>
@@ -7978,7 +8147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>44800</v>
       </c>
@@ -8017,7 +8186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>44800</v>
       </c>
@@ -8056,7 +8225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>44800</v>
       </c>
@@ -8095,7 +8264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>44800</v>
       </c>
@@ -8134,7 +8303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>44800</v>
       </c>
@@ -8173,7 +8342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>44800</v>
       </c>
@@ -8212,7 +8381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>44800</v>
       </c>
@@ -8251,7 +8420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>44800</v>
       </c>
@@ -8290,7 +8459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>44800</v>
       </c>
@@ -8329,7 +8498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>44800</v>
       </c>
@@ -8368,7 +8537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>44800</v>
       </c>
@@ -8407,7 +8576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>44800</v>
       </c>
@@ -8446,7 +8615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>44800</v>
       </c>
@@ -8485,7 +8654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>44800</v>
       </c>
@@ -8524,7 +8693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>44800</v>
       </c>
@@ -8563,7 +8732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>44800</v>
       </c>
@@ -8602,7 +8771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>44800</v>
       </c>
@@ -8641,7 +8810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>44800</v>
       </c>
@@ -8680,7 +8849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>44800</v>
       </c>
@@ -8719,7 +8888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>44800</v>
       </c>
@@ -8758,7 +8927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>44800</v>
       </c>
@@ -8797,7 +8966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>44800</v>
       </c>
@@ -8836,7 +9005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>44800</v>
       </c>
@@ -8875,7 +9044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>44800</v>
       </c>
@@ -8914,7 +9083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>44800</v>
       </c>
@@ -8953,7 +9122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>44800</v>
       </c>
@@ -8992,7 +9161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>44839</v>
       </c>
@@ -9031,7 +9200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>44839</v>
       </c>
@@ -9070,7 +9239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>44839</v>
       </c>
@@ -9109,7 +9278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>44839</v>
       </c>
@@ -9148,7 +9317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>44839</v>
       </c>
@@ -9187,7 +9356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>44839</v>
       </c>
@@ -9226,7 +9395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>44839</v>
       </c>
@@ -9265,7 +9434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>44839</v>
       </c>
@@ -9304,7 +9473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>44839</v>
       </c>
@@ -9343,7 +9512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>44839</v>
       </c>
@@ -9382,7 +9551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>44839</v>
       </c>
@@ -9421,7 +9590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>44839</v>
       </c>
@@ -9460,7 +9629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>44839</v>
       </c>
@@ -9499,7 +9668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>44839</v>
       </c>
@@ -9538,7 +9707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>44839</v>
       </c>
@@ -9577,7 +9746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>44839</v>
       </c>
@@ -9616,7 +9785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>44839</v>
       </c>
@@ -9655,7 +9824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>44839</v>
       </c>
@@ -9694,7 +9863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>44839</v>
       </c>
@@ -9733,7 +9902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>44839</v>
       </c>
@@ -9772,7 +9941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>44849</v>
       </c>
@@ -9811,7 +9980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>44849</v>
       </c>
@@ -9850,7 +10019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>44849</v>
       </c>
@@ -9889,7 +10058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>44849</v>
       </c>
@@ -9928,7 +10097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>44849</v>
       </c>
@@ -9967,7 +10136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>44849</v>
       </c>
@@ -10006,7 +10175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>44849</v>
       </c>
@@ -10045,7 +10214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>44849</v>
       </c>
@@ -10084,7 +10253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>44849</v>
       </c>
@@ -10123,7 +10292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>44849</v>
       </c>
@@ -10162,7 +10331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>44849</v>
       </c>
@@ -10201,7 +10370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>44849</v>
       </c>
@@ -10240,7 +10409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>44849</v>
       </c>
@@ -10279,7 +10448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>44849</v>
       </c>
@@ -10318,7 +10487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>44849</v>
       </c>
@@ -10357,7 +10526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>44849</v>
       </c>
@@ -10396,7 +10565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>44849</v>
       </c>
@@ -10435,7 +10604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>44849</v>
       </c>
@@ -10474,7 +10643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>44849</v>
       </c>
@@ -10513,7 +10682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>44849</v>
       </c>
@@ -10552,7 +10721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>44849</v>
       </c>
@@ -10591,7 +10760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>44849</v>
       </c>
@@ -10630,7 +10799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>44849</v>
       </c>
@@ -10669,7 +10838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>44849</v>
       </c>
@@ -10708,7 +10877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>44849</v>
       </c>
@@ -10747,7 +10916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>44849</v>
       </c>
@@ -10786,7 +10955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>44849</v>
       </c>
@@ -10825,7 +10994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>44849</v>
       </c>
@@ -10864,7 +11033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>44849</v>
       </c>
@@ -10903,7 +11072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>44849</v>
       </c>
@@ -10942,7 +11111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>44849</v>
       </c>
@@ -10981,7 +11150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>44849</v>
       </c>
@@ -11020,7 +11189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>44849</v>
       </c>
@@ -11059,7 +11228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>44867</v>
       </c>
@@ -11098,7 +11267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>44867</v>
       </c>
@@ -11137,7 +11306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>44867</v>
       </c>
@@ -11176,7 +11345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>44867</v>
       </c>
@@ -11215,7 +11384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>44867</v>
       </c>
@@ -11254,7 +11423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>44867</v>
       </c>
@@ -11293,7 +11462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>44867</v>
       </c>
@@ -11332,7 +11501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>44867</v>
       </c>
@@ -11371,7 +11540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>44867</v>
       </c>
@@ -11410,7 +11579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>44867</v>
       </c>
@@ -11449,7 +11618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>44867</v>
       </c>
@@ -11488,7 +11657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>44867</v>
       </c>
@@ -11527,7 +11696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>44867</v>
       </c>
@@ -11566,7 +11735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>44867</v>
       </c>
@@ -11605,7 +11774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>44867</v>
       </c>
@@ -11644,7 +11813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>44867</v>
       </c>
@@ -11683,7 +11852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>44867</v>
       </c>
@@ -11722,7 +11891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>44874</v>
       </c>
@@ -11758,7 +11927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>44874</v>
       </c>
@@ -11797,7 +11966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>44874</v>
       </c>
@@ -11836,7 +12005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>44874</v>
       </c>
@@ -11872,7 +12041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>44874</v>
       </c>
@@ -11911,7 +12080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>44874</v>
       </c>
@@ -11950,7 +12119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>44874</v>
       </c>
@@ -11986,7 +12155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>44874</v>
       </c>
@@ -12025,7 +12194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>44874</v>
       </c>
@@ -12064,7 +12233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>44874</v>
       </c>
@@ -12100,7 +12269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>44874</v>
       </c>
@@ -12139,7 +12308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>44874</v>
       </c>
@@ -12178,7 +12347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>44874</v>
       </c>
@@ -12217,7 +12386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>44874</v>
       </c>
@@ -12256,7 +12425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>44874</v>
       </c>
@@ -12295,7 +12464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>44874</v>
       </c>
@@ -12334,7 +12503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>44874</v>
       </c>
@@ -12373,7 +12542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>44874</v>
       </c>
@@ -12412,7 +12581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>44874</v>
       </c>
@@ -12451,7 +12620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>44874</v>
       </c>
@@ -12490,7 +12659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>44874</v>
       </c>
@@ -12529,7 +12698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>44874</v>
       </c>
@@ -12568,7 +12737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>44874</v>
       </c>
@@ -12607,7 +12776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>44874</v>
       </c>
@@ -12646,7 +12815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>44874</v>
       </c>
@@ -12685,7 +12854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>44874</v>
       </c>
@@ -12724,7 +12893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>44874</v>
       </c>
@@ -12763,7 +12932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>44874</v>
       </c>
@@ -12802,7 +12971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>44874</v>
       </c>
@@ -12841,7 +13010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>44874</v>
       </c>
@@ -12880,7 +13049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>44874</v>
       </c>
@@ -12919,7 +13088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>44874</v>
       </c>
@@ -12958,7 +13127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>44874</v>
       </c>
@@ -12997,7 +13166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>44874</v>
       </c>
@@ -13036,7 +13205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>44874</v>
       </c>
@@ -13075,7 +13244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>44874</v>
       </c>
@@ -13114,7 +13283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>44715</v>
       </c>
@@ -13153,7 +13322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>44715</v>
       </c>
@@ -13192,7 +13361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>44715</v>
       </c>
@@ -13231,7 +13400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>44715</v>
       </c>
@@ -13270,7 +13439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>44715</v>
       </c>
@@ -13309,7 +13478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>44715</v>
       </c>
@@ -13348,7 +13517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>44715</v>
       </c>
@@ -13387,7 +13556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>44715</v>
       </c>
@@ -13426,7 +13595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>44715</v>
       </c>
@@ -13465,7 +13634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>44715</v>
       </c>
@@ -13504,7 +13673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>44715</v>
       </c>
@@ -13543,7 +13712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>44715</v>
       </c>
@@ -13582,7 +13751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>44715</v>
       </c>
@@ -13621,7 +13790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>44715</v>
       </c>
@@ -13660,7 +13829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>44867</v>
       </c>
@@ -13699,7 +13868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>44867</v>
       </c>
@@ -13738,7 +13907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>44867</v>
       </c>
@@ -13777,7 +13946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>44867</v>
       </c>
@@ -13816,7 +13985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>44867</v>
       </c>
@@ -13855,7 +14024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>44867</v>
       </c>
@@ -13894,7 +14063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>44867</v>
       </c>
@@ -13933,7 +14102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>44867</v>
       </c>
@@ -13972,7 +14141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>44867</v>
       </c>
@@ -14011,7 +14180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>44867</v>
       </c>
@@ -14050,7 +14219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>44867</v>
       </c>
@@ -14089,7 +14258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>44867</v>
       </c>
@@ -14128,7 +14297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>44867</v>
       </c>
@@ -14167,7 +14336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>44867</v>
       </c>
@@ -14206,7 +14375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>44867</v>
       </c>
@@ -14245,7 +14414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>44867</v>
       </c>
@@ -14284,7 +14453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>44867</v>
       </c>
@@ -14366,7 +14535,14 @@
       <c r="A356" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L356" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}"/>
+  <autoFilter ref="A1:L356" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <dateGroupItem year="2022" month="9" day="25" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/ltloggerdatacapturesummary_l_ceb.xlsx
+++ b/data/ltloggerdatacapturesummary_l_ceb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E362427-85E4-4A2E-9B62-10FF6DC83591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB93BA-EE06-4619-A021-AF0016AB5FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43365" yWindow="-28920" windowWidth="16440" windowHeight="28320" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="42600" yWindow="-29220" windowWidth="18240" windowHeight="28320" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l_ce" sheetId="1" r:id="rId1"/>
@@ -1152,11 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D347" sqref="D347"/>
     </sheetView>
   </sheetViews>
@@ -1205,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44835</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44835</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44835</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44835</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44835</v>
       </c>
@@ -1400,7 +1399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44835</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44835</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44835</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44835</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44835</v>
       </c>
@@ -1634,7 +1633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44835</v>
       </c>
@@ -1673,7 +1672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44835</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44835</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44835</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44835</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44835</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44835</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44835</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44835</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44835</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44835</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44835</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44835</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44835</v>
       </c>
@@ -2180,7 +2179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>44835</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>44835</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>44835</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>44835</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>44835</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>44835</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>44835</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>44835</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>44835</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>44835</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>44835</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44821</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>44821</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>44821</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>44821</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>44821</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>44821</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44821</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44821</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44821</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44821</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>44821</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>44821</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>44821</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>44821</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>44821</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>44821</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>44821</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>44821</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>44821</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>44821</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>44821</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>44821</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>44821</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>44821</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>44821</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>44821</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>44821</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>44821</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>44821</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>44821</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>44821</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>44821</v>
       </c>
@@ -3857,7 +3856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>44821</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>44821</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>44756</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>44756</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>44756</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>44756</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>44756</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>44756</v>
       </c>
@@ -4169,7 +4168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>44756</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>44756</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>44756</v>
       </c>
@@ -4286,7 +4285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>44756</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>44756</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>44756</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>44756</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>44756</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>44756</v>
       </c>
@@ -4520,7 +4519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>44756</v>
       </c>
@@ -4559,7 +4558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>44756</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>44756</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>44756</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>44756</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>44756</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>44756</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>44756</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>44756</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>44756</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>44756</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>44756</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>44756</v>
       </c>
@@ -5027,7 +5026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>44756</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>44756</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>44756</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>44756</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>44756</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>44756</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>44756</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>44756</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>44756</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>44756</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>44756</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>44756</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>44756</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>44756</v>
       </c>
@@ -5573,7 +5572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>44814</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>44814</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>44814</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>44814</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>44814</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>44814</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>44814</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>44814</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>44814</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>44814</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>44814</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>44814</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>44814</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>44814</v>
       </c>
@@ -6119,7 +6118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>44814</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>44814</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>44814</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>44814</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>44760</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>44760</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>44760</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>44760</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>44760</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>44760</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>44760</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>44760</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>44760</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>44760</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>44760</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>44760</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>44760</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>44760</v>
       </c>
@@ -6821,7 +6820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>44760</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>44760</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>44760</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>44760</v>
       </c>
@@ -6977,7 +6976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>44760</v>
       </c>
@@ -7016,7 +7015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>44760</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>44760</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>44760</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>44760</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>44760</v>
       </c>
@@ -7211,7 +7210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>44760</v>
       </c>
@@ -7250,7 +7249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>44760</v>
       </c>
@@ -7289,7 +7288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>44760</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>44760</v>
       </c>
@@ -7523,7 +7522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>44800</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>44800</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>44800</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>44800</v>
       </c>
@@ -7679,7 +7678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>44800</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>44800</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>44800</v>
       </c>
@@ -7796,7 +7795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>44800</v>
       </c>
@@ -7835,7 +7834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>44800</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>44800</v>
       </c>
@@ -7913,7 +7912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>44800</v>
       </c>
@@ -7952,7 +7951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>44800</v>
       </c>
@@ -7991,7 +7990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>44800</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>44800</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>44800</v>
       </c>
@@ -8108,7 +8107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>44800</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>44800</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>44800</v>
       </c>
@@ -8225,7 +8224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>44800</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>44800</v>
       </c>
@@ -8303,7 +8302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>44800</v>
       </c>
@@ -8342,7 +8341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>44800</v>
       </c>
@@ -8381,7 +8380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>44800</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>44800</v>
       </c>
@@ -8459,7 +8458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>44800</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>44800</v>
       </c>
@@ -8537,7 +8536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>44800</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>44800</v>
       </c>
@@ -8615,7 +8614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>44800</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>44800</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>44800</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>44800</v>
       </c>
@@ -8771,7 +8770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>44800</v>
       </c>
@@ -8810,7 +8809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>44800</v>
       </c>
@@ -8849,7 +8848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>44800</v>
       </c>
@@ -8888,7 +8887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>44800</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>44800</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>44800</v>
       </c>
@@ -9005,7 +9004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>44800</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>44800</v>
       </c>
@@ -9083,7 +9082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>44800</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>44800</v>
       </c>
@@ -9161,7 +9160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>44839</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>44839</v>
       </c>
@@ -9239,7 +9238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>44839</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>44839</v>
       </c>
@@ -9317,7 +9316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>44839</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>44839</v>
       </c>
@@ -9395,7 +9394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>44839</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>44839</v>
       </c>
@@ -9473,7 +9472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>44839</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>44839</v>
       </c>
@@ -9551,7 +9550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>44839</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>44839</v>
       </c>
@@ -9629,7 +9628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>44839</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>44839</v>
       </c>
@@ -9707,7 +9706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>44839</v>
       </c>
@@ -9746,7 +9745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>44839</v>
       </c>
@@ -9785,7 +9784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>44839</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>44839</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>44839</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>44839</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>44849</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>44849</v>
       </c>
@@ -10019,7 +10018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>44849</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>44849</v>
       </c>
@@ -10097,7 +10096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>44849</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>44849</v>
       </c>
@@ -10175,7 +10174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>44849</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>44849</v>
       </c>
@@ -10253,7 +10252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>44849</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>44849</v>
       </c>
@@ -10331,7 +10330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>44849</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>44849</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>44849</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>44849</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>44849</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>44849</v>
       </c>
@@ -10565,7 +10564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>44849</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>44849</v>
       </c>
@@ -10643,7 +10642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>44849</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>44849</v>
       </c>
@@ -10721,7 +10720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>44849</v>
       </c>
@@ -10760,7 +10759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>44849</v>
       </c>
@@ -10799,7 +10798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>44849</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>44849</v>
       </c>
@@ -10877,7 +10876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>44849</v>
       </c>
@@ -10916,7 +10915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>44849</v>
       </c>
@@ -10955,7 +10954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>44849</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>44849</v>
       </c>
@@ -11033,7 +11032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>44849</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>44849</v>
       </c>
@@ -11111,7 +11110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>44849</v>
       </c>
@@ -11150,7 +11149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>44849</v>
       </c>
@@ -11189,7 +11188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>44849</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>44867</v>
       </c>
@@ -11267,7 +11266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>44867</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>44867</v>
       </c>
@@ -11345,7 +11344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>44867</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>44867</v>
       </c>
@@ -11423,7 +11422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>44867</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>44867</v>
       </c>
@@ -11501,7 +11500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>44867</v>
       </c>
@@ -11540,7 +11539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>44867</v>
       </c>
@@ -11579,7 +11578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>44867</v>
       </c>
@@ -11618,7 +11617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>44867</v>
       </c>
@@ -11657,7 +11656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>44867</v>
       </c>
@@ -11696,7 +11695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>44867</v>
       </c>
@@ -11735,7 +11734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>44867</v>
       </c>
@@ -11774,7 +11773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>44867</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>44867</v>
       </c>
@@ -11852,7 +11851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>44867</v>
       </c>
@@ -11891,7 +11890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>44874</v>
       </c>
@@ -11927,7 +11926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>44874</v>
       </c>
@@ -11966,7 +11965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>44874</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>44874</v>
       </c>
@@ -12041,7 +12040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>44874</v>
       </c>
@@ -12080,7 +12079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>44874</v>
       </c>
@@ -12119,7 +12118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>44874</v>
       </c>
@@ -12155,7 +12154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>44874</v>
       </c>
@@ -12194,7 +12193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>44874</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>44874</v>
       </c>
@@ -12269,7 +12268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>44874</v>
       </c>
@@ -12308,7 +12307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>44874</v>
       </c>
@@ -12347,7 +12346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>44874</v>
       </c>
@@ -12386,7 +12385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>44874</v>
       </c>
@@ -12425,7 +12424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>44874</v>
       </c>
@@ -12464,7 +12463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>44874</v>
       </c>
@@ -12503,7 +12502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>44874</v>
       </c>
@@ -12542,7 +12541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>44874</v>
       </c>
@@ -12581,7 +12580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>44874</v>
       </c>
@@ -12620,7 +12619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>44874</v>
       </c>
@@ -12659,7 +12658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>44874</v>
       </c>
@@ -12698,7 +12697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>44874</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>44874</v>
       </c>
@@ -12776,7 +12775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>44874</v>
       </c>
@@ -12815,7 +12814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>44874</v>
       </c>
@@ -12854,7 +12853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>44874</v>
       </c>
@@ -12893,7 +12892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>44874</v>
       </c>
@@ -12932,7 +12931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>44874</v>
       </c>
@@ -12971,7 +12970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>44874</v>
       </c>
@@ -13010,7 +13009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>44874</v>
       </c>
@@ -13049,7 +13048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>44874</v>
       </c>
@@ -13088,7 +13087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>44874</v>
       </c>
@@ -13127,7 +13126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>44874</v>
       </c>
@@ -13166,7 +13165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>44874</v>
       </c>
@@ -13205,7 +13204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>44874</v>
       </c>
@@ -13244,7 +13243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>44874</v>
       </c>
@@ -13283,7 +13282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>44715</v>
       </c>
@@ -13322,7 +13321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>44715</v>
       </c>
@@ -13361,7 +13360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>44715</v>
       </c>
@@ -13400,7 +13399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>44715</v>
       </c>
@@ -13439,7 +13438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>44715</v>
       </c>
@@ -13478,7 +13477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>44715</v>
       </c>
@@ -13517,7 +13516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>44715</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>44715</v>
       </c>
@@ -13595,7 +13594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>44715</v>
       </c>
@@ -13634,7 +13633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>44715</v>
       </c>
@@ -13673,7 +13672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>44715</v>
       </c>
@@ -13712,7 +13711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>44715</v>
       </c>
@@ -13751,7 +13750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>44715</v>
       </c>
@@ -13790,7 +13789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>44715</v>
       </c>
@@ -13829,7 +13828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>44867</v>
       </c>
@@ -13868,7 +13867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>44867</v>
       </c>
@@ -13907,7 +13906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>44867</v>
       </c>
@@ -13946,7 +13945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>44867</v>
       </c>
@@ -13985,7 +13984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>44867</v>
       </c>
@@ -14024,7 +14023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>44867</v>
       </c>
@@ -14063,7 +14062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>44867</v>
       </c>
@@ -14102,7 +14101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>44867</v>
       </c>
@@ -14141,7 +14140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>44867</v>
       </c>
@@ -14180,7 +14179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>44867</v>
       </c>
@@ -14219,7 +14218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>44867</v>
       </c>
@@ -14258,7 +14257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>44867</v>
       </c>
@@ -14297,7 +14296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>44867</v>
       </c>
@@ -14336,7 +14335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>44867</v>
       </c>
@@ -14375,7 +14374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>44867</v>
       </c>
@@ -14414,7 +14413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>44867</v>
       </c>
@@ -14453,7 +14452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>44867</v>
       </c>
@@ -14535,13 +14534,7 @@
       <c r="A356" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L356" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <dateGroupItem year="2022" month="9" day="25" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L356" xr:uid="{F7F91126-1776-4BB9-867D-0D0CE7E8656A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
